--- a/$FL.xlsx
+++ b/$FL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F703DE4-88B6-4C35-914B-5ADF2532C894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2209274-113D-46A4-843B-666C52E41833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>$FL</t>
   </si>
@@ -419,6 +419,15 @@
   </si>
   <si>
     <t>Revenue per Store</t>
+  </si>
+  <si>
+    <t>Store Count Q/Q</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
   </si>
 </sst>
 </file>
@@ -428,9 +437,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,8 +517,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -648,9 +687,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,27 +701,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,12 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -718,21 +727,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -745,6 +745,79 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,6 +838,72 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202497</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Foot Locker logo.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16EC784-55F0-4265-98AA-96AA3CB8631F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1841680" y="57151"/>
+          <a:ext cx="799217" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -775,8 +914,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -792,7 +931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13363575" y="19050"/>
-          <a:ext cx="0" cy="16030575"/>
+          <a:ext cx="0" cy="20250150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -825,8 +964,8 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -842,7 +981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21297900" y="0"/>
-          <a:ext cx="0" cy="16030575"/>
+          <a:ext cx="0" cy="20964525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1168,7 +1307,7 @@
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,24 +1326,24 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="G5" s="22" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="G5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1213,8 +1352,8 @@
       <c r="C6" s="4">
         <v>39.19</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1230,11 +1369,14 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="24">
         <v>93.320426999999995</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="17" t="str">
+        <f>$C$30</f>
+        <v>Q322</v>
+      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1250,12 +1392,12 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="19">
         <f>C6*C7</f>
         <v>3657.2275341299996</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1271,12 +1413,15 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="27">
-        <f>'Financial Model'!U68</f>
+      <c r="C9" s="19">
+        <f>'Financial Model'!U69</f>
         <v>351</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="17" t="str">
+        <f t="shared" ref="D9:D11" si="0">$C$30</f>
+        <v>Q322</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1292,12 +1437,15 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="27">
-        <f>'Financial Model'!U69</f>
+      <c r="C10" s="19">
+        <f>'Financial Model'!U70</f>
         <v>454</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1313,12 +1461,15 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="19">
         <f>C9-C10</f>
         <v>-103</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1334,12 +1485,12 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="20">
         <f>C8-C11</f>
         <v>3760.2275341299996</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1352,7 +1503,7 @@
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1365,7 +1516,7 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G14" s="16"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1378,12 +1529,12 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="G15" s="16"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1399,11 +1550,11 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="48"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1416,17 +1567,17 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="48"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1439,17 +1590,17 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="G18" s="16"/>
+      <c r="D18" s="48"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1465,11 +1616,11 @@
       <c r="B19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="50"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1481,8 +1632,8 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G20" s="16"/>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="G20" s="15"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1490,12 +1641,12 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="O20"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G21" s="16"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1508,12 +1659,12 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="G22" s="16"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1526,14 +1677,14 @@
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="G23" s="16"/>
+      <c r="D23" s="48"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1546,14 +1697,14 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="47">
         <v>1879</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="G24" s="16"/>
+      <c r="D24" s="48"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1566,15 +1717,15 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="58">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="G25" s="16"/>
+      <c r="D25" s="48"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1587,10 +1738,10 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -1603,12 +1754,15 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="G27" s="16"/>
+      <c r="C27" s="58">
+        <f>'Financial Model'!U33</f>
+        <v>2794</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1621,15 +1775,15 @@
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="51">
-        <f>'Financial Model'!U41</f>
+      <c r="C28" s="58">
+        <f>'Financial Model'!U42</f>
         <v>1685</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="G28" s="16"/>
+      <c r="D28" s="48"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -1642,10 +1796,10 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="G29" s="16"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -1658,12 +1812,17 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="G30" s="16"/>
+      <c r="C30" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="46">
+        <f>'Financial Model'!U3</f>
+        <v>43405</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -1676,14 +1835,14 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="G31" s="17"/>
+      <c r="D31" s="55"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1696,61 +1855,73 @@
       <c r="Q31" s="9"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="48">
-        <f>C6/'Financial Model'!U66</f>
+      <c r="C35" s="56">
+        <f>C6/'Financial Model'!U67</f>
         <v>1.1231500460263886</v>
       </c>
-      <c r="D35" s="49"/>
+      <c r="D35" s="57"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="56">
+        <f>C8/SUM('Financial Model'!R6:U6)</f>
+        <v>0.41777787687114459</v>
+      </c>
+      <c r="D36" s="57"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="56">
+        <f>C12/SUM('Financial Model'!R6:U6)</f>
+        <v>0.42954392667694763</v>
+      </c>
+      <c r="D37" s="57"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="C38" s="56">
+        <f>C6/SUM('Financial Model'!R18:U18)</f>
+        <v>8.9160063090667094</v>
+      </c>
+      <c r="D38" s="57"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="56">
+        <f>C12/SUM('Financial Model'!R17:U17)</f>
+        <v>8.8684611654009426</v>
+      </c>
+      <c r="D39" s="57"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1784,2303 +1955,3398 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9C1236-EF31-448C-82ED-0941EE456E01}">
-  <dimension ref="A1:AT85"/>
+  <dimension ref="A1:AT86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="U75" sqref="R75:U75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="66"/>
+    <col min="23" max="34" width="9.140625" style="1"/>
+    <col min="35" max="35" width="9.140625" style="66"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="1:46" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AL1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AM1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AP1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AR1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AS1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AT1" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="Q2" s="37">
+    <row r="2" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="O2" s="27">
+        <v>44317</v>
+      </c>
+      <c r="P2" s="27">
+        <v>44408</v>
+      </c>
+      <c r="Q2" s="27">
         <v>44499</v>
       </c>
-      <c r="U2" s="37">
+      <c r="R2" s="27">
+        <v>44590</v>
+      </c>
+      <c r="S2" s="27">
+        <v>44681</v>
+      </c>
+      <c r="T2" s="27">
+        <v>44772</v>
+      </c>
+      <c r="U2" s="27">
         <v>44863</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-    </row>
-    <row r="4" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="52" t="s">
+      <c r="V2" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG2" s="27">
+        <v>44226</v>
+      </c>
+      <c r="AH2" s="27">
+        <v>44590</v>
+      </c>
+      <c r="AI2" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="R3" s="45">
+        <v>45689</v>
+      </c>
+      <c r="S3" s="45">
+        <v>43952</v>
+      </c>
+      <c r="T3" s="45">
+        <v>43678</v>
+      </c>
+      <c r="U3" s="45">
+        <v>43405</v>
+      </c>
+      <c r="V3" s="65"/>
+      <c r="AH3" s="45">
+        <v>45689</v>
+      </c>
+      <c r="AI3" s="65"/>
+    </row>
+    <row r="4" spans="1:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37">
+        <v>1620</v>
+      </c>
+      <c r="P4" s="37">
+        <v>1817</v>
+      </c>
+      <c r="Q4" s="37">
         <v>1756</v>
       </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47">
+      <c r="R4" s="37">
+        <f>AH4-SUM(O4:Q4)</f>
+        <v>1836</v>
+      </c>
+      <c r="S4" s="37">
+        <v>1776</v>
+      </c>
+      <c r="T4" s="37">
+        <v>1716</v>
+      </c>
+      <c r="U4" s="37">
         <v>1818</v>
       </c>
-      <c r="AH4" s="47"/>
-    </row>
-    <row r="5" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="s">
+      <c r="V4" s="66"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37">
+        <v>5447</v>
+      </c>
+      <c r="AH4" s="37">
+        <v>7029</v>
+      </c>
+      <c r="AI4" s="66"/>
+    </row>
+    <row r="5" spans="1:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37">
+        <v>533</v>
+      </c>
+      <c r="P5" s="37">
+        <v>458</v>
+      </c>
+      <c r="Q5" s="37">
         <v>433</v>
       </c>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47">
+      <c r="R5" s="37">
+        <f>AH5-SUM(O5:Q5)</f>
+        <v>505</v>
+      </c>
+      <c r="S5" s="37">
+        <v>399</v>
+      </c>
+      <c r="T5" s="37">
+        <v>349</v>
+      </c>
+      <c r="U5" s="37">
         <v>355</v>
       </c>
-      <c r="AH5" s="47"/>
+      <c r="V5" s="66"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37">
+        <v>2101</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>1929</v>
+      </c>
+      <c r="AI5" s="66"/>
     </row>
     <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34">
+        <f>O4+O5</f>
+        <v>2153</v>
+      </c>
+      <c r="P6" s="34">
+        <f>P4+P5</f>
+        <v>2275</v>
+      </c>
+      <c r="Q6" s="34">
         <f>Q4+Q5</f>
         <v>2189</v>
       </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44">
+      <c r="R6" s="34">
+        <f>R4+R5</f>
+        <v>2341</v>
+      </c>
+      <c r="S6" s="34">
+        <f>S4+S5</f>
+        <v>2175</v>
+      </c>
+      <c r="T6" s="34">
+        <f>T4+T5</f>
+        <v>2065</v>
+      </c>
+      <c r="U6" s="34">
         <f>U4+U5</f>
         <v>2173</v>
       </c>
-      <c r="AH6" s="44">
-        <f>SUM(O6:R6)</f>
-        <v>2189</v>
+      <c r="V6" s="74">
+        <f>U6*(1+V24)</f>
+        <v>2281.65</v>
+      </c>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34">
+        <f>AG4+AG5</f>
+        <v>7548</v>
+      </c>
+      <c r="AH6" s="34">
+        <f>AH4+AH5</f>
+        <v>8958</v>
+      </c>
+      <c r="AI6" s="74">
+        <f>SUM(S6:V6)</f>
+        <v>8694.65</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35">
+        <v>1404</v>
+      </c>
+      <c r="P7" s="35">
+        <v>1477</v>
+      </c>
+      <c r="Q7" s="35">
         <v>1429</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45">
+      <c r="R7" s="35">
+        <f>AH7-SUM(O7:Q7)</f>
+        <v>1568</v>
+      </c>
+      <c r="S7" s="35">
+        <v>1435</v>
+      </c>
+      <c r="T7" s="35">
+        <v>1411</v>
+      </c>
+      <c r="U7" s="35">
         <v>1477</v>
       </c>
-      <c r="AH7" s="45">
-        <f>SUM(O7:R7)</f>
-        <v>1429</v>
+      <c r="V7" s="69">
+        <f>V6*(1-V26)</f>
+        <v>1551.5219999999999</v>
+      </c>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35">
+        <v>5365</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>5878</v>
+      </c>
+      <c r="AI7" s="69">
+        <f>SUM(S7:V7)</f>
+        <v>5874.5219999999999</v>
       </c>
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="34">
         <f t="shared" ref="C8:T8" si="0">C6-C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="44">
+        <v>749</v>
+      </c>
+      <c r="P8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="44">
+        <v>798</v>
+      </c>
+      <c r="Q8" s="34">
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="44">
+        <v>773</v>
+      </c>
+      <c r="S8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="44">
+        <v>740</v>
+      </c>
+      <c r="T8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="44">
+        <v>654</v>
+      </c>
+      <c r="U8" s="34">
         <f>U6-U7</f>
         <v>696</v>
       </c>
-      <c r="AE8" s="44">
+      <c r="V8" s="74">
+        <f>V6-V7</f>
+        <v>730.12800000000016</v>
+      </c>
+      <c r="AE8" s="34">
         <f t="shared" ref="AE8:AG8" si="1">AE6-AE7</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="44">
+      <c r="AF8" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="44">
+      <c r="AG8" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="44">
+        <v>2183</v>
+      </c>
+      <c r="AH8" s="34">
         <f>AH6-AH7</f>
-        <v>760</v>
+        <v>3080</v>
+      </c>
+      <c r="AI8" s="74">
+        <f>AI6-AI7</f>
+        <v>2820.1279999999997</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35">
+        <v>418</v>
+      </c>
+      <c r="P9" s="35">
+        <v>450</v>
+      </c>
+      <c r="Q9" s="35">
         <v>458</v>
       </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45">
+      <c r="R9" s="35">
+        <f t="shared" ref="R9:R11" si="2">AH9-SUM(O9:Q9)</f>
+        <v>525</v>
+      </c>
+      <c r="S9" s="35">
+        <v>463</v>
+      </c>
+      <c r="T9" s="35">
+        <v>452</v>
+      </c>
+      <c r="U9" s="35">
         <v>467</v>
       </c>
-      <c r="AH9" s="45">
-        <f t="shared" ref="AH9:AH11" si="2">SUM(O9:R9)</f>
-        <v>458</v>
+      <c r="V9" s="69">
+        <f>V6*0.21</f>
+        <v>479.1465</v>
+      </c>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35">
+        <v>1587</v>
+      </c>
+      <c r="AH9" s="35">
+        <v>1851</v>
+      </c>
+      <c r="AI9" s="69">
+        <f t="shared" ref="AI9:AI11" si="3">SUM(S9:V9)</f>
+        <v>1861.1465000000001</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35">
+        <v>45</v>
+      </c>
+      <c r="P10" s="35">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="35">
         <v>49</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45">
+      <c r="R10" s="35">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="S10" s="35">
+        <v>54</v>
+      </c>
+      <c r="T10" s="35">
+        <v>51</v>
+      </c>
+      <c r="U10" s="35">
         <v>52</v>
       </c>
-      <c r="AH10" s="45">
-        <f t="shared" si="2"/>
-        <v>49</v>
+      <c r="V10" s="69">
+        <f>AVERAGE(R10:U10)</f>
+        <v>53</v>
+      </c>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35">
+        <v>176</v>
+      </c>
+      <c r="AH10" s="35">
+        <v>197</v>
+      </c>
+      <c r="AI10" s="69">
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35">
+        <v>4</v>
+      </c>
+      <c r="P11" s="35">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="35">
         <v>57</v>
       </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45">
+      <c r="R11" s="35">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="S11" s="35">
+        <v>6</v>
+      </c>
+      <c r="T11" s="35">
+        <v>12</v>
+      </c>
+      <c r="U11" s="35">
         <v>20</v>
       </c>
-      <c r="AH11" s="45">
-        <f t="shared" si="2"/>
-        <v>57</v>
+      <c r="V11" s="69">
+        <f>AVERAGE(R11:U11)</f>
+        <v>28.25</v>
+      </c>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35">
+        <v>117</v>
+      </c>
+      <c r="AH11" s="35">
+        <v>172</v>
+      </c>
+      <c r="AI11" s="69">
+        <f t="shared" si="3"/>
+        <v>66.25</v>
       </c>
     </row>
     <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="44">
-        <f t="shared" ref="C12:T12" si="3">C8-C9-C10-C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="44">
-        <f t="shared" si="3"/>
+      <c r="C12" s="34">
+        <f t="shared" ref="C12:T12" si="4">C8-C9-C10-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="P12" s="34">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="Q12" s="34">
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="R12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="44">
+      <c r="R12" s="34">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="S12" s="34">
+        <f t="shared" si="4"/>
+        <v>217</v>
+      </c>
+      <c r="T12" s="34">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="U12" s="34">
         <f>U8-U9-U10-U11</f>
         <v>157</v>
       </c>
-      <c r="AE12" s="44">
-        <f t="shared" ref="AE12:AH12" si="4">AE8-AE9-AE10-AE11</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="44">
-        <f t="shared" si="4"/>
-        <v>196</v>
+      <c r="V12" s="74">
+        <f>V8-V9-V10-V11</f>
+        <v>169.73150000000015</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" ref="AE12:AI12" si="5">AE8-AE9-AE10-AE11</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="34">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="AH12" s="34">
+        <f t="shared" si="5"/>
+        <v>860</v>
+      </c>
+      <c r="AI12" s="74">
+        <f t="shared" si="5"/>
+        <v>682.73149999999964</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35">
+        <v>-2</v>
+      </c>
+      <c r="P13" s="35">
+        <v>-2</v>
+      </c>
+      <c r="Q13" s="35">
         <v>-4</v>
       </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45">
+      <c r="R13" s="35">
+        <f t="shared" ref="R13:R14" si="6">AH13-SUM(O13:Q13)</f>
+        <v>-6</v>
+      </c>
+      <c r="S13" s="35">
+        <v>-5</v>
+      </c>
+      <c r="T13" s="35">
+        <v>-5</v>
+      </c>
+      <c r="U13" s="35">
         <v>-3</v>
       </c>
-      <c r="AH13" s="45">
-        <f>SUM(O13:R13)</f>
-        <v>-4</v>
+      <c r="V13" s="69">
+        <f>AVERAGE(R13:U13)</f>
+        <v>-4.75</v>
+      </c>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35">
+        <v>-7</v>
+      </c>
+      <c r="AH13" s="35">
+        <v>-14</v>
+      </c>
+      <c r="AI13" s="69">
+        <f t="shared" ref="AI13:AI14" si="7">SUM(S13:V13)</f>
+        <v>-17.75</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35">
+        <v>4</v>
+      </c>
+      <c r="P14" s="35">
+        <v>325</v>
+      </c>
+      <c r="Q14" s="35">
         <v>30</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45">
+      <c r="R14" s="35">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="S14" s="35">
+        <v>-22</v>
+      </c>
+      <c r="T14" s="35">
+        <v>9</v>
+      </c>
+      <c r="U14" s="35">
         <v>-11</v>
       </c>
-      <c r="AH14" s="45">
-        <f>SUM(O14:R14)</f>
-        <v>30</v>
+      <c r="V14" s="69">
+        <f>AVERAGE(R14:U14)</f>
+        <v>2.75</v>
+      </c>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35">
+        <v>198</v>
+      </c>
+      <c r="AH14" s="35">
+        <v>394</v>
+      </c>
+      <c r="AI14" s="69">
+        <f t="shared" si="7"/>
+        <v>-21.25</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="45">
-        <f t="shared" ref="C15:T15" si="5">C12+C13+C14</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="45">
-        <f t="shared" si="5"/>
+      <c r="C15" s="35">
+        <f t="shared" ref="C15:T15" si="8">C12+C13+C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="35">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="P15" s="35">
+        <f t="shared" si="8"/>
+        <v>587</v>
+      </c>
+      <c r="Q15" s="35">
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
-      <c r="R15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="45">
+      <c r="R15" s="35">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="S15" s="35">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="T15" s="35">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="U15" s="35">
         <f>U12+U13+U14</f>
         <v>143</v>
       </c>
-      <c r="AE15" s="45">
-        <f t="shared" ref="AE15:AH15" si="6">AE12+AE13+AE14</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="45">
-        <f t="shared" si="6"/>
-        <v>222</v>
+      <c r="V15" s="69">
+        <f>V12+V13+V14</f>
+        <v>167.73150000000015</v>
+      </c>
+      <c r="AE15" s="35">
+        <f t="shared" ref="AE15:AI15" si="9">AE12+AE13+AE14</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="35">
+        <f t="shared" si="9"/>
+        <v>494</v>
+      </c>
+      <c r="AH15" s="35">
+        <f t="shared" si="9"/>
+        <v>1240</v>
+      </c>
+      <c r="AI15" s="69">
+        <f t="shared" si="9"/>
+        <v>643.73149999999964</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35">
+        <v>82</v>
+      </c>
+      <c r="P16" s="35">
+        <v>157</v>
+      </c>
+      <c r="Q16" s="35">
         <v>64</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45">
+      <c r="R16" s="35">
+        <f>AH16-SUM(O16:Q16)</f>
+        <v>45</v>
+      </c>
+      <c r="S16" s="35">
+        <v>58</v>
+      </c>
+      <c r="T16" s="35">
+        <v>49</v>
+      </c>
+      <c r="U16" s="35">
         <v>47</v>
       </c>
-      <c r="AH16" s="45">
-        <f>SUM(O16:R16)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="69">
+        <f>V15*V29</f>
+        <v>55.351395000000053</v>
+      </c>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35">
+        <v>171</v>
+      </c>
+      <c r="AH16" s="35">
+        <v>348</v>
+      </c>
+      <c r="AI16" s="69">
+        <f>SUM(S16:V16)</f>
+        <v>209.35139500000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="44">
-        <f t="shared" ref="C17:T17" si="7">C15-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="44">
-        <f t="shared" si="7"/>
+      <c r="C17" s="34">
+        <f t="shared" ref="C17:T17" si="10">C15-C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="34">
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="10"/>
+        <v>430</v>
+      </c>
+      <c r="Q17" s="34">
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
-      <c r="R17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="44">
+      <c r="R17" s="34">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="S17" s="34">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="T17" s="34">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="U17" s="34">
         <f>U15-U16</f>
         <v>96</v>
       </c>
-      <c r="AE17" s="44">
-        <f t="shared" ref="AE17:AH17" si="8">AE15-AE16</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="44">
-        <f t="shared" si="8"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="V17" s="74">
+        <f>V15-V16</f>
+        <v>112.3801050000001</v>
+      </c>
+      <c r="AE17" s="34">
+        <f t="shared" ref="AE17:AI17" si="11">AE15-AE16</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="34">
+        <f t="shared" si="11"/>
+        <v>323</v>
+      </c>
+      <c r="AH17" s="34">
+        <f t="shared" si="11"/>
+        <v>892</v>
+      </c>
+      <c r="AI17" s="74">
+        <f t="shared" si="11"/>
+        <v>434.38010499999962</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="38">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="28">
+        <f>O17/O19</f>
+        <v>1.9498069498069499</v>
+      </c>
+      <c r="P18" s="28">
+        <f>P17/P19</f>
+        <v>4.1425818882466281</v>
+      </c>
+      <c r="Q18" s="28">
         <f>Q17/Q19</f>
         <v>1.5310077519379846</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38">
+      <c r="R18" s="28">
+        <f>R17/R19</f>
+        <v>0.99512195121951219</v>
+      </c>
+      <c r="S18" s="28">
+        <f>S17/S19</f>
+        <v>1.3735691987513008</v>
+      </c>
+      <c r="T18" s="28">
+        <f>T17/T19</f>
+        <v>0.99893730074388953</v>
+      </c>
+      <c r="U18" s="28">
         <f>U17/U19</f>
         <v>1.0278372591006424</v>
       </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="V18" s="76">
+        <f>V17/V19</f>
+        <v>1.2032131156316928</v>
+      </c>
+      <c r="AG18" s="28">
+        <f t="shared" ref="AG18:AH18" si="12">AG17/AG19</f>
+        <v>3.0968360498561842</v>
+      </c>
+      <c r="AH18" s="28">
+        <f t="shared" si="12"/>
+        <v>8.7024390243902445</v>
+      </c>
+      <c r="AI18" s="77">
+        <f>AI17/AI19</f>
+        <v>4.6507505888650922</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36">
+        <v>103.6</v>
+      </c>
+      <c r="P19" s="36">
+        <v>103.8</v>
+      </c>
+      <c r="Q19" s="36">
         <v>103.2</v>
       </c>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46">
+      <c r="R19" s="36">
+        <f>AH19</f>
+        <v>102.5</v>
+      </c>
+      <c r="S19" s="36">
+        <v>96.1</v>
+      </c>
+      <c r="T19" s="36">
+        <v>94.1</v>
+      </c>
+      <c r="U19" s="36">
         <v>93.4</v>
       </c>
-    </row>
-    <row r="21" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="69">
+        <f>U19</f>
+        <v>93.4</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="AI19" s="69">
+        <f>V19</f>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U21" s="39">
+      <c r="S21" s="29">
+        <f t="shared" ref="S21" si="13">S6/O6-1</f>
+        <v>1.021830004644686E-2</v>
+      </c>
+      <c r="T21" s="29">
+        <f t="shared" ref="T21" si="14">T6/P6-1</f>
+        <v>-9.2307692307692313E-2</v>
+      </c>
+      <c r="U21" s="29">
         <f>U6/Q6-1</f>
         <v>-7.3092736409319237E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="52" t="s">
+      <c r="V21" s="75">
+        <f>V6/R6-1</f>
+        <v>-2.5352413498504922E-2</v>
+      </c>
+      <c r="AH21" s="29">
+        <f>AH6/AG6-1</f>
+        <v>0.18680445151033376</v>
+      </c>
+      <c r="AI21" s="75">
+        <f>AI6/AH6-1</f>
+        <v>-2.9398303192677E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="U22" s="53">
+      <c r="S22" s="40">
+        <f t="shared" ref="S22:S23" si="15">S4/O4-1</f>
+        <v>9.6296296296296324E-2</v>
+      </c>
+      <c r="T22" s="40">
+        <f t="shared" ref="T22:T23" si="16">T4/P4-1</f>
+        <v>-5.5586130985140314E-2</v>
+      </c>
+      <c r="U22" s="40">
         <f>U4/Q4-1</f>
         <v>3.530751708428248E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="52" t="s">
+      <c r="V22" s="68"/>
+      <c r="AH22" s="40">
+        <f>AH4/AG4-1</f>
+        <v>0.29043510189094923</v>
+      </c>
+      <c r="AI22" s="68"/>
+    </row>
+    <row r="23" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="U23" s="53">
+      <c r="S23" s="40">
+        <f t="shared" si="15"/>
+        <v>-0.25140712945590993</v>
+      </c>
+      <c r="T23" s="40">
+        <f t="shared" si="16"/>
+        <v>-0.23799126637554591</v>
+      </c>
+      <c r="U23" s="40">
         <f>U5/Q5-1</f>
         <v>-0.18013856812933027</v>
       </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="V23" s="68"/>
+      <c r="AH23" s="40">
+        <f>AH5/AG5-1</f>
+        <v>-8.186577820085672E-2</v>
+      </c>
+      <c r="AI23" s="68"/>
+    </row>
+    <row r="24" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="P24" s="30">
+        <f>P6/O6-1</f>
+        <v>5.666511843938693E-2</v>
+      </c>
+      <c r="Q24" s="30">
+        <f>Q6/P6-1</f>
+        <v>-3.7802197802197846E-2</v>
+      </c>
+      <c r="R24" s="30">
+        <f t="shared" ref="R24:T24" si="17">R6/Q6-1</f>
+        <v>6.9438099588853275E-2</v>
+      </c>
+      <c r="S24" s="30">
+        <f t="shared" si="17"/>
+        <v>-7.0909867577958141E-2</v>
+      </c>
+      <c r="T24" s="30">
+        <f t="shared" si="17"/>
+        <v>-5.0574712643678188E-2</v>
+      </c>
+      <c r="U24" s="30">
+        <f>U6/T6-1</f>
+        <v>5.2300242130750574E-2</v>
+      </c>
+      <c r="V24" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AE24" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF24" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG24" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH24" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI24" s="68"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="O26" s="30">
+        <f t="shared" ref="O26" si="18">O8/O6</f>
+        <v>0.34788666976312121</v>
+      </c>
+      <c r="P26" s="30">
+        <f t="shared" ref="P26:Q26" si="19">P8/P6</f>
+        <v>0.35076923076923078</v>
+      </c>
+      <c r="Q26" s="30">
         <f>Q8/Q6</f>
         <v>0.34719049794426676</v>
       </c>
-      <c r="U26" s="40">
+      <c r="R26" s="30">
+        <f t="shared" ref="R26:S26" si="20">R8/R6</f>
+        <v>0.33020076890217853</v>
+      </c>
+      <c r="S26" s="30">
+        <f t="shared" ref="S26:T26" si="21">S8/S6</f>
+        <v>0.34022988505747126</v>
+      </c>
+      <c r="T26" s="30">
+        <f t="shared" ref="T26:U26" si="22">T8/T6</f>
+        <v>0.31670702179176757</v>
+      </c>
+      <c r="U26" s="30">
         <f>U8/U6</f>
         <v>0.32029452369995398</v>
       </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="V26" s="68">
+        <v>0.32</v>
+      </c>
+      <c r="AG26" s="30">
+        <f>AG8/AG6</f>
+        <v>0.28921568627450983</v>
+      </c>
+      <c r="AH26" s="30">
+        <f>AH8/AH6</f>
+        <v>0.34382674704175037</v>
+      </c>
+      <c r="AI26" s="68">
+        <f>AI8/AI6</f>
+        <v>0.32435210157970706</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q27" s="40">
+      <c r="O27" s="30">
+        <f t="shared" ref="O27" si="23">O12/O6</f>
+        <v>0.13098002786809104</v>
+      </c>
+      <c r="P27" s="30">
+        <f t="shared" ref="P27:Q27" si="24">P12/P6</f>
+        <v>0.11604395604395605</v>
+      </c>
+      <c r="Q27" s="30">
         <f>Q12/Q6</f>
         <v>8.9538602101416176E-2</v>
       </c>
-      <c r="U27" s="40">
+      <c r="R27" s="30">
+        <f t="shared" ref="R27:S27" si="25">R12/R6</f>
+        <v>5.0405809483126868E-2</v>
+      </c>
+      <c r="S27" s="30">
+        <f t="shared" ref="S27:T27" si="26">S12/S6</f>
+        <v>9.9770114942528743E-2</v>
+      </c>
+      <c r="T27" s="30">
+        <f t="shared" ref="T27:U27" si="27">T12/T6</f>
+        <v>6.7312348668280869E-2</v>
+      </c>
+      <c r="U27" s="30">
         <f>U12/U6</f>
         <v>7.2250345144960884E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="V27" s="68">
+        <f>V12/V6</f>
+        <v>7.4389805623123681E-2</v>
+      </c>
+      <c r="AG27" s="30">
+        <f>AG12/AG6</f>
+        <v>4.0143084260731321E-2</v>
+      </c>
+      <c r="AH27" s="30">
+        <f>AH12/AH6</f>
+        <v>9.6003572225943287E-2</v>
+      </c>
+      <c r="AI27" s="68">
+        <f>AI12/AI6</f>
+        <v>7.8523172295607027E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="O28" s="30">
+        <f t="shared" ref="O28" si="28">O17/O6</f>
+        <v>9.3822573153738972E-2</v>
+      </c>
+      <c r="P28" s="30">
+        <f t="shared" ref="P28:Q28" si="29">P17/P6</f>
+        <v>0.18901098901098901</v>
+      </c>
+      <c r="Q28" s="30">
         <f>Q17/Q6</f>
         <v>7.2179077204202829E-2</v>
       </c>
-      <c r="U28" s="40">
+      <c r="R28" s="30">
+        <f t="shared" ref="R28:S28" si="30">R17/R6</f>
+        <v>4.3571123451516446E-2</v>
+      </c>
+      <c r="S28" s="30">
+        <f t="shared" ref="S28:T28" si="31">S17/S6</f>
+        <v>6.0689655172413794E-2</v>
+      </c>
+      <c r="T28" s="30">
+        <f t="shared" ref="T28:U28" si="32">T17/T6</f>
+        <v>4.5520581113801452E-2</v>
+      </c>
+      <c r="U28" s="30">
         <f>U17/U6</f>
         <v>4.4178554993097099E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="V28" s="68">
+        <f>V17/V6</f>
+        <v>4.9253875484846533E-2</v>
+      </c>
+      <c r="AG28" s="30">
+        <f>AG17/AG6</f>
+        <v>4.2792792792792793E-2</v>
+      </c>
+      <c r="AH28" s="30">
+        <f>AH17/AH6</f>
+        <v>9.9575798169234203E-2</v>
+      </c>
+      <c r="AI28" s="68">
+        <f>AI17/AI6</f>
+        <v>4.9959469903906387E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="O29" s="30">
+        <f t="shared" ref="O29" si="33">O16/O15</f>
+        <v>0.28873239436619719</v>
+      </c>
+      <c r="P29" s="30">
+        <f t="shared" ref="P29:Q29" si="34">P16/P15</f>
+        <v>0.26746166950596251</v>
+      </c>
+      <c r="Q29" s="30">
         <f>Q16/Q15</f>
         <v>0.28828828828828829</v>
       </c>
-      <c r="U29" s="40">
+      <c r="R29" s="30">
+        <f t="shared" ref="R29:S29" si="35">R16/R15</f>
+        <v>0.30612244897959184</v>
+      </c>
+      <c r="S29" s="30">
+        <f t="shared" ref="S29:T29" si="36">S16/S15</f>
+        <v>0.30526315789473685</v>
+      </c>
+      <c r="T29" s="30">
+        <f t="shared" ref="T29:U29" si="37">T16/T15</f>
+        <v>0.34265734265734266</v>
+      </c>
+      <c r="U29" s="30">
         <f>U16/U15</f>
         <v>0.32867132867132864</v>
       </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="Q30" s="40"/>
-      <c r="U30" s="40"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="Q31" s="40"/>
-      <c r="U31" s="40"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B32" s="41" t="s">
+      <c r="V29" s="68">
+        <v>0.33</v>
+      </c>
+      <c r="AG29" s="30">
+        <f>AG16/AG15</f>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="AH29" s="30">
+        <f>AH16/AH15</f>
+        <v>0.28064516129032258</v>
+      </c>
+      <c r="AI29" s="68">
+        <f>AI16/AI15</f>
+        <v>0.32521539648129721</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q30" s="30"/>
+      <c r="U30" s="30"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q31" s="30"/>
+      <c r="U31" s="30"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="Q32" s="40"/>
-      <c r="U32" s="40"/>
-    </row>
-    <row r="33" spans="2:21" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="45" t="s">
+      <c r="Q32" s="30"/>
+      <c r="U32" s="30"/>
+    </row>
+    <row r="33" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="Q33" s="45">
+      <c r="O33" s="35">
+        <v>2952</v>
+      </c>
+      <c r="P33" s="35">
+        <v>2911</v>
+      </c>
+      <c r="Q33" s="35">
         <v>2956</v>
       </c>
-      <c r="U33" s="45">
+      <c r="R33" s="35">
+        <v>2858</v>
+      </c>
+      <c r="S33" s="35">
+        <v>2815</v>
+      </c>
+      <c r="T33" s="35">
+        <v>2799</v>
+      </c>
+      <c r="U33" s="35">
         <v>2794</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="54" t="s">
+      <c r="V33" s="69"/>
+      <c r="AG33" s="35">
+        <v>2998</v>
+      </c>
+      <c r="AH33" s="35">
+        <v>2858</v>
+      </c>
+      <c r="AI33" s="69"/>
+    </row>
+    <row r="34" spans="2:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="U34" s="55">
+      <c r="S34" s="60">
+        <f>S33-O33</f>
+        <v>-137</v>
+      </c>
+      <c r="T34" s="60">
+        <f>T33-P33</f>
+        <v>-112</v>
+      </c>
+      <c r="U34" s="60">
         <f>U33-Q33</f>
         <v>-162</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="56" t="s">
+      <c r="V34" s="70"/>
+      <c r="AH34" s="60">
+        <f>AH33-AG33</f>
+        <v>-140</v>
+      </c>
+      <c r="AI34" s="70"/>
+    </row>
+    <row r="35" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="P35" s="42">
+        <f t="shared" ref="P35:U35" si="38">P33-O33</f>
+        <v>-41</v>
+      </c>
+      <c r="Q35" s="42">
+        <f t="shared" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="R35" s="42">
+        <f t="shared" si="38"/>
+        <v>-98</v>
+      </c>
+      <c r="S35" s="42">
+        <f t="shared" si="38"/>
+        <v>-43</v>
+      </c>
+      <c r="T35" s="42">
+        <f t="shared" si="38"/>
+        <v>-16</v>
+      </c>
+      <c r="U35" s="42">
+        <f>U33-T33</f>
+        <v>-5</v>
+      </c>
+      <c r="V35" s="71"/>
+      <c r="AE35" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF35" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG35" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH35" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI35" s="71"/>
+    </row>
+    <row r="36" spans="2:35" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="Q35" s="57">
+      <c r="O36" s="44">
+        <f>O4/O33</f>
+        <v>0.54878048780487809</v>
+      </c>
+      <c r="P36" s="44">
+        <f>P4/P33</f>
+        <v>0.62418412916523536</v>
+      </c>
+      <c r="Q36" s="44">
         <f>Q4/Q33</f>
         <v>0.59404600811907982</v>
       </c>
-      <c r="U35" s="57">
+      <c r="R36" s="44">
+        <f>R4/R33</f>
+        <v>0.64240727781665496</v>
+      </c>
+      <c r="S36" s="44">
+        <f>S4/S33</f>
+        <v>0.63090586145648309</v>
+      </c>
+      <c r="T36" s="44">
+        <f>T4/T33</f>
+        <v>0.61307609860664525</v>
+      </c>
+      <c r="U36" s="44">
         <f>U4/U33</f>
         <v>0.65068002863278451</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="56"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="41" t="s">
+      <c r="V36" s="72"/>
+      <c r="AG36" s="44">
+        <f>AG4/AG33</f>
+        <v>1.8168779186124082</v>
+      </c>
+      <c r="AH36" s="44">
+        <f>AH4/AH33</f>
+        <v>2.459412176347096</v>
+      </c>
+      <c r="AI36" s="72"/>
+    </row>
+    <row r="37" spans="2:35" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="43"/>
+      <c r="V37" s="72"/>
+      <c r="AI37" s="72"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34">
+        <v>1963</v>
+      </c>
+      <c r="P41" s="34">
+        <v>1845</v>
+      </c>
+      <c r="Q41" s="34">
         <v>1339</v>
       </c>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44">
+      <c r="R41" s="34">
+        <v>804</v>
+      </c>
+      <c r="S41" s="34">
+        <v>551</v>
+      </c>
+      <c r="T41" s="34">
+        <v>386</v>
+      </c>
+      <c r="U41" s="34">
         <v>351</v>
       </c>
-    </row>
-    <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="V41" s="67"/>
+      <c r="AI41" s="67"/>
+    </row>
+    <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34">
+        <v>1021</v>
+      </c>
+      <c r="P42" s="34">
+        <v>1081</v>
+      </c>
+      <c r="Q42" s="34">
         <v>1301</v>
       </c>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44">
+      <c r="R42" s="34">
+        <v>1266</v>
+      </c>
+      <c r="S42" s="34">
+        <v>1401</v>
+      </c>
+      <c r="T42" s="34">
+        <v>1644</v>
+      </c>
+      <c r="U42" s="34">
         <v>1685</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="V42" s="67"/>
+      <c r="AI42" s="67"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45">
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35">
+        <v>283</v>
+      </c>
+      <c r="P43" s="35">
+        <v>252</v>
+      </c>
+      <c r="Q43" s="35">
         <v>253</v>
       </c>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45">
+      <c r="R43" s="35">
+        <v>293</v>
+      </c>
+      <c r="S43" s="35">
+        <v>281</v>
+      </c>
+      <c r="T43" s="35">
+        <v>285</v>
+      </c>
+      <c r="U43" s="35">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="45">
-        <f t="shared" ref="C43:T43" si="9">SUM(C40:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="45">
-        <f t="shared" si="9"/>
+      <c r="C44" s="35">
+        <f t="shared" ref="C44:T44" si="39">SUM(C41:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="35">
+        <f t="shared" si="39"/>
+        <v>3267</v>
+      </c>
+      <c r="P44" s="35">
+        <f t="shared" si="39"/>
+        <v>3178</v>
+      </c>
+      <c r="Q44" s="35">
+        <f t="shared" si="39"/>
         <v>2893</v>
       </c>
-      <c r="R43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="45">
-        <f>SUM(U40:U42)</f>
+      <c r="R44" s="35">
+        <f>SUM(R41:R43)</f>
+        <v>2363</v>
+      </c>
+      <c r="S44" s="35">
+        <f t="shared" ref="S44" si="40">SUM(S41:S43)</f>
+        <v>2233</v>
+      </c>
+      <c r="T44" s="35">
+        <f t="shared" si="39"/>
+        <v>2315</v>
+      </c>
+      <c r="U44" s="35">
+        <f>SUM(U41:U43)</f>
         <v>2338</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45">
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35">
+        <v>769</v>
+      </c>
+      <c r="P45" s="35">
+        <v>743</v>
+      </c>
+      <c r="Q45" s="35">
         <v>860</v>
       </c>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45">
+      <c r="R45" s="35">
+        <v>917</v>
+      </c>
+      <c r="S45" s="35">
+        <v>899</v>
+      </c>
+      <c r="T45" s="35">
+        <v>899</v>
+      </c>
+      <c r="U45" s="35">
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45">
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35">
+        <v>2700</v>
+      </c>
+      <c r="P46" s="35">
+        <v>2569</v>
+      </c>
+      <c r="Q46" s="35">
         <v>2619</v>
       </c>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45">
+      <c r="R46" s="35">
+        <v>2616</v>
+      </c>
+      <c r="S46" s="35">
+        <v>2566</v>
+      </c>
+      <c r="T46" s="35">
+        <v>2526</v>
+      </c>
+      <c r="U46" s="35">
         <v>2449</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45">
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35">
+        <v>101</v>
+      </c>
+      <c r="P47" s="35">
+        <v>108</v>
+      </c>
+      <c r="Q47" s="35">
         <v>95</v>
       </c>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45">
+      <c r="R47" s="35">
+        <v>86</v>
+      </c>
+      <c r="S47" s="35">
+        <v>79</v>
+      </c>
+      <c r="T47" s="35">
+        <v>74</v>
+      </c>
+      <c r="U47" s="35">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45">
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35">
+        <f>159+16</f>
+        <v>175</v>
+      </c>
+      <c r="P48" s="35">
+        <f>158+16</f>
+        <v>174</v>
+      </c>
+      <c r="Q48" s="35">
         <f>651+235</f>
         <v>886</v>
       </c>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45">
+      <c r="R48" s="35">
+        <f>797+454</f>
+        <v>1251</v>
+      </c>
+      <c r="S48" s="35">
+        <f>783+441</f>
+        <v>1224</v>
+      </c>
+      <c r="T48" s="35">
+        <f>773+432</f>
+        <v>1205</v>
+      </c>
+      <c r="U48" s="35">
         <f>764+424</f>
         <v>1188</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45">
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35">
+        <v>342</v>
+      </c>
+      <c r="P49" s="35">
+        <v>728</v>
+      </c>
+      <c r="Q49" s="35">
         <v>762</v>
       </c>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45">
+      <c r="R49" s="35">
+        <v>781</v>
+      </c>
+      <c r="S49" s="35">
+        <v>759</v>
+      </c>
+      <c r="T49" s="35">
+        <v>736</v>
+      </c>
+      <c r="U49" s="35">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45">
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35">
+        <v>88</v>
+      </c>
+      <c r="P50" s="35">
+        <v>85</v>
+      </c>
+      <c r="Q50" s="35">
         <v>96</v>
       </c>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45">
+      <c r="R50" s="35">
+        <v>121</v>
+      </c>
+      <c r="S50" s="35">
+        <v>118</v>
+      </c>
+      <c r="T50" s="35">
+        <v>113</v>
+      </c>
+      <c r="U50" s="35">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="45">
-        <f t="shared" ref="C50:T50" si="10">SUM(C44:C49)+C43</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="45">
-        <f t="shared" si="10"/>
+      <c r="C51" s="35">
+        <f t="shared" ref="C51:T51" si="41">SUM(C45:C50)+C44</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="35">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="35">
+        <f t="shared" si="41"/>
+        <v>7442</v>
+      </c>
+      <c r="P51" s="35">
+        <f t="shared" si="41"/>
+        <v>7585</v>
+      </c>
+      <c r="Q51" s="35">
+        <f t="shared" si="41"/>
         <v>8211</v>
       </c>
-      <c r="R50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="45">
-        <f>SUM(U44:U49)+U43</f>
+      <c r="R51" s="35">
+        <f>SUM(R45:R50)+R44</f>
+        <v>8135</v>
+      </c>
+      <c r="S51" s="35">
+        <f t="shared" ref="S51" si="42">SUM(S45:S50)+S44</f>
+        <v>7878</v>
+      </c>
+      <c r="T51" s="35">
+        <f t="shared" si="41"/>
+        <v>7868</v>
+      </c>
+      <c r="U51" s="35">
+        <f>SUM(U45:U50)+U44</f>
         <v>7762</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35">
+        <v>658</v>
+      </c>
+      <c r="P53" s="35">
+        <v>539</v>
+      </c>
+      <c r="Q53" s="35">
         <v>578</v>
       </c>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45">
+      <c r="R53" s="35">
+        <v>596</v>
+      </c>
+      <c r="S53" s="35">
+        <v>565</v>
+      </c>
+      <c r="T53" s="35">
+        <v>596</v>
+      </c>
+      <c r="U53" s="35">
         <v>522</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35">
+        <v>572</v>
+      </c>
+      <c r="P54" s="35">
+        <v>474</v>
+      </c>
+      <c r="Q54" s="35">
         <v>498</v>
       </c>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45">
+      <c r="R54" s="35">
+        <v>561</v>
+      </c>
+      <c r="S54" s="35">
+        <v>428</v>
+      </c>
+      <c r="T54" s="35">
+        <v>435</v>
+      </c>
+      <c r="U54" s="35">
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34">
+        <v>101</v>
+      </c>
+      <c r="P55" s="34">
+        <v>102</v>
+      </c>
+      <c r="Q55" s="34">
         <v>104</v>
       </c>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44">
+      <c r="R55" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+      <c r="S55" s="34">
+        <v>6</v>
+      </c>
+      <c r="T55" s="34">
+        <v>6</v>
+      </c>
+      <c r="U55" s="34">
+        <v>6</v>
+      </c>
+      <c r="V55" s="67"/>
+      <c r="AI55" s="67"/>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35">
+        <v>582</v>
+      </c>
+      <c r="P56" s="35">
+        <v>566</v>
+      </c>
+      <c r="Q56" s="35">
         <v>577</v>
       </c>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45">
+      <c r="R56" s="35">
+        <v>572</v>
+      </c>
+      <c r="S56" s="35">
+        <v>557</v>
+      </c>
+      <c r="T56" s="35">
+        <v>548</v>
+      </c>
+      <c r="U56" s="35">
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="45">
-        <f t="shared" ref="C56:T56" si="11">SUM(C52:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="45">
-        <f t="shared" si="11"/>
+      <c r="C57" s="35">
+        <f t="shared" ref="C57:T57" si="43">SUM(C53:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="35">
+        <f t="shared" si="43"/>
+        <v>1913</v>
+      </c>
+      <c r="P57" s="35">
+        <f t="shared" si="43"/>
+        <v>1681</v>
+      </c>
+      <c r="Q57" s="35">
+        <f t="shared" si="43"/>
         <v>1757</v>
       </c>
-      <c r="R56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="45">
-        <f>SUM(U52:U55)</f>
+      <c r="R57" s="35">
+        <f>SUM(R53:R56)</f>
+        <v>1735</v>
+      </c>
+      <c r="S57" s="35">
+        <f t="shared" ref="S57" si="44">SUM(S53:S56)</f>
+        <v>1556</v>
+      </c>
+      <c r="T57" s="35">
+        <f t="shared" si="43"/>
+        <v>1585</v>
+      </c>
+      <c r="U57" s="35">
+        <f>SUM(U53:U56)</f>
         <v>1522</v>
       </c>
     </row>
-    <row r="57" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34">
+        <v>8</v>
+      </c>
+      <c r="P58" s="34">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="34">
         <v>456</v>
       </c>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44">
+      <c r="R58" s="34">
+        <v>451</v>
+      </c>
+      <c r="S58" s="34">
+        <v>450</v>
+      </c>
+      <c r="T58" s="34">
+        <v>449</v>
+      </c>
+      <c r="U58" s="34">
         <v>448</v>
       </c>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+      <c r="V58" s="67"/>
+      <c r="AI58" s="67"/>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35">
+        <v>2470</v>
+      </c>
+      <c r="P59" s="35">
+        <v>2363</v>
+      </c>
+      <c r="Q59" s="35">
         <v>2421</v>
       </c>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45">
+      <c r="R59" s="35">
+        <v>2363</v>
+      </c>
+      <c r="S59" s="35">
+        <v>2323</v>
+      </c>
+      <c r="T59" s="35">
+        <v>2287</v>
+      </c>
+      <c r="U59" s="35">
         <v>2212</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45">
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35">
+        <v>121</v>
+      </c>
+      <c r="P60" s="35">
+        <v>190</v>
+      </c>
+      <c r="Q60" s="35">
         <v>235</v>
       </c>
-      <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="45">
+      <c r="R60" s="35">
+        <v>343</v>
+      </c>
+      <c r="S60" s="35">
+        <v>334</v>
+      </c>
+      <c r="T60" s="35">
+        <v>330</v>
+      </c>
+      <c r="U60" s="35">
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="45">
-        <f t="shared" ref="C60:T60" si="12">SUM(C57:C59)+C56</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="45">
-        <f t="shared" si="12"/>
+      <c r="C61" s="35">
+        <f t="shared" ref="C61:T61" si="45">SUM(C58:C60)+C57</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="35">
+        <f t="shared" si="45"/>
+        <v>4512</v>
+      </c>
+      <c r="P61" s="35">
+        <f t="shared" si="45"/>
+        <v>4244</v>
+      </c>
+      <c r="Q61" s="35">
+        <f t="shared" si="45"/>
         <v>4869</v>
       </c>
-      <c r="R60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="45">
-        <f>SUM(U57:U59)+U56</f>
+      <c r="R61" s="35">
+        <f>SUM(R58:R60)+R57</f>
+        <v>4892</v>
+      </c>
+      <c r="S61" s="35">
+        <f t="shared" ref="S61" si="46">SUM(S58:S60)+S57</f>
+        <v>4663</v>
+      </c>
+      <c r="T61" s="35">
+        <f t="shared" si="45"/>
+        <v>4651</v>
+      </c>
+      <c r="U61" s="35">
+        <f>SUM(U58:U60)+U57</f>
         <v>4503</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q62" s="45">
+      <c r="O63" s="1">
+        <v>2930</v>
+      </c>
+      <c r="P63" s="1">
+        <v>3341</v>
+      </c>
+      <c r="Q63" s="35">
         <v>3342</v>
       </c>
-      <c r="U62" s="45">
+      <c r="R63" s="35">
+        <v>3243</v>
+      </c>
+      <c r="S63" s="1">
+        <v>3215</v>
+      </c>
+      <c r="T63" s="1">
+        <v>3217</v>
+      </c>
+      <c r="U63" s="35">
         <v>3259</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="45">
-        <f t="shared" ref="C63:T63" si="13">C62+C60</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="45">
-        <f t="shared" si="13"/>
+      <c r="C64" s="35">
+        <f t="shared" ref="C64:T64" si="47">C63+C61</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="35">
+        <f t="shared" si="47"/>
+        <v>7442</v>
+      </c>
+      <c r="P64" s="35">
+        <f t="shared" si="47"/>
+        <v>7585</v>
+      </c>
+      <c r="Q64" s="35">
+        <f t="shared" si="47"/>
         <v>8211</v>
       </c>
-      <c r="R63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="45">
-        <f>U62+U60</f>
+      <c r="R64" s="35">
+        <f>R63+R61</f>
+        <v>8135</v>
+      </c>
+      <c r="S64" s="35">
+        <f t="shared" ref="S64" si="48">S63+S61</f>
+        <v>7878</v>
+      </c>
+      <c r="T64" s="35">
+        <f t="shared" si="47"/>
+        <v>7868</v>
+      </c>
+      <c r="U64" s="35">
+        <f>U63+U61</f>
         <v>7762</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q65" s="45">
-        <f>Q50-Q60</f>
+      <c r="O66" s="35">
+        <f t="shared" ref="O66:P66" si="49">O51-O61</f>
+        <v>2930</v>
+      </c>
+      <c r="P66" s="35">
+        <f t="shared" ref="P66:Q66" si="50">P51-P61</f>
+        <v>3341</v>
+      </c>
+      <c r="Q66" s="35">
+        <f>Q51-Q61</f>
         <v>3342</v>
       </c>
-      <c r="U65" s="45">
-        <f>U50-U60</f>
+      <c r="R66" s="35">
+        <f>R51-R61</f>
+        <v>3243</v>
+      </c>
+      <c r="S66" s="35">
+        <f t="shared" ref="S66:T66" si="51">S51-S61</f>
+        <v>3215</v>
+      </c>
+      <c r="T66" s="35">
+        <f t="shared" ref="T66:U66" si="52">T51-T61</f>
+        <v>3217</v>
+      </c>
+      <c r="U66" s="35">
+        <f>U51-U61</f>
         <v>3259</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q66" s="1">
-        <f>Q65/Q19</f>
+      <c r="O67" s="1">
+        <f t="shared" ref="O67" si="53">O66/O19</f>
+        <v>28.281853281853284</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" ref="P67" si="54">P66/P19</f>
+        <v>32.186897880539497</v>
+      </c>
+      <c r="Q67" s="1">
+        <f>Q66/Q19</f>
         <v>32.383720930232556</v>
       </c>
-      <c r="U66" s="1">
-        <f>U65/U19</f>
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:S67" si="55">R66/R19</f>
+        <v>31.639024390243904</v>
+      </c>
+      <c r="S67" s="1">
+        <f t="shared" si="55"/>
+        <v>33.454734651404792</v>
+      </c>
+      <c r="T67" s="1">
+        <f t="shared" ref="T67" si="56">T66/T19</f>
+        <v>34.187035069075456</v>
+      </c>
+      <c r="U67" s="1">
+        <f>U66/U19</f>
         <v>34.892933618843678</v>
       </c>
     </row>
-    <row r="68" spans="2:21" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="42" t="s">
+    <row r="69" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="47">
-        <f t="shared" ref="C68:U68" si="14">C40</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="47">
-        <f t="shared" si="14"/>
+      <c r="C69" s="37">
+        <f t="shared" ref="C69:T69" si="57">C41</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="37">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="37">
+        <f t="shared" si="57"/>
+        <v>1963</v>
+      </c>
+      <c r="P69" s="37">
+        <f t="shared" si="57"/>
+        <v>1845</v>
+      </c>
+      <c r="Q69" s="37">
+        <f t="shared" si="57"/>
         <v>1339</v>
       </c>
-      <c r="R68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="47">
-        <f>U40</f>
+      <c r="R69" s="37">
+        <f>R41</f>
+        <v>804</v>
+      </c>
+      <c r="S69" s="37">
+        <f t="shared" ref="S69" si="58">S41</f>
+        <v>551</v>
+      </c>
+      <c r="T69" s="37">
+        <f t="shared" si="57"/>
+        <v>386</v>
+      </c>
+      <c r="U69" s="37">
+        <f>U41</f>
         <v>351</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="42" t="s">
+      <c r="V69" s="66"/>
+      <c r="AI69" s="66"/>
+    </row>
+    <row r="70" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="47">
-        <f t="shared" ref="C69:U69" si="15">C54+C57</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="47">
-        <f t="shared" si="15"/>
+      <c r="C70" s="37">
+        <f t="shared" ref="C70:T70" si="59">C55+C58</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="37">
+        <f t="shared" si="59"/>
+        <v>109</v>
+      </c>
+      <c r="P70" s="37">
+        <f t="shared" si="59"/>
+        <v>112</v>
+      </c>
+      <c r="Q70" s="37">
+        <f t="shared" si="59"/>
         <v>560</v>
       </c>
-      <c r="R69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="47">
-        <f>U54+U57</f>
+      <c r="R70" s="37">
+        <f>R55+R58</f>
+        <v>457</v>
+      </c>
+      <c r="S70" s="37">
+        <f t="shared" ref="S70" si="60">S55+S58</f>
+        <v>456</v>
+      </c>
+      <c r="T70" s="37">
+        <f t="shared" si="59"/>
+        <v>455</v>
+      </c>
+      <c r="U70" s="37">
+        <f>U55+U58</f>
         <v>454</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="V70" s="66"/>
+      <c r="AI70" s="66"/>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="45">
-        <f t="shared" ref="C70:T70" si="16">C68-C69</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="45">
-        <f t="shared" si="16"/>
+      <c r="C71" s="35">
+        <f t="shared" ref="C71:T71" si="61">C69-C70</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="35">
+        <f t="shared" si="61"/>
+        <v>1854</v>
+      </c>
+      <c r="P71" s="35">
+        <f t="shared" si="61"/>
+        <v>1733</v>
+      </c>
+      <c r="Q71" s="35">
+        <f t="shared" si="61"/>
         <v>779</v>
       </c>
-      <c r="R70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="45">
-        <f>U68-U69</f>
+      <c r="R71" s="35">
+        <f>R69-R70</f>
+        <v>347</v>
+      </c>
+      <c r="S71" s="35">
+        <f t="shared" ref="S71" si="62">S69-S70</f>
+        <v>95</v>
+      </c>
+      <c r="T71" s="35">
+        <f t="shared" si="61"/>
+        <v>-69</v>
+      </c>
+      <c r="U71" s="35">
+        <f>U69-U70</f>
         <v>-103</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U72" s="40">
-        <f>U41/Q41-1</f>
+      <c r="S73" s="30">
+        <f t="shared" ref="S73" si="63">S42/O42-1</f>
+        <v>0.37218413320274246</v>
+      </c>
+      <c r="T73" s="30">
+        <f>T42/P42-1</f>
+        <v>0.52081406105457906</v>
+      </c>
+      <c r="U73" s="30">
+        <f>U42/Q42-1</f>
         <v>0.29515757109915453</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+      <c r="P74" s="30">
+        <f t="shared" ref="P74:Q74" si="64">P42/O42-1</f>
+        <v>5.8765915768854038E-2</v>
+      </c>
+      <c r="Q74" s="30">
+        <f>Q42/P42-1</f>
+        <v>0.20351526364477346</v>
+      </c>
+      <c r="R74" s="30">
+        <f>R42/Q42-1</f>
+        <v>-2.6902382782475032E-2</v>
+      </c>
+      <c r="S74" s="30">
+        <f t="shared" ref="S74:U74" si="65">S42/R42-1</f>
+        <v>0.10663507109004744</v>
+      </c>
+      <c r="T74" s="30">
+        <f t="shared" si="65"/>
+        <v>0.17344753747323338</v>
+      </c>
+      <c r="U74" s="30">
+        <f>U42/T42-1</f>
+        <v>2.4939172749391725E-2</v>
+      </c>
+      <c r="V74" s="68"/>
+      <c r="AI74" s="68"/>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B76" s="38" t="s">
+      <c r="R75" s="30">
+        <f t="shared" ref="R75:T75" si="66">R42/SUM(O6:R6)</f>
+        <v>0.14132618888144674</v>
+      </c>
+      <c r="S75" s="30">
+        <f t="shared" si="66"/>
+        <v>0.15601336302895322</v>
+      </c>
+      <c r="T75" s="30">
+        <f t="shared" si="66"/>
+        <v>0.18745724059293045</v>
+      </c>
+      <c r="U75" s="30">
+        <f>U42/SUM(R6:U6)</f>
+        <v>0.19248343614347727</v>
+      </c>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B77" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="O77" s="1">
+        <v>59.07</v>
+      </c>
+      <c r="P77" s="1">
+        <v>53.43</v>
+      </c>
+      <c r="Q77" s="1">
         <v>44.92</v>
       </c>
-      <c r="U76" s="50">
+      <c r="R77" s="1">
+        <v>42.16</v>
+      </c>
+      <c r="S77" s="38">
+        <v>28.2</v>
+      </c>
+      <c r="T77" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="U77" s="38">
         <v>31.1</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q77" s="45">
-        <f>Q76*Q19</f>
+      <c r="O78" s="35">
+        <f t="shared" ref="O78" si="67">O77*O19</f>
+        <v>6119.652</v>
+      </c>
+      <c r="P78" s="35">
+        <f t="shared" ref="P78" si="68">P77*P19</f>
+        <v>5546.0339999999997</v>
+      </c>
+      <c r="Q78" s="35">
+        <f>Q77*Q19</f>
         <v>4635.7440000000006</v>
       </c>
-      <c r="U77" s="45">
-        <f>U76*U19</f>
+      <c r="R78" s="35">
+        <f t="shared" ref="R78" si="69">R77*R19</f>
+        <v>4321.3999999999996</v>
+      </c>
+      <c r="S78" s="35">
+        <f t="shared" ref="S78" si="70">S77*S19</f>
+        <v>2710.02</v>
+      </c>
+      <c r="T78" s="35">
+        <f t="shared" ref="T78" si="71">T77*T19</f>
+        <v>2610.3339999999998</v>
+      </c>
+      <c r="U78" s="35">
+        <f>U77*U19</f>
         <v>2904.7400000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q78" s="45">
-        <f>Q77-Q70</f>
+      <c r="O79" s="35">
+        <f t="shared" ref="O79" si="72">O78-O71</f>
+        <v>4265.652</v>
+      </c>
+      <c r="P79" s="35">
+        <f t="shared" ref="P79" si="73">P78-P71</f>
+        <v>3813.0339999999997</v>
+      </c>
+      <c r="Q79" s="35">
+        <f>Q78-Q71</f>
         <v>3856.7440000000006</v>
       </c>
-      <c r="U78" s="45">
-        <f>U77-U70</f>
+      <c r="R79" s="35">
+        <f t="shared" ref="R79" si="74">R78-R71</f>
+        <v>3974.3999999999996</v>
+      </c>
+      <c r="S79" s="35">
+        <f t="shared" ref="S79" si="75">S78-S71</f>
+        <v>2615.02</v>
+      </c>
+      <c r="T79" s="35">
+        <f t="shared" ref="T79" si="76">T78-T71</f>
+        <v>2679.3339999999998</v>
+      </c>
+      <c r="U79" s="35">
+        <f>U78-U71</f>
         <v>3007.7400000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:21" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="43" t="s">
+    <row r="81" spans="2:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Q80" s="43">
-        <f>Q76/Q66</f>
+      <c r="O81" s="33">
+        <f t="shared" ref="O81:P81" si="77">O77/O67</f>
+        <v>2.0886184300341295</v>
+      </c>
+      <c r="P81" s="33">
+        <f t="shared" ref="P81:Q81" si="78">P77/P67</f>
+        <v>1.6599922178988327</v>
+      </c>
+      <c r="Q81" s="33">
+        <f>Q77/Q67</f>
         <v>1.387116696588869</v>
       </c>
-      <c r="U80" s="43">
-        <f>U76/U66</f>
+      <c r="R81" s="33">
+        <f t="shared" ref="R81:S81" si="79">R77/R67</f>
+        <v>1.3325316065371569</v>
+      </c>
+      <c r="S81" s="33">
+        <f t="shared" ref="S81:T81" si="80">S77/S67</f>
+        <v>0.84293001555209934</v>
+      </c>
+      <c r="T81" s="33">
+        <f t="shared" ref="T81:U81" si="81">T77/T67</f>
+        <v>0.81141871308672664</v>
+      </c>
+      <c r="U81" s="33">
+        <f>U77/U67</f>
         <v>0.8912979441546488</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+      <c r="V81" s="73"/>
+      <c r="AI81" s="73"/>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+      <c r="R84" s="33">
+        <f t="shared" ref="R84:T84" si="82">R77/SUM(O18:R18)</f>
+        <v>4.8917919939957191</v>
+      </c>
+      <c r="S84" s="33">
+        <f t="shared" si="82"/>
+        <v>3.5064679704443651</v>
+      </c>
+      <c r="T84" s="33">
+        <f t="shared" si="82"/>
+        <v>5.662800594373258</v>
+      </c>
+      <c r="U84" s="33">
+        <f>U77/SUM(R18:U18)</f>
+        <v>7.0754732383764916</v>
+      </c>
+    </row>
+    <row r="85" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U1" r:id="rId1" xr:uid="{6B414D2F-D385-4606-885B-483EBD5ABEBC}"/>
+    <hyperlink ref="T1" r:id="rId2" xr:uid="{DB223C3E-D4D7-44AB-86EB-98F6D65A8C73}"/>
+    <hyperlink ref="S1" r:id="rId3" xr:uid="{BC742AC0-9220-4959-A8E6-12B999B89343}"/>
+    <hyperlink ref="R1" r:id="rId4" xr:uid="{6F70B379-E793-4F12-B06A-982457527E59}"/>
+    <hyperlink ref="AH1" r:id="rId5" xr:uid="{38A8ED3A-2717-4FEA-BB5C-B793AAB5C38B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="AH6:AH15" formula="1"/>
+    <ignoredError sqref="R6:R17 V12 AI8:AI15 AI16:AI19" formula="1"/>
+    <ignoredError sqref="AH8 AH15 AH12" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AH17" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/$FL.xlsx
+++ b/$FL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2209274-113D-46A4-843B-666C52E41833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC89D7-DBE9-4A6B-B976-25816F1037C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="136">
   <si>
     <t>$FL</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>(Projected)</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>FY17</t>
   </si>
 </sst>
 </file>
@@ -667,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -751,42 +757,6 @@
     <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -818,6 +788,44 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1307,7 +1315,7 @@
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1326,24 +1334,24 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="G5" s="51" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="G5" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="73"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1529,11 +1537,11 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="G15" s="15"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1550,10 +1558,10 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="69"/>
       <c r="G16" s="15"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1573,10 +1581,10 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="69"/>
       <c r="G17" s="15"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1596,10 +1604,10 @@
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="69"/>
       <c r="G18" s="15"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1616,10 +1624,10 @@
       <c r="B19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="77"/>
       <c r="G19" s="15"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1659,11 +1667,11 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
       <c r="G22" s="15"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1680,10 +1688,10 @@
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="69"/>
       <c r="G23" s="15"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1700,10 +1708,10 @@
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="68">
         <v>1879</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="69"/>
       <c r="G24" s="15"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1720,11 +1728,11 @@
       <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="70">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="69"/>
       <c r="G25" s="15"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1739,8 +1747,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
       <c r="G26" s="15"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1757,11 +1765,11 @@
       <c r="B27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="70">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="69"/>
       <c r="G27" s="15"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1778,11 +1786,11 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="70">
         <f>'Financial Model'!U42</f>
         <v>1685</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="69"/>
       <c r="G28" s="15"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1797,8 +1805,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
       <c r="G29" s="15"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1838,10 +1846,10 @@
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="75"/>
       <c r="G31" s="16"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1855,83 +1863,81 @@
       <c r="Q31" s="9"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="66">
         <f>C6/'Financial Model'!U67</f>
         <v>1.1231500460263886</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="67"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="66">
         <f>C8/SUM('Financial Model'!R6:U6)</f>
         <v>0.41777787687114459</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="67"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="66">
         <f>C12/SUM('Financial Model'!R6:U6)</f>
         <v>0.42954392667694763</v>
       </c>
-      <c r="D37" s="57"/>
+      <c r="D37" s="67"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="66">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
         <v>8.9160063090667094</v>
       </c>
-      <c r="D38" s="57"/>
+      <c r="D38" s="67"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="66">
         <f>C12/SUM('Financial Model'!R17:U17)</f>
         <v>8.8684611654009426</v>
       </c>
-      <c r="D39" s="57"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
@@ -1944,11 +1950,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{895B3114-FB4F-46F5-A7E6-2022E34FF531}"/>
@@ -1964,10 +1972,10 @@
   <dimension ref="A1:AT86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U75" sqref="R75:U75"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="H26:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1975,9 +1983,9 @@
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="66"/>
+    <col min="22" max="22" width="9.140625" style="54"/>
     <col min="23" max="34" width="9.140625" style="1"/>
-    <col min="35" max="35" width="9.140625" style="66"/>
+    <col min="35" max="35" width="9.140625" style="54"/>
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2009,10 +2017,10 @@
       <c r="K1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="22" t="s">
@@ -2039,7 +2047,7 @@
       <c r="U1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="52" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="22" t="s">
@@ -2057,6 +2065,9 @@
       <c r="AA1" s="22" t="s">
         <v>50</v>
       </c>
+      <c r="AD1" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="AE1" s="22" t="s">
         <v>53</v>
       </c>
@@ -2069,7 +2080,7 @@
       <c r="AH1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="64" t="s">
+      <c r="AI1" s="52" t="s">
         <v>57</v>
       </c>
       <c r="AJ1" s="22" t="s">
@@ -2108,6 +2119,18 @@
     </row>
     <row r="2" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
+      <c r="H2" s="27">
+        <v>43680</v>
+      </c>
+      <c r="I2" s="27">
+        <v>43771</v>
+      </c>
+      <c r="L2" s="27">
+        <v>44044</v>
+      </c>
+      <c r="M2" s="27">
+        <v>44135</v>
+      </c>
       <c r="O2" s="27">
         <v>44317</v>
       </c>
@@ -2129,7 +2152,7 @@
       <c r="U2" s="27">
         <v>44863</v>
       </c>
-      <c r="V2" s="65" t="s">
+      <c r="V2" s="53" t="s">
         <v>133</v>
       </c>
       <c r="AG2" s="27">
@@ -2138,12 +2161,18 @@
       <c r="AH2" s="27">
         <v>44590</v>
       </c>
-      <c r="AI2" s="65" t="s">
+      <c r="AI2" s="53" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
+      <c r="L3" s="45">
+        <v>44409</v>
+      </c>
+      <c r="M3" s="45">
+        <v>44136</v>
+      </c>
       <c r="R3" s="45">
         <v>45689</v>
       </c>
@@ -2156,11 +2185,11 @@
       <c r="U3" s="45">
         <v>43405</v>
       </c>
-      <c r="V3" s="65"/>
+      <c r="V3" s="53"/>
       <c r="AH3" s="45">
         <v>45689</v>
       </c>
-      <c r="AI3" s="65"/>
+      <c r="AI3" s="53"/>
     </row>
     <row r="4" spans="1:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
@@ -2171,12 +2200,20 @@
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="37">
+        <v>1521</v>
+      </c>
+      <c r="I4" s="37">
+        <v>1636</v>
+      </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="L4" s="37">
+        <v>1388</v>
+      </c>
+      <c r="M4" s="37">
+        <v>1656</v>
+      </c>
       <c r="N4" s="37"/>
       <c r="O4" s="37">
         <v>1620</v>
@@ -2200,7 +2237,7 @@
       <c r="U4" s="37">
         <v>1818</v>
       </c>
-      <c r="V4" s="66"/>
+      <c r="V4" s="54"/>
       <c r="AE4" s="37"/>
       <c r="AF4" s="37"/>
       <c r="AG4" s="37">
@@ -2209,7 +2246,7 @@
       <c r="AH4" s="37">
         <v>7029</v>
       </c>
-      <c r="AI4" s="66"/>
+      <c r="AI4" s="54"/>
     </row>
     <row r="5" spans="1:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
@@ -2220,12 +2257,20 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="H5" s="37">
+        <v>253</v>
+      </c>
+      <c r="I5" s="37">
+        <v>296</v>
+      </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="L5" s="37">
+        <v>689</v>
+      </c>
+      <c r="M5" s="37">
+        <v>450</v>
+      </c>
       <c r="N5" s="37"/>
       <c r="O5" s="37">
         <v>533</v>
@@ -2249,7 +2294,7 @@
       <c r="U5" s="37">
         <v>355</v>
       </c>
-      <c r="V5" s="66"/>
+      <c r="V5" s="54"/>
       <c r="AE5" s="37"/>
       <c r="AF5" s="37"/>
       <c r="AG5" s="37">
@@ -2258,7 +2303,7 @@
       <c r="AH5" s="37">
         <v>1929</v>
       </c>
-      <c r="AI5" s="66"/>
+      <c r="AI5" s="54"/>
     </row>
     <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2269,42 +2314,54 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="H6" s="34">
+        <f t="shared" ref="H6:I6" si="0">H4+H5</f>
+        <v>1774</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="0"/>
+        <v>1932</v>
+      </c>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="L6" s="34">
+        <f t="shared" ref="L6:U6" si="1">L4+L5</f>
+        <v>2077</v>
+      </c>
+      <c r="M6" s="34">
+        <f t="shared" si="1"/>
+        <v>2106</v>
+      </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34">
-        <f>O4+O5</f>
+        <f t="shared" si="1"/>
         <v>2153</v>
       </c>
       <c r="P6" s="34">
-        <f>P4+P5</f>
+        <f t="shared" si="1"/>
         <v>2275</v>
       </c>
       <c r="Q6" s="34">
-        <f>Q4+Q5</f>
+        <f t="shared" si="1"/>
         <v>2189</v>
       </c>
       <c r="R6" s="34">
-        <f>R4+R5</f>
+        <f t="shared" si="1"/>
         <v>2341</v>
       </c>
       <c r="S6" s="34">
-        <f>S4+S5</f>
+        <f t="shared" si="1"/>
         <v>2175</v>
       </c>
       <c r="T6" s="34">
-        <f>T4+T5</f>
+        <f t="shared" si="1"/>
         <v>2065</v>
       </c>
       <c r="U6" s="34">
-        <f>U4+U5</f>
+        <f t="shared" si="1"/>
         <v>2173</v>
       </c>
-      <c r="V6" s="74">
+      <c r="V6" s="62">
         <f>U6*(1+V24)</f>
         <v>2281.65</v>
       </c>
@@ -2318,7 +2375,7 @@
         <f>AH4+AH5</f>
         <v>8958</v>
       </c>
-      <c r="AI6" s="74">
+      <c r="AI6" s="62">
         <f>SUM(S6:V6)</f>
         <v>8694.65</v>
       </c>
@@ -2332,12 +2389,20 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="35">
+        <v>1240</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1312</v>
+      </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="L7" s="35">
+        <v>1539</v>
+      </c>
+      <c r="M7" s="35">
+        <v>1456</v>
+      </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35">
         <v>1404</v>
@@ -2361,7 +2426,7 @@
       <c r="U7" s="35">
         <v>1477</v>
       </c>
-      <c r="V7" s="69">
+      <c r="V7" s="57">
         <f>V6*(1-V26)</f>
         <v>1551.5219999999999</v>
       </c>
@@ -2373,7 +2438,7 @@
       <c r="AH7" s="35">
         <v>5878</v>
       </c>
-      <c r="AI7" s="69">
+      <c r="AI7" s="57">
         <f>SUM(S7:V7)</f>
         <v>5874.5219999999999</v>
       </c>
@@ -2383,102 +2448,106 @@
         <v>78</v>
       </c>
       <c r="C8" s="34">
-        <f t="shared" ref="C8:T8" si="0">C6-C7</f>
+        <f t="shared" ref="C8:T8" si="2">C6-C7</f>
         <v>0</v>
       </c>
       <c r="D8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>534</v>
       </c>
       <c r="I8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>620</v>
       </c>
       <c r="J8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>538</v>
       </c>
       <c r="M8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="N8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>749</v>
       </c>
       <c r="P8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>798</v>
       </c>
       <c r="Q8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>760</v>
       </c>
       <c r="R8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>773</v>
       </c>
       <c r="S8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>740</v>
       </c>
       <c r="T8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>654</v>
       </c>
       <c r="U8" s="34">
         <f>U6-U7</f>
         <v>696</v>
       </c>
-      <c r="V8" s="74">
+      <c r="V8" s="62">
         <f>V6-V7</f>
         <v>730.12800000000016</v>
       </c>
+      <c r="AD8" s="34">
+        <f t="shared" ref="AD8:AE8" si="3">AD6-AD7</f>
+        <v>0</v>
+      </c>
       <c r="AE8" s="34">
-        <f t="shared" ref="AE8:AG8" si="1">AE6-AE7</f>
+        <f t="shared" ref="AE8:AG8" si="4">AE6-AE7</f>
         <v>0</v>
       </c>
       <c r="AF8" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG8" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2183</v>
       </c>
       <c r="AH8" s="34">
         <f>AH6-AH7</f>
         <v>3080</v>
       </c>
-      <c r="AI8" s="74">
+      <c r="AI8" s="62">
         <f>AI6-AI7</f>
         <v>2820.1279999999997</v>
       </c>
@@ -2492,12 +2561,20 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="35">
+        <v>393</v>
+      </c>
+      <c r="I9" s="35">
+        <v>411</v>
+      </c>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="L9" s="35">
+        <v>387</v>
+      </c>
+      <c r="M9" s="35">
+        <v>424</v>
+      </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35">
         <v>418</v>
@@ -2509,7 +2586,7 @@
         <v>458</v>
       </c>
       <c r="R9" s="35">
-        <f t="shared" ref="R9:R11" si="2">AH9-SUM(O9:Q9)</f>
+        <f t="shared" ref="R9:R11" si="5">AH9-SUM(O9:Q9)</f>
         <v>525</v>
       </c>
       <c r="S9" s="35">
@@ -2521,7 +2598,7 @@
       <c r="U9" s="35">
         <v>467</v>
       </c>
-      <c r="V9" s="69">
+      <c r="V9" s="57">
         <f>V6*0.21</f>
         <v>479.1465</v>
       </c>
@@ -2529,6 +2606,7 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="30"/>
+      <c r="AD9" s="35"/>
       <c r="AE9" s="35"/>
       <c r="AF9" s="35"/>
       <c r="AG9" s="35">
@@ -2537,8 +2615,8 @@
       <c r="AH9" s="35">
         <v>1851</v>
       </c>
-      <c r="AI9" s="69">
-        <f t="shared" ref="AI9:AI11" si="3">SUM(S9:V9)</f>
+      <c r="AI9" s="57">
+        <f t="shared" ref="AI9:AI11" si="6">SUM(S9:V9)</f>
         <v>1861.1465000000001</v>
       </c>
     </row>
@@ -2551,12 +2629,20 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="35">
+        <v>46</v>
+      </c>
+      <c r="I10" s="35">
+        <v>44</v>
+      </c>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="L10" s="35">
+        <v>44</v>
+      </c>
+      <c r="M10" s="35">
+        <v>44</v>
+      </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35">
         <v>45</v>
@@ -2568,7 +2654,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="S10" s="35">
@@ -2580,10 +2666,11 @@
       <c r="U10" s="35">
         <v>52</v>
       </c>
-      <c r="V10" s="69">
+      <c r="V10" s="57">
         <f>AVERAGE(R10:U10)</f>
         <v>53</v>
       </c>
+      <c r="AD10" s="35"/>
       <c r="AE10" s="35"/>
       <c r="AF10" s="35"/>
       <c r="AG10" s="35">
@@ -2592,8 +2679,8 @@
       <c r="AH10" s="35">
         <v>197</v>
       </c>
-      <c r="AI10" s="69">
-        <f t="shared" si="3"/>
+      <c r="AI10" s="57">
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
     </row>
@@ -2606,12 +2693,20 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="35">
+        <v>14</v>
+      </c>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="L11" s="35">
+        <v>38</v>
+      </c>
+      <c r="M11" s="35">
+        <v>4</v>
+      </c>
       <c r="N11" s="35"/>
       <c r="O11" s="35">
         <v>4</v>
@@ -2623,7 +2718,7 @@
         <v>57</v>
       </c>
       <c r="R11" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="S11" s="35">
@@ -2635,10 +2730,11 @@
       <c r="U11" s="35">
         <v>20</v>
       </c>
-      <c r="V11" s="69">
+      <c r="V11" s="57">
         <f>AVERAGE(R11:U11)</f>
         <v>28.25</v>
       </c>
+      <c r="AD11" s="35"/>
       <c r="AE11" s="35"/>
       <c r="AF11" s="35"/>
       <c r="AG11" s="35">
@@ -2647,8 +2743,8 @@
       <c r="AH11" s="35">
         <v>172</v>
       </c>
-      <c r="AI11" s="69">
-        <f t="shared" si="3"/>
+      <c r="AI11" s="57">
+        <f t="shared" si="6"/>
         <v>66.25</v>
       </c>
     </row>
@@ -2657,103 +2753,107 @@
         <v>82</v>
       </c>
       <c r="C12" s="34">
-        <f t="shared" ref="C12:T12" si="4">C8-C9-C10-C11</f>
+        <f t="shared" ref="C12:T12" si="7">C8-C9-C10-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H12" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>81</v>
       </c>
       <c r="I12" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>164</v>
       </c>
       <c r="J12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L12" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>69</v>
       </c>
       <c r="M12" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>178</v>
       </c>
       <c r="N12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>282</v>
       </c>
       <c r="P12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
       <c r="Q12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>196</v>
       </c>
       <c r="R12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="S12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>217</v>
       </c>
       <c r="T12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="U12" s="34">
         <f>U8-U9-U10-U11</f>
         <v>157</v>
       </c>
-      <c r="V12" s="74">
+      <c r="V12" s="62">
         <f>V8-V9-V10-V11</f>
         <v>169.73150000000015</v>
       </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AE12" si="8">AD8-AD9-AD10-AD11</f>
+        <v>0</v>
+      </c>
       <c r="AE12" s="34">
-        <f t="shared" ref="AE12:AI12" si="5">AE8-AE9-AE10-AE11</f>
+        <f t="shared" ref="AE12:AI12" si="9">AE8-AE9-AE10-AE11</f>
         <v>0</v>
       </c>
       <c r="AF12" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG12" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>303</v>
       </c>
       <c r="AH12" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>860</v>
       </c>
-      <c r="AI12" s="74">
-        <f t="shared" si="5"/>
+      <c r="AI12" s="62">
+        <f t="shared" si="9"/>
         <v>682.73149999999964</v>
       </c>
     </row>
@@ -2766,12 +2866,20 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="35">
+        <v>2</v>
+      </c>
+      <c r="I13" s="35">
+        <v>3</v>
+      </c>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
+      <c r="L13" s="35">
+        <v>-2</v>
+      </c>
+      <c r="M13" s="35">
+        <v>-2</v>
+      </c>
       <c r="N13" s="35"/>
       <c r="O13" s="35">
         <v>-2</v>
@@ -2783,7 +2891,7 @@
         <v>-4</v>
       </c>
       <c r="R13" s="35">
-        <f t="shared" ref="R13:R14" si="6">AH13-SUM(O13:Q13)</f>
+        <f t="shared" ref="R13:R14" si="10">AH13-SUM(O13:Q13)</f>
         <v>-6</v>
       </c>
       <c r="S13" s="35">
@@ -2795,10 +2903,11 @@
       <c r="U13" s="35">
         <v>-3</v>
       </c>
-      <c r="V13" s="69">
+      <c r="V13" s="57">
         <f>AVERAGE(R13:U13)</f>
         <v>-4.75</v>
       </c>
+      <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
       <c r="AF13" s="35"/>
       <c r="AG13" s="35">
@@ -2807,8 +2916,8 @@
       <c r="AH13" s="35">
         <v>-14</v>
       </c>
-      <c r="AI13" s="69">
-        <f t="shared" ref="AI13:AI14" si="7">SUM(S13:V13)</f>
+      <c r="AI13" s="57">
+        <f t="shared" ref="AI13:AI14" si="11">SUM(S13:V13)</f>
         <v>-17.75</v>
       </c>
     </row>
@@ -2821,12 +2930,20 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="H14" s="35">
+        <v>2</v>
+      </c>
+      <c r="I14" s="35">
+        <v>4</v>
+      </c>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="L14" s="35">
+        <v>3</v>
+      </c>
+      <c r="M14" s="35">
+        <v>193</v>
+      </c>
       <c r="N14" s="35"/>
       <c r="O14" s="35">
         <v>4</v>
@@ -2838,7 +2955,7 @@
         <v>30</v>
       </c>
       <c r="R14" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="S14" s="35">
@@ -2850,10 +2967,11 @@
       <c r="U14" s="35">
         <v>-11</v>
       </c>
-      <c r="V14" s="69">
+      <c r="V14" s="57">
         <f>AVERAGE(R14:U14)</f>
         <v>2.75</v>
       </c>
+      <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
       <c r="AF14" s="35"/>
       <c r="AG14" s="35">
@@ -2862,8 +2980,8 @@
       <c r="AH14" s="35">
         <v>394</v>
       </c>
-      <c r="AI14" s="69">
-        <f t="shared" si="7"/>
+      <c r="AI14" s="57">
+        <f t="shared" si="11"/>
         <v>-21.25</v>
       </c>
     </row>
@@ -2872,103 +2990,107 @@
         <v>85</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" ref="C15:T15" si="8">C12+C13+C14</f>
+        <f t="shared" ref="C15:T15" si="12">C12+C13+C14</f>
         <v>0</v>
       </c>
       <c r="D15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H15" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>85</v>
       </c>
       <c r="I15" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>171</v>
       </c>
       <c r="J15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L15" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>70</v>
       </c>
       <c r="M15" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>369</v>
       </c>
       <c r="N15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>284</v>
       </c>
       <c r="P15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>587</v>
       </c>
       <c r="Q15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>222</v>
       </c>
       <c r="R15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="S15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="T15" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="U15" s="35">
         <f>U12+U13+U14</f>
         <v>143</v>
       </c>
-      <c r="V15" s="69">
+      <c r="V15" s="57">
         <f>V12+V13+V14</f>
         <v>167.73150000000015</v>
       </c>
+      <c r="AD15" s="35">
+        <f t="shared" ref="AD15:AE15" si="13">AD12+AD13+AD14</f>
+        <v>0</v>
+      </c>
       <c r="AE15" s="35">
-        <f t="shared" ref="AE15:AI15" si="9">AE12+AE13+AE14</f>
+        <f t="shared" ref="AE15:AI15" si="14">AE12+AE13+AE14</f>
         <v>0</v>
       </c>
       <c r="AF15" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG15" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>494</v>
       </c>
       <c r="AH15" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1240</v>
       </c>
-      <c r="AI15" s="69">
-        <f t="shared" si="9"/>
+      <c r="AI15" s="57">
+        <f t="shared" si="14"/>
         <v>643.73149999999964</v>
       </c>
     </row>
@@ -2981,12 +3103,20 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="H16" s="35">
+        <v>25</v>
+      </c>
+      <c r="I16" s="35">
+        <v>46</v>
+      </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="L16" s="35">
+        <v>25</v>
+      </c>
+      <c r="M16" s="35">
+        <v>104</v>
+      </c>
       <c r="N16" s="35"/>
       <c r="O16" s="35">
         <v>82</v>
@@ -3010,10 +3140,11 @@
       <c r="U16" s="35">
         <v>47</v>
       </c>
-      <c r="V16" s="69">
+      <c r="V16" s="57">
         <f>V15*V29</f>
         <v>55.351395000000053</v>
       </c>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="35"/>
       <c r="AF16" s="35"/>
       <c r="AG16" s="35">
@@ -3022,7 +3153,7 @@
       <c r="AH16" s="35">
         <v>348</v>
       </c>
-      <c r="AI16" s="69">
+      <c r="AI16" s="57">
         <f>SUM(S16:V16)</f>
         <v>209.35139500000005</v>
       </c>
@@ -3032,103 +3163,108 @@
         <v>87</v>
       </c>
       <c r="C17" s="34">
-        <f t="shared" ref="C17:T17" si="10">C15-C16</f>
+        <f t="shared" ref="C17:T17" si="15">C15-C16</f>
         <v>0</v>
       </c>
       <c r="D17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H17" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>60</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="J17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L17" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>45</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>265</v>
       </c>
       <c r="N17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>202</v>
       </c>
       <c r="P17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>430</v>
       </c>
       <c r="Q17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>158</v>
       </c>
       <c r="R17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>102</v>
       </c>
       <c r="S17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>132</v>
       </c>
       <c r="T17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>94</v>
       </c>
       <c r="U17" s="34">
         <f>U15-U16</f>
         <v>96</v>
       </c>
-      <c r="V17" s="74">
+      <c r="V17" s="62">
         <f>V15-V16</f>
         <v>112.3801050000001</v>
       </c>
+      <c r="W17" s="34"/>
+      <c r="AD17" s="34">
+        <f t="shared" ref="AD17:AE17" si="16">AD15-AD16</f>
+        <v>0</v>
+      </c>
       <c r="AE17" s="34">
-        <f t="shared" ref="AE17:AI17" si="11">AE15-AE16</f>
+        <f t="shared" ref="AE17:AI17" si="17">AE15-AE16</f>
         <v>0</v>
       </c>
       <c r="AF17" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG17" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>323</v>
       </c>
       <c r="AH17" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>892</v>
       </c>
-      <c r="AI17" s="74">
-        <f t="shared" si="11"/>
+      <c r="AI17" s="62">
+        <f t="shared" si="17"/>
         <v>434.38010499999962</v>
       </c>
     </row>
@@ -3141,74 +3277,86 @@
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="H18" s="28">
+        <f t="shared" ref="H18:I18" si="18">H17/H19</f>
+        <v>0.54151624548736466</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="18"/>
+        <v>1.1693171188026192</v>
+      </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
+      <c r="L18" s="28">
+        <f t="shared" ref="L18:V18" si="19">L17/L19</f>
+        <v>0.43062200956937802</v>
+      </c>
+      <c r="M18" s="28">
+        <f t="shared" si="19"/>
+        <v>2.5383141762452106</v>
+      </c>
       <c r="N18" s="35"/>
       <c r="O18" s="28">
-        <f>O17/O19</f>
+        <f t="shared" si="19"/>
         <v>1.9498069498069499</v>
       </c>
       <c r="P18" s="28">
-        <f>P17/P19</f>
+        <f t="shared" si="19"/>
         <v>4.1425818882466281</v>
       </c>
       <c r="Q18" s="28">
-        <f>Q17/Q19</f>
+        <f t="shared" si="19"/>
         <v>1.5310077519379846</v>
       </c>
       <c r="R18" s="28">
-        <f>R17/R19</f>
+        <f t="shared" si="19"/>
         <v>0.99512195121951219</v>
       </c>
       <c r="S18" s="28">
-        <f>S17/S19</f>
+        <f t="shared" si="19"/>
         <v>1.3735691987513008</v>
       </c>
       <c r="T18" s="28">
-        <f>T17/T19</f>
+        <f t="shared" si="19"/>
         <v>0.99893730074388953</v>
       </c>
       <c r="U18" s="28">
-        <f>U17/U19</f>
+        <f t="shared" si="19"/>
         <v>1.0278372591006424</v>
       </c>
-      <c r="V18" s="76">
-        <f>V17/V19</f>
+      <c r="V18" s="64">
+        <f t="shared" si="19"/>
         <v>1.2032131156316928</v>
       </c>
       <c r="AG18" s="28">
-        <f t="shared" ref="AG18:AH18" si="12">AG17/AG19</f>
+        <f t="shared" ref="AG18:AH18" si="20">AG17/AG19</f>
         <v>3.0968360498561842</v>
       </c>
       <c r="AH18" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>8.7024390243902445</v>
       </c>
-      <c r="AI18" s="77">
+      <c r="AI18" s="65">
         <f>AI17/AI19</f>
         <v>4.6507505888650922</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:35" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
+      <c r="H19" s="36">
+        <v>110.8</v>
+      </c>
+      <c r="I19" s="36">
+        <v>106.9</v>
+      </c>
+      <c r="L19" s="36">
+        <v>104.5</v>
+      </c>
+      <c r="M19" s="36">
+        <v>104.4</v>
+      </c>
       <c r="O19" s="36">
         <v>103.6</v>
       </c>
@@ -3231,17 +3379,17 @@
       <c r="U19" s="36">
         <v>93.4</v>
       </c>
-      <c r="V19" s="69">
+      <c r="V19" s="79">
         <f>U19</f>
         <v>93.4</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="36">
         <v>104.3</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="36">
         <v>102.5</v>
       </c>
-      <c r="AI19" s="69">
+      <c r="AI19" s="79">
         <f>V19</f>
         <v>93.4</v>
       </c>
@@ -3250,19 +3398,27 @@
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="L21" s="29">
+        <f t="shared" ref="L21" si="21">L6/H6-1</f>
+        <v>0.17080045095828633</v>
+      </c>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="22">M6/I6-1</f>
+        <v>9.0062111801242128E-2</v>
+      </c>
       <c r="S21" s="29">
-        <f t="shared" ref="S21" si="13">S6/O6-1</f>
+        <f t="shared" ref="S21" si="23">S6/O6-1</f>
         <v>1.021830004644686E-2</v>
       </c>
       <c r="T21" s="29">
-        <f t="shared" ref="T21" si="14">T6/P6-1</f>
+        <f t="shared" ref="T21" si="24">T6/P6-1</f>
         <v>-9.2307692307692313E-2</v>
       </c>
       <c r="U21" s="29">
         <f>U6/Q6-1</f>
         <v>-7.3092736409319237E-3</v>
       </c>
-      <c r="V21" s="75">
+      <c r="V21" s="63">
         <f>V6/R6-1</f>
         <v>-2.5352413498504922E-2</v>
       </c>
@@ -3270,61 +3426,85 @@
         <f>AH6/AG6-1</f>
         <v>0.18680445151033376</v>
       </c>
-      <c r="AI21" s="75">
+      <c r="AI21" s="63">
         <f>AI6/AH6-1</f>
         <v>-2.9398303192677E-2</v>
       </c>
     </row>
     <row r="22" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="51" t="s">
         <v>125</v>
       </c>
+      <c r="L22" s="40">
+        <f t="shared" ref="L22:L23" si="25">L4/H4-1</f>
+        <v>-8.7442472057856713E-2</v>
+      </c>
+      <c r="M22" s="40">
+        <f t="shared" ref="M22:M23" si="26">M4/I4-1</f>
+        <v>1.2224938875305513E-2</v>
+      </c>
       <c r="S22" s="40">
-        <f t="shared" ref="S22:S23" si="15">S4/O4-1</f>
+        <f t="shared" ref="S22:S23" si="27">S4/O4-1</f>
         <v>9.6296296296296324E-2</v>
       </c>
       <c r="T22" s="40">
-        <f t="shared" ref="T22:T23" si="16">T4/P4-1</f>
+        <f t="shared" ref="T22:T23" si="28">T4/P4-1</f>
         <v>-5.5586130985140314E-2</v>
       </c>
       <c r="U22" s="40">
         <f>U4/Q4-1</f>
         <v>3.530751708428248E-2</v>
       </c>
-      <c r="V22" s="68"/>
+      <c r="V22" s="56"/>
       <c r="AH22" s="40">
         <f>AH4/AG4-1</f>
         <v>0.29043510189094923</v>
       </c>
-      <c r="AI22" s="68"/>
+      <c r="AI22" s="56"/>
     </row>
     <row r="23" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="51" t="s">
         <v>126</v>
       </c>
+      <c r="L23" s="40">
+        <f t="shared" si="25"/>
+        <v>1.7233201581027666</v>
+      </c>
+      <c r="M23" s="40">
+        <f t="shared" si="26"/>
+        <v>0.52027027027027017</v>
+      </c>
       <c r="S23" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-0.25140712945590993</v>
       </c>
       <c r="T23" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>-0.23799126637554591</v>
       </c>
       <c r="U23" s="40">
         <f>U5/Q5-1</f>
         <v>-0.18013856812933027</v>
       </c>
-      <c r="V23" s="68"/>
+      <c r="V23" s="56"/>
       <c r="AH23" s="40">
         <f>AH5/AG5-1</f>
         <v>-8.186577820085672E-2</v>
       </c>
-      <c r="AI23" s="68"/>
+      <c r="AI23" s="56"/>
     </row>
     <row r="24" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
         <v>90</v>
       </c>
+      <c r="I24" s="30">
+        <f>I6/H6-1</f>
+        <v>8.9064261555806157E-2</v>
+      </c>
+      <c r="M24" s="30">
+        <f>M6/L6-1</f>
+        <v>1.3962445835339343E-2</v>
+      </c>
       <c r="P24" s="30">
         <f>P6/O6-1</f>
         <v>5.666511843938693E-2</v>
@@ -3334,48 +3514,64 @@
         <v>-3.7802197802197846E-2</v>
       </c>
       <c r="R24" s="30">
-        <f t="shared" ref="R24:T24" si="17">R6/Q6-1</f>
+        <f t="shared" ref="R24:T24" si="29">R6/Q6-1</f>
         <v>6.9438099588853275E-2</v>
       </c>
       <c r="S24" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>-7.0909867577958141E-2</v>
       </c>
       <c r="T24" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>-5.0574712643678188E-2</v>
       </c>
       <c r="U24" s="30">
         <f>U6/T6-1</f>
         <v>5.2300242130750574E-2</v>
       </c>
-      <c r="V24" s="68">
+      <c r="V24" s="56">
         <v>0.05</v>
       </c>
-      <c r="AE24" s="62" t="s">
+      <c r="AE24" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AF24" s="62" t="s">
+      <c r="AF24" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AG24" s="62" t="s">
+      <c r="AG24" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AH24" s="62" t="s">
+      <c r="AH24" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AI24" s="68"/>
+      <c r="AI24" s="56"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="H26" s="30">
+        <f t="shared" ref="H26:I26" si="30">H8/H6</f>
+        <v>0.30101465614430667</v>
+      </c>
+      <c r="I26" s="30">
+        <f t="shared" si="30"/>
+        <v>0.32091097308488614</v>
+      </c>
+      <c r="L26" s="30">
+        <f t="shared" ref="L26:M26" si="31">L8/L6</f>
+        <v>0.2590274434280212</v>
+      </c>
+      <c r="M26" s="30">
+        <f t="shared" ref="M26:O26" si="32">M8/M6</f>
+        <v>0.30864197530864196</v>
+      </c>
       <c r="O26" s="30">
-        <f t="shared" ref="O26" si="18">O8/O6</f>
+        <f t="shared" si="32"/>
         <v>0.34788666976312121</v>
       </c>
       <c r="P26" s="30">
-        <f t="shared" ref="P26:Q26" si="19">P8/P6</f>
+        <f t="shared" ref="P26" si="33">P8/P6</f>
         <v>0.35076923076923078</v>
       </c>
       <c r="Q26" s="30">
@@ -3383,22 +3579,22 @@
         <v>0.34719049794426676</v>
       </c>
       <c r="R26" s="30">
-        <f t="shared" ref="R26:S26" si="20">R8/R6</f>
+        <f t="shared" ref="R26" si="34">R8/R6</f>
         <v>0.33020076890217853</v>
       </c>
       <c r="S26" s="30">
-        <f t="shared" ref="S26:T26" si="21">S8/S6</f>
+        <f t="shared" ref="S26" si="35">S8/S6</f>
         <v>0.34022988505747126</v>
       </c>
       <c r="T26" s="30">
-        <f t="shared" ref="T26:U26" si="22">T8/T6</f>
+        <f t="shared" ref="T26" si="36">T8/T6</f>
         <v>0.31670702179176757</v>
       </c>
       <c r="U26" s="30">
         <f>U8/U6</f>
         <v>0.32029452369995398</v>
       </c>
-      <c r="V26" s="68">
+      <c r="V26" s="56">
         <v>0.32</v>
       </c>
       <c r="AG26" s="30">
@@ -3409,7 +3605,7 @@
         <f>AH8/AH6</f>
         <v>0.34382674704175037</v>
       </c>
-      <c r="AI26" s="68">
+      <c r="AI26" s="56">
         <f>AI8/AI6</f>
         <v>0.32435210157970706</v>
       </c>
@@ -3418,12 +3614,28 @@
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="H27" s="30">
+        <f t="shared" ref="H27:I27" si="37">H12/H6</f>
+        <v>4.5659526493799327E-2</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="37"/>
+        <v>8.4886128364389232E-2</v>
+      </c>
+      <c r="L27" s="30">
+        <f t="shared" ref="L27:M27" si="38">L12/L6</f>
+        <v>3.3220991815117958E-2</v>
+      </c>
+      <c r="M27" s="30">
+        <f t="shared" ref="M27:O27" si="39">M12/M6</f>
+        <v>8.4520417853751181E-2</v>
+      </c>
       <c r="O27" s="30">
-        <f t="shared" ref="O27" si="23">O12/O6</f>
+        <f t="shared" si="39"/>
         <v>0.13098002786809104</v>
       </c>
       <c r="P27" s="30">
-        <f t="shared" ref="P27:Q27" si="24">P12/P6</f>
+        <f t="shared" ref="P27" si="40">P12/P6</f>
         <v>0.11604395604395605</v>
       </c>
       <c r="Q27" s="30">
@@ -3431,22 +3643,22 @@
         <v>8.9538602101416176E-2</v>
       </c>
       <c r="R27" s="30">
-        <f t="shared" ref="R27:S27" si="25">R12/R6</f>
+        <f t="shared" ref="R27" si="41">R12/R6</f>
         <v>5.0405809483126868E-2</v>
       </c>
       <c r="S27" s="30">
-        <f t="shared" ref="S27:T27" si="26">S12/S6</f>
+        <f t="shared" ref="S27" si="42">S12/S6</f>
         <v>9.9770114942528743E-2</v>
       </c>
       <c r="T27" s="30">
-        <f t="shared" ref="T27:U27" si="27">T12/T6</f>
+        <f t="shared" ref="T27" si="43">T12/T6</f>
         <v>6.7312348668280869E-2</v>
       </c>
       <c r="U27" s="30">
         <f>U12/U6</f>
         <v>7.2250345144960884E-2</v>
       </c>
-      <c r="V27" s="68">
+      <c r="V27" s="56">
         <f>V12/V6</f>
         <v>7.4389805623123681E-2</v>
       </c>
@@ -3458,7 +3670,7 @@
         <f>AH12/AH6</f>
         <v>9.6003572225943287E-2</v>
       </c>
-      <c r="AI27" s="68">
+      <c r="AI27" s="56">
         <f>AI12/AI6</f>
         <v>7.8523172295607027E-2</v>
       </c>
@@ -3467,12 +3679,28 @@
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H28" s="30">
+        <f t="shared" ref="H28:I28" si="44">H17/H6</f>
+        <v>3.3821871476888386E-2</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="44"/>
+        <v>6.4699792960662528E-2</v>
+      </c>
+      <c r="L28" s="30">
+        <f t="shared" ref="L28:M28" si="45">L17/L6</f>
+        <v>2.1665864227250843E-2</v>
+      </c>
+      <c r="M28" s="30">
+        <f t="shared" ref="M28:O28" si="46">M17/M6</f>
+        <v>0.12583095916429249</v>
+      </c>
       <c r="O28" s="30">
-        <f t="shared" ref="O28" si="28">O17/O6</f>
+        <f t="shared" si="46"/>
         <v>9.3822573153738972E-2</v>
       </c>
       <c r="P28" s="30">
-        <f t="shared" ref="P28:Q28" si="29">P17/P6</f>
+        <f t="shared" ref="P28" si="47">P17/P6</f>
         <v>0.18901098901098901</v>
       </c>
       <c r="Q28" s="30">
@@ -3480,22 +3708,22 @@
         <v>7.2179077204202829E-2</v>
       </c>
       <c r="R28" s="30">
-        <f t="shared" ref="R28:S28" si="30">R17/R6</f>
+        <f t="shared" ref="R28" si="48">R17/R6</f>
         <v>4.3571123451516446E-2</v>
       </c>
       <c r="S28" s="30">
-        <f t="shared" ref="S28:T28" si="31">S17/S6</f>
+        <f t="shared" ref="S28" si="49">S17/S6</f>
         <v>6.0689655172413794E-2</v>
       </c>
       <c r="T28" s="30">
-        <f t="shared" ref="T28:U28" si="32">T17/T6</f>
+        <f t="shared" ref="T28" si="50">T17/T6</f>
         <v>4.5520581113801452E-2</v>
       </c>
       <c r="U28" s="30">
         <f>U17/U6</f>
         <v>4.4178554993097099E-2</v>
       </c>
-      <c r="V28" s="68">
+      <c r="V28" s="56">
         <f>V17/V6</f>
         <v>4.9253875484846533E-2</v>
       </c>
@@ -3507,7 +3735,7 @@
         <f>AH17/AH6</f>
         <v>9.9575798169234203E-2</v>
       </c>
-      <c r="AI28" s="68">
+      <c r="AI28" s="56">
         <f>AI17/AI6</f>
         <v>4.9959469903906387E-2</v>
       </c>
@@ -3516,12 +3744,28 @@
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="H29" s="30">
+        <f t="shared" ref="H29:I29" si="51">H16/H15</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="51"/>
+        <v>0.26900584795321636</v>
+      </c>
+      <c r="L29" s="30">
+        <f t="shared" ref="L29:M29" si="52">L16/L15</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="M29" s="30">
+        <f t="shared" ref="M29:O29" si="53">M16/M15</f>
+        <v>0.28184281842818426</v>
+      </c>
       <c r="O29" s="30">
-        <f t="shared" ref="O29" si="33">O16/O15</f>
+        <f t="shared" si="53"/>
         <v>0.28873239436619719</v>
       </c>
       <c r="P29" s="30">
-        <f t="shared" ref="P29:Q29" si="34">P16/P15</f>
+        <f t="shared" ref="P29" si="54">P16/P15</f>
         <v>0.26746166950596251</v>
       </c>
       <c r="Q29" s="30">
@@ -3529,22 +3773,22 @@
         <v>0.28828828828828829</v>
       </c>
       <c r="R29" s="30">
-        <f t="shared" ref="R29:S29" si="35">R16/R15</f>
+        <f t="shared" ref="R29" si="55">R16/R15</f>
         <v>0.30612244897959184</v>
       </c>
       <c r="S29" s="30">
-        <f t="shared" ref="S29:T29" si="36">S16/S15</f>
+        <f t="shared" ref="S29" si="56">S16/S15</f>
         <v>0.30526315789473685</v>
       </c>
       <c r="T29" s="30">
-        <f t="shared" ref="T29:U29" si="37">T16/T15</f>
+        <f t="shared" ref="T29" si="57">T16/T15</f>
         <v>0.34265734265734266</v>
       </c>
       <c r="U29" s="30">
         <f>U16/U15</f>
         <v>0.32867132867132864</v>
       </c>
-      <c r="V29" s="68">
+      <c r="V29" s="56">
         <v>0.33</v>
       </c>
       <c r="AG29" s="30">
@@ -3555,7 +3799,7 @@
         <f>AH16/AH15</f>
         <v>0.28064516129032258</v>
       </c>
-      <c r="AI29" s="68">
+      <c r="AI29" s="56">
         <f>AI16/AI15</f>
         <v>0.32521539648129721</v>
       </c>
@@ -3565,8 +3809,22 @@
       <c r="U30" s="30"/>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="Q31" s="30"/>
-      <c r="U31" s="30"/>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" s="31" t="s">
@@ -3579,6 +3837,12 @@
       <c r="B33" s="35" t="s">
         <v>128</v>
       </c>
+      <c r="I33" s="35">
+        <v>3160</v>
+      </c>
+      <c r="M33" s="35">
+        <v>3032</v>
+      </c>
       <c r="O33" s="35">
         <v>2952</v>
       </c>
@@ -3600,114 +3864,126 @@
       <c r="U33" s="35">
         <v>2794</v>
       </c>
-      <c r="V33" s="69"/>
+      <c r="V33" s="57"/>
       <c r="AG33" s="35">
         <v>2998</v>
       </c>
       <c r="AH33" s="35">
         <v>2858</v>
       </c>
-      <c r="AI33" s="69"/>
-    </row>
-    <row r="34" spans="2:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="59" t="s">
+      <c r="AI33" s="57"/>
+    </row>
+    <row r="34" spans="2:35" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="S34" s="60">
+      <c r="M34" s="48">
+        <f>M33-I33</f>
+        <v>-128</v>
+      </c>
+      <c r="S34" s="48">
         <f>S33-O33</f>
         <v>-137</v>
       </c>
-      <c r="T34" s="60">
+      <c r="T34" s="48">
         <f>T33-P33</f>
         <v>-112</v>
       </c>
-      <c r="U34" s="60">
+      <c r="U34" s="48">
         <f>U33-Q33</f>
         <v>-162</v>
       </c>
-      <c r="V34" s="70"/>
-      <c r="AH34" s="60">
+      <c r="V34" s="58"/>
+      <c r="AH34" s="48">
         <f>AH33-AG33</f>
         <v>-140</v>
       </c>
-      <c r="AI34" s="70"/>
+      <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="41" t="s">
         <v>131</v>
       </c>
       <c r="P35" s="42">
-        <f t="shared" ref="P35:U35" si="38">P33-O33</f>
+        <f t="shared" ref="P35:T35" si="58">P33-O33</f>
         <v>-41</v>
       </c>
       <c r="Q35" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>45</v>
       </c>
       <c r="R35" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-98</v>
       </c>
       <c r="S35" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-43</v>
       </c>
       <c r="T35" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-16</v>
       </c>
       <c r="U35" s="42">
         <f>U33-T33</f>
         <v>-5</v>
       </c>
-      <c r="V35" s="71"/>
-      <c r="AE35" s="61" t="s">
+      <c r="V35" s="59"/>
+      <c r="AE35" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="AF35" s="61" t="s">
+      <c r="AF35" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="AG35" s="61" t="s">
+      <c r="AG35" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="AH35" s="61" t="s">
+      <c r="AH35" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="AI35" s="71"/>
+      <c r="AI35" s="59"/>
     </row>
     <row r="36" spans="2:35" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="43" t="s">
         <v>130</v>
       </c>
+      <c r="I36" s="44">
+        <f t="shared" ref="I36" si="59">I4/I33</f>
+        <v>0.51772151898734176</v>
+      </c>
+      <c r="M36" s="44">
+        <f t="shared" ref="M36:U36" si="60">M4/M33</f>
+        <v>0.54617414248021112</v>
+      </c>
       <c r="O36" s="44">
-        <f>O4/O33</f>
+        <f t="shared" si="60"/>
         <v>0.54878048780487809</v>
       </c>
       <c r="P36" s="44">
-        <f>P4/P33</f>
+        <f t="shared" si="60"/>
         <v>0.62418412916523536</v>
       </c>
       <c r="Q36" s="44">
-        <f>Q4/Q33</f>
+        <f t="shared" si="60"/>
         <v>0.59404600811907982</v>
       </c>
       <c r="R36" s="44">
-        <f>R4/R33</f>
+        <f t="shared" si="60"/>
         <v>0.64240727781665496</v>
       </c>
       <c r="S36" s="44">
-        <f>S4/S33</f>
+        <f t="shared" si="60"/>
         <v>0.63090586145648309</v>
       </c>
       <c r="T36" s="44">
-        <f>T4/T33</f>
+        <f t="shared" si="60"/>
         <v>0.61307609860664525</v>
       </c>
       <c r="U36" s="44">
-        <f>U4/U33</f>
+        <f t="shared" si="60"/>
         <v>0.65068002863278451</v>
       </c>
-      <c r="V36" s="72"/>
+      <c r="V36" s="60"/>
       <c r="AG36" s="44">
         <f>AG4/AG33</f>
         <v>1.8168779186124082</v>
@@ -3716,12 +3992,12 @@
         <f>AH4/AH33</f>
         <v>2.459412176347096</v>
       </c>
-      <c r="AI36" s="72"/>
+      <c r="AI36" s="60"/>
     </row>
     <row r="37" spans="2:35" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="43"/>
-      <c r="V37" s="72"/>
-      <c r="AI37" s="72"/>
+      <c r="V37" s="60"/>
+      <c r="AI37" s="60"/>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="31" t="s">
@@ -3738,11 +4014,15 @@
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
+      <c r="I41" s="34">
+        <v>744</v>
+      </c>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
+      <c r="M41" s="34">
+        <v>1393</v>
+      </c>
       <c r="N41" s="34"/>
       <c r="O41" s="34">
         <v>1963</v>
@@ -3765,8 +4045,8 @@
       <c r="U41" s="34">
         <v>351</v>
       </c>
-      <c r="V41" s="67"/>
-      <c r="AI41" s="67"/>
+      <c r="V41" s="55"/>
+      <c r="AI41" s="55"/>
     </row>
     <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -3778,11 +4058,15 @@
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="I42" s="34">
+        <v>1304</v>
+      </c>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
+      <c r="M42" s="34">
+        <v>1193</v>
+      </c>
       <c r="N42" s="34"/>
       <c r="O42" s="34">
         <v>1021</v>
@@ -3805,8 +4089,8 @@
       <c r="U42" s="34">
         <v>1685</v>
       </c>
-      <c r="V42" s="67"/>
-      <c r="AI42" s="67"/>
+      <c r="V42" s="55"/>
+      <c r="AI42" s="55"/>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
@@ -3818,11 +4102,15 @@
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
+      <c r="I43" s="35">
+        <v>299</v>
+      </c>
       <c r="J43" s="35"/>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
+      <c r="M43" s="35">
+        <v>237</v>
+      </c>
       <c r="N43" s="35"/>
       <c r="O43" s="35">
         <v>283</v>
@@ -3851,63 +4139,63 @@
         <v>98</v>
       </c>
       <c r="C44" s="35">
-        <f t="shared" ref="C44:T44" si="39">SUM(C41:C43)</f>
+        <f t="shared" ref="C44:T44" si="61">SUM(C41:C43)</f>
         <v>0</v>
       </c>
       <c r="D44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="E44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I44" s="35">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>2347</v>
       </c>
       <c r="J44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="L44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M44" s="35">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>2823</v>
       </c>
       <c r="N44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>3267</v>
       </c>
       <c r="P44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>3178</v>
       </c>
       <c r="Q44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>2893</v>
       </c>
       <c r="R44" s="35">
@@ -3915,11 +4203,11 @@
         <v>2363</v>
       </c>
       <c r="S44" s="35">
-        <f t="shared" ref="S44" si="40">SUM(S41:S43)</f>
+        <f t="shared" ref="S44" si="62">SUM(S41:S43)</f>
         <v>2233</v>
       </c>
       <c r="T44" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="61"/>
         <v>2315</v>
       </c>
       <c r="U44" s="35">
@@ -3937,11 +4225,15 @@
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
+      <c r="I45" s="35">
+        <v>814</v>
+      </c>
       <c r="J45" s="35"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
+      <c r="M45" s="35">
+        <v>773</v>
+      </c>
       <c r="N45" s="35"/>
       <c r="O45" s="35">
         <v>769</v>
@@ -3975,11 +4267,15 @@
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
+      <c r="I46" s="35">
+        <v>2956</v>
+      </c>
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
+      <c r="M46" s="35">
+        <v>2752</v>
+      </c>
       <c r="N46" s="35"/>
       <c r="O46" s="35">
         <v>2700</v>
@@ -4013,11 +4309,15 @@
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
+      <c r="I47" s="35">
+        <v>93</v>
+      </c>
       <c r="J47" s="35"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
+      <c r="M47" s="35">
+        <v>69</v>
+      </c>
       <c r="N47" s="35"/>
       <c r="O47" s="35">
         <v>101</v>
@@ -4051,11 +4351,17 @@
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
+      <c r="I48" s="35">
+        <f>156+21</f>
+        <v>177</v>
+      </c>
       <c r="J48" s="35"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
+      <c r="M48" s="35">
+        <f>158+18</f>
+        <v>176</v>
+      </c>
       <c r="N48" s="35"/>
       <c r="O48" s="35">
         <f>159+16</f>
@@ -4096,11 +4402,15 @@
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
+      <c r="I49" s="35">
+        <v>151</v>
+      </c>
       <c r="J49" s="35"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
+      <c r="M49" s="35">
+        <v>340</v>
+      </c>
       <c r="N49" s="35"/>
       <c r="O49" s="35">
         <v>342</v>
@@ -4134,11 +4444,15 @@
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="35">
+        <v>83</v>
+      </c>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="M50" s="35">
+        <v>85</v>
+      </c>
       <c r="N50" s="35"/>
       <c r="O50" s="35">
         <v>88</v>
@@ -4167,63 +4481,63 @@
         <v>105</v>
       </c>
       <c r="C51" s="35">
-        <f t="shared" ref="C51:T51" si="41">SUM(C45:C50)+C44</f>
+        <f t="shared" ref="C51:T51" si="63">SUM(C45:C50)+C44</f>
         <v>0</v>
       </c>
       <c r="D51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="E51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="G51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I51" s="35">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>6621</v>
       </c>
       <c r="J51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M51" s="35">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>7018</v>
       </c>
       <c r="N51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>7442</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>7585</v>
       </c>
       <c r="Q51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>8211</v>
       </c>
       <c r="R51" s="35">
@@ -4231,11 +4545,11 @@
         <v>8135</v>
       </c>
       <c r="S51" s="35">
-        <f t="shared" ref="S51" si="42">SUM(S45:S50)+S44</f>
+        <f t="shared" ref="S51" si="64">SUM(S45:S50)+S44</f>
         <v>7878</v>
       </c>
       <c r="T51" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="63"/>
         <v>7868</v>
       </c>
       <c r="U51" s="35">
@@ -4253,11 +4567,15 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="35">
+        <v>396</v>
+      </c>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
+      <c r="M53" s="35">
+        <v>514</v>
+      </c>
       <c r="N53" s="35"/>
       <c r="O53" s="35">
         <v>658</v>
@@ -4291,11 +4609,15 @@
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
+      <c r="I54" s="35">
+        <v>333</v>
+      </c>
       <c r="J54" s="35"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
+      <c r="M54" s="35">
+        <v>451</v>
+      </c>
       <c r="N54" s="35"/>
       <c r="O54" s="35">
         <v>572</v>
@@ -4329,11 +4651,15 @@
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
+      <c r="I55" s="34">
+        <v>0</v>
+      </c>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
+      <c r="M55" s="34">
+        <v>2</v>
+      </c>
       <c r="N55" s="34"/>
       <c r="O55" s="34">
         <v>101</v>
@@ -4356,8 +4682,8 @@
       <c r="U55" s="34">
         <v>6</v>
       </c>
-      <c r="V55" s="67"/>
-      <c r="AI55" s="67"/>
+      <c r="V55" s="55"/>
+      <c r="AI55" s="55"/>
     </row>
     <row r="56" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
@@ -4369,11 +4695,15 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="35">
+        <v>508</v>
+      </c>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
+      <c r="M56" s="35">
+        <v>575</v>
+      </c>
       <c r="N56" s="35"/>
       <c r="O56" s="35">
         <v>582</v>
@@ -4402,63 +4732,63 @@
         <v>110</v>
       </c>
       <c r="C57" s="35">
-        <f t="shared" ref="C57:T57" si="43">SUM(C53:C56)</f>
+        <f t="shared" ref="C57:T57" si="65">SUM(C53:C56)</f>
         <v>0</v>
       </c>
       <c r="D57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="F57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="G57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I57" s="35">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>1237</v>
       </c>
       <c r="J57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="K57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M57" s="35">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>1542</v>
       </c>
       <c r="N57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>1913</v>
       </c>
       <c r="P57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>1681</v>
       </c>
       <c r="Q57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>1757</v>
       </c>
       <c r="R57" s="35">
@@ -4466,11 +4796,11 @@
         <v>1735</v>
       </c>
       <c r="S57" s="35">
-        <f t="shared" ref="S57" si="44">SUM(S53:S56)</f>
+        <f t="shared" ref="S57" si="66">SUM(S53:S56)</f>
         <v>1556</v>
       </c>
       <c r="T57" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>1585</v>
       </c>
       <c r="U57" s="35">
@@ -4488,11 +4818,15 @@
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="I58" s="34">
+        <v>122</v>
+      </c>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
+      <c r="M58" s="34">
+        <v>129</v>
+      </c>
       <c r="N58" s="34"/>
       <c r="O58" s="34">
         <v>8</v>
@@ -4515,8 +4849,8 @@
       <c r="U58" s="34">
         <v>448</v>
       </c>
-      <c r="V58" s="67"/>
-      <c r="AI58" s="67"/>
+      <c r="V58" s="55"/>
+      <c r="AI58" s="55"/>
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
@@ -4528,11 +4862,15 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
+      <c r="I59" s="35">
+        <v>2179</v>
+      </c>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
+      <c r="M59" s="35">
+        <v>2514</v>
+      </c>
       <c r="N59" s="35"/>
       <c r="O59" s="35">
         <v>2470</v>
@@ -4566,11 +4904,15 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
+      <c r="I60" s="35">
+        <v>116</v>
+      </c>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
+      <c r="M60" s="35">
+        <v>181</v>
+      </c>
       <c r="N60" s="35"/>
       <c r="O60" s="35">
         <v>121</v>
@@ -4599,63 +4941,63 @@
         <v>114</v>
       </c>
       <c r="C61" s="35">
-        <f t="shared" ref="C61:T61" si="45">SUM(C58:C60)+C57</f>
+        <f t="shared" ref="C61:T61" si="67">SUM(C58:C60)+C57</f>
         <v>0</v>
       </c>
       <c r="D61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I61" s="35">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>3654</v>
       </c>
       <c r="J61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="K61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M61" s="35">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>4366</v>
       </c>
       <c r="N61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>4512</v>
       </c>
       <c r="P61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>4244</v>
       </c>
       <c r="Q61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>4869</v>
       </c>
       <c r="R61" s="35">
@@ -4663,11 +5005,11 @@
         <v>4892</v>
       </c>
       <c r="S61" s="35">
-        <f t="shared" ref="S61" si="46">SUM(S58:S60)+S57</f>
+        <f t="shared" ref="S61" si="68">SUM(S58:S60)+S57</f>
         <v>4663</v>
       </c>
       <c r="T61" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>4651</v>
       </c>
       <c r="U61" s="35">
@@ -4679,6 +5021,12 @@
       <c r="B63" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="I63" s="1">
+        <v>2427</v>
+      </c>
+      <c r="M63" s="1">
+        <v>2652</v>
+      </c>
       <c r="O63" s="1">
         <v>2930</v>
       </c>
@@ -4706,63 +5054,63 @@
         <v>116</v>
       </c>
       <c r="C64" s="35">
-        <f t="shared" ref="C64:T64" si="47">C63+C61</f>
+        <f t="shared" ref="C64:T64" si="69">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="E64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I64" s="35">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="69"/>
+        <v>6081</v>
       </c>
       <c r="J64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="K64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="L64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="M64" s="35">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="69"/>
+        <v>7018</v>
       </c>
       <c r="N64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>7442</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>7585</v>
       </c>
       <c r="Q64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>8211</v>
       </c>
       <c r="R64" s="35">
@@ -4770,11 +5118,11 @@
         <v>8135</v>
       </c>
       <c r="S64" s="35">
-        <f t="shared" ref="S64" si="48">S63+S61</f>
+        <f t="shared" ref="S64" si="70">S63+S61</f>
         <v>7878</v>
       </c>
       <c r="T64" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="69"/>
         <v>7868</v>
       </c>
       <c r="U64" s="35">
@@ -4786,12 +5134,20 @@
       <c r="B66" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="I66" s="35">
+        <f t="shared" ref="I66" si="71">I51-I61</f>
+        <v>2967</v>
+      </c>
+      <c r="M66" s="35">
+        <f t="shared" ref="M66:O66" si="72">M51-M61</f>
+        <v>2652</v>
+      </c>
       <c r="O66" s="35">
-        <f t="shared" ref="O66:P66" si="49">O51-O61</f>
+        <f t="shared" si="72"/>
         <v>2930</v>
       </c>
       <c r="P66" s="35">
-        <f t="shared" ref="P66:Q66" si="50">P51-P61</f>
+        <f t="shared" ref="P66" si="73">P51-P61</f>
         <v>3341</v>
       </c>
       <c r="Q66" s="35">
@@ -4803,11 +5159,11 @@
         <v>3243</v>
       </c>
       <c r="S66" s="35">
-        <f t="shared" ref="S66:T66" si="51">S51-S61</f>
+        <f t="shared" ref="S66" si="74">S51-S61</f>
         <v>3215</v>
       </c>
       <c r="T66" s="35">
-        <f t="shared" ref="T66:U66" si="52">T51-T61</f>
+        <f t="shared" ref="T66" si="75">T51-T61</f>
         <v>3217</v>
       </c>
       <c r="U66" s="35">
@@ -4819,12 +5175,20 @@
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="I67" s="1">
+        <f t="shared" ref="I67" si="76">I66/I19</f>
+        <v>27.754911131898968</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" ref="M67:O67" si="77">M66/M19</f>
+        <v>25.402298850574713</v>
+      </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67" si="53">O66/O19</f>
+        <f t="shared" si="77"/>
         <v>28.281853281853284</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="54">P66/P19</f>
+        <f t="shared" ref="P67" si="78">P66/P19</f>
         <v>32.186897880539497</v>
       </c>
       <c r="Q67" s="1">
@@ -4832,15 +5196,15 @@
         <v>32.383720930232556</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67:S67" si="55">R66/R19</f>
+        <f t="shared" ref="R67:S67" si="79">R66/R19</f>
         <v>31.639024390243904</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>33.454734651404792</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" ref="T67" si="56">T66/T19</f>
+        <f t="shared" ref="T67" si="80">T66/T19</f>
         <v>34.187035069075456</v>
       </c>
       <c r="U67" s="1">
@@ -4853,63 +5217,63 @@
         <v>6</v>
       </c>
       <c r="C69" s="37">
-        <f t="shared" ref="C69:T69" si="57">C41</f>
+        <f t="shared" ref="C69:T69" si="81">C41</f>
         <v>0</v>
       </c>
       <c r="D69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="E69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="F69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="G69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I69" s="37">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>744</v>
       </c>
       <c r="J69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="K69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="L69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M69" s="37">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>1393</v>
       </c>
       <c r="N69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>1963</v>
       </c>
       <c r="P69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>1845</v>
       </c>
       <c r="Q69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>1339</v>
       </c>
       <c r="R69" s="37">
@@ -4917,82 +5281,82 @@
         <v>804</v>
       </c>
       <c r="S69" s="37">
-        <f t="shared" ref="S69" si="58">S41</f>
+        <f t="shared" ref="S69" si="82">S41</f>
         <v>551</v>
       </c>
       <c r="T69" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>386</v>
       </c>
       <c r="U69" s="37">
         <f>U41</f>
         <v>351</v>
       </c>
-      <c r="V69" s="66"/>
-      <c r="AI69" s="66"/>
+      <c r="V69" s="54"/>
+      <c r="AI69" s="54"/>
     </row>
     <row r="70" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="37">
-        <f t="shared" ref="C70:T70" si="59">C55+C58</f>
+        <f t="shared" ref="C70:T70" si="83">C55+C58</f>
         <v>0</v>
       </c>
       <c r="D70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="E70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="F70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="G70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="H70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="I70" s="37">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <f t="shared" si="83"/>
+        <v>122</v>
       </c>
       <c r="J70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="K70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="L70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M70" s="37">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <f t="shared" si="83"/>
+        <v>131</v>
       </c>
       <c r="N70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>109</v>
       </c>
       <c r="P70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>112</v>
       </c>
       <c r="Q70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>560</v>
       </c>
       <c r="R70" s="37">
@@ -5000,82 +5364,82 @@
         <v>457</v>
       </c>
       <c r="S70" s="37">
-        <f t="shared" ref="S70" si="60">S55+S58</f>
+        <f t="shared" ref="S70" si="84">S55+S58</f>
         <v>456</v>
       </c>
       <c r="T70" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>455</v>
       </c>
       <c r="U70" s="37">
         <f>U55+U58</f>
         <v>454</v>
       </c>
-      <c r="V70" s="66"/>
-      <c r="AI70" s="66"/>
+      <c r="V70" s="54"/>
+      <c r="AI70" s="54"/>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="35">
-        <f t="shared" ref="C71:T71" si="61">C69-C70</f>
+        <f t="shared" ref="C71:T71" si="85">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="E71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="I71" s="35">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <f t="shared" si="85"/>
+        <v>622</v>
       </c>
       <c r="J71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="K71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="L71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="M71" s="35">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <f t="shared" si="85"/>
+        <v>1262</v>
       </c>
       <c r="N71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="O71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>1854</v>
       </c>
       <c r="P71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>1733</v>
       </c>
       <c r="Q71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>779</v>
       </c>
       <c r="R71" s="35">
@@ -5083,11 +5447,11 @@
         <v>347</v>
       </c>
       <c r="S71" s="35">
-        <f t="shared" ref="S71" si="62">S69-S70</f>
+        <f t="shared" ref="S71" si="86">S69-S70</f>
         <v>95</v>
       </c>
       <c r="T71" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>-69</v>
       </c>
       <c r="U71" s="35">
@@ -5099,8 +5463,16 @@
       <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="M73" s="30">
+        <f t="shared" ref="M73" si="87">M42/I42-1</f>
+        <v>-8.5122699386503076E-2</v>
+      </c>
+      <c r="Q73" s="30">
+        <f t="shared" ref="Q73:S73" si="88">Q42/M42-1</f>
+        <v>9.0528080469404859E-2</v>
+      </c>
       <c r="S73" s="30">
-        <f t="shared" ref="S73" si="63">S42/O42-1</f>
+        <f t="shared" si="88"/>
         <v>0.37218413320274246</v>
       </c>
       <c r="T73" s="30">
@@ -5117,7 +5489,7 @@
         <v>122</v>
       </c>
       <c r="P74" s="30">
-        <f t="shared" ref="P74:Q74" si="64">P42/O42-1</f>
+        <f t="shared" ref="P74" si="89">P42/O42-1</f>
         <v>5.8765915768854038E-2</v>
       </c>
       <c r="Q74" s="30">
@@ -5129,34 +5501,34 @@
         <v>-2.6902382782475032E-2</v>
       </c>
       <c r="S74" s="30">
-        <f t="shared" ref="S74:U74" si="65">S42/R42-1</f>
+        <f t="shared" ref="S74:T74" si="90">S42/R42-1</f>
         <v>0.10663507109004744</v>
       </c>
       <c r="T74" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.17344753747323338</v>
       </c>
       <c r="U74" s="30">
         <f>U42/T42-1</f>
         <v>2.4939172749391725E-2</v>
       </c>
-      <c r="V74" s="68"/>
-      <c r="AI74" s="68"/>
+      <c r="V74" s="56"/>
+      <c r="AI74" s="56"/>
     </row>
     <row r="75" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>120</v>
       </c>
       <c r="R75" s="30">
-        <f t="shared" ref="R75:T75" si="66">R42/SUM(O6:R6)</f>
+        <f t="shared" ref="R75:T75" si="91">R42/SUM(O6:R6)</f>
         <v>0.14132618888144674</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="91"/>
         <v>0.15601336302895322</v>
       </c>
       <c r="T75" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="91"/>
         <v>0.18745724059293045</v>
       </c>
       <c r="U75" s="30">
@@ -5195,11 +5567,11 @@
         <v>5</v>
       </c>
       <c r="O78" s="35">
-        <f t="shared" ref="O78" si="67">O77*O19</f>
+        <f t="shared" ref="O78" si="92">O77*O19</f>
         <v>6119.652</v>
       </c>
       <c r="P78" s="35">
-        <f t="shared" ref="P78" si="68">P77*P19</f>
+        <f t="shared" ref="P78" si="93">P77*P19</f>
         <v>5546.0339999999997</v>
       </c>
       <c r="Q78" s="35">
@@ -5207,15 +5579,15 @@
         <v>4635.7440000000006</v>
       </c>
       <c r="R78" s="35">
-        <f t="shared" ref="R78" si="69">R77*R19</f>
+        <f t="shared" ref="R78" si="94">R77*R19</f>
         <v>4321.3999999999996</v>
       </c>
       <c r="S78" s="35">
-        <f t="shared" ref="S78" si="70">S77*S19</f>
+        <f t="shared" ref="S78" si="95">S77*S19</f>
         <v>2710.02</v>
       </c>
       <c r="T78" s="35">
-        <f t="shared" ref="T78" si="71">T77*T19</f>
+        <f t="shared" ref="T78" si="96">T77*T19</f>
         <v>2610.3339999999998</v>
       </c>
       <c r="U78" s="35">
@@ -5228,11 +5600,11 @@
         <v>9</v>
       </c>
       <c r="O79" s="35">
-        <f t="shared" ref="O79" si="72">O78-O71</f>
+        <f t="shared" ref="O79" si="97">O78-O71</f>
         <v>4265.652</v>
       </c>
       <c r="P79" s="35">
-        <f t="shared" ref="P79" si="73">P78-P71</f>
+        <f t="shared" ref="P79" si="98">P78-P71</f>
         <v>3813.0339999999997</v>
       </c>
       <c r="Q79" s="35">
@@ -5240,15 +5612,15 @@
         <v>3856.7440000000006</v>
       </c>
       <c r="R79" s="35">
-        <f t="shared" ref="R79" si="74">R78-R71</f>
+        <f t="shared" ref="R79" si="99">R78-R71</f>
         <v>3974.3999999999996</v>
       </c>
       <c r="S79" s="35">
-        <f t="shared" ref="S79" si="75">S78-S71</f>
+        <f t="shared" ref="S79" si="100">S78-S71</f>
         <v>2615.02</v>
       </c>
       <c r="T79" s="35">
-        <f t="shared" ref="T79" si="76">T78-T71</f>
+        <f t="shared" ref="T79" si="101">T78-T71</f>
         <v>2679.3339999999998</v>
       </c>
       <c r="U79" s="35">
@@ -5261,11 +5633,11 @@
         <v>22</v>
       </c>
       <c r="O81" s="33">
-        <f t="shared" ref="O81:P81" si="77">O77/O67</f>
+        <f t="shared" ref="O81" si="102">O77/O67</f>
         <v>2.0886184300341295</v>
       </c>
       <c r="P81" s="33">
-        <f t="shared" ref="P81:Q81" si="78">P77/P67</f>
+        <f t="shared" ref="P81" si="103">P77/P67</f>
         <v>1.6599922178988327</v>
       </c>
       <c r="Q81" s="33">
@@ -5273,23 +5645,23 @@
         <v>1.387116696588869</v>
       </c>
       <c r="R81" s="33">
-        <f t="shared" ref="R81:S81" si="79">R77/R67</f>
+        <f t="shared" ref="R81" si="104">R77/R67</f>
         <v>1.3325316065371569</v>
       </c>
       <c r="S81" s="33">
-        <f t="shared" ref="S81:T81" si="80">S77/S67</f>
+        <f t="shared" ref="S81" si="105">S77/S67</f>
         <v>0.84293001555209934</v>
       </c>
       <c r="T81" s="33">
-        <f t="shared" ref="T81:U81" si="81">T77/T67</f>
+        <f t="shared" ref="T81" si="106">T77/T67</f>
         <v>0.81141871308672664</v>
       </c>
       <c r="U81" s="33">
         <f>U77/U67</f>
         <v>0.8912979441546488</v>
       </c>
-      <c r="V81" s="73"/>
-      <c r="AI81" s="73"/>
+      <c r="V81" s="61"/>
+      <c r="AI81" s="61"/>
     </row>
     <row r="82" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
@@ -5306,15 +5678,15 @@
         <v>25</v>
       </c>
       <c r="R84" s="33">
-        <f t="shared" ref="R84:T84" si="82">R77/SUM(O18:R18)</f>
+        <f t="shared" ref="R84:T84" si="107">R77/SUM(O18:R18)</f>
         <v>4.8917919939957191</v>
       </c>
       <c r="S84" s="33">
-        <f t="shared" si="82"/>
+        <f t="shared" si="107"/>
         <v>3.5064679704443651</v>
       </c>
       <c r="T84" s="33">
-        <f t="shared" si="82"/>
+        <f t="shared" si="107"/>
         <v>5.662800594373258</v>
       </c>
       <c r="U84" s="33">
@@ -5339,14 +5711,16 @@
     <hyperlink ref="S1" r:id="rId3" xr:uid="{BC742AC0-9220-4959-A8E6-12B999B89343}"/>
     <hyperlink ref="R1" r:id="rId4" xr:uid="{6F70B379-E793-4F12-B06A-982457527E59}"/>
     <hyperlink ref="AH1" r:id="rId5" xr:uid="{38A8ED3A-2717-4FEA-BB5C-B793AAB5C38B}"/>
+    <hyperlink ref="M1" r:id="rId6" xr:uid="{43A5C21D-F886-4FCB-A94B-86147CFAE126}"/>
+    <hyperlink ref="L1" r:id="rId7" xr:uid="{9446438F-F601-4E14-BBC3-368E3CAEABAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
   <ignoredErrors>
     <ignoredError sqref="R6:R17 V12 AI8:AI15 AI16:AI19" formula="1"/>
     <ignoredError sqref="AH8 AH15 AH12" formula="1" formulaRange="1"/>
     <ignoredError sqref="AH17" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/$FL.xlsx
+++ b/$FL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC89D7-DBE9-4A6B-B976-25816F1037C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54CF69F-F907-4B66-A8A4-4562DC3E08B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
   </bookViews>
@@ -788,6 +788,8 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,7 +802,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,14 +823,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1315,7 +1315,7 @@
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1334,24 +1334,24 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="G5" s="71" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="G5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="73"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1537,11 +1537,11 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="G15" s="15"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1558,10 +1558,10 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="71"/>
       <c r="G16" s="15"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1581,10 +1581,10 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="71"/>
       <c r="G17" s="15"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1604,10 +1604,10 @@
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="71"/>
       <c r="G18" s="15"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1624,10 +1624,10 @@
       <c r="B19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="73"/>
       <c r="G19" s="15"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1667,11 +1667,11 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="G22" s="15"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1688,10 +1688,10 @@
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="71"/>
       <c r="G23" s="15"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1708,10 +1708,10 @@
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="70">
         <v>1879</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="71"/>
       <c r="G24" s="15"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1728,11 +1728,11 @@
       <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="79">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="71"/>
       <c r="G25" s="15"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1747,8 +1747,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
       <c r="G26" s="15"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1765,11 +1765,11 @@
       <c r="B27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="79">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D27" s="69"/>
+      <c r="D27" s="71"/>
       <c r="G27" s="15"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1786,11 +1786,11 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="79">
         <f>'Financial Model'!U42</f>
         <v>1685</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="71"/>
       <c r="G28" s="15"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1805,8 +1805,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
       <c r="G29" s="15"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1846,10 +1846,10 @@
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="78"/>
       <c r="G31" s="16"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1863,81 +1863,83 @@
       <c r="Q31" s="9"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="68">
         <f>C6/'Financial Model'!U67</f>
         <v>1.1231500460263886</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="69"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="68">
         <f>C8/SUM('Financial Model'!R6:U6)</f>
         <v>0.41777787687114459</v>
       </c>
-      <c r="D36" s="67"/>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="68">
         <f>C12/SUM('Financial Model'!R6:U6)</f>
         <v>0.42954392667694763</v>
       </c>
-      <c r="D37" s="67"/>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="68">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
         <v>8.9160063090667094</v>
       </c>
-      <c r="D38" s="67"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="68">
         <f>C12/SUM('Financial Model'!R17:U17)</f>
         <v>8.8684611654009426</v>
       </c>
-      <c r="D39" s="67"/>
+      <c r="D39" s="69"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
@@ -1950,13 +1952,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{895B3114-FB4F-46F5-A7E6-2022E34FF531}"/>
@@ -1975,7 +1975,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="H26:I29"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="N35:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2014,7 +2014,7 @@
       <c r="J1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="23" t="s">
@@ -2119,18 +2119,28 @@
     </row>
     <row r="2" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
+      <c r="G2" s="27">
+        <v>43589</v>
+      </c>
       <c r="H2" s="27">
         <v>43680</v>
       </c>
       <c r="I2" s="27">
         <v>43771</v>
       </c>
+      <c r="K2" s="27">
+        <v>43953</v>
+      </c>
       <c r="L2" s="27">
         <v>44044</v>
       </c>
       <c r="M2" s="27">
         <v>44135</v>
       </c>
+      <c r="N2" s="27">
+        <f>AG2</f>
+        <v>44226</v>
+      </c>
       <c r="O2" s="27">
         <v>44317</v>
       </c>
@@ -2167,6 +2177,9 @@
     </row>
     <row r="3" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
+      <c r="K3" s="45">
+        <v>44682</v>
+      </c>
       <c r="L3" s="45">
         <v>44409</v>
       </c>
@@ -2199,7 +2212,9 @@
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="G4" s="37">
+        <v>1758</v>
+      </c>
       <c r="H4" s="37">
         <v>1521</v>
       </c>
@@ -2207,14 +2222,19 @@
         <v>1636</v>
       </c>
       <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="K4" s="37">
+        <v>814</v>
+      </c>
       <c r="L4" s="37">
         <v>1388</v>
       </c>
       <c r="M4" s="37">
         <v>1656</v>
       </c>
-      <c r="N4" s="37"/>
+      <c r="N4" s="37">
+        <f>AG4-SUM(K4:M4)</f>
+        <v>1589</v>
+      </c>
       <c r="O4" s="37">
         <v>1620</v>
       </c>
@@ -2256,7 +2276,9 @@
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="G5" s="37">
+        <v>320</v>
+      </c>
       <c r="H5" s="37">
         <v>253</v>
       </c>
@@ -2264,14 +2286,19 @@
         <v>296</v>
       </c>
       <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="K5" s="37">
+        <v>362</v>
+      </c>
       <c r="L5" s="37">
         <v>689</v>
       </c>
       <c r="M5" s="37">
         <v>450</v>
       </c>
-      <c r="N5" s="37"/>
+      <c r="N5" s="37">
+        <f>AG5-SUM(K5:M5)</f>
+        <v>600</v>
+      </c>
       <c r="O5" s="37">
         <v>533</v>
       </c>
@@ -2313,9 +2340,12 @@
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="34">
+        <f t="shared" ref="G6:I6" si="0">G4+G5</f>
+        <v>2078</v>
+      </c>
       <c r="H6" s="34">
-        <f t="shared" ref="H6:I6" si="0">H4+H5</f>
+        <f t="shared" si="0"/>
         <v>1774</v>
       </c>
       <c r="I6" s="34">
@@ -2323,16 +2353,22 @@
         <v>1932</v>
       </c>
       <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="K6" s="34">
+        <f t="shared" ref="K6:U6" si="1">K4+K5</f>
+        <v>1176</v>
+      </c>
       <c r="L6" s="34">
-        <f t="shared" ref="L6:U6" si="1">L4+L5</f>
+        <f t="shared" si="1"/>
         <v>2077</v>
       </c>
       <c r="M6" s="34">
         <f t="shared" si="1"/>
         <v>2106</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="34">
+        <f t="shared" si="1"/>
+        <v>2189</v>
+      </c>
       <c r="O6" s="34">
         <f t="shared" si="1"/>
         <v>2153</v>
@@ -2379,6 +2415,10 @@
         <f>SUM(S6:V6)</f>
         <v>8694.65</v>
       </c>
+      <c r="AJ6" s="34">
+        <f>AI6*(1+AJ21)</f>
+        <v>9042.4359999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -2388,7 +2428,9 @@
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="G7" s="35">
+        <v>1389</v>
+      </c>
       <c r="H7" s="35">
         <v>1240</v>
       </c>
@@ -2396,14 +2438,19 @@
         <v>1312</v>
       </c>
       <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="35">
+        <v>905</v>
+      </c>
       <c r="L7" s="35">
         <v>1539</v>
       </c>
       <c r="M7" s="35">
         <v>1456</v>
       </c>
-      <c r="N7" s="35"/>
+      <c r="N7" s="35">
+        <f>AG7-SUM(K7:M7)</f>
+        <v>1465</v>
+      </c>
       <c r="O7" s="35">
         <v>1404</v>
       </c>
@@ -2442,6 +2489,10 @@
         <f>SUM(S7:V7)</f>
         <v>5874.5219999999999</v>
       </c>
+      <c r="AJ7" s="35">
+        <f>AJ6-AJ8</f>
+        <v>5968.0077599999995</v>
+      </c>
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -2465,7 +2516,7 @@
       </c>
       <c r="G8" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="H8" s="34">
         <f t="shared" si="2"/>
@@ -2481,7 +2532,7 @@
       </c>
       <c r="K8" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="L8" s="34">
         <f t="shared" si="2"/>
@@ -2493,7 +2544,7 @@
       </c>
       <c r="N8" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="O8" s="34">
         <f t="shared" si="2"/>
@@ -2528,7 +2579,7 @@
         <v>730.12800000000016</v>
       </c>
       <c r="AD8" s="34">
-        <f t="shared" ref="AD8:AE8" si="3">AD6-AD7</f>
+        <f t="shared" ref="AD8" si="3">AD6-AD7</f>
         <v>0</v>
       </c>
       <c r="AE8" s="34">
@@ -2550,6 +2601,10 @@
       <c r="AI8" s="62">
         <f>AI6-AI7</f>
         <v>2820.1279999999997</v>
+      </c>
+      <c r="AJ8" s="34">
+        <f>AJ6*AJ26</f>
+        <v>3074.4282400000002</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
@@ -2560,7 +2615,9 @@
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="35">
+        <v>416</v>
+      </c>
       <c r="H9" s="35">
         <v>393</v>
       </c>
@@ -2568,14 +2625,19 @@
         <v>411</v>
       </c>
       <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="35">
+        <v>316</v>
+      </c>
       <c r="L9" s="35">
         <v>387</v>
       </c>
       <c r="M9" s="35">
         <v>424</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="35">
+        <f t="shared" ref="N9:N11" si="5">AG9-SUM(K9:M9)</f>
+        <v>460</v>
+      </c>
       <c r="O9" s="35">
         <v>418</v>
       </c>
@@ -2586,7 +2648,7 @@
         <v>458</v>
       </c>
       <c r="R9" s="35">
-        <f t="shared" ref="R9:R11" si="5">AH9-SUM(O9:Q9)</f>
+        <f t="shared" ref="R9:R11" si="6">AH9-SUM(O9:Q9)</f>
         <v>525</v>
       </c>
       <c r="S9" s="35">
@@ -2616,9 +2678,14 @@
         <v>1851</v>
       </c>
       <c r="AI9" s="57">
-        <f t="shared" ref="AI9:AI11" si="6">SUM(S9:V9)</f>
+        <f t="shared" ref="AI9:AI11" si="7">SUM(S9:V9)</f>
         <v>1861.1465000000001</v>
       </c>
+      <c r="AJ9" s="35">
+        <f>AJ6*0.21</f>
+        <v>1898.9115599999998</v>
+      </c>
+      <c r="AK9" s="35"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -2628,7 +2695,9 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="G10" s="35">
+        <v>44</v>
+      </c>
       <c r="H10" s="35">
         <v>46</v>
       </c>
@@ -2636,14 +2705,19 @@
         <v>44</v>
       </c>
       <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="35">
+        <v>44</v>
+      </c>
       <c r="L10" s="35">
         <v>44</v>
       </c>
       <c r="M10" s="35">
         <v>44</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="35">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
       <c r="O10" s="35">
         <v>45</v>
       </c>
@@ -2654,7 +2728,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="S10" s="35">
@@ -2680,8 +2754,52 @@
         <v>197</v>
       </c>
       <c r="AI10" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>210</v>
+      </c>
+      <c r="AJ10" s="35">
+        <f>AVERAGE(AD10:AI10)</f>
+        <v>194.33333333333334</v>
+      </c>
+      <c r="AK10" s="35">
+        <f t="shared" ref="AK10:AT11" si="8">AVERAGE(AE10:AJ10)</f>
+        <v>194.33333333333334</v>
+      </c>
+      <c r="AL10" s="35">
+        <f t="shared" si="8"/>
+        <v>194.33333333333334</v>
+      </c>
+      <c r="AM10" s="35">
+        <f t="shared" si="8"/>
+        <v>194.33333333333334</v>
+      </c>
+      <c r="AN10" s="35">
+        <f t="shared" si="8"/>
+        <v>197.38888888888891</v>
+      </c>
+      <c r="AO10" s="35">
+        <f t="shared" si="8"/>
+        <v>197.45370370370372</v>
+      </c>
+      <c r="AP10" s="35">
+        <f t="shared" si="8"/>
+        <v>195.36265432098767</v>
+      </c>
+      <c r="AQ10" s="35">
+        <f t="shared" si="8"/>
+        <v>195.53420781893007</v>
+      </c>
+      <c r="AR10" s="35">
+        <f t="shared" si="8"/>
+        <v>195.73435356652951</v>
+      </c>
+      <c r="AS10" s="35">
+        <f t="shared" si="8"/>
+        <v>195.96785693872889</v>
+      </c>
+      <c r="AT10" s="35">
+        <f t="shared" si="8"/>
+        <v>196.24027753962812</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
@@ -2692,7 +2810,9 @@
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
       <c r="H11" s="35">
         <v>14</v>
       </c>
@@ -2700,14 +2820,19 @@
         <v>1</v>
       </c>
       <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="35">
+        <v>16</v>
+      </c>
       <c r="L11" s="35">
         <v>38</v>
       </c>
       <c r="M11" s="35">
         <v>4</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="35">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
       <c r="O11" s="35">
         <v>4</v>
       </c>
@@ -2718,7 +2843,7 @@
         <v>57</v>
       </c>
       <c r="R11" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="S11" s="35">
@@ -2744,8 +2869,52 @@
         <v>172</v>
       </c>
       <c r="AI11" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66.25</v>
+      </c>
+      <c r="AJ11" s="35">
+        <f t="shared" ref="AJ11" si="9">AVERAGE(AD11:AI11)</f>
+        <v>118.41666666666667</v>
+      </c>
+      <c r="AK11" s="35">
+        <f t="shared" si="8"/>
+        <v>118.41666666666667</v>
+      </c>
+      <c r="AL11" s="35">
+        <f t="shared" si="8"/>
+        <v>118.41666666666667</v>
+      </c>
+      <c r="AM11" s="35">
+        <f t="shared" si="8"/>
+        <v>118.41666666666667</v>
+      </c>
+      <c r="AN11" s="35">
+        <f t="shared" si="8"/>
+        <v>118.65277777777777</v>
+      </c>
+      <c r="AO11" s="35">
+        <f t="shared" si="8"/>
+        <v>109.76157407407409</v>
+      </c>
+      <c r="AP11" s="35">
+        <f t="shared" si="8"/>
+        <v>117.01350308641976</v>
+      </c>
+      <c r="AQ11" s="35">
+        <f t="shared" si="8"/>
+        <v>116.77964248971193</v>
+      </c>
+      <c r="AR11" s="35">
+        <f t="shared" si="8"/>
+        <v>116.50680512688615</v>
+      </c>
+      <c r="AS11" s="35">
+        <f t="shared" si="8"/>
+        <v>116.18849487025606</v>
+      </c>
+      <c r="AT11" s="35">
+        <f t="shared" si="8"/>
+        <v>115.8171329041876</v>
       </c>
     </row>
     <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2753,75 +2922,75 @@
         <v>82</v>
       </c>
       <c r="C12" s="34">
-        <f t="shared" ref="C12:T12" si="7">C8-C9-C10-C11</f>
+        <f t="shared" ref="C12:T12" si="10">C8-C9-C10-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G12" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>228</v>
       </c>
       <c r="H12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="I12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="J12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K12" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-105</v>
       </c>
       <c r="L12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="M12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
       <c r="N12" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>161</v>
       </c>
       <c r="O12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>282</v>
       </c>
       <c r="P12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>264</v>
       </c>
       <c r="Q12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="R12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="S12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="T12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="U12" s="34">
@@ -2833,28 +3002,32 @@
         <v>169.73150000000015</v>
       </c>
       <c r="AD12" s="34">
-        <f t="shared" ref="AD12:AE12" si="8">AD8-AD9-AD10-AD11</f>
+        <f t="shared" ref="AD12" si="11">AD8-AD9-AD10-AD11</f>
         <v>0</v>
       </c>
       <c r="AE12" s="34">
-        <f t="shared" ref="AE12:AI12" si="9">AE8-AE9-AE10-AE11</f>
+        <f t="shared" ref="AE12:AJ12" si="12">AE8-AE9-AE10-AE11</f>
         <v>0</v>
       </c>
       <c r="AF12" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG12" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
       <c r="AH12" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>860</v>
       </c>
       <c r="AI12" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>682.73149999999964</v>
+      </c>
+      <c r="AJ12" s="34">
+        <f t="shared" si="12"/>
+        <v>862.76668000000041</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
@@ -2865,7 +3038,9 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="35">
+        <v>4</v>
+      </c>
       <c r="H13" s="35">
         <v>2</v>
       </c>
@@ -2873,14 +3048,19 @@
         <v>3</v>
       </c>
       <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="35">
+        <v>-1</v>
+      </c>
       <c r="L13" s="35">
         <v>-2</v>
       </c>
       <c r="M13" s="35">
         <v>-2</v>
       </c>
-      <c r="N13" s="35"/>
+      <c r="N13" s="35">
+        <f t="shared" ref="N13:N14" si="13">AG13-SUM(K13:M13)</f>
+        <v>-2</v>
+      </c>
       <c r="O13" s="35">
         <v>-2</v>
       </c>
@@ -2891,7 +3071,7 @@
         <v>-4</v>
       </c>
       <c r="R13" s="35">
-        <f t="shared" ref="R13:R14" si="10">AH13-SUM(O13:Q13)</f>
+        <f t="shared" ref="R13:R14" si="14">AH13-SUM(O13:Q13)</f>
         <v>-6</v>
       </c>
       <c r="S13" s="35">
@@ -2917,8 +3097,52 @@
         <v>-14</v>
       </c>
       <c r="AI13" s="57">
-        <f t="shared" ref="AI13:AI14" si="11">SUM(S13:V13)</f>
+        <f t="shared" ref="AI13:AI14" si="15">SUM(S13:V13)</f>
         <v>-17.75</v>
+      </c>
+      <c r="AJ13" s="35">
+        <f t="shared" ref="AJ13:AJ14" si="16">AVERAGE(AD13:AI13)</f>
+        <v>-12.916666666666666</v>
+      </c>
+      <c r="AK13" s="35">
+        <f t="shared" ref="AK13:AK14" si="17">AVERAGE(AE13:AJ13)</f>
+        <v>-12.916666666666666</v>
+      </c>
+      <c r="AL13" s="35">
+        <f t="shared" ref="AL13:AL14" si="18">AVERAGE(AF13:AK13)</f>
+        <v>-12.916666666666666</v>
+      </c>
+      <c r="AM13" s="35">
+        <f t="shared" ref="AM13:AM14" si="19">AVERAGE(AG13:AL13)</f>
+        <v>-12.916666666666666</v>
+      </c>
+      <c r="AN13" s="35">
+        <f t="shared" ref="AN13:AN14" si="20">AVERAGE(AH13:AM13)</f>
+        <v>-13.902777777777779</v>
+      </c>
+      <c r="AO13" s="35">
+        <f t="shared" ref="AO13:AO14" si="21">AVERAGE(AI13:AN13)</f>
+        <v>-13.886574074074071</v>
+      </c>
+      <c r="AP13" s="35">
+        <f t="shared" ref="AP13:AP14" si="22">AVERAGE(AJ13:AO13)</f>
+        <v>-13.242669753086419</v>
+      </c>
+      <c r="AQ13" s="35">
+        <f t="shared" ref="AQ13:AQ14" si="23">AVERAGE(AK13:AP13)</f>
+        <v>-13.297003600823045</v>
+      </c>
+      <c r="AR13" s="35">
+        <f t="shared" ref="AR13:AR14" si="24">AVERAGE(AL13:AQ13)</f>
+        <v>-13.36039308984911</v>
+      </c>
+      <c r="AS13" s="35">
+        <f t="shared" ref="AS13:AS14" si="25">AVERAGE(AM13:AR13)</f>
+        <v>-13.434347493712847</v>
+      </c>
+      <c r="AT13" s="35">
+        <f t="shared" ref="AT13:AT14" si="26">AVERAGE(AN13:AS13)</f>
+        <v>-13.520627631553879</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
@@ -2929,7 +3153,9 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="G14" s="35">
+        <v>2</v>
+      </c>
       <c r="H14" s="35">
         <v>2</v>
       </c>
@@ -2937,14 +3163,19 @@
         <v>4</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="35">
+        <v>1</v>
+      </c>
       <c r="L14" s="35">
         <v>3</v>
       </c>
       <c r="M14" s="35">
         <v>193</v>
       </c>
-      <c r="N14" s="35"/>
+      <c r="N14" s="35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
       <c r="O14" s="35">
         <v>4</v>
       </c>
@@ -2955,7 +3186,7 @@
         <v>30</v>
       </c>
       <c r="R14" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="S14" s="35">
@@ -2981,8 +3212,52 @@
         <v>394</v>
       </c>
       <c r="AI14" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-21.25</v>
+      </c>
+      <c r="AJ14" s="35">
+        <f t="shared" si="16"/>
+        <v>190.25</v>
+      </c>
+      <c r="AK14" s="35">
+        <f t="shared" si="17"/>
+        <v>190.25</v>
+      </c>
+      <c r="AL14" s="35">
+        <f t="shared" si="18"/>
+        <v>190.25</v>
+      </c>
+      <c r="AM14" s="35">
+        <f t="shared" si="19"/>
+        <v>190.25</v>
+      </c>
+      <c r="AN14" s="35">
+        <f t="shared" si="20"/>
+        <v>188.95833333333334</v>
+      </c>
+      <c r="AO14" s="35">
+        <f t="shared" si="21"/>
+        <v>154.78472222222223</v>
+      </c>
+      <c r="AP14" s="35">
+        <f t="shared" si="22"/>
+        <v>184.12384259259261</v>
+      </c>
+      <c r="AQ14" s="35">
+        <f t="shared" si="23"/>
+        <v>183.10281635802471</v>
+      </c>
+      <c r="AR14" s="35">
+        <f t="shared" si="24"/>
+        <v>181.91161908436217</v>
+      </c>
+      <c r="AS14" s="35">
+        <f t="shared" si="25"/>
+        <v>180.52188893175585</v>
+      </c>
+      <c r="AT14" s="35">
+        <f t="shared" si="26"/>
+        <v>178.90053708704849</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
@@ -2990,75 +3265,75 @@
         <v>85</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" ref="C15:T15" si="12">C12+C13+C14</f>
+        <f t="shared" ref="C15:T15" si="27">C12+C13+C14</f>
         <v>0</v>
       </c>
       <c r="D15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G15" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>234</v>
       </c>
       <c r="H15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="I15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>171</v>
       </c>
       <c r="J15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>-105</v>
       </c>
       <c r="L15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>70</v>
       </c>
       <c r="M15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>369</v>
       </c>
       <c r="N15" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>160</v>
       </c>
       <c r="O15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>284</v>
       </c>
       <c r="P15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>587</v>
       </c>
       <c r="Q15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>222</v>
       </c>
       <c r="R15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>147</v>
       </c>
       <c r="S15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>190</v>
       </c>
       <c r="T15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>143</v>
       </c>
       <c r="U15" s="35">
@@ -3070,28 +3345,32 @@
         <v>167.73150000000015</v>
       </c>
       <c r="AD15" s="35">
-        <f t="shared" ref="AD15:AE15" si="13">AD12+AD13+AD14</f>
+        <f t="shared" ref="AD15" si="28">AD12+AD13+AD14</f>
         <v>0</v>
       </c>
       <c r="AE15" s="35">
-        <f t="shared" ref="AE15:AI15" si="14">AE12+AE13+AE14</f>
+        <f t="shared" ref="AE15:AJ15" si="29">AE12+AE13+AE14</f>
         <v>0</v>
       </c>
       <c r="AF15" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AG15" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>494</v>
       </c>
       <c r="AH15" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>1240</v>
       </c>
       <c r="AI15" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>643.73149999999964</v>
+      </c>
+      <c r="AJ15" s="35">
+        <f t="shared" si="29"/>
+        <v>1040.1000133333337</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
@@ -3102,7 +3381,9 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="G16" s="35">
+        <v>62</v>
+      </c>
       <c r="H16" s="35">
         <v>25</v>
       </c>
@@ -3110,14 +3391,19 @@
         <v>46</v>
       </c>
       <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="K16" s="35">
+        <v>5</v>
+      </c>
       <c r="L16" s="35">
         <v>25</v>
       </c>
       <c r="M16" s="35">
         <v>104</v>
       </c>
-      <c r="N16" s="35"/>
+      <c r="N16" s="35">
+        <f>AG16-SUM(K16:M16)</f>
+        <v>37</v>
+      </c>
       <c r="O16" s="35">
         <v>82</v>
       </c>
@@ -3157,81 +3443,85 @@
         <f>SUM(S16:V16)</f>
         <v>209.35139500000005</v>
       </c>
-    </row>
-    <row r="17" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="35">
+        <f>AJ15*AJ29</f>
+        <v>312.03000400000008</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="34">
-        <f t="shared" ref="C17:T17" si="15">C15-C16</f>
+        <f t="shared" ref="C17:T17" si="30">C15-C16</f>
         <v>0</v>
       </c>
       <c r="D17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>172</v>
       </c>
       <c r="H17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>125</v>
       </c>
       <c r="J17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>-110</v>
       </c>
       <c r="L17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>45</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>265</v>
       </c>
       <c r="N17" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>123</v>
       </c>
       <c r="O17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>202</v>
       </c>
       <c r="P17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>430</v>
       </c>
       <c r="Q17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>158</v>
       </c>
       <c r="R17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>102</v>
       </c>
       <c r="S17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="T17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>94</v>
       </c>
       <c r="U17" s="34">
@@ -3244,31 +3534,35 @@
       </c>
       <c r="W17" s="34"/>
       <c r="AD17" s="34">
-        <f t="shared" ref="AD17:AE17" si="16">AD15-AD16</f>
+        <f t="shared" ref="AD17" si="31">AD15-AD16</f>
         <v>0</v>
       </c>
       <c r="AE17" s="34">
-        <f t="shared" ref="AE17:AI17" si="17">AE15-AE16</f>
+        <f t="shared" ref="AE17:AJ17" si="32">AE15-AE16</f>
         <v>0</v>
       </c>
       <c r="AF17" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG17" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>323</v>
       </c>
       <c r="AH17" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>892</v>
       </c>
       <c r="AI17" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>434.38010499999962</v>
       </c>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="34">
+        <f t="shared" si="32"/>
+        <v>728.07000933333359</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
@@ -3276,86 +3570,109 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="G18" s="28">
+        <f t="shared" ref="G18:I18" si="33">G17/G19</f>
+        <v>1.5302491103202847</v>
+      </c>
       <c r="H18" s="28">
-        <f t="shared" ref="H18:I18" si="18">H17/H19</f>
+        <f t="shared" si="33"/>
         <v>0.54151624548736466</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1.1693171188026192</v>
       </c>
       <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="K18" s="28">
+        <f t="shared" ref="K18:V18" si="34">K17/K19</f>
+        <v>-1.0546500479386385</v>
+      </c>
       <c r="L18" s="28">
-        <f t="shared" ref="L18:V18" si="19">L17/L19</f>
+        <f t="shared" si="34"/>
         <v>0.43062200956937802</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>2.5383141762452106</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="28">
+        <f t="shared" si="34"/>
+        <v>1.1792905081495686</v>
+      </c>
       <c r="O18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.9498069498069499</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>4.1425818882466281</v>
       </c>
       <c r="Q18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.5310077519379846</v>
       </c>
       <c r="R18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0.99512195121951219</v>
       </c>
       <c r="S18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.3735691987513008</v>
       </c>
       <c r="T18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0.99893730074388953</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.0278372591006424</v>
       </c>
       <c r="V18" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1.2032131156316928</v>
       </c>
       <c r="AG18" s="28">
-        <f t="shared" ref="AG18:AH18" si="20">AG17/AG19</f>
+        <f t="shared" ref="AG18:AJ18" si="35">AG17/AG19</f>
         <v>3.0968360498561842</v>
       </c>
       <c r="AH18" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>8.7024390243902445</v>
       </c>
       <c r="AI18" s="65">
         <f>AI17/AI19</f>
         <v>4.6507505888650922</v>
       </c>
-    </row>
-    <row r="19" spans="2:35" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="28">
+        <f t="shared" si="35"/>
+        <v>7.7951821127765903</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>4</v>
       </c>
+      <c r="G19" s="36">
+        <v>112.4</v>
+      </c>
       <c r="H19" s="36">
         <v>110.8</v>
       </c>
       <c r="I19" s="36">
         <v>106.9</v>
       </c>
+      <c r="K19" s="36">
+        <v>104.3</v>
+      </c>
       <c r="L19" s="36">
         <v>104.5</v>
       </c>
       <c r="M19" s="36">
         <v>104.4</v>
+      </c>
+      <c r="N19" s="36">
+        <f>AG19</f>
+        <v>104.3</v>
       </c>
       <c r="O19" s="36">
         <v>103.6</v>
@@ -3379,7 +3696,7 @@
       <c r="U19" s="36">
         <v>93.4</v>
       </c>
-      <c r="V19" s="79">
+      <c r="V19" s="67">
         <f>U19</f>
         <v>93.4</v>
       </c>
@@ -3389,29 +3706,53 @@
       <c r="AH19" s="36">
         <v>102.5</v>
       </c>
-      <c r="AI19" s="79">
+      <c r="AI19" s="67">
         <f>V19</f>
         <v>93.4</v>
       </c>
-    </row>
-    <row r="21" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="36">
+        <f>AI19</f>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="K21" s="29">
+        <f t="shared" ref="K21" si="36">K6/G6-1</f>
+        <v>-0.43407122232916262</v>
+      </c>
       <c r="L21" s="29">
-        <f t="shared" ref="L21" si="21">L6/H6-1</f>
+        <f t="shared" ref="L21" si="37">L6/H6-1</f>
         <v>0.17080045095828633</v>
       </c>
       <c r="M21" s="29">
-        <f t="shared" ref="M21" si="22">M6/I6-1</f>
+        <f t="shared" ref="M21" si="38">M6/I6-1</f>
         <v>9.0062111801242128E-2</v>
       </c>
+      <c r="O21" s="29">
+        <f t="shared" ref="O21" si="39">O6/K6-1</f>
+        <v>0.83078231292517013</v>
+      </c>
+      <c r="P21" s="29">
+        <f t="shared" ref="P21" si="40">P6/L6-1</f>
+        <v>9.5329802599903646E-2</v>
+      </c>
+      <c r="Q21" s="29">
+        <f t="shared" ref="Q21" si="41">Q6/M6-1</f>
+        <v>3.9411206077872851E-2</v>
+      </c>
+      <c r="R21" s="29">
+        <f t="shared" ref="R21" si="42">R6/N6-1</f>
+        <v>6.9438099588853275E-2</v>
+      </c>
       <c r="S21" s="29">
-        <f t="shared" ref="S21" si="23">S6/O6-1</f>
+        <f t="shared" ref="S21" si="43">S6/O6-1</f>
         <v>1.021830004644686E-2</v>
       </c>
       <c r="T21" s="29">
-        <f t="shared" ref="T21" si="24">T6/P6-1</f>
+        <f t="shared" ref="T21" si="44">T6/P6-1</f>
         <v>-9.2307692307692313E-2</v>
       </c>
       <c r="U21" s="29">
@@ -3430,25 +3771,48 @@
         <f>AI6/AH6-1</f>
         <v>-2.9398303192677E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ21" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
         <v>125</v>
       </c>
+      <c r="K22" s="40">
+        <f t="shared" ref="K22:K23" si="45">K4/G4-1</f>
+        <v>-0.53697383390216147</v>
+      </c>
       <c r="L22" s="40">
-        <f t="shared" ref="L22:L23" si="25">L4/H4-1</f>
+        <f t="shared" ref="L22:L23" si="46">L4/H4-1</f>
         <v>-8.7442472057856713E-2</v>
       </c>
       <c r="M22" s="40">
-        <f t="shared" ref="M22:M23" si="26">M4/I4-1</f>
+        <f t="shared" ref="M22:M23" si="47">M4/I4-1</f>
         <v>1.2224938875305513E-2</v>
       </c>
+      <c r="O22" s="40">
+        <f t="shared" ref="O22:O23" si="48">O4/K4-1</f>
+        <v>0.99017199017199009</v>
+      </c>
+      <c r="P22" s="40">
+        <f t="shared" ref="P22:P23" si="49">P4/L4-1</f>
+        <v>0.30907780979827093</v>
+      </c>
+      <c r="Q22" s="40">
+        <f t="shared" ref="Q22:Q23" si="50">Q4/M4-1</f>
+        <v>6.0386473429951737E-2</v>
+      </c>
+      <c r="R22" s="40">
+        <f t="shared" ref="R22:R23" si="51">R4/N4-1</f>
+        <v>0.15544367526746372</v>
+      </c>
       <c r="S22" s="40">
-        <f t="shared" ref="S22:S23" si="27">S4/O4-1</f>
+        <f t="shared" ref="S22:S23" si="52">S4/O4-1</f>
         <v>9.6296296296296324E-2</v>
       </c>
       <c r="T22" s="40">
-        <f t="shared" ref="T22:T23" si="28">T4/P4-1</f>
+        <f t="shared" ref="T22:T23" si="53">T4/P4-1</f>
         <v>-5.5586130985140314E-2</v>
       </c>
       <c r="U22" s="40">
@@ -3462,24 +3826,44 @@
       </c>
       <c r="AI22" s="56"/>
     </row>
-    <row r="23" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:46" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="51" t="s">
         <v>126</v>
       </c>
+      <c r="K23" s="40">
+        <f t="shared" si="45"/>
+        <v>0.13125000000000009</v>
+      </c>
       <c r="L23" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="46"/>
         <v>1.7233201581027666</v>
       </c>
       <c r="M23" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>0.52027027027027017</v>
       </c>
+      <c r="O23" s="40">
+        <f t="shared" si="48"/>
+        <v>0.47237569060773477</v>
+      </c>
+      <c r="P23" s="40">
+        <f t="shared" si="49"/>
+        <v>-0.33526850507982586</v>
+      </c>
+      <c r="Q23" s="40">
+        <f t="shared" si="50"/>
+        <v>-3.7777777777777799E-2</v>
+      </c>
+      <c r="R23" s="40">
+        <f t="shared" si="51"/>
+        <v>-0.15833333333333333</v>
+      </c>
       <c r="S23" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v>-0.25140712945590993</v>
       </c>
       <c r="T23" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="53"/>
         <v>-0.23799126637554591</v>
       </c>
       <c r="U23" s="40">
@@ -3493,7 +3877,7 @@
       </c>
       <c r="AI23" s="56"/>
     </row>
-    <row r="24" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:46" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
         <v>90</v>
       </c>
@@ -3501,10 +3885,22 @@
         <f>I6/H6-1</f>
         <v>8.9064261555806157E-2</v>
       </c>
+      <c r="L24" s="30">
+        <f t="shared" ref="L24:M24" si="54">L6/K6-1</f>
+        <v>0.76615646258503411</v>
+      </c>
       <c r="M24" s="30">
         <f>M6/L6-1</f>
         <v>1.3962445835339343E-2</v>
       </c>
+      <c r="N24" s="30">
+        <f t="shared" ref="N24:O24" si="55">N6/M6-1</f>
+        <v>3.9411206077872851E-2</v>
+      </c>
+      <c r="O24" s="30">
+        <f t="shared" si="55"/>
+        <v>-1.6445865692096828E-2</v>
+      </c>
       <c r="P24" s="30">
         <f>P6/O6-1</f>
         <v>5.666511843938693E-2</v>
@@ -3514,15 +3910,15 @@
         <v>-3.7802197802197846E-2</v>
       </c>
       <c r="R24" s="30">
-        <f t="shared" ref="R24:T24" si="29">R6/Q6-1</f>
+        <f t="shared" ref="R24:T24" si="56">R6/Q6-1</f>
         <v>6.9438099588853275E-2</v>
       </c>
       <c r="S24" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>-7.0909867577958141E-2</v>
       </c>
       <c r="T24" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>-5.0574712643678188E-2</v>
       </c>
       <c r="U24" s="30">
@@ -3546,32 +3942,44 @@
       </c>
       <c r="AI24" s="56"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="G26" s="30">
+        <f t="shared" ref="G26:H26" si="57">G8/G6</f>
+        <v>0.33156881616939365</v>
+      </c>
       <c r="H26" s="30">
-        <f t="shared" ref="H26:I26" si="30">H8/H6</f>
+        <f t="shared" ref="H26:I26" si="58">H8/H6</f>
         <v>0.30101465614430667</v>
       </c>
       <c r="I26" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>0.32091097308488614</v>
       </c>
+      <c r="K26" s="30">
+        <f t="shared" ref="K26:L26" si="59">K8/K6</f>
+        <v>0.23044217687074831</v>
+      </c>
       <c r="L26" s="30">
-        <f t="shared" ref="L26:M26" si="31">L8/L6</f>
+        <f t="shared" si="59"/>
         <v>0.2590274434280212</v>
       </c>
       <c r="M26" s="30">
-        <f t="shared" ref="M26:O26" si="32">M8/M6</f>
+        <f t="shared" ref="M26:O26" si="60">M8/M6</f>
         <v>0.30864197530864196</v>
       </c>
+      <c r="N26" s="30">
+        <f t="shared" ref="N26" si="61">N8/N6</f>
+        <v>0.33074463225216993</v>
+      </c>
       <c r="O26" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>0.34788666976312121</v>
       </c>
       <c r="P26" s="30">
-        <f t="shared" ref="P26" si="33">P8/P6</f>
+        <f t="shared" ref="P26" si="62">P8/P6</f>
         <v>0.35076923076923078</v>
       </c>
       <c r="Q26" s="30">
@@ -3579,15 +3987,15 @@
         <v>0.34719049794426676</v>
       </c>
       <c r="R26" s="30">
-        <f t="shared" ref="R26" si="34">R8/R6</f>
+        <f t="shared" ref="R26" si="63">R8/R6</f>
         <v>0.33020076890217853</v>
       </c>
       <c r="S26" s="30">
-        <f t="shared" ref="S26" si="35">S8/S6</f>
+        <f t="shared" ref="S26" si="64">S8/S6</f>
         <v>0.34022988505747126</v>
       </c>
       <c r="T26" s="30">
-        <f t="shared" ref="T26" si="36">T8/T6</f>
+        <f t="shared" ref="T26" si="65">T8/T6</f>
         <v>0.31670702179176757</v>
       </c>
       <c r="U26" s="30">
@@ -3609,33 +4017,78 @@
         <f>AI8/AI6</f>
         <v>0.32435210157970706</v>
       </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="30">
+        <v>0.34</v>
+      </c>
+      <c r="AK26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AL26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AM26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AN26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AO26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AP26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AQ26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AR26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AS26" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="AT26" s="30">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="G27" s="30">
+        <f t="shared" ref="G27:H27" si="66">G12/G6</f>
+        <v>0.109720885466795</v>
+      </c>
       <c r="H27" s="30">
-        <f t="shared" ref="H27:I27" si="37">H12/H6</f>
+        <f t="shared" ref="H27:I27" si="67">H12/H6</f>
         <v>4.5659526493799327E-2</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="67"/>
         <v>8.4886128364389232E-2</v>
       </c>
+      <c r="K27" s="30">
+        <f t="shared" ref="K27:L27" si="68">K12/K6</f>
+        <v>-8.9285714285714288E-2</v>
+      </c>
       <c r="L27" s="30">
-        <f t="shared" ref="L27:M27" si="38">L12/L6</f>
+        <f t="shared" si="68"/>
         <v>3.3220991815117958E-2</v>
       </c>
       <c r="M27" s="30">
-        <f t="shared" ref="M27:O27" si="39">M12/M6</f>
+        <f t="shared" ref="M27:O27" si="69">M12/M6</f>
         <v>8.4520417853751181E-2</v>
       </c>
+      <c r="N27" s="30">
+        <f t="shared" ref="N27" si="70">N12/N6</f>
+        <v>7.3549566011877565E-2</v>
+      </c>
       <c r="O27" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="69"/>
         <v>0.13098002786809104</v>
       </c>
       <c r="P27" s="30">
-        <f t="shared" ref="P27" si="40">P12/P6</f>
+        <f t="shared" ref="P27" si="71">P12/P6</f>
         <v>0.11604395604395605</v>
       </c>
       <c r="Q27" s="30">
@@ -3643,15 +4096,15 @@
         <v>8.9538602101416176E-2</v>
       </c>
       <c r="R27" s="30">
-        <f t="shared" ref="R27" si="41">R12/R6</f>
+        <f t="shared" ref="R27" si="72">R12/R6</f>
         <v>5.0405809483126868E-2</v>
       </c>
       <c r="S27" s="30">
-        <f t="shared" ref="S27" si="42">S12/S6</f>
+        <f t="shared" ref="S27" si="73">S12/S6</f>
         <v>9.9770114942528743E-2</v>
       </c>
       <c r="T27" s="30">
-        <f t="shared" ref="T27" si="43">T12/T6</f>
+        <f t="shared" ref="T27" si="74">T12/T6</f>
         <v>6.7312348668280869E-2</v>
       </c>
       <c r="U27" s="30">
@@ -3674,33 +4127,49 @@
         <f>AI12/AI6</f>
         <v>7.8523172295607027E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="30">
+        <f>AJ12/AJ6</f>
+        <v>9.5413081165296662E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="G28" s="30">
+        <f t="shared" ref="G28:H28" si="75">G17/G6</f>
+        <v>8.2771896053897981E-2</v>
+      </c>
       <c r="H28" s="30">
-        <f t="shared" ref="H28:I28" si="44">H17/H6</f>
+        <f t="shared" ref="H28:I28" si="76">H17/H6</f>
         <v>3.3821871476888386E-2</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="76"/>
         <v>6.4699792960662528E-2</v>
       </c>
+      <c r="K28" s="30">
+        <f t="shared" ref="K28:L28" si="77">K17/K6</f>
+        <v>-9.3537414965986401E-2</v>
+      </c>
       <c r="L28" s="30">
-        <f t="shared" ref="L28:M28" si="45">L17/L6</f>
+        <f t="shared" si="77"/>
         <v>2.1665864227250843E-2</v>
       </c>
       <c r="M28" s="30">
-        <f t="shared" ref="M28:O28" si="46">M17/M6</f>
+        <f t="shared" ref="M28:O28" si="78">M17/M6</f>
         <v>0.12583095916429249</v>
       </c>
+      <c r="N28" s="30">
+        <f t="shared" ref="N28" si="79">N17/N6</f>
+        <v>5.6190041114664233E-2</v>
+      </c>
       <c r="O28" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>9.3822573153738972E-2</v>
       </c>
       <c r="P28" s="30">
-        <f t="shared" ref="P28" si="47">P17/P6</f>
+        <f t="shared" ref="P28" si="80">P17/P6</f>
         <v>0.18901098901098901</v>
       </c>
       <c r="Q28" s="30">
@@ -3708,15 +4177,15 @@
         <v>7.2179077204202829E-2</v>
       </c>
       <c r="R28" s="30">
-        <f t="shared" ref="R28" si="48">R17/R6</f>
+        <f t="shared" ref="R28" si="81">R17/R6</f>
         <v>4.3571123451516446E-2</v>
       </c>
       <c r="S28" s="30">
-        <f t="shared" ref="S28" si="49">S17/S6</f>
+        <f t="shared" ref="S28" si="82">S17/S6</f>
         <v>6.0689655172413794E-2</v>
       </c>
       <c r="T28" s="30">
-        <f t="shared" ref="T28" si="50">T17/T6</f>
+        <f t="shared" ref="T28" si="83">T17/T6</f>
         <v>4.5520581113801452E-2</v>
       </c>
       <c r="U28" s="30">
@@ -3739,33 +4208,49 @@
         <f>AI17/AI6</f>
         <v>4.9959469903906387E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="30">
+        <f>AJ17/AJ6</f>
+        <v>8.0517021003337338E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="G29" s="30">
+        <f t="shared" ref="G29:H29" si="84">G16/G15</f>
+        <v>0.26495726495726496</v>
+      </c>
       <c r="H29" s="30">
-        <f t="shared" ref="H29:I29" si="51">H16/H15</f>
+        <f t="shared" ref="H29:I29" si="85">H16/H15</f>
         <v>0.29411764705882354</v>
       </c>
       <c r="I29" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="85"/>
         <v>0.26900584795321636</v>
       </c>
+      <c r="K29" s="30">
+        <f t="shared" ref="K29:L29" si="86">K16/K15</f>
+        <v>-4.7619047619047616E-2</v>
+      </c>
       <c r="L29" s="30">
-        <f t="shared" ref="L29:M29" si="52">L16/L15</f>
+        <f t="shared" si="86"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:O29" si="53">M16/M15</f>
+        <f t="shared" ref="M29:O29" si="87">M16/M15</f>
         <v>0.28184281842818426</v>
       </c>
+      <c r="N29" s="30">
+        <f t="shared" ref="N29" si="88">N16/N15</f>
+        <v>0.23125000000000001</v>
+      </c>
       <c r="O29" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="87"/>
         <v>0.28873239436619719</v>
       </c>
       <c r="P29" s="30">
-        <f t="shared" ref="P29" si="54">P16/P15</f>
+        <f t="shared" ref="P29" si="89">P16/P15</f>
         <v>0.26746166950596251</v>
       </c>
       <c r="Q29" s="30">
@@ -3773,15 +4258,15 @@
         <v>0.28828828828828829</v>
       </c>
       <c r="R29" s="30">
-        <f t="shared" ref="R29" si="55">R16/R15</f>
+        <f t="shared" ref="R29" si="90">R16/R15</f>
         <v>0.30612244897959184</v>
       </c>
       <c r="S29" s="30">
-        <f t="shared" ref="S29" si="56">S16/S15</f>
+        <f t="shared" ref="S29" si="91">S16/S15</f>
         <v>0.30526315789473685</v>
       </c>
       <c r="T29" s="30">
-        <f t="shared" ref="T29" si="57">T16/T15</f>
+        <f t="shared" ref="T29" si="92">T16/T15</f>
         <v>0.34265734265734266</v>
       </c>
       <c r="U29" s="30">
@@ -3803,30 +4288,63 @@
         <f>AI16/AI15</f>
         <v>0.32521539648129721</v>
       </c>
-    </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AK29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AL29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AM29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AN29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AO29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AP29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AQ29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AR29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AS29" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="AT29" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
       <c r="Q30" s="30"/>
       <c r="U30" s="30"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B32" s="31" t="s">
         <v>127</v>
       </c>
@@ -3837,11 +4355,21 @@
       <c r="B33" s="35" t="s">
         <v>128</v>
       </c>
+      <c r="G33" s="35">
+        <v>3129</v>
+      </c>
       <c r="I33" s="35">
         <v>3160</v>
       </c>
+      <c r="K33" s="35">
+        <v>3113</v>
+      </c>
       <c r="M33" s="35">
         <v>3032</v>
+      </c>
+      <c r="N33" s="35">
+        <f>AG33</f>
+        <v>2998</v>
       </c>
       <c r="O33" s="35">
         <v>2952</v>
@@ -3877,9 +4405,33 @@
       <c r="B34" s="47" t="s">
         <v>129</v>
       </c>
+      <c r="K34" s="48">
+        <f>K33-G33</f>
+        <v>-16</v>
+      </c>
       <c r="M34" s="48">
         <f>M33-I33</f>
         <v>-128</v>
+      </c>
+      <c r="N34" s="48">
+        <f t="shared" ref="N34:R34" si="93">N33-J33</f>
+        <v>2998</v>
+      </c>
+      <c r="O34" s="48">
+        <f t="shared" si="93"/>
+        <v>-161</v>
+      </c>
+      <c r="P34" s="48">
+        <f t="shared" si="93"/>
+        <v>2911</v>
+      </c>
+      <c r="Q34" s="48">
+        <f t="shared" si="93"/>
+        <v>-76</v>
+      </c>
+      <c r="R34" s="48">
+        <f t="shared" si="93"/>
+        <v>-140</v>
       </c>
       <c r="S34" s="48">
         <f>S33-O33</f>
@@ -3904,24 +4456,32 @@
       <c r="B35" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="N35" s="42">
+        <f t="shared" ref="N35" si="94">N33-M33</f>
+        <v>-34</v>
+      </c>
+      <c r="O35" s="42">
+        <f t="shared" ref="O35" si="95">O33-N33</f>
+        <v>-46</v>
+      </c>
       <c r="P35" s="42">
-        <f t="shared" ref="P35:T35" si="58">P33-O33</f>
+        <f t="shared" ref="P35:T35" si="96">P33-O33</f>
         <v>-41</v>
       </c>
       <c r="Q35" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="96"/>
         <v>45</v>
       </c>
       <c r="R35" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="96"/>
         <v>-98</v>
       </c>
       <c r="S35" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="96"/>
         <v>-43</v>
       </c>
       <c r="T35" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="96"/>
         <v>-16</v>
       </c>
       <c r="U35" s="42">
@@ -3947,40 +4507,52 @@
       <c r="B36" s="43" t="s">
         <v>130</v>
       </c>
+      <c r="G36" s="44">
+        <f t="shared" ref="G36:K36" si="97">G4/G33</f>
+        <v>0.5618408437200384</v>
+      </c>
       <c r="I36" s="44">
-        <f t="shared" ref="I36" si="59">I4/I33</f>
+        <f t="shared" si="97"/>
         <v>0.51772151898734176</v>
       </c>
+      <c r="K36" s="44">
+        <f t="shared" si="97"/>
+        <v>0.26148409893992935</v>
+      </c>
       <c r="M36" s="44">
-        <f t="shared" ref="M36:U36" si="60">M4/M33</f>
+        <f t="shared" ref="M36:U36" si="98">M4/M33</f>
         <v>0.54617414248021112</v>
       </c>
+      <c r="N36" s="44">
+        <f t="shared" si="98"/>
+        <v>0.53002001334222815</v>
+      </c>
       <c r="O36" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="98"/>
         <v>0.54878048780487809</v>
       </c>
       <c r="P36" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="98"/>
         <v>0.62418412916523536</v>
       </c>
       <c r="Q36" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="98"/>
         <v>0.59404600811907982</v>
       </c>
       <c r="R36" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="98"/>
         <v>0.64240727781665496</v>
       </c>
       <c r="S36" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="98"/>
         <v>0.63090586145648309</v>
       </c>
       <c r="T36" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="98"/>
         <v>0.61307609860664525</v>
       </c>
       <c r="U36" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="98"/>
         <v>0.65068002863278451</v>
       </c>
       <c r="V36" s="60"/>
@@ -4046,6 +4618,10 @@
         <v>351</v>
       </c>
       <c r="V41" s="55"/>
+      <c r="AH41" s="34">
+        <f>R41</f>
+        <v>804</v>
+      </c>
       <c r="AI41" s="55"/>
     </row>
     <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4090,6 +4666,10 @@
         <v>1685</v>
       </c>
       <c r="V42" s="55"/>
+      <c r="AH42" s="34">
+        <f>R42</f>
+        <v>1266</v>
+      </c>
       <c r="AI42" s="55"/>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.2">
@@ -4133,69 +4713,73 @@
       <c r="U43" s="35">
         <v>302</v>
       </c>
+      <c r="AH43" s="35">
+        <f>R43</f>
+        <v>293</v>
+      </c>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="35">
-        <f t="shared" ref="C44:T44" si="61">SUM(C41:C43)</f>
+        <f t="shared" ref="C44:T44" si="99">SUM(C41:C43)</f>
         <v>0</v>
       </c>
       <c r="D44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="E44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="F44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="G44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="H44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="I44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>2347</v>
       </c>
       <c r="J44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>2823</v>
       </c>
       <c r="N44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="O44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>3267</v>
       </c>
       <c r="P44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>3178</v>
       </c>
       <c r="Q44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>2893</v>
       </c>
       <c r="R44" s="35">
@@ -4203,16 +4787,20 @@
         <v>2363</v>
       </c>
       <c r="S44" s="35">
-        <f t="shared" ref="S44" si="62">SUM(S41:S43)</f>
+        <f t="shared" ref="S44" si="100">SUM(S41:S43)</f>
         <v>2233</v>
       </c>
       <c r="T44" s="35">
-        <f t="shared" si="61"/>
+        <f t="shared" si="99"/>
         <v>2315</v>
       </c>
       <c r="U44" s="35">
         <f>SUM(U41:U43)</f>
         <v>2338</v>
+      </c>
+      <c r="AH44" s="35">
+        <f>SUM(AH41:AH43)</f>
+        <v>2363</v>
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.2">
@@ -4256,6 +4844,10 @@
       <c r="U45" s="35">
         <v>897</v>
       </c>
+      <c r="AH45" s="35">
+        <f t="shared" ref="AH45:AH50" si="101">R45</f>
+        <v>917</v>
+      </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -4298,6 +4890,10 @@
       <c r="U46" s="35">
         <v>2449</v>
       </c>
+      <c r="AH46" s="35">
+        <f t="shared" si="101"/>
+        <v>2616</v>
+      </c>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
@@ -4339,6 +4935,10 @@
       </c>
       <c r="U47" s="35">
         <v>65</v>
+      </c>
+      <c r="AH47" s="35">
+        <f t="shared" si="101"/>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.2">
@@ -4391,6 +4991,10 @@
         <f>764+424</f>
         <v>1188</v>
       </c>
+      <c r="AH48" s="35">
+        <f t="shared" si="101"/>
+        <v>1251</v>
+      </c>
     </row>
     <row r="49" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
@@ -4433,6 +5037,10 @@
       <c r="U49" s="35">
         <v>722</v>
       </c>
+      <c r="AH49" s="35">
+        <f t="shared" si="101"/>
+        <v>781</v>
+      </c>
     </row>
     <row r="50" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
@@ -4475,69 +5083,73 @@
       <c r="U50" s="35">
         <v>103</v>
       </c>
+      <c r="AH50" s="35">
+        <f t="shared" si="101"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="51" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="35">
-        <f t="shared" ref="C51:T51" si="63">SUM(C45:C50)+C44</f>
+        <f t="shared" ref="C51:T51" si="102">SUM(C45:C50)+C44</f>
         <v>0</v>
       </c>
       <c r="D51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="E51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="F51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="G51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="H51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="I51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>6621</v>
       </c>
       <c r="J51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="K51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="L51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="M51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>7018</v>
       </c>
       <c r="N51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="O51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>7442</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>7585</v>
       </c>
       <c r="Q51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>8211</v>
       </c>
       <c r="R51" s="35">
@@ -4545,16 +5157,20 @@
         <v>8135</v>
       </c>
       <c r="S51" s="35">
-        <f t="shared" ref="S51" si="64">SUM(S45:S50)+S44</f>
+        <f t="shared" ref="S51" si="103">SUM(S45:S50)+S44</f>
         <v>7878</v>
       </c>
       <c r="T51" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="102"/>
         <v>7868</v>
       </c>
       <c r="U51" s="35">
         <f>SUM(U45:U50)+U44</f>
         <v>7762</v>
+      </c>
+      <c r="AH51" s="35">
+        <f>SUM(AH45:AH50)+AH44</f>
+        <v>8135</v>
       </c>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.2">
@@ -4598,6 +5214,10 @@
       <c r="U53" s="35">
         <v>522</v>
       </c>
+      <c r="AH53" s="35">
+        <f t="shared" ref="AH53:AH54" si="104">R53</f>
+        <v>596</v>
+      </c>
     </row>
     <row r="54" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
@@ -4640,6 +5260,10 @@
       <c r="U54" s="35">
         <v>455</v>
       </c>
+      <c r="AH54" s="35">
+        <f t="shared" si="104"/>
+        <v>561</v>
+      </c>
     </row>
     <row r="55" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
@@ -4683,6 +5307,10 @@
         <v>6</v>
       </c>
       <c r="V55" s="55"/>
+      <c r="AH55" s="34">
+        <f>R55</f>
+        <v>6</v>
+      </c>
       <c r="AI55" s="55"/>
     </row>
     <row r="56" spans="2:35" x14ac:dyDescent="0.2">
@@ -4726,69 +5354,73 @@
       <c r="U56" s="35">
         <v>539</v>
       </c>
+      <c r="AH56" s="35">
+        <f>R56</f>
+        <v>572</v>
+      </c>
     </row>
     <row r="57" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="35">
-        <f t="shared" ref="C57:T57" si="65">SUM(C53:C56)</f>
+        <f t="shared" ref="C57:T57" si="105">SUM(C53:C56)</f>
         <v>0</v>
       </c>
       <c r="D57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="E57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="F57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="G57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="H57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="I57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>1237</v>
       </c>
       <c r="J57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="K57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="M57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>1542</v>
       </c>
       <c r="N57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>1913</v>
       </c>
       <c r="P57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>1681</v>
       </c>
       <c r="Q57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>1757</v>
       </c>
       <c r="R57" s="35">
@@ -4796,16 +5428,20 @@
         <v>1735</v>
       </c>
       <c r="S57" s="35">
-        <f t="shared" ref="S57" si="66">SUM(S53:S56)</f>
+        <f t="shared" ref="S57" si="106">SUM(S53:S56)</f>
         <v>1556</v>
       </c>
       <c r="T57" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>1585</v>
       </c>
       <c r="U57" s="35">
         <f>SUM(U53:U56)</f>
         <v>1522</v>
+      </c>
+      <c r="AH57" s="35">
+        <f t="shared" ref="AH57" si="107">SUM(AH53:AH56)</f>
+        <v>1735</v>
       </c>
     </row>
     <row r="58" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4850,6 +5486,10 @@
         <v>448</v>
       </c>
       <c r="V58" s="55"/>
+      <c r="AH58" s="34">
+        <f>R58</f>
+        <v>451</v>
+      </c>
       <c r="AI58" s="55"/>
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.2">
@@ -4893,6 +5533,10 @@
       <c r="U59" s="35">
         <v>2212</v>
       </c>
+      <c r="AH59" s="35">
+        <f t="shared" ref="AH59:AH60" si="108">R59</f>
+        <v>2363</v>
+      </c>
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
@@ -4935,69 +5579,73 @@
       <c r="U60" s="35">
         <v>321</v>
       </c>
+      <c r="AH60" s="35">
+        <f t="shared" si="108"/>
+        <v>343</v>
+      </c>
     </row>
     <row r="61" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="35">
-        <f t="shared" ref="C61:T61" si="67">SUM(C58:C60)+C57</f>
+        <f t="shared" ref="C61:T61" si="109">SUM(C58:C60)+C57</f>
         <v>0</v>
       </c>
       <c r="D61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="E61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="F61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="G61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>3654</v>
       </c>
       <c r="J61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="K61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="L61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="M61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>4366</v>
       </c>
       <c r="N61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>4512</v>
       </c>
       <c r="P61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>4244</v>
       </c>
       <c r="Q61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>4869</v>
       </c>
       <c r="R61" s="35">
@@ -5005,17 +5653,21 @@
         <v>4892</v>
       </c>
       <c r="S61" s="35">
-        <f t="shared" ref="S61" si="68">SUM(S58:S60)+S57</f>
+        <f t="shared" ref="S61" si="110">SUM(S58:S60)+S57</f>
         <v>4663</v>
       </c>
       <c r="T61" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="109"/>
         <v>4651</v>
       </c>
       <c r="U61" s="35">
         <f>SUM(U58:U60)+U57</f>
         <v>4503</v>
       </c>
+      <c r="AH61" s="35">
+        <f t="shared" ref="AH61" si="111">SUM(AH58:AH60)+AH57</f>
+        <v>4892</v>
+      </c>
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
@@ -5048,69 +5700,73 @@
       <c r="U63" s="35">
         <v>3259</v>
       </c>
+      <c r="AH63" s="35">
+        <f>R63</f>
+        <v>3243</v>
+      </c>
     </row>
     <row r="64" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C64" s="35">
-        <f t="shared" ref="C64:T64" si="69">C63+C61</f>
+        <f t="shared" ref="C64:T64" si="112">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="E64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="F64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="G64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="H64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="I64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>6081</v>
       </c>
       <c r="J64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="K64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="L64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>7018</v>
       </c>
       <c r="N64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>7442</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>7585</v>
       </c>
       <c r="Q64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>8211</v>
       </c>
       <c r="R64" s="35">
@@ -5118,36 +5774,40 @@
         <v>8135</v>
       </c>
       <c r="S64" s="35">
-        <f t="shared" ref="S64" si="70">S63+S61</f>
+        <f t="shared" ref="S64" si="113">S63+S61</f>
         <v>7878</v>
       </c>
       <c r="T64" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>7868</v>
       </c>
       <c r="U64" s="35">
         <f>U63+U61</f>
         <v>7762</v>
       </c>
+      <c r="AH64" s="35">
+        <f t="shared" ref="AH64" si="114">AH63+AH61</f>
+        <v>8135</v>
+      </c>
     </row>
     <row r="66" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I66" s="35">
-        <f t="shared" ref="I66" si="71">I51-I61</f>
+        <f t="shared" ref="I66" si="115">I51-I61</f>
         <v>2967</v>
       </c>
       <c r="M66" s="35">
-        <f t="shared" ref="M66:O66" si="72">M51-M61</f>
+        <f t="shared" ref="M66:O66" si="116">M51-M61</f>
         <v>2652</v>
       </c>
       <c r="O66" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="116"/>
         <v>2930</v>
       </c>
       <c r="P66" s="35">
-        <f t="shared" ref="P66" si="73">P51-P61</f>
+        <f t="shared" ref="P66" si="117">P51-P61</f>
         <v>3341</v>
       </c>
       <c r="Q66" s="35">
@@ -5159,36 +5819,40 @@
         <v>3243</v>
       </c>
       <c r="S66" s="35">
-        <f t="shared" ref="S66" si="74">S51-S61</f>
+        <f t="shared" ref="S66" si="118">S51-S61</f>
         <v>3215</v>
       </c>
       <c r="T66" s="35">
-        <f t="shared" ref="T66" si="75">T51-T61</f>
+        <f t="shared" ref="T66" si="119">T51-T61</f>
         <v>3217</v>
       </c>
       <c r="U66" s="35">
         <f>U51-U61</f>
         <v>3259</v>
       </c>
+      <c r="AH66" s="35">
+        <f>AH51-AH61</f>
+        <v>3243</v>
+      </c>
     </row>
     <row r="67" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67" si="76">I66/I19</f>
+        <f t="shared" ref="I67" si="120">I66/I19</f>
         <v>27.754911131898968</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:O67" si="77">M66/M19</f>
+        <f t="shared" ref="M67:O67" si="121">M66/M19</f>
         <v>25.402298850574713</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="121"/>
         <v>28.281853281853284</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="78">P66/P19</f>
+        <f t="shared" ref="P67" si="122">P66/P19</f>
         <v>32.186897880539497</v>
       </c>
       <c r="Q67" s="1">
@@ -5196,84 +5860,88 @@
         <v>32.383720930232556</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67:S67" si="79">R66/R19</f>
+        <f t="shared" ref="R67:S67" si="123">R66/R19</f>
         <v>31.639024390243904</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>33.454734651404792</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" ref="T67" si="80">T66/T19</f>
+        <f t="shared" ref="T67" si="124">T66/T19</f>
         <v>34.187035069075456</v>
       </c>
       <c r="U67" s="1">
         <f>U66/U19</f>
         <v>34.892933618843678</v>
       </c>
+      <c r="AH67" s="1">
+        <f>AH66/AH19</f>
+        <v>31.639024390243904</v>
+      </c>
     </row>
     <row r="69" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="37">
-        <f t="shared" ref="C69:T69" si="81">C41</f>
+        <f t="shared" ref="C69:T69" si="125">C41</f>
         <v>0</v>
       </c>
       <c r="D69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="E69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="F69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="H69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="I69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>744</v>
       </c>
       <c r="J69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="L69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="M69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>1393</v>
       </c>
       <c r="N69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>1963</v>
       </c>
       <c r="P69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>1845</v>
       </c>
       <c r="Q69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>1339</v>
       </c>
       <c r="R69" s="37">
@@ -5281,11 +5949,11 @@
         <v>804</v>
       </c>
       <c r="S69" s="37">
-        <f t="shared" ref="S69" si="82">S41</f>
+        <f t="shared" ref="S69" si="126">S41</f>
         <v>551</v>
       </c>
       <c r="T69" s="37">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>386</v>
       </c>
       <c r="U69" s="37">
@@ -5293,6 +5961,10 @@
         <v>351</v>
       </c>
       <c r="V69" s="54"/>
+      <c r="AH69" s="37">
+        <f>AH41</f>
+        <v>804</v>
+      </c>
       <c r="AI69" s="54"/>
     </row>
     <row r="70" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -5300,63 +5972,63 @@
         <v>7</v>
       </c>
       <c r="C70" s="37">
-        <f t="shared" ref="C70:T70" si="83">C55+C58</f>
+        <f t="shared" ref="C70:T70" si="127">C55+C58</f>
         <v>0</v>
       </c>
       <c r="D70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="E70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="F70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="G70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="I70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>122</v>
       </c>
       <c r="J70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="K70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="L70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="M70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>131</v>
       </c>
       <c r="N70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>109</v>
       </c>
       <c r="P70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>112</v>
       </c>
       <c r="Q70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>560</v>
       </c>
       <c r="R70" s="37">
@@ -5364,11 +6036,11 @@
         <v>457</v>
       </c>
       <c r="S70" s="37">
-        <f t="shared" ref="S70" si="84">S55+S58</f>
+        <f t="shared" ref="S70" si="128">S55+S58</f>
         <v>456</v>
       </c>
       <c r="T70" s="37">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>455</v>
       </c>
       <c r="U70" s="37">
@@ -5376,6 +6048,10 @@
         <v>454</v>
       </c>
       <c r="V70" s="54"/>
+      <c r="AH70" s="37">
+        <f>AH55+AH58</f>
+        <v>457</v>
+      </c>
       <c r="AI70" s="54"/>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.2">
@@ -5383,63 +6059,63 @@
         <v>8</v>
       </c>
       <c r="C71" s="35">
-        <f t="shared" ref="C71:T71" si="85">C69-C70</f>
+        <f t="shared" ref="C71:T71" si="129">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="E71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="F71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="G71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="H71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="I71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>622</v>
       </c>
       <c r="J71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="K71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="M71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>1262</v>
       </c>
       <c r="N71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>1854</v>
       </c>
       <c r="P71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>1733</v>
       </c>
       <c r="Q71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>779</v>
       </c>
       <c r="R71" s="35">
@@ -5447,32 +6123,36 @@
         <v>347</v>
       </c>
       <c r="S71" s="35">
-        <f t="shared" ref="S71" si="86">S69-S70</f>
+        <f t="shared" ref="S71" si="130">S69-S70</f>
         <v>95</v>
       </c>
       <c r="T71" s="35">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>-69</v>
       </c>
       <c r="U71" s="35">
         <f>U69-U70</f>
         <v>-103</v>
       </c>
+      <c r="AH71" s="35">
+        <f>AH69-AH70</f>
+        <v>347</v>
+      </c>
     </row>
     <row r="73" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
       <c r="M73" s="30">
-        <f t="shared" ref="M73" si="87">M42/I42-1</f>
+        <f t="shared" ref="M73" si="131">M42/I42-1</f>
         <v>-8.5122699386503076E-2</v>
       </c>
       <c r="Q73" s="30">
-        <f t="shared" ref="Q73:S73" si="88">Q42/M42-1</f>
+        <f t="shared" ref="Q73:S73" si="132">Q42/M42-1</f>
         <v>9.0528080469404859E-2</v>
       </c>
       <c r="S73" s="30">
-        <f t="shared" si="88"/>
+        <f t="shared" si="132"/>
         <v>0.37218413320274246</v>
       </c>
       <c r="T73" s="30">
@@ -5489,7 +6169,7 @@
         <v>122</v>
       </c>
       <c r="P74" s="30">
-        <f t="shared" ref="P74" si="89">P42/O42-1</f>
+        <f t="shared" ref="P74" si="133">P42/O42-1</f>
         <v>5.8765915768854038E-2</v>
       </c>
       <c r="Q74" s="30">
@@ -5501,11 +6181,11 @@
         <v>-2.6902382782475032E-2</v>
       </c>
       <c r="S74" s="30">
-        <f t="shared" ref="S74:T74" si="90">S42/R42-1</f>
+        <f t="shared" ref="S74:T74" si="134">S42/R42-1</f>
         <v>0.10663507109004744</v>
       </c>
       <c r="T74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="134"/>
         <v>0.17344753747323338</v>
       </c>
       <c r="U74" s="30">
@@ -5520,21 +6200,25 @@
         <v>120</v>
       </c>
       <c r="R75" s="30">
-        <f t="shared" ref="R75:T75" si="91">R42/SUM(O6:R6)</f>
+        <f t="shared" ref="R75:T75" si="135">R42/SUM(O6:R6)</f>
         <v>0.14132618888144674</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="135"/>
         <v>0.15601336302895322</v>
       </c>
       <c r="T75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="135"/>
         <v>0.18745724059293045</v>
       </c>
       <c r="U75" s="30">
         <f>U42/SUM(R6:U6)</f>
         <v>0.19248343614347727</v>
       </c>
+      <c r="AH75" s="30">
+        <f>AH42/AH6</f>
+        <v>0.14132618888144674</v>
+      </c>
     </row>
     <row r="77" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B77" s="28" t="s">
@@ -5561,17 +6245,21 @@
       <c r="U77" s="38">
         <v>31.1</v>
       </c>
+      <c r="AH77" s="1">
+        <f>R77</f>
+        <v>42.16</v>
+      </c>
     </row>
     <row r="78" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O78" s="35">
-        <f t="shared" ref="O78" si="92">O77*O19</f>
+        <f t="shared" ref="O78" si="136">O77*O19</f>
         <v>6119.652</v>
       </c>
       <c r="P78" s="35">
-        <f t="shared" ref="P78" si="93">P77*P19</f>
+        <f t="shared" ref="P78" si="137">P77*P19</f>
         <v>5546.0339999999997</v>
       </c>
       <c r="Q78" s="35">
@@ -5579,32 +6267,36 @@
         <v>4635.7440000000006</v>
       </c>
       <c r="R78" s="35">
-        <f t="shared" ref="R78" si="94">R77*R19</f>
+        <f t="shared" ref="R78" si="138">R77*R19</f>
         <v>4321.3999999999996</v>
       </c>
       <c r="S78" s="35">
-        <f t="shared" ref="S78" si="95">S77*S19</f>
+        <f t="shared" ref="S78" si="139">S77*S19</f>
         <v>2710.02</v>
       </c>
       <c r="T78" s="35">
-        <f t="shared" ref="T78" si="96">T77*T19</f>
+        <f t="shared" ref="T78" si="140">T77*T19</f>
         <v>2610.3339999999998</v>
       </c>
       <c r="U78" s="35">
         <f>U77*U19</f>
         <v>2904.7400000000002</v>
       </c>
+      <c r="AH78" s="35">
+        <f>AH77*AH19</f>
+        <v>4321.3999999999996</v>
+      </c>
     </row>
     <row r="79" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O79" s="35">
-        <f t="shared" ref="O79" si="97">O78-O71</f>
+        <f t="shared" ref="O79" si="141">O78-O71</f>
         <v>4265.652</v>
       </c>
       <c r="P79" s="35">
-        <f t="shared" ref="P79" si="98">P78-P71</f>
+        <f t="shared" ref="P79" si="142">P78-P71</f>
         <v>3813.0339999999997</v>
       </c>
       <c r="Q79" s="35">
@@ -5612,32 +6304,36 @@
         <v>3856.7440000000006</v>
       </c>
       <c r="R79" s="35">
-        <f t="shared" ref="R79" si="99">R78-R71</f>
+        <f t="shared" ref="R79" si="143">R78-R71</f>
         <v>3974.3999999999996</v>
       </c>
       <c r="S79" s="35">
-        <f t="shared" ref="S79" si="100">S78-S71</f>
+        <f t="shared" ref="S79" si="144">S78-S71</f>
         <v>2615.02</v>
       </c>
       <c r="T79" s="35">
-        <f t="shared" ref="T79" si="101">T78-T71</f>
+        <f t="shared" ref="T79" si="145">T78-T71</f>
         <v>2679.3339999999998</v>
       </c>
       <c r="U79" s="35">
         <f>U78-U71</f>
         <v>3007.7400000000002</v>
       </c>
+      <c r="AH79" s="35">
+        <f>AH78-AH71</f>
+        <v>3974.3999999999996</v>
+      </c>
     </row>
     <row r="81" spans="2:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="33" t="s">
         <v>22</v>
       </c>
       <c r="O81" s="33">
-        <f t="shared" ref="O81" si="102">O77/O67</f>
+        <f t="shared" ref="O81" si="146">O77/O67</f>
         <v>2.0886184300341295</v>
       </c>
       <c r="P81" s="33">
-        <f t="shared" ref="P81" si="103">P77/P67</f>
+        <f t="shared" ref="P81" si="147">P77/P67</f>
         <v>1.6599922178988327</v>
       </c>
       <c r="Q81" s="33">
@@ -5645,15 +6341,15 @@
         <v>1.387116696588869</v>
       </c>
       <c r="R81" s="33">
-        <f t="shared" ref="R81" si="104">R77/R67</f>
+        <f t="shared" ref="R81" si="148">R77/R67</f>
         <v>1.3325316065371569</v>
       </c>
       <c r="S81" s="33">
-        <f t="shared" ref="S81" si="105">S77/S67</f>
+        <f t="shared" ref="S81" si="149">S77/S67</f>
         <v>0.84293001555209934</v>
       </c>
       <c r="T81" s="33">
-        <f t="shared" ref="T81" si="106">T77/T67</f>
+        <f t="shared" ref="T81" si="150">T77/T67</f>
         <v>0.81141871308672664</v>
       </c>
       <c r="U81" s="33">
@@ -5661,42 +6357,62 @@
         <v>0.8912979441546488</v>
       </c>
       <c r="V81" s="61"/>
+      <c r="AH81" s="33">
+        <f>AH77/AH67</f>
+        <v>1.3325316065371569</v>
+      </c>
       <c r="AI81" s="61"/>
     </row>
     <row r="82" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AH82" s="33">
+        <f>AH78/AH6</f>
+        <v>0.4824067872292922</v>
+      </c>
     </row>
     <row r="83" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AH83" s="33">
+        <f>AH79/AH6</f>
+        <v>0.44367046215673139</v>
+      </c>
     </row>
     <row r="84" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R84" s="33">
-        <f t="shared" ref="R84:T84" si="107">R77/SUM(O18:R18)</f>
+        <f t="shared" ref="R84:T84" si="151">R77/SUM(O18:R18)</f>
         <v>4.8917919939957191</v>
       </c>
       <c r="S84" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="151"/>
         <v>3.5064679704443651</v>
       </c>
       <c r="T84" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="151"/>
         <v>5.662800594373258</v>
       </c>
       <c r="U84" s="33">
         <f>U77/SUM(R18:U18)</f>
         <v>7.0754732383764916</v>
       </c>
+      <c r="AH84" s="33">
+        <f>AH77/AH18</f>
+        <v>4.844618834080717</v>
+      </c>
     </row>
     <row r="85" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="AH85" s="33">
+        <f>AH79/AH17</f>
+        <v>4.4556053811659186</v>
       </c>
     </row>
     <row r="86" spans="2:35" x14ac:dyDescent="0.2">
@@ -5713,14 +6429,15 @@
     <hyperlink ref="AH1" r:id="rId5" xr:uid="{38A8ED3A-2717-4FEA-BB5C-B793AAB5C38B}"/>
     <hyperlink ref="M1" r:id="rId6" xr:uid="{43A5C21D-F886-4FCB-A94B-86147CFAE126}"/>
     <hyperlink ref="L1" r:id="rId7" xr:uid="{9446438F-F601-4E14-BBC3-368E3CAEABAA}"/>
+    <hyperlink ref="K1" r:id="rId8" xr:uid="{98932DF5-0820-4069-ACE8-E0B2BFF6C5E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="R6:R17 V12 AI8:AI15 AI16:AI19" formula="1"/>
+    <ignoredError sqref="R6:R17 V12 AI8:AI15 AI16:AI19 T44 T51:T68 AH59:AH64 AH57:AH58 AH44:AH56 AJ12 N6:N19" formula="1"/>
     <ignoredError sqref="AH8 AH15 AH12" formula="1" formulaRange="1"/>
     <ignoredError sqref="AH17" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/$FL.xlsx
+++ b/$FL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54CF69F-F907-4B66-A8A4-4562DC3E08B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E933B1-EC79-574B-89AB-0A3D7FF98F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -673,14 +683,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -690,7 +699,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -718,7 +727,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -736,7 +745,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,9 +761,6 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -790,22 +795,19 @@
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,7 +825,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1314,632 +1322,629 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13917F-DFCA-4AA6-ACFC-026B1E81207F}">
   <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="74" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="G5" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>39.19</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>93.320426999999995</v>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>$C$30</f>
         <v>Q322</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G7" s="14"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f>C6*C7</f>
         <v>3657.2275341299996</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f>'Financial Model'!U69</f>
         <v>351</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="16" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$30</f>
         <v>Q322</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G9" s="14"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f>'Financial Model'!U70</f>
         <v>454</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G10" s="14"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f>C9-C10</f>
         <v>-103</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <f>C8-C11</f>
         <v>3760.2275341299996</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G13" s="15"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G14" s="15"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="74" t="s">
+      <c r="D12" s="17"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G13" s="14"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G14" s="14"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="D16" s="68"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="D17" s="68"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
+      <c r="D18" s="68"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="G20" s="15"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="D19" s="76"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="G20" s="14"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G21" s="15"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="74" t="s">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G21" s="14"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
+      <c r="D23" s="68"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="67">
         <v>1879</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
+      <c r="D24" s="68"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="69">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="D25" s="68"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="12"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="69">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
+      <c r="D27" s="68"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="69">
         <f>'Financial Model'!U42</f>
         <v>1685</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+      <c r="D28" s="68"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="12"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="46">
-        <f>'Financial Model'!U3</f>
-        <v>43405</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
+      <c r="D30" s="77">
+        <v>45248</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="74" t="s">
+      <c r="D31" s="74"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="65">
         <f>C6/'Financial Model'!U67</f>
         <v>1.1231500460263886</v>
       </c>
-      <c r="D35" s="69"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
+      <c r="D35" s="66"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="65">
         <f>C8/SUM('Financial Model'!R6:U6)</f>
         <v>0.41777787687114459</v>
       </c>
-      <c r="D36" s="69"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
+      <c r="D36" s="66"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="65">
         <f>C12/SUM('Financial Model'!R6:U6)</f>
         <v>0.42954392667694763</v>
       </c>
-      <c r="D37" s="69"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
+      <c r="D37" s="66"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="65">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
         <v>8.9160063090667094</v>
       </c>
-      <c r="D38" s="69"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
+      <c r="D38" s="66"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="68">
+      <c r="C39" s="65">
         <f>C12/SUM('Financial Model'!R17:U17)</f>
         <v>8.8684611654009426</v>
       </c>
-      <c r="D39" s="69"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
+      <c r="D39" s="66"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="14"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
@@ -1952,11 +1957,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{895B3114-FB4F-46F5-A7E6-2022E34FF531}"/>
@@ -1971,3705 +1978,3705 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9C1236-EF31-448C-82ED-0941EE456E01}">
   <dimension ref="A1:AT86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="P35" sqref="N35:P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="54"/>
-    <col min="23" max="34" width="9.140625" style="1"/>
-    <col min="35" max="35" width="9.140625" style="54"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="21" width="9.1640625" style="1"/>
+    <col min="22" max="22" width="9.1640625" style="51"/>
+    <col min="23" max="34" width="9.1640625" style="1"/>
+    <col min="35" max="35" width="9.1640625" style="51"/>
+    <col min="36" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:46" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AH1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="52" t="s">
+      <c r="AI1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AP1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AS1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AT1" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="G2" s="27">
+    <row r="2" spans="1:46" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="G2" s="26">
         <v>43589</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>43680</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="26">
         <v>43771</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="26">
         <v>43953</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="26">
         <v>44044</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="26">
         <v>44135</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="26">
         <f>AG2</f>
         <v>44226</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="26">
         <v>44317</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="26">
         <v>44408</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="26">
         <v>44499</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="26">
         <v>44590</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <v>44681</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="26">
         <v>44772</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="26">
         <v>44863</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AG2" s="27">
+      <c r="AG2" s="26">
         <v>44226</v>
       </c>
-      <c r="AH2" s="27">
+      <c r="AH2" s="26">
         <v>44590</v>
       </c>
-      <c r="AI2" s="53" t="s">
+      <c r="AI2" s="50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="K3" s="45">
+    <row r="3" spans="1:46" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="K3" s="43">
         <v>44682</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="43">
         <v>44409</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="43">
         <v>44136</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="43">
         <v>45689</v>
       </c>
-      <c r="S3" s="45">
+      <c r="S3" s="43">
         <v>43952</v>
       </c>
-      <c r="T3" s="45">
+      <c r="T3" s="43">
         <v>43678</v>
       </c>
-      <c r="U3" s="45">
+      <c r="U3" s="43">
         <v>43405</v>
       </c>
-      <c r="V3" s="53"/>
-      <c r="AH3" s="45">
+      <c r="V3" s="50"/>
+      <c r="AH3" s="43">
         <v>45689</v>
       </c>
-      <c r="AI3" s="53"/>
-    </row>
-    <row r="4" spans="1:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="AI3" s="50"/>
+    </row>
+    <row r="4" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35">
         <v>1758</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="35">
         <v>1521</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="35">
         <v>1636</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35">
         <v>814</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="35">
         <v>1388</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="35">
         <v>1656</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <f>AG4-SUM(K4:M4)</f>
         <v>1589</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <v>1620</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="35">
         <v>1817</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="35">
         <v>1756</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="35">
         <f>AH4-SUM(O4:Q4)</f>
         <v>1836</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="35">
         <v>1776</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="35">
         <v>1716</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="35">
         <v>1818</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37">
+      <c r="V4" s="51"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35">
         <v>5447</v>
       </c>
-      <c r="AH4" s="37">
+      <c r="AH4" s="35">
         <v>7029</v>
       </c>
-      <c r="AI4" s="54"/>
-    </row>
-    <row r="5" spans="1:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="AI4" s="51"/>
+    </row>
+    <row r="5" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35">
         <v>320</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <v>253</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="35">
         <v>296</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35">
         <v>362</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="35">
         <v>689</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="35">
         <v>450</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <f>AG5-SUM(K5:M5)</f>
         <v>600</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="35">
         <v>533</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="35">
         <v>458</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="35">
         <v>433</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="35">
         <f>AH5-SUM(O5:Q5)</f>
         <v>505</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="35">
         <v>399</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="35">
         <v>349</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="35">
         <v>355</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37">
+      <c r="V5" s="51"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35">
         <v>2101</v>
       </c>
-      <c r="AH5" s="37">
+      <c r="AH5" s="35">
         <v>1929</v>
       </c>
-      <c r="AI5" s="54"/>
-    </row>
-    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI5" s="51"/>
+    </row>
+    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33">
         <f t="shared" ref="G6:I6" si="0">G4+G5</f>
         <v>2078</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <f t="shared" si="0"/>
         <v>1774</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <f t="shared" si="0"/>
         <v>1932</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34">
+      <c r="J6" s="33"/>
+      <c r="K6" s="33">
         <f t="shared" ref="K6:U6" si="1">K4+K5</f>
         <v>1176</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <f t="shared" si="1"/>
         <v>2077</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <f t="shared" si="1"/>
         <v>2106</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="33">
         <f t="shared" si="1"/>
         <v>2189</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="33">
         <f t="shared" si="1"/>
         <v>2153</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="33">
         <f t="shared" si="1"/>
         <v>2275</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <f t="shared" si="1"/>
         <v>2189</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="33">
         <f t="shared" si="1"/>
         <v>2341</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="33">
         <f t="shared" si="1"/>
         <v>2175</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="33">
         <f t="shared" si="1"/>
         <v>2065</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="33">
         <f t="shared" si="1"/>
         <v>2173</v>
       </c>
-      <c r="V6" s="62">
+      <c r="V6" s="59">
         <f>U6*(1+V24)</f>
         <v>2281.65</v>
       </c>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34">
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33">
         <f>AG4+AG5</f>
         <v>7548</v>
       </c>
-      <c r="AH6" s="34">
+      <c r="AH6" s="33">
         <f>AH4+AH5</f>
         <v>8958</v>
       </c>
-      <c r="AI6" s="62">
+      <c r="AI6" s="59">
         <f>SUM(S6:V6)</f>
         <v>8694.65</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="33">
         <f>AI6*(1+AJ21)</f>
         <v>9042.4359999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
         <v>1389</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>1240</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="34">
         <v>1312</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
+      <c r="J7" s="34"/>
+      <c r="K7" s="34">
         <v>905</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>1539</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="34">
         <v>1456</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="34">
         <f>AG7-SUM(K7:M7)</f>
         <v>1465</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="34">
         <v>1404</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="34">
         <v>1477</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="34">
         <v>1429</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="34">
         <f>AH7-SUM(O7:Q7)</f>
         <v>1568</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="34">
         <v>1435</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
         <v>1411</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <v>1477</v>
       </c>
-      <c r="V7" s="57">
+      <c r="V7" s="54">
         <f>V6*(1-V26)</f>
         <v>1551.5219999999999</v>
       </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35">
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34">
         <v>5365</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="AH7" s="34">
         <v>5878</v>
       </c>
-      <c r="AI7" s="57">
+      <c r="AI7" s="54">
         <f>SUM(S7:V7)</f>
         <v>5874.5219999999999</v>
       </c>
-      <c r="AJ7" s="35">
+      <c r="AJ7" s="34">
         <f>AJ6-AJ8</f>
         <v>5968.0077599999995</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <f t="shared" ref="C8:T8" si="2">C6-C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <f t="shared" si="2"/>
         <v>689</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="33">
         <f t="shared" si="2"/>
         <v>534</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="33">
         <f t="shared" si="2"/>
         <v>620</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <f t="shared" si="2"/>
         <v>271</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="33">
         <f t="shared" si="2"/>
         <v>538</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="33">
         <f t="shared" si="2"/>
         <v>724</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="33">
         <f t="shared" si="2"/>
         <v>749</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="33">
         <f t="shared" si="2"/>
         <v>798</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="33">
         <f t="shared" si="2"/>
         <v>760</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="33">
         <f t="shared" si="2"/>
         <v>773</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="33">
         <f t="shared" si="2"/>
         <v>740</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="33">
         <f t="shared" si="2"/>
         <v>654</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="33">
         <f>U6-U7</f>
         <v>696</v>
       </c>
-      <c r="V8" s="62">
+      <c r="V8" s="59">
         <f>V6-V7</f>
         <v>730.12800000000016</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="33">
         <f t="shared" ref="AD8" si="3">AD6-AD7</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8" s="33">
         <f t="shared" ref="AE8:AG8" si="4">AE6-AE7</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="33">
         <f t="shared" si="4"/>
         <v>2183</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH8" s="33">
         <f>AH6-AH7</f>
         <v>3080</v>
       </c>
-      <c r="AI8" s="62">
+      <c r="AI8" s="59">
         <f>AI6-AI7</f>
         <v>2820.1279999999997</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="33">
         <f>AJ6*AJ26</f>
         <v>3074.4282400000002</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34">
         <v>416</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>393</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>411</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34">
         <v>316</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>387</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <v>424</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="34">
         <f t="shared" ref="N9:N11" si="5">AG9-SUM(K9:M9)</f>
         <v>460</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="34">
         <v>418</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="34">
         <v>450</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="34">
         <v>458</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="34">
         <f t="shared" ref="R9:R11" si="6">AH9-SUM(O9:Q9)</f>
         <v>525</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="34">
         <v>463</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="34">
         <v>452</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <v>467</v>
       </c>
-      <c r="V9" s="57">
+      <c r="V9" s="54">
         <f>V6*0.21</f>
         <v>479.1465</v>
       </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35">
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34">
         <v>1587</v>
       </c>
-      <c r="AH9" s="35">
+      <c r="AH9" s="34">
         <v>1851</v>
       </c>
-      <c r="AI9" s="57">
+      <c r="AI9" s="54">
         <f t="shared" ref="AI9:AI11" si="7">SUM(S9:V9)</f>
         <v>1861.1465000000001</v>
       </c>
-      <c r="AJ9" s="35">
+      <c r="AJ9" s="34">
         <f>AJ6*0.21</f>
         <v>1898.9115599999998</v>
       </c>
-      <c r="AK9" s="35"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AK9" s="34"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34">
         <v>44</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>46</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>44</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34">
         <v>44</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="34">
         <v>44</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <v>44</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="34">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="34">
         <v>45</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P10" s="34">
         <v>48</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="34">
         <v>49</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="34">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="34">
         <v>54</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="34">
         <v>51</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="34">
         <v>52</v>
       </c>
-      <c r="V10" s="57">
+      <c r="V10" s="54">
         <f>AVERAGE(R10:U10)</f>
         <v>53</v>
       </c>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35">
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34">
         <v>176</v>
       </c>
-      <c r="AH10" s="35">
+      <c r="AH10" s="34">
         <v>197</v>
       </c>
-      <c r="AI10" s="57">
+      <c r="AI10" s="54">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="AJ10" s="35">
+      <c r="AJ10" s="34">
         <f>AVERAGE(AD10:AI10)</f>
         <v>194.33333333333334</v>
       </c>
-      <c r="AK10" s="35">
+      <c r="AK10" s="34">
         <f t="shared" ref="AK10:AT11" si="8">AVERAGE(AE10:AJ10)</f>
         <v>194.33333333333334</v>
       </c>
-      <c r="AL10" s="35">
+      <c r="AL10" s="34">
         <f t="shared" si="8"/>
         <v>194.33333333333334</v>
       </c>
-      <c r="AM10" s="35">
+      <c r="AM10" s="34">
         <f t="shared" si="8"/>
         <v>194.33333333333334</v>
       </c>
-      <c r="AN10" s="35">
+      <c r="AN10" s="34">
         <f t="shared" si="8"/>
         <v>197.38888888888891</v>
       </c>
-      <c r="AO10" s="35">
+      <c r="AO10" s="34">
         <f t="shared" si="8"/>
         <v>197.45370370370372</v>
       </c>
-      <c r="AP10" s="35">
+      <c r="AP10" s="34">
         <f t="shared" si="8"/>
         <v>195.36265432098767</v>
       </c>
-      <c r="AQ10" s="35">
+      <c r="AQ10" s="34">
         <f t="shared" si="8"/>
         <v>195.53420781893007</v>
       </c>
-      <c r="AR10" s="35">
+      <c r="AR10" s="34">
         <f t="shared" si="8"/>
         <v>195.73435356652951</v>
       </c>
-      <c r="AS10" s="35">
+      <c r="AS10" s="34">
         <f t="shared" si="8"/>
         <v>195.96785693872889</v>
       </c>
-      <c r="AT10" s="35">
+      <c r="AT10" s="34">
         <f t="shared" si="8"/>
         <v>196.24027753962812</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34">
         <v>1</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>14</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <v>1</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34">
         <v>16</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="34">
         <v>38</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="34">
         <v>4</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="34">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="34">
         <v>4</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="34">
         <v>36</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="34">
         <v>57</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="34">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11" s="34">
         <v>6</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="34">
         <v>12</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="34">
         <v>20</v>
       </c>
-      <c r="V11" s="57">
+      <c r="V11" s="54">
         <f>AVERAGE(R11:U11)</f>
         <v>28.25</v>
       </c>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35">
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34">
         <v>117</v>
       </c>
-      <c r="AH11" s="35">
+      <c r="AH11" s="34">
         <v>172</v>
       </c>
-      <c r="AI11" s="57">
+      <c r="AI11" s="54">
         <f t="shared" si="7"/>
         <v>66.25</v>
       </c>
-      <c r="AJ11" s="35">
+      <c r="AJ11" s="34">
         <f t="shared" ref="AJ11" si="9">AVERAGE(AD11:AI11)</f>
         <v>118.41666666666667</v>
       </c>
-      <c r="AK11" s="35">
+      <c r="AK11" s="34">
         <f t="shared" si="8"/>
         <v>118.41666666666667</v>
       </c>
-      <c r="AL11" s="35">
+      <c r="AL11" s="34">
         <f t="shared" si="8"/>
         <v>118.41666666666667</v>
       </c>
-      <c r="AM11" s="35">
+      <c r="AM11" s="34">
         <f t="shared" si="8"/>
         <v>118.41666666666667</v>
       </c>
-      <c r="AN11" s="35">
+      <c r="AN11" s="34">
         <f t="shared" si="8"/>
         <v>118.65277777777777</v>
       </c>
-      <c r="AO11" s="35">
+      <c r="AO11" s="34">
         <f t="shared" si="8"/>
         <v>109.76157407407409</v>
       </c>
-      <c r="AP11" s="35">
+      <c r="AP11" s="34">
         <f t="shared" si="8"/>
         <v>117.01350308641976</v>
       </c>
-      <c r="AQ11" s="35">
+      <c r="AQ11" s="34">
         <f t="shared" si="8"/>
         <v>116.77964248971193</v>
       </c>
-      <c r="AR11" s="35">
+      <c r="AR11" s="34">
         <f t="shared" si="8"/>
         <v>116.50680512688615</v>
       </c>
-      <c r="AS11" s="35">
+      <c r="AS11" s="34">
         <f t="shared" si="8"/>
         <v>116.18849487025606</v>
       </c>
-      <c r="AT11" s="35">
+      <c r="AT11" s="34">
         <f t="shared" si="8"/>
         <v>115.8171329041876</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <f t="shared" ref="C12:T12" si="10">C8-C9-C10-C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="33">
         <f t="shared" si="10"/>
         <v>228</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <f t="shared" si="10"/>
         <v>164</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="33">
         <f t="shared" si="10"/>
         <v>-105</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="33">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <f t="shared" si="10"/>
         <v>178</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="33">
         <f t="shared" si="10"/>
         <v>161</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="33">
         <f t="shared" si="10"/>
         <v>282</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="33">
         <f t="shared" si="10"/>
         <v>264</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="33">
         <f t="shared" si="10"/>
         <v>196</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="33">
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="33">
         <f t="shared" si="10"/>
         <v>217</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="33">
         <f t="shared" si="10"/>
         <v>139</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="33">
         <f>U8-U9-U10-U11</f>
         <v>157</v>
       </c>
-      <c r="V12" s="62">
+      <c r="V12" s="59">
         <f>V8-V9-V10-V11</f>
         <v>169.73150000000015</v>
       </c>
-      <c r="AD12" s="34">
+      <c r="AD12" s="33">
         <f t="shared" ref="AD12" si="11">AD8-AD9-AD10-AD11</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="34">
+      <c r="AE12" s="33">
         <f t="shared" ref="AE12:AJ12" si="12">AE8-AE9-AE10-AE11</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="34">
+      <c r="AF12" s="33">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="34">
+      <c r="AG12" s="33">
         <f t="shared" si="12"/>
         <v>303</v>
       </c>
-      <c r="AH12" s="34">
+      <c r="AH12" s="33">
         <f t="shared" si="12"/>
         <v>860</v>
       </c>
-      <c r="AI12" s="62">
+      <c r="AI12" s="59">
         <f t="shared" si="12"/>
         <v>682.73149999999964</v>
       </c>
-      <c r="AJ12" s="34">
+      <c r="AJ12" s="33">
         <f t="shared" si="12"/>
         <v>862.76668000000041</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34">
         <v>4</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>2</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <v>3</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34">
         <v>-1</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="34">
         <v>-2</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="34">
         <v>-2</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="34">
         <f t="shared" ref="N13:N14" si="13">AG13-SUM(K13:M13)</f>
         <v>-2</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="34">
         <v>-2</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="34">
         <v>-2</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="34">
         <v>-4</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="34">
         <f t="shared" ref="R13:R14" si="14">AH13-SUM(O13:Q13)</f>
         <v>-6</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="34">
         <v>-5</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="34">
         <v>-5</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="34">
         <v>-3</v>
       </c>
-      <c r="V13" s="57">
+      <c r="V13" s="54">
         <f>AVERAGE(R13:U13)</f>
         <v>-4.75</v>
       </c>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35">
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34">
         <v>-7</v>
       </c>
-      <c r="AH13" s="35">
+      <c r="AH13" s="34">
         <v>-14</v>
       </c>
-      <c r="AI13" s="57">
+      <c r="AI13" s="54">
         <f t="shared" ref="AI13:AI14" si="15">SUM(S13:V13)</f>
         <v>-17.75</v>
       </c>
-      <c r="AJ13" s="35">
+      <c r="AJ13" s="34">
         <f t="shared" ref="AJ13:AJ14" si="16">AVERAGE(AD13:AI13)</f>
         <v>-12.916666666666666</v>
       </c>
-      <c r="AK13" s="35">
+      <c r="AK13" s="34">
         <f t="shared" ref="AK13:AK14" si="17">AVERAGE(AE13:AJ13)</f>
         <v>-12.916666666666666</v>
       </c>
-      <c r="AL13" s="35">
+      <c r="AL13" s="34">
         <f t="shared" ref="AL13:AL14" si="18">AVERAGE(AF13:AK13)</f>
         <v>-12.916666666666666</v>
       </c>
-      <c r="AM13" s="35">
+      <c r="AM13" s="34">
         <f t="shared" ref="AM13:AM14" si="19">AVERAGE(AG13:AL13)</f>
         <v>-12.916666666666666</v>
       </c>
-      <c r="AN13" s="35">
+      <c r="AN13" s="34">
         <f t="shared" ref="AN13:AN14" si="20">AVERAGE(AH13:AM13)</f>
         <v>-13.902777777777779</v>
       </c>
-      <c r="AO13" s="35">
+      <c r="AO13" s="34">
         <f t="shared" ref="AO13:AO14" si="21">AVERAGE(AI13:AN13)</f>
         <v>-13.886574074074071</v>
       </c>
-      <c r="AP13" s="35">
+      <c r="AP13" s="34">
         <f t="shared" ref="AP13:AP14" si="22">AVERAGE(AJ13:AO13)</f>
         <v>-13.242669753086419</v>
       </c>
-      <c r="AQ13" s="35">
+      <c r="AQ13" s="34">
         <f t="shared" ref="AQ13:AQ14" si="23">AVERAGE(AK13:AP13)</f>
         <v>-13.297003600823045</v>
       </c>
-      <c r="AR13" s="35">
+      <c r="AR13" s="34">
         <f t="shared" ref="AR13:AR14" si="24">AVERAGE(AL13:AQ13)</f>
         <v>-13.36039308984911</v>
       </c>
-      <c r="AS13" s="35">
+      <c r="AS13" s="34">
         <f t="shared" ref="AS13:AS14" si="25">AVERAGE(AM13:AR13)</f>
         <v>-13.434347493712847</v>
       </c>
-      <c r="AT13" s="35">
+      <c r="AT13" s="34">
         <f t="shared" ref="AT13:AT14" si="26">AVERAGE(AN13:AS13)</f>
         <v>-13.520627631553879</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34">
         <v>2</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>2</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <v>4</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35">
+      <c r="J14" s="34"/>
+      <c r="K14" s="34">
         <v>1</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="34">
         <v>3</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="34">
         <v>193</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="34">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="34">
         <v>4</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="34">
         <v>325</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="34">
         <v>30</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="34">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="34">
         <v>-22</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="34">
         <v>9</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="34">
         <v>-11</v>
       </c>
-      <c r="V14" s="57">
+      <c r="V14" s="54">
         <f>AVERAGE(R14:U14)</f>
         <v>2.75</v>
       </c>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35">
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34">
         <v>198</v>
       </c>
-      <c r="AH14" s="35">
+      <c r="AH14" s="34">
         <v>394</v>
       </c>
-      <c r="AI14" s="57">
+      <c r="AI14" s="54">
         <f t="shared" si="15"/>
         <v>-21.25</v>
       </c>
-      <c r="AJ14" s="35">
+      <c r="AJ14" s="34">
         <f t="shared" si="16"/>
         <v>190.25</v>
       </c>
-      <c r="AK14" s="35">
+      <c r="AK14" s="34">
         <f t="shared" si="17"/>
         <v>190.25</v>
       </c>
-      <c r="AL14" s="35">
+      <c r="AL14" s="34">
         <f t="shared" si="18"/>
         <v>190.25</v>
       </c>
-      <c r="AM14" s="35">
+      <c r="AM14" s="34">
         <f t="shared" si="19"/>
         <v>190.25</v>
       </c>
-      <c r="AN14" s="35">
+      <c r="AN14" s="34">
         <f t="shared" si="20"/>
         <v>188.95833333333334</v>
       </c>
-      <c r="AO14" s="35">
+      <c r="AO14" s="34">
         <f t="shared" si="21"/>
         <v>154.78472222222223</v>
       </c>
-      <c r="AP14" s="35">
+      <c r="AP14" s="34">
         <f t="shared" si="22"/>
         <v>184.12384259259261</v>
       </c>
-      <c r="AQ14" s="35">
+      <c r="AQ14" s="34">
         <f t="shared" si="23"/>
         <v>183.10281635802471</v>
       </c>
-      <c r="AR14" s="35">
+      <c r="AR14" s="34">
         <f t="shared" si="24"/>
         <v>181.91161908436217</v>
       </c>
-      <c r="AS14" s="35">
+      <c r="AS14" s="34">
         <f t="shared" si="25"/>
         <v>180.52188893175585</v>
       </c>
-      <c r="AT14" s="35">
+      <c r="AT14" s="34">
         <f t="shared" si="26"/>
         <v>178.90053708704849</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <f t="shared" ref="C15:T15" si="27">C12+C13+C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <f t="shared" si="27"/>
         <v>234</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <f t="shared" si="27"/>
         <v>85</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <f t="shared" si="27"/>
         <v>171</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <f t="shared" si="27"/>
         <v>-105</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="34">
         <f t="shared" si="27"/>
         <v>70</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="34">
         <f t="shared" si="27"/>
         <v>369</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="34">
         <f t="shared" si="27"/>
         <v>160</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="34">
         <f t="shared" si="27"/>
         <v>284</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="34">
         <f t="shared" si="27"/>
         <v>587</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="34">
         <f t="shared" si="27"/>
         <v>222</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="34">
         <f t="shared" si="27"/>
         <v>147</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="34">
         <f t="shared" si="27"/>
         <v>190</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="34">
         <f t="shared" si="27"/>
         <v>143</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="34">
         <f>U12+U13+U14</f>
         <v>143</v>
       </c>
-      <c r="V15" s="57">
+      <c r="V15" s="54">
         <f>V12+V13+V14</f>
         <v>167.73150000000015</v>
       </c>
-      <c r="AD15" s="35">
+      <c r="AD15" s="34">
         <f t="shared" ref="AD15" si="28">AD12+AD13+AD14</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="35">
+      <c r="AE15" s="34">
         <f t="shared" ref="AE15:AJ15" si="29">AE12+AE13+AE14</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="35">
+      <c r="AF15" s="34">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="35">
+      <c r="AG15" s="34">
         <f t="shared" si="29"/>
         <v>494</v>
       </c>
-      <c r="AH15" s="35">
+      <c r="AH15" s="34">
         <f t="shared" si="29"/>
         <v>1240</v>
       </c>
-      <c r="AI15" s="57">
+      <c r="AI15" s="54">
         <f t="shared" si="29"/>
         <v>643.73149999999964</v>
       </c>
-      <c r="AJ15" s="35">
+      <c r="AJ15" s="34">
         <f t="shared" si="29"/>
         <v>1040.1000133333337</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34">
         <v>62</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>25</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <v>46</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35">
+      <c r="J16" s="34"/>
+      <c r="K16" s="34">
         <v>5</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="34">
         <v>25</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="34">
         <v>104</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="34">
         <f>AG16-SUM(K16:M16)</f>
         <v>37</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="34">
         <v>82</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="34">
         <v>157</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="34">
         <v>64</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="34">
         <f>AH16-SUM(O16:Q16)</f>
         <v>45</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="34">
         <v>58</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="34">
         <v>49</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="34">
         <v>47</v>
       </c>
-      <c r="V16" s="57">
+      <c r="V16" s="54">
         <f>V15*V29</f>
         <v>55.351395000000053</v>
       </c>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35">
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34">
         <v>171</v>
       </c>
-      <c r="AH16" s="35">
+      <c r="AH16" s="34">
         <v>348</v>
       </c>
-      <c r="AI16" s="57">
+      <c r="AI16" s="54">
         <f>SUM(S16:V16)</f>
         <v>209.35139500000005</v>
       </c>
-      <c r="AJ16" s="35">
+      <c r="AJ16" s="34">
         <f>AJ15*AJ29</f>
         <v>312.03000400000008</v>
       </c>
     </row>
-    <row r="17" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <f t="shared" ref="C17:T17" si="30">C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <f t="shared" si="30"/>
         <v>172</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <f t="shared" si="30"/>
         <v>60</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f t="shared" si="30"/>
         <v>125</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="33">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <f t="shared" si="30"/>
         <v>-110</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="33">
         <f t="shared" si="30"/>
         <v>45</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <f t="shared" si="30"/>
         <v>265</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="33">
         <f t="shared" si="30"/>
         <v>123</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f t="shared" si="30"/>
         <v>202</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="33">
         <f t="shared" si="30"/>
         <v>430</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <f t="shared" si="30"/>
         <v>158</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="33">
         <f t="shared" si="30"/>
         <v>102</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="33">
         <f t="shared" si="30"/>
         <v>132</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17" s="33">
         <f t="shared" si="30"/>
         <v>94</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="33">
         <f>U15-U16</f>
         <v>96</v>
       </c>
-      <c r="V17" s="62">
+      <c r="V17" s="59">
         <f>V15-V16</f>
         <v>112.3801050000001</v>
       </c>
-      <c r="W17" s="34"/>
-      <c r="AD17" s="34">
+      <c r="W17" s="33"/>
+      <c r="AD17" s="33">
         <f t="shared" ref="AD17" si="31">AD15-AD16</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="34">
+      <c r="AE17" s="33">
         <f t="shared" ref="AE17:AJ17" si="32">AE15-AE16</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="34">
+      <c r="AF17" s="33">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="34">
+      <c r="AG17" s="33">
         <f t="shared" si="32"/>
         <v>323</v>
       </c>
-      <c r="AH17" s="34">
+      <c r="AH17" s="33">
         <f t="shared" si="32"/>
         <v>892</v>
       </c>
-      <c r="AI17" s="62">
+      <c r="AI17" s="59">
         <f t="shared" si="32"/>
         <v>434.38010499999962</v>
       </c>
-      <c r="AJ17" s="34">
+      <c r="AJ17" s="33">
         <f t="shared" si="32"/>
         <v>728.07000933333359</v>
       </c>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="28">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="27">
         <f t="shared" ref="G18:I18" si="33">G17/G19</f>
         <v>1.5302491103202847</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <f t="shared" si="33"/>
         <v>0.54151624548736466</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <f t="shared" si="33"/>
         <v>1.1693171188026192</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="28">
+      <c r="J18" s="34"/>
+      <c r="K18" s="27">
         <f t="shared" ref="K18:V18" si="34">K17/K19</f>
         <v>-1.0546500479386385</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <f t="shared" si="34"/>
         <v>0.43062200956937802</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="27">
         <f t="shared" si="34"/>
         <v>2.5383141762452106</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="27">
         <f t="shared" si="34"/>
         <v>1.1792905081495686</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="27">
         <f t="shared" si="34"/>
         <v>1.9498069498069499</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="27">
         <f t="shared" si="34"/>
         <v>4.1425818882466281</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="27">
         <f t="shared" si="34"/>
         <v>1.5310077519379846</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="27">
         <f t="shared" si="34"/>
         <v>0.99512195121951219</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="27">
         <f t="shared" si="34"/>
         <v>1.3735691987513008</v>
       </c>
-      <c r="T18" s="28">
+      <c r="T18" s="27">
         <f t="shared" si="34"/>
         <v>0.99893730074388953</v>
       </c>
-      <c r="U18" s="28">
+      <c r="U18" s="27">
         <f t="shared" si="34"/>
         <v>1.0278372591006424</v>
       </c>
-      <c r="V18" s="64">
+      <c r="V18" s="61">
         <f t="shared" si="34"/>
         <v>1.2032131156316928</v>
       </c>
-      <c r="AG18" s="28">
+      <c r="AG18" s="27">
         <f t="shared" ref="AG18:AJ18" si="35">AG17/AG19</f>
         <v>3.0968360498561842</v>
       </c>
-      <c r="AH18" s="28">
+      <c r="AH18" s="27">
         <f t="shared" si="35"/>
         <v>8.7024390243902445</v>
       </c>
-      <c r="AI18" s="65">
+      <c r="AI18" s="62">
         <f>AI17/AI19</f>
         <v>4.6507505888650922</v>
       </c>
-      <c r="AJ18" s="28">
+      <c r="AJ18" s="27">
         <f t="shared" si="35"/>
         <v>7.7951821127765903</v>
       </c>
     </row>
-    <row r="19" spans="2:46" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="2:46" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="18">
         <v>112.4</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="18">
         <v>110.8</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="18">
         <v>106.9</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="18">
         <v>104.3</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="18">
         <v>104.5</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="18">
         <v>104.4</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="18">
         <f>AG19</f>
         <v>104.3</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="18">
         <v>103.6</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="18">
         <v>103.8</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="18">
         <v>103.2</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="18">
         <f>AH19</f>
         <v>102.5</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="18">
         <v>96.1</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="18">
         <v>94.1</v>
       </c>
-      <c r="U19" s="36">
+      <c r="U19" s="18">
         <v>93.4</v>
       </c>
-      <c r="V19" s="67">
+      <c r="V19" s="64">
         <f>U19</f>
         <v>93.4</v>
       </c>
-      <c r="AG19" s="36">
+      <c r="AG19" s="18">
         <v>104.3</v>
       </c>
-      <c r="AH19" s="36">
+      <c r="AH19" s="18">
         <v>102.5</v>
       </c>
-      <c r="AI19" s="67">
+      <c r="AI19" s="64">
         <f>V19</f>
         <v>93.4</v>
       </c>
-      <c r="AJ19" s="36">
+      <c r="AJ19" s="18">
         <f>AI19</f>
         <v>93.4</v>
       </c>
     </row>
-    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <f t="shared" ref="K21" si="36">K6/G6-1</f>
         <v>-0.43407122232916262</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="28">
         <f t="shared" ref="L21" si="37">L6/H6-1</f>
         <v>0.17080045095828633</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="28">
         <f t="shared" ref="M21" si="38">M6/I6-1</f>
         <v>9.0062111801242128E-2</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="28">
         <f t="shared" ref="O21" si="39">O6/K6-1</f>
         <v>0.83078231292517013</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="28">
         <f t="shared" ref="P21" si="40">P6/L6-1</f>
         <v>9.5329802599903646E-2</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="28">
         <f t="shared" ref="Q21" si="41">Q6/M6-1</f>
         <v>3.9411206077872851E-2</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="28">
         <f t="shared" ref="R21" si="42">R6/N6-1</f>
         <v>6.9438099588853275E-2</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="28">
         <f t="shared" ref="S21" si="43">S6/O6-1</f>
         <v>1.021830004644686E-2</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="28">
         <f t="shared" ref="T21" si="44">T6/P6-1</f>
         <v>-9.2307692307692313E-2</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="28">
         <f>U6/Q6-1</f>
         <v>-7.3092736409319237E-3</v>
       </c>
-      <c r="V21" s="63">
+      <c r="V21" s="60">
         <f>V6/R6-1</f>
         <v>-2.5352413498504922E-2</v>
       </c>
-      <c r="AH21" s="29">
+      <c r="AH21" s="28">
         <f>AH6/AG6-1</f>
         <v>0.18680445151033376</v>
       </c>
-      <c r="AI21" s="63">
+      <c r="AI21" s="60">
         <f>AI6/AH6-1</f>
         <v>-2.9398303192677E-2</v>
       </c>
-      <c r="AJ21" s="29">
+      <c r="AJ21" s="28">
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:46" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
+    <row r="22" spans="2:46" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="38">
         <f t="shared" ref="K22:K23" si="45">K4/G4-1</f>
         <v>-0.53697383390216147</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="38">
         <f t="shared" ref="L22:L23" si="46">L4/H4-1</f>
         <v>-8.7442472057856713E-2</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="38">
         <f t="shared" ref="M22:M23" si="47">M4/I4-1</f>
         <v>1.2224938875305513E-2</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="38">
         <f t="shared" ref="O22:O23" si="48">O4/K4-1</f>
         <v>0.99017199017199009</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="38">
         <f t="shared" ref="P22:P23" si="49">P4/L4-1</f>
         <v>0.30907780979827093</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="38">
         <f t="shared" ref="Q22:Q23" si="50">Q4/M4-1</f>
         <v>6.0386473429951737E-2</v>
       </c>
-      <c r="R22" s="40">
+      <c r="R22" s="38">
         <f t="shared" ref="R22:R23" si="51">R4/N4-1</f>
         <v>0.15544367526746372</v>
       </c>
-      <c r="S22" s="40">
+      <c r="S22" s="38">
         <f t="shared" ref="S22:S23" si="52">S4/O4-1</f>
         <v>9.6296296296296324E-2</v>
       </c>
-      <c r="T22" s="40">
+      <c r="T22" s="38">
         <f t="shared" ref="T22:T23" si="53">T4/P4-1</f>
         <v>-5.5586130985140314E-2</v>
       </c>
-      <c r="U22" s="40">
+      <c r="U22" s="38">
         <f>U4/Q4-1</f>
         <v>3.530751708428248E-2</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="AH22" s="40">
+      <c r="V22" s="53"/>
+      <c r="AH22" s="38">
         <f>AH4/AG4-1</f>
         <v>0.29043510189094923</v>
       </c>
-      <c r="AI22" s="56"/>
-    </row>
-    <row r="23" spans="2:46" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="51" t="s">
+      <c r="AI22" s="53"/>
+    </row>
+    <row r="23" spans="2:46" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="38">
         <f t="shared" si="45"/>
         <v>0.13125000000000009</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="38">
         <f t="shared" si="46"/>
         <v>1.7233201581027666</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="38">
         <f t="shared" si="47"/>
         <v>0.52027027027027017</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="38">
         <f t="shared" si="48"/>
         <v>0.47237569060773477</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="38">
         <f t="shared" si="49"/>
         <v>-0.33526850507982586</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="Q23" s="38">
         <f t="shared" si="50"/>
         <v>-3.7777777777777799E-2</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R23" s="38">
         <f t="shared" si="51"/>
         <v>-0.15833333333333333</v>
       </c>
-      <c r="S23" s="40">
+      <c r="S23" s="38">
         <f t="shared" si="52"/>
         <v>-0.25140712945590993</v>
       </c>
-      <c r="T23" s="40">
+      <c r="T23" s="38">
         <f t="shared" si="53"/>
         <v>-0.23799126637554591</v>
       </c>
-      <c r="U23" s="40">
+      <c r="U23" s="38">
         <f>U5/Q5-1</f>
         <v>-0.18013856812933027</v>
       </c>
-      <c r="V23" s="56"/>
-      <c r="AH23" s="40">
+      <c r="V23" s="53"/>
+      <c r="AH23" s="38">
         <f>AH5/AG5-1</f>
         <v>-8.186577820085672E-2</v>
       </c>
-      <c r="AI23" s="56"/>
-    </row>
-    <row r="24" spans="2:46" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
+      <c r="AI23" s="53"/>
+    </row>
+    <row r="24" spans="2:46" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <f>I6/H6-1</f>
         <v>8.9064261555806157E-2</v>
       </c>
-      <c r="L24" s="30">
-        <f t="shared" ref="L24:M24" si="54">L6/K6-1</f>
+      <c r="L24" s="29">
+        <f t="shared" ref="L24" si="54">L6/K6-1</f>
         <v>0.76615646258503411</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="29">
         <f>M6/L6-1</f>
         <v>1.3962445835339343E-2</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="29">
         <f t="shared" ref="N24:O24" si="55">N6/M6-1</f>
         <v>3.9411206077872851E-2</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="29">
         <f t="shared" si="55"/>
         <v>-1.6445865692096828E-2</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="29">
         <f>P6/O6-1</f>
         <v>5.666511843938693E-2</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="29">
         <f>Q6/P6-1</f>
         <v>-3.7802197802197846E-2</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="29">
         <f t="shared" ref="R24:T24" si="56">R6/Q6-1</f>
         <v>6.9438099588853275E-2</v>
       </c>
-      <c r="S24" s="30">
+      <c r="S24" s="29">
         <f t="shared" si="56"/>
         <v>-7.0909867577958141E-2</v>
       </c>
-      <c r="T24" s="30">
+      <c r="T24" s="29">
         <f t="shared" si="56"/>
         <v>-5.0574712643678188E-2</v>
       </c>
-      <c r="U24" s="30">
+      <c r="U24" s="29">
         <f>U6/T6-1</f>
         <v>5.2300242130750574E-2</v>
       </c>
-      <c r="V24" s="56">
+      <c r="V24" s="53">
         <v>0.05</v>
       </c>
-      <c r="AE24" s="50" t="s">
+      <c r="AE24" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AF24" s="50" t="s">
+      <c r="AF24" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AG24" s="50" t="s">
+      <c r="AG24" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AH24" s="50" t="s">
+      <c r="AH24" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AI24" s="56"/>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AI24" s="53"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="30">
-        <f t="shared" ref="G26:H26" si="57">G8/G6</f>
+      <c r="G26" s="29">
+        <f t="shared" ref="G26" si="57">G8/G6</f>
         <v>0.33156881616939365</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <f t="shared" ref="H26:I26" si="58">H8/H6</f>
         <v>0.30101465614430667</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <f t="shared" si="58"/>
         <v>0.32091097308488614</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <f t="shared" ref="K26:L26" si="59">K8/K6</f>
         <v>0.23044217687074831</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="29">
         <f t="shared" si="59"/>
         <v>0.2590274434280212</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="60">M8/M6</f>
         <v>0.30864197530864196</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="29">
         <f t="shared" ref="N26" si="61">N8/N6</f>
         <v>0.33074463225216993</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="29">
         <f t="shared" si="60"/>
         <v>0.34788666976312121</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="29">
         <f t="shared" ref="P26" si="62">P8/P6</f>
         <v>0.35076923076923078</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="29">
         <f>Q8/Q6</f>
         <v>0.34719049794426676</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="29">
         <f t="shared" ref="R26" si="63">R8/R6</f>
         <v>0.33020076890217853</v>
       </c>
-      <c r="S26" s="30">
+      <c r="S26" s="29">
         <f t="shared" ref="S26" si="64">S8/S6</f>
         <v>0.34022988505747126</v>
       </c>
-      <c r="T26" s="30">
+      <c r="T26" s="29">
         <f t="shared" ref="T26" si="65">T8/T6</f>
         <v>0.31670702179176757</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="29">
         <f>U8/U6</f>
         <v>0.32029452369995398</v>
       </c>
-      <c r="V26" s="56">
+      <c r="V26" s="53">
         <v>0.32</v>
       </c>
-      <c r="AG26" s="30">
+      <c r="AG26" s="29">
         <f>AG8/AG6</f>
         <v>0.28921568627450983</v>
       </c>
-      <c r="AH26" s="30">
+      <c r="AH26" s="29">
         <f>AH8/AH6</f>
         <v>0.34382674704175037</v>
       </c>
-      <c r="AI26" s="56">
+      <c r="AI26" s="53">
         <f>AI8/AI6</f>
         <v>0.32435210157970706</v>
       </c>
-      <c r="AJ26" s="30">
+      <c r="AJ26" s="29">
         <v>0.34</v>
       </c>
-      <c r="AK26" s="30">
+      <c r="AK26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AL26" s="30">
+      <c r="AL26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AM26" s="30">
+      <c r="AM26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AN26" s="30">
+      <c r="AN26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AO26" s="30">
+      <c r="AO26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AP26" s="30">
+      <c r="AP26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AQ26" s="30">
+      <c r="AQ26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AR26" s="30">
+      <c r="AR26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AS26" s="30">
+      <c r="AS26" s="29">
         <v>0.35</v>
       </c>
-      <c r="AT26" s="30">
+      <c r="AT26" s="29">
         <v>0.35</v>
       </c>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="30">
-        <f t="shared" ref="G27:H27" si="66">G12/G6</f>
+      <c r="G27" s="29">
+        <f t="shared" ref="G27" si="66">G12/G6</f>
         <v>0.109720885466795</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="29">
         <f t="shared" ref="H27:I27" si="67">H12/H6</f>
         <v>4.5659526493799327E-2</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="29">
         <f t="shared" si="67"/>
         <v>8.4886128364389232E-2</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <f t="shared" ref="K27:L27" si="68">K12/K6</f>
         <v>-8.9285714285714288E-2</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="29">
         <f t="shared" si="68"/>
         <v>3.3220991815117958E-2</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="29">
         <f t="shared" ref="M27:O27" si="69">M12/M6</f>
         <v>8.4520417853751181E-2</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="29">
         <f t="shared" ref="N27" si="70">N12/N6</f>
         <v>7.3549566011877565E-2</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="29">
         <f t="shared" si="69"/>
         <v>0.13098002786809104</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="29">
         <f t="shared" ref="P27" si="71">P12/P6</f>
         <v>0.11604395604395605</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="29">
         <f>Q12/Q6</f>
         <v>8.9538602101416176E-2</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="29">
         <f t="shared" ref="R27" si="72">R12/R6</f>
         <v>5.0405809483126868E-2</v>
       </c>
-      <c r="S27" s="30">
+      <c r="S27" s="29">
         <f t="shared" ref="S27" si="73">S12/S6</f>
-        <v>9.9770114942528743E-2</v>
-      </c>
-      <c r="T27" s="30">
+        <v>9.9770114942528729E-2</v>
+      </c>
+      <c r="T27" s="29">
         <f t="shared" ref="T27" si="74">T12/T6</f>
         <v>6.7312348668280869E-2</v>
       </c>
-      <c r="U27" s="30">
+      <c r="U27" s="29">
         <f>U12/U6</f>
         <v>7.2250345144960884E-2</v>
       </c>
-      <c r="V27" s="56">
+      <c r="V27" s="53">
         <f>V12/V6</f>
         <v>7.4389805623123681E-2</v>
       </c>
-      <c r="AG27" s="30">
+      <c r="AG27" s="29">
         <f>AG12/AG6</f>
         <v>4.0143084260731321E-2</v>
       </c>
-      <c r="AH27" s="30">
+      <c r="AH27" s="29">
         <f>AH12/AH6</f>
         <v>9.6003572225943287E-2</v>
       </c>
-      <c r="AI27" s="56">
+      <c r="AI27" s="53">
         <f>AI12/AI6</f>
         <v>7.8523172295607027E-2</v>
       </c>
-      <c r="AJ27" s="30">
+      <c r="AJ27" s="29">
         <f>AJ12/AJ6</f>
         <v>9.5413081165296662E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="30">
-        <f t="shared" ref="G28:H28" si="75">G17/G6</f>
+      <c r="G28" s="29">
+        <f t="shared" ref="G28" si="75">G17/G6</f>
         <v>8.2771896053897981E-2</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="29">
         <f t="shared" ref="H28:I28" si="76">H17/H6</f>
         <v>3.3821871476888386E-2</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="29">
         <f t="shared" si="76"/>
         <v>6.4699792960662528E-2</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="29">
         <f t="shared" ref="K28:L28" si="77">K17/K6</f>
         <v>-9.3537414965986401E-2</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="29">
         <f t="shared" si="77"/>
         <v>2.1665864227250843E-2</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="29">
         <f t="shared" ref="M28:O28" si="78">M17/M6</f>
         <v>0.12583095916429249</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="29">
         <f t="shared" ref="N28" si="79">N17/N6</f>
         <v>5.6190041114664233E-2</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="29">
         <f t="shared" si="78"/>
         <v>9.3822573153738972E-2</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="29">
         <f t="shared" ref="P28" si="80">P17/P6</f>
         <v>0.18901098901098901</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="29">
         <f>Q17/Q6</f>
         <v>7.2179077204202829E-2</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="29">
         <f t="shared" ref="R28" si="81">R17/R6</f>
         <v>4.3571123451516446E-2</v>
       </c>
-      <c r="S28" s="30">
+      <c r="S28" s="29">
         <f t="shared" ref="S28" si="82">S17/S6</f>
         <v>6.0689655172413794E-2</v>
       </c>
-      <c r="T28" s="30">
+      <c r="T28" s="29">
         <f t="shared" ref="T28" si="83">T17/T6</f>
         <v>4.5520581113801452E-2</v>
       </c>
-      <c r="U28" s="30">
+      <c r="U28" s="29">
         <f>U17/U6</f>
         <v>4.4178554993097099E-2</v>
       </c>
-      <c r="V28" s="56">
+      <c r="V28" s="53">
         <f>V17/V6</f>
         <v>4.9253875484846533E-2</v>
       </c>
-      <c r="AG28" s="30">
+      <c r="AG28" s="29">
         <f>AG17/AG6</f>
         <v>4.2792792792792793E-2</v>
       </c>
-      <c r="AH28" s="30">
+      <c r="AH28" s="29">
         <f>AH17/AH6</f>
         <v>9.9575798169234203E-2</v>
       </c>
-      <c r="AI28" s="56">
+      <c r="AI28" s="53">
         <f>AI17/AI6</f>
         <v>4.9959469903906387E-2</v>
       </c>
-      <c r="AJ28" s="30">
+      <c r="AJ28" s="29">
         <f>AJ17/AJ6</f>
         <v>8.0517021003337338E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="30">
-        <f t="shared" ref="G29:H29" si="84">G16/G15</f>
+      <c r="G29" s="29">
+        <f t="shared" ref="G29" si="84">G16/G15</f>
         <v>0.26495726495726496</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <f t="shared" ref="H29:I29" si="85">H16/H15</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <f t="shared" si="85"/>
         <v>0.26900584795321636</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <f t="shared" ref="K29:L29" si="86">K16/K15</f>
         <v>-4.7619047619047616E-2</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="29">
         <f t="shared" si="86"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="29">
         <f t="shared" ref="M29:O29" si="87">M16/M15</f>
         <v>0.28184281842818426</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="29">
         <f t="shared" ref="N29" si="88">N16/N15</f>
         <v>0.23125000000000001</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="29">
         <f t="shared" si="87"/>
         <v>0.28873239436619719</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="29">
         <f t="shared" ref="P29" si="89">P16/P15</f>
         <v>0.26746166950596251</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="29">
         <f>Q16/Q15</f>
         <v>0.28828828828828829</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="29">
         <f t="shared" ref="R29" si="90">R16/R15</f>
         <v>0.30612244897959184</v>
       </c>
-      <c r="S29" s="30">
+      <c r="S29" s="29">
         <f t="shared" ref="S29" si="91">S16/S15</f>
         <v>0.30526315789473685</v>
       </c>
-      <c r="T29" s="30">
+      <c r="T29" s="29">
         <f t="shared" ref="T29" si="92">T16/T15</f>
         <v>0.34265734265734266</v>
       </c>
-      <c r="U29" s="30">
+      <c r="U29" s="29">
         <f>U16/U15</f>
         <v>0.32867132867132864</v>
       </c>
-      <c r="V29" s="56">
+      <c r="V29" s="53">
         <v>0.33</v>
       </c>
-      <c r="AG29" s="30">
+      <c r="AG29" s="29">
         <f>AG16/AG15</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="AH29" s="30">
+      <c r="AH29" s="29">
         <f>AH16/AH15</f>
         <v>0.28064516129032258</v>
       </c>
-      <c r="AI29" s="56">
+      <c r="AI29" s="53">
         <f>AI16/AI15</f>
         <v>0.32521539648129721</v>
       </c>
-      <c r="AJ29" s="30">
+      <c r="AJ29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AK29" s="30">
+      <c r="AK29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AL29" s="30">
+      <c r="AL29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AM29" s="30">
+      <c r="AM29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AN29" s="30">
+      <c r="AN29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AO29" s="30">
+      <c r="AO29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AP29" s="30">
+      <c r="AP29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AQ29" s="30">
+      <c r="AQ29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AR29" s="30">
+      <c r="AR29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AS29" s="30">
+      <c r="AS29" s="29">
         <v>0.3</v>
       </c>
-      <c r="AT29" s="30">
+      <c r="AT29" s="29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="Q30" s="30"/>
-      <c r="U30" s="30"/>
-    </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="Q30" s="29"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-    </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B32" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="Q32" s="30"/>
-      <c r="U32" s="30"/>
-    </row>
-    <row r="33" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
+      <c r="Q32" s="29"/>
+      <c r="U32" s="29"/>
+    </row>
+    <row r="33" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="34">
         <v>3129</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="34">
         <v>3160</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="34">
         <v>3113</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="34">
         <v>3032</v>
       </c>
-      <c r="N33" s="35">
+      <c r="N33" s="34">
         <f>AG33</f>
         <v>2998</v>
       </c>
-      <c r="O33" s="35">
+      <c r="O33" s="34">
         <v>2952</v>
       </c>
-      <c r="P33" s="35">
+      <c r="P33" s="34">
         <v>2911</v>
       </c>
-      <c r="Q33" s="35">
+      <c r="Q33" s="34">
         <v>2956</v>
       </c>
-      <c r="R33" s="35">
+      <c r="R33" s="34">
         <v>2858</v>
       </c>
-      <c r="S33" s="35">
+      <c r="S33" s="34">
         <v>2815</v>
       </c>
-      <c r="T33" s="35">
+      <c r="T33" s="34">
         <v>2799</v>
       </c>
-      <c r="U33" s="35">
+      <c r="U33" s="34">
         <v>2794</v>
       </c>
-      <c r="V33" s="57"/>
-      <c r="AG33" s="35">
+      <c r="V33" s="54"/>
+      <c r="AG33" s="34">
         <v>2998</v>
       </c>
-      <c r="AH33" s="35">
+      <c r="AH33" s="34">
         <v>2858</v>
       </c>
-      <c r="AI33" s="57"/>
-    </row>
-    <row r="34" spans="2:35" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="47" t="s">
+      <c r="AI33" s="54"/>
+    </row>
+    <row r="34" spans="2:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="45">
         <f>K33-G33</f>
         <v>-16</v>
       </c>
-      <c r="M34" s="48">
+      <c r="M34" s="45">
         <f>M33-I33</f>
         <v>-128</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="45">
         <f t="shared" ref="N34:R34" si="93">N33-J33</f>
         <v>2998</v>
       </c>
-      <c r="O34" s="48">
+      <c r="O34" s="45">
         <f t="shared" si="93"/>
         <v>-161</v>
       </c>
-      <c r="P34" s="48">
+      <c r="P34" s="45">
         <f t="shared" si="93"/>
         <v>2911</v>
       </c>
-      <c r="Q34" s="48">
+      <c r="Q34" s="45">
         <f t="shared" si="93"/>
         <v>-76</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="45">
         <f t="shared" si="93"/>
         <v>-140</v>
       </c>
-      <c r="S34" s="48">
+      <c r="S34" s="45">
         <f>S33-O33</f>
         <v>-137</v>
       </c>
-      <c r="T34" s="48">
+      <c r="T34" s="45">
         <f>T33-P33</f>
         <v>-112</v>
       </c>
-      <c r="U34" s="48">
+      <c r="U34" s="45">
         <f>U33-Q33</f>
         <v>-162</v>
       </c>
-      <c r="V34" s="58"/>
-      <c r="AH34" s="48">
+      <c r="V34" s="55"/>
+      <c r="AH34" s="45">
         <f>AH33-AG33</f>
         <v>-140</v>
       </c>
-      <c r="AI34" s="58"/>
-    </row>
-    <row r="35" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="41" t="s">
+      <c r="AI34" s="55"/>
+    </row>
+    <row r="35" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="40">
         <f t="shared" ref="N35" si="94">N33-M33</f>
         <v>-34</v>
       </c>
-      <c r="O35" s="42">
+      <c r="O35" s="40">
         <f t="shared" ref="O35" si="95">O33-N33</f>
         <v>-46</v>
       </c>
-      <c r="P35" s="42">
+      <c r="P35" s="40">
         <f t="shared" ref="P35:T35" si="96">P33-O33</f>
         <v>-41</v>
       </c>
-      <c r="Q35" s="42">
+      <c r="Q35" s="40">
         <f t="shared" si="96"/>
         <v>45</v>
       </c>
-      <c r="R35" s="42">
+      <c r="R35" s="40">
         <f t="shared" si="96"/>
         <v>-98</v>
       </c>
-      <c r="S35" s="42">
+      <c r="S35" s="40">
         <f t="shared" si="96"/>
         <v>-43</v>
       </c>
-      <c r="T35" s="42">
+      <c r="T35" s="40">
         <f t="shared" si="96"/>
         <v>-16</v>
       </c>
-      <c r="U35" s="42">
+      <c r="U35" s="40">
         <f>U33-T33</f>
         <v>-5</v>
       </c>
-      <c r="V35" s="59"/>
-      <c r="AE35" s="49" t="s">
+      <c r="V35" s="56"/>
+      <c r="AE35" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AF35" s="49" t="s">
+      <c r="AF35" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AG35" s="49" t="s">
+      <c r="AG35" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AH35" s="49" t="s">
+      <c r="AH35" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AI35" s="59"/>
-    </row>
-    <row r="36" spans="2:35" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="43" t="s">
+      <c r="AI35" s="56"/>
+    </row>
+    <row r="36" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="42">
         <f t="shared" ref="G36:K36" si="97">G4/G33</f>
         <v>0.5618408437200384</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="42">
         <f t="shared" si="97"/>
         <v>0.51772151898734176</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="42">
         <f t="shared" si="97"/>
         <v>0.26148409893992935</v>
       </c>
-      <c r="M36" s="44">
+      <c r="M36" s="42">
         <f t="shared" ref="M36:U36" si="98">M4/M33</f>
         <v>0.54617414248021112</v>
       </c>
-      <c r="N36" s="44">
+      <c r="N36" s="42">
         <f t="shared" si="98"/>
         <v>0.53002001334222815</v>
       </c>
-      <c r="O36" s="44">
+      <c r="O36" s="42">
         <f t="shared" si="98"/>
         <v>0.54878048780487809</v>
       </c>
-      <c r="P36" s="44">
+      <c r="P36" s="42">
         <f t="shared" si="98"/>
         <v>0.62418412916523536</v>
       </c>
-      <c r="Q36" s="44">
+      <c r="Q36" s="42">
         <f t="shared" si="98"/>
         <v>0.59404600811907982</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R36" s="42">
         <f t="shared" si="98"/>
         <v>0.64240727781665496</v>
       </c>
-      <c r="S36" s="44">
+      <c r="S36" s="42">
         <f t="shared" si="98"/>
         <v>0.63090586145648309</v>
       </c>
-      <c r="T36" s="44">
+      <c r="T36" s="42">
         <f t="shared" si="98"/>
         <v>0.61307609860664525</v>
       </c>
-      <c r="U36" s="44">
+      <c r="U36" s="42">
         <f t="shared" si="98"/>
         <v>0.65068002863278451</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="AG36" s="44">
+      <c r="V36" s="57"/>
+      <c r="AG36" s="42">
         <f>AG4/AG33</f>
         <v>1.8168779186124082</v>
       </c>
-      <c r="AH36" s="44">
+      <c r="AH36" s="42">
         <f>AH4/AH33</f>
         <v>2.459412176347096</v>
       </c>
-      <c r="AI36" s="60"/>
-    </row>
-    <row r="37" spans="2:35" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="43"/>
-      <c r="V37" s="60"/>
-      <c r="AI37" s="60"/>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B40" s="31" t="s">
+      <c r="AI36" s="57"/>
+    </row>
+    <row r="37" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="41"/>
+      <c r="V37" s="57"/>
+      <c r="AI37" s="57"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B40" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34">
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33">
         <v>744</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34">
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33">
         <v>1393</v>
       </c>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34">
+      <c r="N41" s="33"/>
+      <c r="O41" s="33">
         <v>1963</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="33">
         <v>1845</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="33">
         <v>1339</v>
       </c>
-      <c r="R41" s="34">
+      <c r="R41" s="33">
         <v>804</v>
       </c>
-      <c r="S41" s="34">
+      <c r="S41" s="33">
         <v>551</v>
       </c>
-      <c r="T41" s="34">
+      <c r="T41" s="33">
         <v>386</v>
       </c>
-      <c r="U41" s="34">
+      <c r="U41" s="33">
         <v>351</v>
       </c>
-      <c r="V41" s="55"/>
-      <c r="AH41" s="34">
+      <c r="V41" s="52"/>
+      <c r="AH41" s="33">
         <f>R41</f>
         <v>804</v>
       </c>
-      <c r="AI41" s="55"/>
-    </row>
-    <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI41" s="52"/>
+    </row>
+    <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33">
         <v>1304</v>
       </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34">
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33">
         <v>1193</v>
       </c>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34">
+      <c r="N42" s="33"/>
+      <c r="O42" s="33">
         <v>1021</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42" s="33">
         <v>1081</v>
       </c>
-      <c r="Q42" s="34">
+      <c r="Q42" s="33">
         <v>1301</v>
       </c>
-      <c r="R42" s="34">
+      <c r="R42" s="33">
         <v>1266</v>
       </c>
-      <c r="S42" s="34">
+      <c r="S42" s="33">
         <v>1401</v>
       </c>
-      <c r="T42" s="34">
+      <c r="T42" s="33">
         <v>1644</v>
       </c>
-      <c r="U42" s="34">
+      <c r="U42" s="33">
         <v>1685</v>
       </c>
-      <c r="V42" s="55"/>
-      <c r="AH42" s="34">
+      <c r="V42" s="52"/>
+      <c r="AH42" s="33">
         <f>R42</f>
         <v>1266</v>
       </c>
-      <c r="AI42" s="55"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AI42" s="52"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35">
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34">
         <v>299</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35">
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34">
         <v>237</v>
       </c>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35">
+      <c r="N43" s="34"/>
+      <c r="O43" s="34">
         <v>283</v>
       </c>
-      <c r="P43" s="35">
+      <c r="P43" s="34">
         <v>252</v>
       </c>
-      <c r="Q43" s="35">
+      <c r="Q43" s="34">
         <v>253</v>
       </c>
-      <c r="R43" s="35">
+      <c r="R43" s="34">
         <v>293</v>
       </c>
-      <c r="S43" s="35">
+      <c r="S43" s="34">
         <v>281</v>
       </c>
-      <c r="T43" s="35">
+      <c r="T43" s="34">
         <v>285</v>
       </c>
-      <c r="U43" s="35">
+      <c r="U43" s="34">
         <v>302</v>
       </c>
-      <c r="AH43" s="35">
+      <c r="AH43" s="34">
         <f>R43</f>
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="34">
         <f t="shared" ref="C44:T44" si="99">SUM(C41:C43)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="34">
         <f t="shared" si="99"/>
         <v>2347</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="K44" s="35">
+      <c r="K44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="L44" s="35">
+      <c r="L44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="M44" s="35">
+      <c r="M44" s="34">
         <f t="shared" si="99"/>
         <v>2823</v>
       </c>
-      <c r="N44" s="35">
+      <c r="N44" s="34">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="O44" s="35">
+      <c r="O44" s="34">
         <f t="shared" si="99"/>
         <v>3267</v>
       </c>
-      <c r="P44" s="35">
+      <c r="P44" s="34">
         <f t="shared" si="99"/>
         <v>3178</v>
       </c>
-      <c r="Q44" s="35">
+      <c r="Q44" s="34">
         <f t="shared" si="99"/>
         <v>2893</v>
       </c>
-      <c r="R44" s="35">
+      <c r="R44" s="34">
         <f>SUM(R41:R43)</f>
         <v>2363</v>
       </c>
-      <c r="S44" s="35">
+      <c r="S44" s="34">
         <f t="shared" ref="S44" si="100">SUM(S41:S43)</f>
         <v>2233</v>
       </c>
-      <c r="T44" s="35">
+      <c r="T44" s="34">
         <f t="shared" si="99"/>
         <v>2315</v>
       </c>
-      <c r="U44" s="35">
+      <c r="U44" s="34">
         <f>SUM(U41:U43)</f>
         <v>2338</v>
       </c>
-      <c r="AH44" s="35">
+      <c r="AH44" s="34">
         <f>SUM(AH41:AH43)</f>
         <v>2363</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35">
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34">
         <v>814</v>
       </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35">
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34">
         <v>773</v>
       </c>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35">
+      <c r="N45" s="34"/>
+      <c r="O45" s="34">
         <v>769</v>
       </c>
-      <c r="P45" s="35">
+      <c r="P45" s="34">
         <v>743</v>
       </c>
-      <c r="Q45" s="35">
+      <c r="Q45" s="34">
         <v>860</v>
       </c>
-      <c r="R45" s="35">
+      <c r="R45" s="34">
         <v>917</v>
       </c>
-      <c r="S45" s="35">
+      <c r="S45" s="34">
         <v>899</v>
       </c>
-      <c r="T45" s="35">
+      <c r="T45" s="34">
         <v>899</v>
       </c>
-      <c r="U45" s="35">
+      <c r="U45" s="34">
         <v>897</v>
       </c>
-      <c r="AH45" s="35">
+      <c r="AH45" s="34">
         <f t="shared" ref="AH45:AH50" si="101">R45</f>
         <v>917</v>
       </c>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35">
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34">
         <v>2956</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35">
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34">
         <v>2752</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35">
+      <c r="N46" s="34"/>
+      <c r="O46" s="34">
         <v>2700</v>
       </c>
-      <c r="P46" s="35">
+      <c r="P46" s="34">
         <v>2569</v>
       </c>
-      <c r="Q46" s="35">
+      <c r="Q46" s="34">
         <v>2619</v>
       </c>
-      <c r="R46" s="35">
+      <c r="R46" s="34">
         <v>2616</v>
       </c>
-      <c r="S46" s="35">
+      <c r="S46" s="34">
         <v>2566</v>
       </c>
-      <c r="T46" s="35">
+      <c r="T46" s="34">
         <v>2526</v>
       </c>
-      <c r="U46" s="35">
+      <c r="U46" s="34">
         <v>2449</v>
       </c>
-      <c r="AH46" s="35">
+      <c r="AH46" s="34">
         <f t="shared" si="101"/>
         <v>2616</v>
       </c>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35">
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34">
         <v>93</v>
       </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35">
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34">
         <v>69</v>
       </c>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35">
+      <c r="N47" s="34"/>
+      <c r="O47" s="34">
         <v>101</v>
       </c>
-      <c r="P47" s="35">
+      <c r="P47" s="34">
         <v>108</v>
       </c>
-      <c r="Q47" s="35">
+      <c r="Q47" s="34">
         <v>95</v>
       </c>
-      <c r="R47" s="35">
+      <c r="R47" s="34">
         <v>86</v>
       </c>
-      <c r="S47" s="35">
+      <c r="S47" s="34">
         <v>79</v>
       </c>
-      <c r="T47" s="35">
+      <c r="T47" s="34">
         <v>74</v>
       </c>
-      <c r="U47" s="35">
+      <c r="U47" s="34">
         <v>65</v>
       </c>
-      <c r="AH47" s="35">
+      <c r="AH47" s="34">
         <f t="shared" si="101"/>
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35">
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34">
         <f>156+21</f>
         <v>177</v>
       </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35">
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34">
         <f>158+18</f>
         <v>176</v>
       </c>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35">
+      <c r="N48" s="34"/>
+      <c r="O48" s="34">
         <f>159+16</f>
         <v>175</v>
       </c>
-      <c r="P48" s="35">
+      <c r="P48" s="34">
         <f>158+16</f>
         <v>174</v>
       </c>
-      <c r="Q48" s="35">
+      <c r="Q48" s="34">
         <f>651+235</f>
         <v>886</v>
       </c>
-      <c r="R48" s="35">
+      <c r="R48" s="34">
         <f>797+454</f>
         <v>1251</v>
       </c>
-      <c r="S48" s="35">
+      <c r="S48" s="34">
         <f>783+441</f>
         <v>1224</v>
       </c>
-      <c r="T48" s="35">
+      <c r="T48" s="34">
         <f>773+432</f>
         <v>1205</v>
       </c>
-      <c r="U48" s="35">
+      <c r="U48" s="34">
         <f>764+424</f>
         <v>1188</v>
       </c>
-      <c r="AH48" s="35">
+      <c r="AH48" s="34">
         <f t="shared" si="101"/>
         <v>1251</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34">
         <v>151</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35">
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34">
         <v>340</v>
       </c>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35">
+      <c r="N49" s="34"/>
+      <c r="O49" s="34">
         <v>342</v>
       </c>
-      <c r="P49" s="35">
+      <c r="P49" s="34">
         <v>728</v>
       </c>
-      <c r="Q49" s="35">
+      <c r="Q49" s="34">
         <v>762</v>
       </c>
-      <c r="R49" s="35">
+      <c r="R49" s="34">
         <v>781</v>
       </c>
-      <c r="S49" s="35">
+      <c r="S49" s="34">
         <v>759</v>
       </c>
-      <c r="T49" s="35">
+      <c r="T49" s="34">
         <v>736</v>
       </c>
-      <c r="U49" s="35">
+      <c r="U49" s="34">
         <v>722</v>
       </c>
-      <c r="AH49" s="35">
+      <c r="AH49" s="34">
         <f t="shared" si="101"/>
         <v>781</v>
       </c>
     </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35">
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34">
         <v>83</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35">
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34">
         <v>85</v>
       </c>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35">
+      <c r="N50" s="34"/>
+      <c r="O50" s="34">
         <v>88</v>
       </c>
-      <c r="P50" s="35">
+      <c r="P50" s="34">
         <v>85</v>
       </c>
-      <c r="Q50" s="35">
+      <c r="Q50" s="34">
         <v>96</v>
       </c>
-      <c r="R50" s="35">
+      <c r="R50" s="34">
         <v>121</v>
       </c>
-      <c r="S50" s="35">
+      <c r="S50" s="34">
         <v>118</v>
       </c>
-      <c r="T50" s="35">
+      <c r="T50" s="34">
         <v>113</v>
       </c>
-      <c r="U50" s="35">
+      <c r="U50" s="34">
         <v>103</v>
       </c>
-      <c r="AH50" s="35">
+      <c r="AH50" s="34">
         <f t="shared" si="101"/>
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="34">
         <f t="shared" ref="C51:T51" si="102">SUM(C45:C50)+C44</f>
         <v>0</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="34">
         <f t="shared" si="102"/>
         <v>6621</v>
       </c>
-      <c r="J51" s="35">
+      <c r="J51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="L51" s="35">
+      <c r="L51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="M51" s="35">
+      <c r="M51" s="34">
         <f t="shared" si="102"/>
         <v>7018</v>
       </c>
-      <c r="N51" s="35">
+      <c r="N51" s="34">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O51" s="35">
+      <c r="O51" s="34">
         <f t="shared" si="102"/>
         <v>7442</v>
       </c>
-      <c r="P51" s="35">
+      <c r="P51" s="34">
         <f t="shared" si="102"/>
         <v>7585</v>
       </c>
-      <c r="Q51" s="35">
+      <c r="Q51" s="34">
         <f t="shared" si="102"/>
         <v>8211</v>
       </c>
-      <c r="R51" s="35">
+      <c r="R51" s="34">
         <f>SUM(R45:R50)+R44</f>
         <v>8135</v>
       </c>
-      <c r="S51" s="35">
+      <c r="S51" s="34">
         <f t="shared" ref="S51" si="103">SUM(S45:S50)+S44</f>
         <v>7878</v>
       </c>
-      <c r="T51" s="35">
+      <c r="T51" s="34">
         <f t="shared" si="102"/>
         <v>7868</v>
       </c>
-      <c r="U51" s="35">
+      <c r="U51" s="34">
         <f>SUM(U45:U50)+U44</f>
         <v>7762</v>
       </c>
-      <c r="AH51" s="35">
+      <c r="AH51" s="34">
         <f>SUM(AH45:AH50)+AH44</f>
         <v>8135</v>
       </c>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35">
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34">
         <v>396</v>
       </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35">
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34">
         <v>514</v>
       </c>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35">
+      <c r="N53" s="34"/>
+      <c r="O53" s="34">
         <v>658</v>
       </c>
-      <c r="P53" s="35">
+      <c r="P53" s="34">
         <v>539</v>
       </c>
-      <c r="Q53" s="35">
+      <c r="Q53" s="34">
         <v>578</v>
       </c>
-      <c r="R53" s="35">
+      <c r="R53" s="34">
         <v>596</v>
       </c>
-      <c r="S53" s="35">
+      <c r="S53" s="34">
         <v>565</v>
       </c>
-      <c r="T53" s="35">
+      <c r="T53" s="34">
         <v>596</v>
       </c>
-      <c r="U53" s="35">
+      <c r="U53" s="34">
         <v>522</v>
       </c>
-      <c r="AH53" s="35">
+      <c r="AH53" s="34">
         <f t="shared" ref="AH53:AH54" si="104">R53</f>
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35">
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34">
         <v>333</v>
       </c>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35">
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34">
         <v>451</v>
       </c>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35">
+      <c r="N54" s="34"/>
+      <c r="O54" s="34">
         <v>572</v>
       </c>
-      <c r="P54" s="35">
+      <c r="P54" s="34">
         <v>474</v>
       </c>
-      <c r="Q54" s="35">
+      <c r="Q54" s="34">
         <v>498</v>
       </c>
-      <c r="R54" s="35">
+      <c r="R54" s="34">
         <v>561</v>
       </c>
-      <c r="S54" s="35">
+      <c r="S54" s="34">
         <v>428</v>
       </c>
-      <c r="T54" s="35">
+      <c r="T54" s="34">
         <v>435</v>
       </c>
-      <c r="U54" s="35">
+      <c r="U54" s="34">
         <v>455</v>
       </c>
-      <c r="AH54" s="35">
+      <c r="AH54" s="34">
         <f t="shared" si="104"/>
         <v>561</v>
       </c>
     </row>
-    <row r="55" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34">
-        <v>0</v>
-      </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33">
+        <v>0</v>
+      </c>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33">
         <v>2</v>
       </c>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34">
+      <c r="N55" s="33"/>
+      <c r="O55" s="33">
         <v>101</v>
       </c>
-      <c r="P55" s="34">
+      <c r="P55" s="33">
         <v>102</v>
       </c>
-      <c r="Q55" s="34">
+      <c r="Q55" s="33">
         <v>104</v>
       </c>
-      <c r="R55" s="34">
+      <c r="R55" s="33">
         <v>6</v>
       </c>
-      <c r="S55" s="34">
+      <c r="S55" s="33">
         <v>6</v>
       </c>
-      <c r="T55" s="34">
+      <c r="T55" s="33">
         <v>6</v>
       </c>
-      <c r="U55" s="34">
+      <c r="U55" s="33">
         <v>6</v>
       </c>
-      <c r="V55" s="55"/>
-      <c r="AH55" s="34">
+      <c r="V55" s="52"/>
+      <c r="AH55" s="33">
         <f>R55</f>
         <v>6</v>
       </c>
-      <c r="AI55" s="55"/>
-    </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AI55" s="52"/>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35">
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34">
         <v>508</v>
       </c>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35">
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34">
         <v>575</v>
       </c>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35">
+      <c r="N56" s="34"/>
+      <c r="O56" s="34">
         <v>582</v>
       </c>
-      <c r="P56" s="35">
+      <c r="P56" s="34">
         <v>566</v>
       </c>
-      <c r="Q56" s="35">
+      <c r="Q56" s="34">
         <v>577</v>
       </c>
-      <c r="R56" s="35">
+      <c r="R56" s="34">
         <v>572</v>
       </c>
-      <c r="S56" s="35">
+      <c r="S56" s="34">
         <v>557</v>
       </c>
-      <c r="T56" s="35">
+      <c r="T56" s="34">
         <v>548</v>
       </c>
-      <c r="U56" s="35">
+      <c r="U56" s="34">
         <v>539</v>
       </c>
-      <c r="AH56" s="35">
+      <c r="AH56" s="34">
         <f>R56</f>
         <v>572</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="34">
         <f t="shared" ref="C57:T57" si="105">SUM(C53:C56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="H57" s="35">
+      <c r="H57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="I57" s="35">
+      <c r="I57" s="34">
         <f t="shared" si="105"/>
         <v>1237</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="K57" s="35">
+      <c r="K57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="M57" s="35">
+      <c r="M57" s="34">
         <f t="shared" si="105"/>
         <v>1542</v>
       </c>
-      <c r="N57" s="35">
+      <c r="N57" s="34">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="O57" s="35">
+      <c r="O57" s="34">
         <f t="shared" si="105"/>
         <v>1913</v>
       </c>
-      <c r="P57" s="35">
+      <c r="P57" s="34">
         <f t="shared" si="105"/>
         <v>1681</v>
       </c>
-      <c r="Q57" s="35">
+      <c r="Q57" s="34">
         <f t="shared" si="105"/>
         <v>1757</v>
       </c>
-      <c r="R57" s="35">
+      <c r="R57" s="34">
         <f>SUM(R53:R56)</f>
         <v>1735</v>
       </c>
-      <c r="S57" s="35">
+      <c r="S57" s="34">
         <f t="shared" ref="S57" si="106">SUM(S53:S56)</f>
         <v>1556</v>
       </c>
-      <c r="T57" s="35">
+      <c r="T57" s="34">
         <f t="shared" si="105"/>
         <v>1585</v>
       </c>
-      <c r="U57" s="35">
+      <c r="U57" s="34">
         <f>SUM(U53:U56)</f>
         <v>1522</v>
       </c>
-      <c r="AH57" s="35">
+      <c r="AH57" s="34">
         <f t="shared" ref="AH57" si="107">SUM(AH53:AH56)</f>
         <v>1735</v>
       </c>
     </row>
-    <row r="58" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33">
         <v>122</v>
       </c>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34">
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33">
         <v>129</v>
       </c>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34">
+      <c r="N58" s="33"/>
+      <c r="O58" s="33">
         <v>8</v>
       </c>
-      <c r="P58" s="34">
+      <c r="P58" s="33">
         <v>10</v>
       </c>
-      <c r="Q58" s="34">
+      <c r="Q58" s="33">
         <v>456</v>
       </c>
-      <c r="R58" s="34">
+      <c r="R58" s="33">
         <v>451</v>
       </c>
-      <c r="S58" s="34">
+      <c r="S58" s="33">
         <v>450</v>
       </c>
-      <c r="T58" s="34">
+      <c r="T58" s="33">
         <v>449</v>
       </c>
-      <c r="U58" s="34">
+      <c r="U58" s="33">
         <v>448</v>
       </c>
-      <c r="V58" s="55"/>
-      <c r="AH58" s="34">
+      <c r="V58" s="52"/>
+      <c r="AH58" s="33">
         <f>R58</f>
         <v>451</v>
       </c>
-      <c r="AI58" s="55"/>
-    </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AI58" s="52"/>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34">
         <v>2179</v>
       </c>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35">
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34">
         <v>2514</v>
       </c>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35">
+      <c r="N59" s="34"/>
+      <c r="O59" s="34">
         <v>2470</v>
       </c>
-      <c r="P59" s="35">
+      <c r="P59" s="34">
         <v>2363</v>
       </c>
-      <c r="Q59" s="35">
+      <c r="Q59" s="34">
         <v>2421</v>
       </c>
-      <c r="R59" s="35">
+      <c r="R59" s="34">
         <v>2363</v>
       </c>
-      <c r="S59" s="35">
+      <c r="S59" s="34">
         <v>2323</v>
       </c>
-      <c r="T59" s="35">
+      <c r="T59" s="34">
         <v>2287</v>
       </c>
-      <c r="U59" s="35">
+      <c r="U59" s="34">
         <v>2212</v>
       </c>
-      <c r="AH59" s="35">
+      <c r="AH59" s="34">
         <f t="shared" ref="AH59:AH60" si="108">R59</f>
         <v>2363</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35">
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34">
         <v>116</v>
       </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35">
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34">
         <v>181</v>
       </c>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35">
+      <c r="N60" s="34"/>
+      <c r="O60" s="34">
         <v>121</v>
       </c>
-      <c r="P60" s="35">
+      <c r="P60" s="34">
         <v>190</v>
       </c>
-      <c r="Q60" s="35">
+      <c r="Q60" s="34">
         <v>235</v>
       </c>
-      <c r="R60" s="35">
+      <c r="R60" s="34">
         <v>343</v>
       </c>
-      <c r="S60" s="35">
+      <c r="S60" s="34">
         <v>334</v>
       </c>
-      <c r="T60" s="35">
+      <c r="T60" s="34">
         <v>330</v>
       </c>
-      <c r="U60" s="35">
+      <c r="U60" s="34">
         <v>321</v>
       </c>
-      <c r="AH60" s="35">
+      <c r="AH60" s="34">
         <f t="shared" si="108"/>
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="34">
         <f t="shared" ref="C61:T61" si="109">SUM(C58:C60)+C57</f>
         <v>0</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="H61" s="35">
+      <c r="H61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="34">
         <f t="shared" si="109"/>
         <v>3654</v>
       </c>
-      <c r="J61" s="35">
+      <c r="J61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="K61" s="35">
+      <c r="K61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="L61" s="35">
+      <c r="L61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="M61" s="35">
+      <c r="M61" s="34">
         <f t="shared" si="109"/>
         <v>4366</v>
       </c>
-      <c r="N61" s="35">
+      <c r="N61" s="34">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="O61" s="35">
+      <c r="O61" s="34">
         <f t="shared" si="109"/>
         <v>4512</v>
       </c>
-      <c r="P61" s="35">
+      <c r="P61" s="34">
         <f t="shared" si="109"/>
         <v>4244</v>
       </c>
-      <c r="Q61" s="35">
+      <c r="Q61" s="34">
         <f t="shared" si="109"/>
         <v>4869</v>
       </c>
-      <c r="R61" s="35">
+      <c r="R61" s="34">
         <f>SUM(R58:R60)+R57</f>
         <v>4892</v>
       </c>
-      <c r="S61" s="35">
+      <c r="S61" s="34">
         <f t="shared" ref="S61" si="110">SUM(S58:S60)+S57</f>
         <v>4663</v>
       </c>
-      <c r="T61" s="35">
+      <c r="T61" s="34">
         <f t="shared" si="109"/>
         <v>4651</v>
       </c>
-      <c r="U61" s="35">
+      <c r="U61" s="34">
         <f>SUM(U58:U60)+U57</f>
         <v>4503</v>
       </c>
-      <c r="AH61" s="35">
+      <c r="AH61" s="34">
         <f t="shared" ref="AH61" si="111">SUM(AH58:AH60)+AH57</f>
         <v>4892</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>115</v>
       </c>
@@ -5685,10 +5692,10 @@
       <c r="P63" s="1">
         <v>3341</v>
       </c>
-      <c r="Q63" s="35">
+      <c r="Q63" s="34">
         <v>3342</v>
       </c>
-      <c r="R63" s="35">
+      <c r="R63" s="34">
         <v>3243</v>
       </c>
       <c r="S63" s="1">
@@ -5697,145 +5704,145 @@
       <c r="T63" s="1">
         <v>3217</v>
       </c>
-      <c r="U63" s="35">
+      <c r="U63" s="34">
         <v>3259</v>
       </c>
-      <c r="AH63" s="35">
+      <c r="AH63" s="34">
         <f>R63</f>
         <v>3243</v>
       </c>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="34">
         <f t="shared" ref="C64:T64" si="112">C63+C61</f>
         <v>0</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="34">
         <f t="shared" si="112"/>
         <v>6081</v>
       </c>
-      <c r="J64" s="35">
+      <c r="J64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="K64" s="35">
+      <c r="K64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="L64" s="35">
+      <c r="L64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="M64" s="35">
+      <c r="M64" s="34">
         <f t="shared" si="112"/>
         <v>7018</v>
       </c>
-      <c r="N64" s="35">
+      <c r="N64" s="34">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="O64" s="35">
+      <c r="O64" s="34">
         <f t="shared" si="112"/>
         <v>7442</v>
       </c>
-      <c r="P64" s="35">
+      <c r="P64" s="34">
         <f t="shared" si="112"/>
         <v>7585</v>
       </c>
-      <c r="Q64" s="35">
+      <c r="Q64" s="34">
         <f t="shared" si="112"/>
         <v>8211</v>
       </c>
-      <c r="R64" s="35">
+      <c r="R64" s="34">
         <f>R63+R61</f>
         <v>8135</v>
       </c>
-      <c r="S64" s="35">
+      <c r="S64" s="34">
         <f t="shared" ref="S64" si="113">S63+S61</f>
         <v>7878</v>
       </c>
-      <c r="T64" s="35">
+      <c r="T64" s="34">
         <f t="shared" si="112"/>
         <v>7868</v>
       </c>
-      <c r="U64" s="35">
+      <c r="U64" s="34">
         <f>U63+U61</f>
         <v>7762</v>
       </c>
-      <c r="AH64" s="35">
+      <c r="AH64" s="34">
         <f t="shared" ref="AH64" si="114">AH63+AH61</f>
         <v>8135</v>
       </c>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="34">
         <f t="shared" ref="I66" si="115">I51-I61</f>
         <v>2967</v>
       </c>
-      <c r="M66" s="35">
+      <c r="M66" s="34">
         <f t="shared" ref="M66:O66" si="116">M51-M61</f>
         <v>2652</v>
       </c>
-      <c r="O66" s="35">
+      <c r="O66" s="34">
         <f t="shared" si="116"/>
         <v>2930</v>
       </c>
-      <c r="P66" s="35">
+      <c r="P66" s="34">
         <f t="shared" ref="P66" si="117">P51-P61</f>
         <v>3341</v>
       </c>
-      <c r="Q66" s="35">
+      <c r="Q66" s="34">
         <f>Q51-Q61</f>
         <v>3342</v>
       </c>
-      <c r="R66" s="35">
+      <c r="R66" s="34">
         <f>R51-R61</f>
         <v>3243</v>
       </c>
-      <c r="S66" s="35">
+      <c r="S66" s="34">
         <f t="shared" ref="S66" si="118">S51-S61</f>
         <v>3215</v>
       </c>
-      <c r="T66" s="35">
+      <c r="T66" s="34">
         <f t="shared" ref="T66" si="119">T51-T61</f>
         <v>3217</v>
       </c>
-      <c r="U66" s="35">
+      <c r="U66" s="34">
         <f>U51-U61</f>
         <v>3259</v>
       </c>
-      <c r="AH66" s="35">
+      <c r="AH66" s="34">
         <f>AH51-AH61</f>
         <v>3243</v>
       </c>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
@@ -5880,348 +5887,348 @@
         <v>31.639024390243904</v>
       </c>
     </row>
-    <row r="69" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="32" t="s">
+    <row r="69" spans="2:35" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="35">
         <f t="shared" ref="C69:T69" si="125">C41</f>
         <v>0</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="E69" s="37">
+      <c r="E69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="F69" s="37">
+      <c r="F69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="G69" s="37">
+      <c r="G69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="H69" s="37">
+      <c r="H69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="I69" s="37">
+      <c r="I69" s="35">
         <f t="shared" si="125"/>
         <v>744</v>
       </c>
-      <c r="J69" s="37">
+      <c r="J69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="K69" s="37">
+      <c r="K69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L69" s="37">
+      <c r="L69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="M69" s="37">
+      <c r="M69" s="35">
         <f t="shared" si="125"/>
         <v>1393</v>
       </c>
-      <c r="N69" s="37">
+      <c r="N69" s="35">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="O69" s="37">
+      <c r="O69" s="35">
         <f t="shared" si="125"/>
         <v>1963</v>
       </c>
-      <c r="P69" s="37">
+      <c r="P69" s="35">
         <f t="shared" si="125"/>
         <v>1845</v>
       </c>
-      <c r="Q69" s="37">
+      <c r="Q69" s="35">
         <f t="shared" si="125"/>
         <v>1339</v>
       </c>
-      <c r="R69" s="37">
+      <c r="R69" s="35">
         <f>R41</f>
         <v>804</v>
       </c>
-      <c r="S69" s="37">
+      <c r="S69" s="35">
         <f t="shared" ref="S69" si="126">S41</f>
         <v>551</v>
       </c>
-      <c r="T69" s="37">
+      <c r="T69" s="35">
         <f t="shared" si="125"/>
         <v>386</v>
       </c>
-      <c r="U69" s="37">
+      <c r="U69" s="35">
         <f>U41</f>
         <v>351</v>
       </c>
-      <c r="V69" s="54"/>
-      <c r="AH69" s="37">
+      <c r="V69" s="51"/>
+      <c r="AH69" s="35">
         <f>AH41</f>
         <v>804</v>
       </c>
-      <c r="AI69" s="54"/>
-    </row>
-    <row r="70" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="32" t="s">
+      <c r="AI69" s="51"/>
+    </row>
+    <row r="70" spans="2:35" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="35">
         <f t="shared" ref="C70:T70" si="127">C55+C58</f>
         <v>0</v>
       </c>
-      <c r="D70" s="37">
+      <c r="D70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="E70" s="37">
+      <c r="E70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="F70" s="37">
+      <c r="F70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="G70" s="37">
+      <c r="G70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="H70" s="37">
+      <c r="H70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="35">
         <f t="shared" si="127"/>
         <v>122</v>
       </c>
-      <c r="J70" s="37">
+      <c r="J70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="K70" s="37">
+      <c r="K70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="L70" s="37">
+      <c r="L70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="M70" s="37">
+      <c r="M70" s="35">
         <f t="shared" si="127"/>
         <v>131</v>
       </c>
-      <c r="N70" s="37">
+      <c r="N70" s="35">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="O70" s="37">
+      <c r="O70" s="35">
         <f t="shared" si="127"/>
         <v>109</v>
       </c>
-      <c r="P70" s="37">
+      <c r="P70" s="35">
         <f t="shared" si="127"/>
         <v>112</v>
       </c>
-      <c r="Q70" s="37">
+      <c r="Q70" s="35">
         <f t="shared" si="127"/>
         <v>560</v>
       </c>
-      <c r="R70" s="37">
+      <c r="R70" s="35">
         <f>R55+R58</f>
         <v>457</v>
       </c>
-      <c r="S70" s="37">
+      <c r="S70" s="35">
         <f t="shared" ref="S70" si="128">S55+S58</f>
         <v>456</v>
       </c>
-      <c r="T70" s="37">
+      <c r="T70" s="35">
         <f t="shared" si="127"/>
         <v>455</v>
       </c>
-      <c r="U70" s="37">
+      <c r="U70" s="35">
         <f>U55+U58</f>
         <v>454</v>
       </c>
-      <c r="V70" s="54"/>
-      <c r="AH70" s="37">
+      <c r="V70" s="51"/>
+      <c r="AH70" s="35">
         <f>AH55+AH58</f>
         <v>457</v>
       </c>
-      <c r="AI70" s="54"/>
-    </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AI70" s="51"/>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="34">
         <f t="shared" ref="C71:T71" si="129">C69-C70</f>
         <v>0</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="E71" s="35">
+      <c r="E71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="H71" s="35">
+      <c r="H71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="I71" s="35">
+      <c r="I71" s="34">
         <f t="shared" si="129"/>
         <v>622</v>
       </c>
-      <c r="J71" s="35">
+      <c r="J71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="K71" s="35">
+      <c r="K71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="L71" s="35">
+      <c r="L71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="M71" s="35">
+      <c r="M71" s="34">
         <f t="shared" si="129"/>
         <v>1262</v>
       </c>
-      <c r="N71" s="35">
+      <c r="N71" s="34">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="O71" s="35">
+      <c r="O71" s="34">
         <f t="shared" si="129"/>
         <v>1854</v>
       </c>
-      <c r="P71" s="35">
+      <c r="P71" s="34">
         <f t="shared" si="129"/>
         <v>1733</v>
       </c>
-      <c r="Q71" s="35">
+      <c r="Q71" s="34">
         <f t="shared" si="129"/>
         <v>779</v>
       </c>
-      <c r="R71" s="35">
+      <c r="R71" s="34">
         <f>R69-R70</f>
         <v>347</v>
       </c>
-      <c r="S71" s="35">
+      <c r="S71" s="34">
         <f t="shared" ref="S71" si="130">S69-S70</f>
         <v>95</v>
       </c>
-      <c r="T71" s="35">
+      <c r="T71" s="34">
         <f t="shared" si="129"/>
         <v>-69</v>
       </c>
-      <c r="U71" s="35">
+      <c r="U71" s="34">
         <f>U69-U70</f>
         <v>-103</v>
       </c>
-      <c r="AH71" s="35">
+      <c r="AH71" s="34">
         <f>AH69-AH70</f>
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M73" s="30">
+      <c r="M73" s="29">
         <f t="shared" ref="M73" si="131">M42/I42-1</f>
         <v>-8.5122699386503076E-2</v>
       </c>
-      <c r="Q73" s="30">
+      <c r="Q73" s="29">
         <f t="shared" ref="Q73:S73" si="132">Q42/M42-1</f>
         <v>9.0528080469404859E-2</v>
       </c>
-      <c r="S73" s="30">
+      <c r="S73" s="29">
         <f t="shared" si="132"/>
         <v>0.37218413320274246</v>
       </c>
-      <c r="T73" s="30">
+      <c r="T73" s="29">
         <f>T42/P42-1</f>
         <v>0.52081406105457906</v>
       </c>
-      <c r="U73" s="30">
+      <c r="U73" s="29">
         <f>U42/Q42-1</f>
         <v>0.29515757109915453</v>
       </c>
     </row>
-    <row r="74" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="30" t="s">
+    <row r="74" spans="2:35" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P74" s="30">
+      <c r="P74" s="29">
         <f t="shared" ref="P74" si="133">P42/O42-1</f>
         <v>5.8765915768854038E-2</v>
       </c>
-      <c r="Q74" s="30">
+      <c r="Q74" s="29">
         <f>Q42/P42-1</f>
         <v>0.20351526364477346</v>
       </c>
-      <c r="R74" s="30">
+      <c r="R74" s="29">
         <f>R42/Q42-1</f>
         <v>-2.6902382782475032E-2</v>
       </c>
-      <c r="S74" s="30">
+      <c r="S74" s="29">
         <f t="shared" ref="S74:T74" si="134">S42/R42-1</f>
         <v>0.10663507109004744</v>
       </c>
-      <c r="T74" s="30">
+      <c r="T74" s="29">
         <f t="shared" si="134"/>
         <v>0.17344753747323338</v>
       </c>
-      <c r="U74" s="30">
+      <c r="U74" s="29">
         <f>U42/T42-1</f>
         <v>2.4939172749391725E-2</v>
       </c>
-      <c r="V74" s="56"/>
-      <c r="AI74" s="56"/>
-    </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="V74" s="53"/>
+      <c r="AI74" s="53"/>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R75" s="30">
+      <c r="R75" s="29">
         <f t="shared" ref="R75:T75" si="135">R42/SUM(O6:R6)</f>
         <v>0.14132618888144674</v>
       </c>
-      <c r="S75" s="30">
+      <c r="S75" s="29">
         <f t="shared" si="135"/>
         <v>0.15601336302895322</v>
       </c>
-      <c r="T75" s="30">
+      <c r="T75" s="29">
         <f t="shared" si="135"/>
         <v>0.18745724059293045</v>
       </c>
-      <c r="U75" s="30">
+      <c r="U75" s="29">
         <f>U42/SUM(R6:U6)</f>
         <v>0.19248343614347727</v>
       </c>
-      <c r="AH75" s="30">
+      <c r="AH75" s="29">
         <f>AH42/AH6</f>
         <v>0.14132618888144674</v>
       </c>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B77" s="28" t="s">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B77" s="27" t="s">
         <v>121</v>
       </c>
       <c r="O77" s="1">
@@ -6236,13 +6243,13 @@
       <c r="R77" s="1">
         <v>42.16</v>
       </c>
-      <c r="S77" s="38">
+      <c r="S77" s="36">
         <v>28.2</v>
       </c>
       <c r="T77" s="1">
         <v>27.74</v>
       </c>
-      <c r="U77" s="38">
+      <c r="U77" s="36">
         <v>31.1</v>
       </c>
       <c r="AH77" s="1">
@@ -6250,172 +6257,172 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O78" s="35">
+      <c r="O78" s="34">
         <f t="shared" ref="O78" si="136">O77*O19</f>
         <v>6119.652</v>
       </c>
-      <c r="P78" s="35">
+      <c r="P78" s="34">
         <f t="shared" ref="P78" si="137">P77*P19</f>
         <v>5546.0339999999997</v>
       </c>
-      <c r="Q78" s="35">
+      <c r="Q78" s="34">
         <f>Q77*Q19</f>
         <v>4635.7440000000006</v>
       </c>
-      <c r="R78" s="35">
+      <c r="R78" s="34">
         <f t="shared" ref="R78" si="138">R77*R19</f>
         <v>4321.3999999999996</v>
       </c>
-      <c r="S78" s="35">
+      <c r="S78" s="34">
         <f t="shared" ref="S78" si="139">S77*S19</f>
         <v>2710.02</v>
       </c>
-      <c r="T78" s="35">
+      <c r="T78" s="34">
         <f t="shared" ref="T78" si="140">T77*T19</f>
         <v>2610.3339999999998</v>
       </c>
-      <c r="U78" s="35">
+      <c r="U78" s="34">
         <f>U77*U19</f>
         <v>2904.7400000000002</v>
       </c>
-      <c r="AH78" s="35">
+      <c r="AH78" s="34">
         <f>AH77*AH19</f>
         <v>4321.3999999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O79" s="35">
+      <c r="O79" s="34">
         <f t="shared" ref="O79" si="141">O78-O71</f>
         <v>4265.652</v>
       </c>
-      <c r="P79" s="35">
+      <c r="P79" s="34">
         <f t="shared" ref="P79" si="142">P78-P71</f>
         <v>3813.0339999999997</v>
       </c>
-      <c r="Q79" s="35">
+      <c r="Q79" s="34">
         <f>Q78-Q71</f>
         <v>3856.7440000000006</v>
       </c>
-      <c r="R79" s="35">
+      <c r="R79" s="34">
         <f t="shared" ref="R79" si="143">R78-R71</f>
         <v>3974.3999999999996</v>
       </c>
-      <c r="S79" s="35">
+      <c r="S79" s="34">
         <f t="shared" ref="S79" si="144">S78-S71</f>
         <v>2615.02</v>
       </c>
-      <c r="T79" s="35">
+      <c r="T79" s="34">
         <f t="shared" ref="T79" si="145">T78-T71</f>
         <v>2679.3339999999998</v>
       </c>
-      <c r="U79" s="35">
+      <c r="U79" s="34">
         <f>U78-U71</f>
         <v>3007.7400000000002</v>
       </c>
-      <c r="AH79" s="35">
+      <c r="AH79" s="34">
         <f>AH78-AH71</f>
         <v>3974.3999999999996</v>
       </c>
     </row>
-    <row r="81" spans="2:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="33" t="s">
+    <row r="81" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="O81" s="33">
+      <c r="O81" s="32">
         <f t="shared" ref="O81" si="146">O77/O67</f>
         <v>2.0886184300341295</v>
       </c>
-      <c r="P81" s="33">
+      <c r="P81" s="32">
         <f t="shared" ref="P81" si="147">P77/P67</f>
         <v>1.6599922178988327</v>
       </c>
-      <c r="Q81" s="33">
+      <c r="Q81" s="32">
         <f>Q77/Q67</f>
         <v>1.387116696588869</v>
       </c>
-      <c r="R81" s="33">
+      <c r="R81" s="32">
         <f t="shared" ref="R81" si="148">R77/R67</f>
         <v>1.3325316065371569</v>
       </c>
-      <c r="S81" s="33">
+      <c r="S81" s="32">
         <f t="shared" ref="S81" si="149">S77/S67</f>
         <v>0.84293001555209934</v>
       </c>
-      <c r="T81" s="33">
+      <c r="T81" s="32">
         <f t="shared" ref="T81" si="150">T77/T67</f>
         <v>0.81141871308672664</v>
       </c>
-      <c r="U81" s="33">
+      <c r="U81" s="32">
         <f>U77/U67</f>
         <v>0.8912979441546488</v>
       </c>
-      <c r="V81" s="61"/>
-      <c r="AH81" s="33">
+      <c r="V81" s="58"/>
+      <c r="AH81" s="32">
         <f>AH77/AH67</f>
         <v>1.3325316065371569</v>
       </c>
-      <c r="AI81" s="61"/>
-    </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AI81" s="58"/>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH82" s="33">
+      <c r="AH82" s="32">
         <f>AH78/AH6</f>
         <v>0.4824067872292922</v>
       </c>
     </row>
-    <row r="83" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH83" s="33">
+      <c r="AH83" s="32">
         <f>AH79/AH6</f>
         <v>0.44367046215673139</v>
       </c>
     </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R84" s="33">
+      <c r="R84" s="32">
         <f t="shared" ref="R84:T84" si="151">R77/SUM(O18:R18)</f>
         <v>4.8917919939957191</v>
       </c>
-      <c r="S84" s="33">
+      <c r="S84" s="32">
         <f t="shared" si="151"/>
         <v>3.5064679704443651</v>
       </c>
-      <c r="T84" s="33">
+      <c r="T84" s="32">
         <f t="shared" si="151"/>
         <v>5.662800594373258</v>
       </c>
-      <c r="U84" s="33">
+      <c r="U84" s="32">
         <f>U77/SUM(R18:U18)</f>
         <v>7.0754732383764916</v>
       </c>
-      <c r="AH84" s="33">
+      <c r="AH84" s="32">
         <f>AH77/AH18</f>
         <v>4.844618834080717</v>
       </c>
     </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AH85" s="33">
+      <c r="AH85" s="32">
         <f>AH79/AH17</f>
         <v>4.4556053811659186</v>
       </c>
     </row>
-    <row r="86" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>27</v>
       </c>

--- a/$FL.xlsx
+++ b/$FL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E933B1-EC79-574B-89AB-0A3D7FF98F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3257E0C3-A9B0-441F-87E1-463F6807D8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
   <si>
     <t>$FL</t>
   </si>
@@ -444,6 +434,30 @@
   </si>
   <si>
     <t>FY17</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Net cash</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current SP</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -683,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -795,6 +809,9 @@
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,7 +824,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,15 +845,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1322,46 +1347,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13917F-DFCA-4AA6-ACFC-026B1E81207F}">
   <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="70" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="G5" s="70" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="G5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1406,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1429,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1450,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1474,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +1498,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1522,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1543,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G13" s="14"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1531,7 +1556,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G14" s="14"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1544,12 +1569,12 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="70" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
       <c r="G15" s="14"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1562,14 +1587,14 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="68"/>
+      <c r="D16" s="69"/>
       <c r="G16" s="14"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1582,17 +1607,17 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="69"/>
       <c r="G17" s="14"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1605,17 +1630,17 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="69"/>
       <c r="G18" s="14"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1628,14 +1653,14 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="76"/>
+      <c r="D19" s="71"/>
       <c r="G19" s="14"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1648,7 +1673,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="G20" s="14"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1661,7 +1686,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G21" s="14"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1674,12 +1699,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="70" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
       <c r="G22" s="14"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1692,14 +1717,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="69"/>
       <c r="G23" s="14"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1712,14 +1737,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="68">
         <v>1879</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="69"/>
       <c r="G24" s="14"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1732,15 +1757,15 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="77">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="G25" s="14"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1753,10 +1778,10 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
       <c r="G26" s="14"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1769,15 +1794,15 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="77">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D27" s="68"/>
+      <c r="D27" s="69"/>
       <c r="G27" s="14"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1790,15 +1815,15 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="77">
         <f>'Financial Model'!U42</f>
         <v>1685</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="69"/>
       <c r="G28" s="14"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1811,10 +1836,10 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
       <c r="G29" s="14"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1827,14 +1852,14 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="65">
         <v>45248</v>
       </c>
       <c r="G30" s="14"/>
@@ -1849,14 +1874,14 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="74"/>
+      <c r="D31" s="76"/>
       <c r="G31" s="15"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1869,82 +1894,84 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="70" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="66">
         <f>C6/'Financial Model'!U67</f>
         <v>1.1231500460263886</v>
       </c>
-      <c r="D35" s="66"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="67"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="66">
         <f>C8/SUM('Financial Model'!R6:U6)</f>
         <v>0.41777787687114459</v>
       </c>
-      <c r="D36" s="66"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="67"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="66">
         <f>C12/SUM('Financial Model'!R6:U6)</f>
         <v>0.42954392667694763</v>
       </c>
-      <c r="D37" s="66"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="67"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="66">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
         <v>8.9160063090667094</v>
       </c>
-      <c r="D38" s="66"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="67"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="66">
         <f>C12/SUM('Financial Model'!R17:U17)</f>
         <v>8.8684611654009426</v>
       </c>
-      <c r="D39" s="66"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="67"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
@@ -1957,13 +1984,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{895B3114-FB4F-46F5-A7E6-2022E34FF531}"/>
@@ -1976,27 +2001,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9C1236-EF31-448C-82ED-0941EE456E01}">
-  <dimension ref="A1:AT86"/>
+  <dimension ref="A1:EE86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="N35:P35"/>
+      <selection pane="bottomRight" activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="9.1640625" style="1"/>
-    <col min="22" max="22" width="9.1640625" style="51"/>
-    <col min="23" max="34" width="9.1640625" style="1"/>
-    <col min="35" max="35" width="9.1640625" style="51"/>
-    <col min="36" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="51"/>
+    <col min="23" max="34" width="9.140625" style="1"/>
+    <col min="35" max="35" width="9.140625" style="51"/>
+    <col min="36" max="47" width="9.140625" style="1"/>
+    <col min="48" max="48" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:104" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
@@ -2078,7 +2106,7 @@
       <c r="AE1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="22" t="s">
         <v>54</v>
       </c>
       <c r="AG1" s="21" t="s">
@@ -2124,7 +2152,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:104" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="G2" s="26">
         <v>43589</v>
@@ -2182,7 +2210,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:104" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="K3" s="43">
         <v>44682</v>
@@ -2206,12 +2234,15 @@
         <v>43405</v>
       </c>
       <c r="V3" s="50"/>
+      <c r="AF3" s="43">
+        <v>46784</v>
+      </c>
       <c r="AH3" s="43">
         <v>45689</v>
       </c>
       <c r="AI3" s="50"/>
     </row>
-    <row r="4" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:104" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2259,10 @@
       <c r="I4" s="35">
         <v>1636</v>
       </c>
-      <c r="J4" s="35"/>
+      <c r="J4" s="35">
+        <f>AF4-SUM(G4:I4)</f>
+        <v>1805</v>
+      </c>
       <c r="K4" s="35">
         <v>814</v>
       </c>
@@ -2265,8 +2299,15 @@
         <v>1818</v>
       </c>
       <c r="V4" s="51"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AD4" s="35">
+        <v>6673</v>
+      </c>
+      <c r="AE4" s="35">
+        <v>6714</v>
+      </c>
+      <c r="AF4" s="35">
+        <v>6720</v>
+      </c>
       <c r="AG4" s="35">
         <v>5447</v>
       </c>
@@ -2275,7 +2316,7 @@
       </c>
       <c r="AI4" s="51"/>
     </row>
-    <row r="5" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:104" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>124</v>
       </c>
@@ -2292,7 +2333,10 @@
       <c r="I5" s="35">
         <v>296</v>
       </c>
-      <c r="J5" s="35"/>
+      <c r="J5" s="35">
+        <f t="shared" ref="J5" si="0">AF5-SUM(G5:I5)</f>
+        <v>416</v>
+      </c>
       <c r="K5" s="35">
         <v>362</v>
       </c>
@@ -2329,8 +2373,15 @@
         <v>355</v>
       </c>
       <c r="V5" s="51"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
+      <c r="AD5" s="35">
+        <v>1109</v>
+      </c>
+      <c r="AE5" s="35">
+        <v>1225</v>
+      </c>
+      <c r="AF5" s="35">
+        <v>1285</v>
+      </c>
       <c r="AG5" s="35">
         <v>2101</v>
       </c>
@@ -2339,7 +2390,7 @@
       </c>
       <c r="AI5" s="51"/>
     </row>
-    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
@@ -2348,68 +2399,81 @@
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33">
-        <f t="shared" ref="G6:I6" si="0">G4+G5</f>
+        <f t="shared" ref="G6:I6" si="1">G4+G5</f>
         <v>2078</v>
       </c>
       <c r="H6" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1774</v>
       </c>
       <c r="I6" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1932</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="33">
+        <f>AF6-SUM(G6:I6)</f>
+        <v>2221</v>
+      </c>
       <c r="K6" s="33">
-        <f t="shared" ref="K6:U6" si="1">K4+K5</f>
+        <f t="shared" ref="K6:U6" si="2">K4+K5</f>
         <v>1176</v>
       </c>
       <c r="L6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2077</v>
       </c>
       <c r="M6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2106</v>
       </c>
       <c r="N6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2189</v>
       </c>
       <c r="O6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2153</v>
       </c>
       <c r="P6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2275</v>
       </c>
       <c r="Q6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2189</v>
       </c>
       <c r="R6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2341</v>
       </c>
       <c r="S6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2175</v>
       </c>
       <c r="T6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2065</v>
       </c>
       <c r="U6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2173</v>
       </c>
       <c r="V6" s="59">
         <f>U6*(1+V24)</f>
         <v>2281.65</v>
       </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
+      <c r="AD6" s="33">
+        <f>AD4+AD5</f>
+        <v>7782</v>
+      </c>
+      <c r="AE6" s="33">
+        <f>AE4+AE5</f>
+        <v>7939</v>
+      </c>
+      <c r="AF6" s="33">
+        <f>AF4+AF5</f>
+        <v>8005</v>
+      </c>
       <c r="AG6" s="33">
         <f>AG4+AG5</f>
         <v>7548</v>
@@ -2424,10 +2488,50 @@
       </c>
       <c r="AJ6" s="33">
         <f>AI6*(1+AJ21)</f>
-        <v>9042.4359999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+        <v>8955.4894999999997</v>
+      </c>
+      <c r="AK6" s="33">
+        <f>AJ6*(1+AK21)</f>
+        <v>9134.5992900000001</v>
+      </c>
+      <c r="AL6" s="33">
+        <f t="shared" ref="AL6:AT6" si="3">AK6*(1+AL21)</f>
+        <v>9317.2912758000002</v>
+      </c>
+      <c r="AM6" s="33">
+        <f t="shared" si="3"/>
+        <v>9410.4641885580004</v>
+      </c>
+      <c r="AN6" s="33">
+        <f t="shared" si="3"/>
+        <v>9504.5688304435807</v>
+      </c>
+      <c r="AO6" s="33">
+        <f t="shared" si="3"/>
+        <v>9599.6145187480161</v>
+      </c>
+      <c r="AP6" s="33">
+        <f t="shared" si="3"/>
+        <v>9695.6106639354966</v>
+      </c>
+      <c r="AQ6" s="33">
+        <f t="shared" si="3"/>
+        <v>9792.566770574851</v>
+      </c>
+      <c r="AR6" s="33">
+        <f t="shared" si="3"/>
+        <v>9890.4924382806003</v>
+      </c>
+      <c r="AS6" s="33">
+        <f t="shared" si="3"/>
+        <v>9989.397362663407</v>
+      </c>
+      <c r="AT6" s="33">
+        <f t="shared" si="3"/>
+        <v>10089.291336290042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2444,7 +2548,10 @@
       <c r="I7" s="34">
         <v>1312</v>
       </c>
-      <c r="J7" s="34"/>
+      <c r="J7" s="34">
+        <f>AF7-SUM(G7:I7)</f>
+        <v>1521</v>
+      </c>
       <c r="K7" s="34">
         <v>905</v>
       </c>
@@ -2484,8 +2591,15 @@
         <f>V6*(1-V26)</f>
         <v>1551.5219999999999</v>
       </c>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
+      <c r="AD7" s="34">
+        <v>5326</v>
+      </c>
+      <c r="AE7" s="34">
+        <v>5411</v>
+      </c>
+      <c r="AF7" s="34">
+        <v>5462</v>
+      </c>
       <c r="AG7" s="34">
         <v>5365</v>
       </c>
@@ -2498,83 +2612,123 @@
       </c>
       <c r="AJ7" s="34">
         <f>AJ6-AJ8</f>
-        <v>5968.0077599999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5910.6230699999996</v>
+      </c>
+      <c r="AK7" s="34">
+        <f>AK6-AK8</f>
+        <v>5937.4895385</v>
+      </c>
+      <c r="AL7" s="34">
+        <f t="shared" ref="AL7:AT7" si="4">AL6-AL8</f>
+        <v>6056.2393292699999</v>
+      </c>
+      <c r="AM7" s="34">
+        <f t="shared" si="4"/>
+        <v>6116.8017225627009</v>
+      </c>
+      <c r="AN7" s="34">
+        <f t="shared" si="4"/>
+        <v>6177.9697397883283</v>
+      </c>
+      <c r="AO7" s="34">
+        <f t="shared" si="4"/>
+        <v>6239.7494371862103</v>
+      </c>
+      <c r="AP7" s="34">
+        <f t="shared" si="4"/>
+        <v>6302.1469315580725</v>
+      </c>
+      <c r="AQ7" s="34">
+        <f t="shared" si="4"/>
+        <v>6365.1684008736538</v>
+      </c>
+      <c r="AR7" s="34">
+        <f t="shared" si="4"/>
+        <v>6428.8200848823908</v>
+      </c>
+      <c r="AS7" s="34">
+        <f t="shared" si="4"/>
+        <v>6493.1082857312149</v>
+      </c>
+      <c r="AT7" s="34">
+        <f t="shared" si="4"/>
+        <v>6558.0393685885274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="33">
-        <f t="shared" ref="C8:T8" si="2">C6-C7</f>
+        <f t="shared" ref="C8:T8" si="5">C6-C7</f>
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>689</v>
       </c>
       <c r="H8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>534</v>
       </c>
       <c r="I8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>620</v>
       </c>
       <c r="J8" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>700</v>
       </c>
       <c r="K8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>271</v>
       </c>
       <c r="L8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>538</v>
       </c>
       <c r="M8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>650</v>
       </c>
       <c r="N8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>724</v>
       </c>
       <c r="O8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>749</v>
       </c>
       <c r="P8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>798</v>
       </c>
       <c r="Q8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>760</v>
       </c>
       <c r="R8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>773</v>
       </c>
       <c r="S8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>740</v>
       </c>
       <c r="T8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>654</v>
       </c>
       <c r="U8" s="33">
@@ -2586,19 +2740,19 @@
         <v>730.12800000000016</v>
       </c>
       <c r="AD8" s="33">
-        <f t="shared" ref="AD8" si="3">AD6-AD7</f>
-        <v>0</v>
+        <f t="shared" ref="AD8" si="6">AD6-AD7</f>
+        <v>2456</v>
       </c>
       <c r="AE8" s="33">
-        <f t="shared" ref="AE8:AG8" si="4">AE6-AE7</f>
-        <v>0</v>
+        <f t="shared" ref="AE8:AG8" si="7">AE6-AE7</f>
+        <v>2528</v>
       </c>
       <c r="AF8" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2543</v>
       </c>
       <c r="AG8" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2183</v>
       </c>
       <c r="AH8" s="33">
@@ -2611,10 +2765,50 @@
       </c>
       <c r="AJ8" s="33">
         <f>AJ6*AJ26</f>
-        <v>3074.4282400000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+        <v>3044.86643</v>
+      </c>
+      <c r="AK8" s="33">
+        <f>AK6*AK26</f>
+        <v>3197.1097514999997</v>
+      </c>
+      <c r="AL8" s="33">
+        <f t="shared" ref="AL8:AT8" si="8">AL6*AL26</f>
+        <v>3261.0519465299999</v>
+      </c>
+      <c r="AM8" s="33">
+        <f t="shared" si="8"/>
+        <v>3293.6624659953</v>
+      </c>
+      <c r="AN8" s="33">
+        <f t="shared" si="8"/>
+        <v>3326.5990906552529</v>
+      </c>
+      <c r="AO8" s="33">
+        <f t="shared" si="8"/>
+        <v>3359.8650815618053</v>
+      </c>
+      <c r="AP8" s="33">
+        <f t="shared" si="8"/>
+        <v>3393.4637323774236</v>
+      </c>
+      <c r="AQ8" s="33">
+        <f t="shared" si="8"/>
+        <v>3427.3983697011977</v>
+      </c>
+      <c r="AR8" s="33">
+        <f t="shared" si="8"/>
+        <v>3461.6723533982099</v>
+      </c>
+      <c r="AS8" s="33">
+        <f t="shared" si="8"/>
+        <v>3496.2890769321921</v>
+      </c>
+      <c r="AT8" s="33">
+        <f t="shared" si="8"/>
+        <v>3531.2519677015143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
@@ -2631,7 +2825,10 @@
       <c r="I9" s="34">
         <v>411</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="34">
+        <f t="shared" ref="J9:J11" si="9">AF9-SUM(G9:I9)</f>
+        <v>430</v>
+      </c>
       <c r="K9" s="34">
         <v>316</v>
       </c>
@@ -2642,7 +2839,7 @@
         <v>424</v>
       </c>
       <c r="N9" s="34">
-        <f t="shared" ref="N9:N11" si="5">AG9-SUM(K9:M9)</f>
+        <f t="shared" ref="N9:N11" si="10">AG9-SUM(K9:M9)</f>
         <v>460</v>
       </c>
       <c r="O9" s="34">
@@ -2655,7 +2852,7 @@
         <v>458</v>
       </c>
       <c r="R9" s="34">
-        <f t="shared" ref="R9:R11" si="6">AH9-SUM(O9:Q9)</f>
+        <f t="shared" ref="R9:R11" si="11">AH9-SUM(O9:Q9)</f>
         <v>525</v>
       </c>
       <c r="S9" s="34">
@@ -2675,9 +2872,15 @@
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="29"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
+      <c r="AD9" s="34">
+        <v>1501</v>
+      </c>
+      <c r="AE9" s="34">
+        <v>1614</v>
+      </c>
+      <c r="AF9" s="34">
+        <v>1650</v>
+      </c>
       <c r="AG9" s="34">
         <v>1587</v>
       </c>
@@ -2685,16 +2888,55 @@
         <v>1851</v>
       </c>
       <c r="AI9" s="54">
-        <f t="shared" ref="AI9:AI11" si="7">SUM(S9:V9)</f>
+        <f t="shared" ref="AI9:AI11" si="12">SUM(S9:V9)</f>
         <v>1861.1465000000001</v>
       </c>
       <c r="AJ9" s="34">
         <f>AJ6*0.21</f>
-        <v>1898.9115599999998</v>
-      </c>
-      <c r="AK9" s="34"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+        <v>1880.652795</v>
+      </c>
+      <c r="AK9" s="34">
+        <f>AK6*0.21</f>
+        <v>1918.2658509</v>
+      </c>
+      <c r="AL9" s="34">
+        <f t="shared" ref="AL9:AT9" si="13">AL6*0.21</f>
+        <v>1956.6311679180001</v>
+      </c>
+      <c r="AM9" s="34">
+        <f t="shared" si="13"/>
+        <v>1976.1974795971801</v>
+      </c>
+      <c r="AN9" s="34">
+        <f t="shared" si="13"/>
+        <v>1995.9594543931519</v>
+      </c>
+      <c r="AO9" s="34">
+        <f t="shared" si="13"/>
+        <v>2015.9190489370833</v>
+      </c>
+      <c r="AP9" s="34">
+        <f t="shared" si="13"/>
+        <v>2036.0782394264543</v>
+      </c>
+      <c r="AQ9" s="34">
+        <f t="shared" si="13"/>
+        <v>2056.4390218207186</v>
+      </c>
+      <c r="AR9" s="34">
+        <f t="shared" si="13"/>
+        <v>2077.0034120389259</v>
+      </c>
+      <c r="AS9" s="34">
+        <f t="shared" si="13"/>
+        <v>2097.7734461593154</v>
+      </c>
+      <c r="AT9" s="34">
+        <f t="shared" si="13"/>
+        <v>2118.7511806209086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>80</v>
       </c>
@@ -2711,7 +2953,10 @@
       <c r="I10" s="34">
         <v>44</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="34">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
       <c r="K10" s="34">
         <v>44</v>
       </c>
@@ -2722,7 +2967,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="O10" s="34">
@@ -2735,7 +2980,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="S10" s="34">
@@ -2751,9 +2996,15 @@
         <f>AVERAGE(R10:U10)</f>
         <v>53</v>
       </c>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
+      <c r="AD10" s="34">
+        <v>173</v>
+      </c>
+      <c r="AE10" s="34">
+        <v>178</v>
+      </c>
+      <c r="AF10" s="34">
+        <v>179</v>
+      </c>
       <c r="AG10" s="34">
         <v>176</v>
       </c>
@@ -2761,55 +3012,55 @@
         <v>197</v>
       </c>
       <c r="AI10" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
       <c r="AJ10" s="34">
         <f>AVERAGE(AD10:AI10)</f>
-        <v>194.33333333333334</v>
+        <v>185.5</v>
       </c>
       <c r="AK10" s="34">
-        <f t="shared" ref="AK10:AT11" si="8">AVERAGE(AE10:AJ10)</f>
-        <v>194.33333333333334</v>
+        <f t="shared" ref="AK10:AT11" si="14">AVERAGE(AE10:AJ10)</f>
+        <v>187.58333333333334</v>
       </c>
       <c r="AL10" s="34">
-        <f t="shared" si="8"/>
-        <v>194.33333333333334</v>
+        <f t="shared" si="14"/>
+        <v>189.18055555555554</v>
       </c>
       <c r="AM10" s="34">
-        <f t="shared" si="8"/>
-        <v>194.33333333333334</v>
+        <f t="shared" si="14"/>
+        <v>190.87731481481481</v>
       </c>
       <c r="AN10" s="34">
-        <f t="shared" si="8"/>
-        <v>197.38888888888891</v>
+        <f t="shared" si="14"/>
+        <v>193.35686728395061</v>
       </c>
       <c r="AO10" s="34">
-        <f t="shared" si="8"/>
-        <v>197.45370370370372</v>
+        <f t="shared" si="14"/>
+        <v>192.74967849794237</v>
       </c>
       <c r="AP10" s="34">
-        <f t="shared" si="8"/>
-        <v>195.36265432098767</v>
+        <f t="shared" si="14"/>
+        <v>189.87462491426609</v>
       </c>
       <c r="AQ10" s="34">
-        <f t="shared" si="8"/>
-        <v>195.53420781893007</v>
+        <f t="shared" si="14"/>
+        <v>190.60372906664381</v>
       </c>
       <c r="AR10" s="34">
-        <f t="shared" si="8"/>
-        <v>195.73435356652951</v>
+        <f t="shared" si="14"/>
+        <v>191.10712835552886</v>
       </c>
       <c r="AS10" s="34">
-        <f t="shared" si="8"/>
-        <v>195.96785693872889</v>
+        <f t="shared" si="14"/>
+        <v>191.42822382219109</v>
       </c>
       <c r="AT10" s="34">
-        <f t="shared" si="8"/>
-        <v>196.24027753962812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+        <f t="shared" si="14"/>
+        <v>191.52004199008715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
@@ -2826,7 +3077,10 @@
       <c r="I11" s="34">
         <v>1</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="34">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
       <c r="K11" s="34">
         <v>16</v>
       </c>
@@ -2837,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="O11" s="34">
@@ -2850,7 +3104,7 @@
         <v>57</v>
       </c>
       <c r="R11" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="S11" s="34">
@@ -2866,9 +3120,15 @@
         <f>AVERAGE(R11:U11)</f>
         <v>28.25</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
+      <c r="AD11" s="34">
+        <v>211</v>
+      </c>
+      <c r="AE11" s="34">
+        <v>37</v>
+      </c>
+      <c r="AF11" s="34">
+        <v>65</v>
+      </c>
       <c r="AG11" s="34">
         <v>117</v>
       </c>
@@ -2876,128 +3136,128 @@
         <v>172</v>
       </c>
       <c r="AI11" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>66.25</v>
       </c>
       <c r="AJ11" s="34">
-        <f t="shared" ref="AJ11" si="9">AVERAGE(AD11:AI11)</f>
-        <v>118.41666666666667</v>
+        <f t="shared" ref="AJ11" si="15">AVERAGE(AD11:AI11)</f>
+        <v>111.375</v>
       </c>
       <c r="AK11" s="34">
-        <f t="shared" si="8"/>
-        <v>118.41666666666667</v>
+        <f t="shared" si="14"/>
+        <v>94.770833333333329</v>
       </c>
       <c r="AL11" s="34">
-        <f t="shared" si="8"/>
-        <v>118.41666666666667</v>
+        <f t="shared" si="14"/>
+        <v>104.39930555555556</v>
       </c>
       <c r="AM11" s="34">
-        <f t="shared" si="8"/>
-        <v>118.41666666666667</v>
+        <f t="shared" si="14"/>
+        <v>110.96585648148148</v>
       </c>
       <c r="AN11" s="34">
-        <f t="shared" si="8"/>
-        <v>118.65277777777777</v>
+        <f t="shared" si="14"/>
+        <v>109.96016589506173</v>
       </c>
       <c r="AO11" s="34">
-        <f t="shared" si="8"/>
-        <v>109.76157407407409</v>
+        <f t="shared" si="14"/>
+        <v>99.620193544238688</v>
       </c>
       <c r="AP11" s="34">
-        <f t="shared" si="8"/>
-        <v>117.01350308641976</v>
+        <f t="shared" si="14"/>
+        <v>105.18189246827846</v>
       </c>
       <c r="AQ11" s="34">
-        <f t="shared" si="8"/>
-        <v>116.77964248971193</v>
+        <f t="shared" si="14"/>
+        <v>104.14970787965819</v>
       </c>
       <c r="AR11" s="34">
-        <f t="shared" si="8"/>
-        <v>116.50680512688615</v>
+        <f t="shared" si="14"/>
+        <v>105.71285363737901</v>
       </c>
       <c r="AS11" s="34">
-        <f t="shared" si="8"/>
-        <v>116.18849487025606</v>
+        <f t="shared" si="14"/>
+        <v>105.93177831768293</v>
       </c>
       <c r="AT11" s="34">
-        <f t="shared" si="8"/>
-        <v>115.8171329041876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="14"/>
+        <v>105.09276529038318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="33">
-        <f t="shared" ref="C12:T12" si="10">C8-C9-C10-C11</f>
+        <f t="shared" ref="C12:T12" si="16">C8-C9-C10-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>228</v>
       </c>
       <c r="H12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>81</v>
       </c>
       <c r="I12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>164</v>
       </c>
       <c r="J12" s="33">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>176</v>
       </c>
       <c r="K12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-105</v>
       </c>
       <c r="L12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="M12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>178</v>
       </c>
       <c r="N12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>161</v>
       </c>
       <c r="O12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>282</v>
       </c>
       <c r="P12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>264</v>
       </c>
       <c r="Q12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>196</v>
       </c>
       <c r="R12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>118</v>
       </c>
       <c r="S12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>217</v>
       </c>
       <c r="T12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>139</v>
       </c>
       <c r="U12" s="33">
@@ -3009,35 +3269,133 @@
         <v>169.73150000000015</v>
       </c>
       <c r="AD12" s="33">
-        <f t="shared" ref="AD12" si="11">AD8-AD9-AD10-AD11</f>
-        <v>0</v>
+        <f t="shared" ref="AD12" si="17">AD8-AD9-AD10-AD11</f>
+        <v>571</v>
       </c>
       <c r="AE12" s="33">
-        <f t="shared" ref="AE12:AJ12" si="12">AE8-AE9-AE10-AE11</f>
-        <v>0</v>
+        <f t="shared" ref="AE12:AT12" si="18">AE8-AE9-AE10-AE11</f>
+        <v>699</v>
       </c>
       <c r="AF12" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>649</v>
       </c>
       <c r="AG12" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>303</v>
       </c>
       <c r="AH12" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>860</v>
       </c>
       <c r="AI12" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>682.73149999999964</v>
       </c>
       <c r="AJ12" s="33">
-        <f t="shared" si="12"/>
-        <v>862.76668000000041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>867.33863500000007</v>
+      </c>
+      <c r="AK12" s="33">
+        <f t="shared" si="18"/>
+        <v>996.48973393333301</v>
+      </c>
+      <c r="AL12" s="33">
+        <f t="shared" si="18"/>
+        <v>1010.8409175008888</v>
+      </c>
+      <c r="AM12" s="33">
+        <f t="shared" si="18"/>
+        <v>1015.6218151018236</v>
+      </c>
+      <c r="AN12" s="33">
+        <f t="shared" si="18"/>
+        <v>1027.3226030830888</v>
+      </c>
+      <c r="AO12" s="33">
+        <f t="shared" si="18"/>
+        <v>1051.576160582541</v>
+      </c>
+      <c r="AP12" s="33">
+        <f t="shared" si="18"/>
+        <v>1062.3289755684248</v>
+      </c>
+      <c r="AQ12" s="33">
+        <f t="shared" si="18"/>
+        <v>1076.2059109341772</v>
+      </c>
+      <c r="AR12" s="33">
+        <f t="shared" si="18"/>
+        <v>1087.848959366376</v>
+      </c>
+      <c r="AS12" s="33">
+        <f t="shared" si="18"/>
+        <v>1101.1556286330026</v>
+      </c>
+      <c r="AT12" s="33">
+        <f t="shared" si="18"/>
+        <v>1115.8879798001356</v>
+      </c>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="33"/>
+      <c r="BM12" s="33"/>
+      <c r="BN12" s="33"/>
+      <c r="BO12" s="33"/>
+      <c r="BP12" s="33"/>
+      <c r="BQ12" s="33"/>
+      <c r="BR12" s="33"/>
+      <c r="BS12" s="33"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="33"/>
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="33"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="33"/>
+      <c r="CA12" s="33"/>
+      <c r="CB12" s="33"/>
+      <c r="CC12" s="33"/>
+      <c r="CD12" s="33"/>
+      <c r="CE12" s="33"/>
+      <c r="CF12" s="33"/>
+      <c r="CG12" s="33"/>
+      <c r="CH12" s="33"/>
+      <c r="CI12" s="33"/>
+      <c r="CJ12" s="33"/>
+      <c r="CK12" s="33"/>
+      <c r="CL12" s="33"/>
+      <c r="CM12" s="33"/>
+      <c r="CN12" s="33"/>
+      <c r="CO12" s="33"/>
+      <c r="CP12" s="33"/>
+      <c r="CQ12" s="33"/>
+      <c r="CR12" s="33"/>
+      <c r="CS12" s="33"/>
+      <c r="CT12" s="33"/>
+      <c r="CU12" s="33"/>
+      <c r="CV12" s="33"/>
+      <c r="CW12" s="33"/>
+      <c r="CX12" s="33"/>
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
+    </row>
+    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>83</v>
       </c>
@@ -3054,7 +3412,10 @@
       <c r="I13" s="34">
         <v>3</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="34">
+        <f t="shared" ref="J13:J14" si="19">AF13-SUM(G13:I13)</f>
+        <v>2</v>
+      </c>
       <c r="K13" s="34">
         <v>-1</v>
       </c>
@@ -3065,7 +3426,7 @@
         <v>-2</v>
       </c>
       <c r="N13" s="34">
-        <f t="shared" ref="N13:N14" si="13">AG13-SUM(K13:M13)</f>
+        <f t="shared" ref="N13:N14" si="20">AG13-SUM(K13:M13)</f>
         <v>-2</v>
       </c>
       <c r="O13" s="34">
@@ -3078,7 +3439,7 @@
         <v>-4</v>
       </c>
       <c r="R13" s="34">
-        <f t="shared" ref="R13:R14" si="14">AH13-SUM(O13:Q13)</f>
+        <f t="shared" ref="R13:R14" si="21">AH13-SUM(O13:Q13)</f>
         <v>-6</v>
       </c>
       <c r="S13" s="34">
@@ -3094,9 +3455,15 @@
         <f>AVERAGE(R13:U13)</f>
         <v>-4.75</v>
       </c>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
+      <c r="AD13" s="34">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="34">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="34">
+        <v>11</v>
+      </c>
       <c r="AG13" s="34">
         <v>-7</v>
       </c>
@@ -3104,55 +3471,55 @@
         <v>-14</v>
       </c>
       <c r="AI13" s="54">
-        <f t="shared" ref="AI13:AI14" si="15">SUM(S13:V13)</f>
+        <f t="shared" ref="AI13:AI14" si="22">SUM(S13:V13)</f>
         <v>-17.75</v>
       </c>
       <c r="AJ13" s="34">
-        <f t="shared" ref="AJ13:AJ14" si="16">AVERAGE(AD13:AI13)</f>
-        <v>-12.916666666666666</v>
+        <f t="shared" ref="AJ13:AJ14" si="23">AVERAGE(AD13:AI13)</f>
+        <v>-2.7916666666666665</v>
       </c>
       <c r="AK13" s="34">
-        <f t="shared" ref="AK13:AK14" si="17">AVERAGE(AE13:AJ13)</f>
-        <v>-12.916666666666666</v>
+        <f t="shared" ref="AK13:AK14" si="24">AVERAGE(AE13:AJ13)</f>
+        <v>-3.5902777777777781</v>
       </c>
       <c r="AL13" s="34">
-        <f t="shared" ref="AL13:AL14" si="18">AVERAGE(AF13:AK13)</f>
-        <v>-12.916666666666666</v>
+        <f t="shared" ref="AL13:AL14" si="25">AVERAGE(AF13:AK13)</f>
+        <v>-5.6886574074074074</v>
       </c>
       <c r="AM13" s="34">
-        <f t="shared" ref="AM13:AM14" si="19">AVERAGE(AG13:AL13)</f>
-        <v>-12.916666666666666</v>
+        <f t="shared" ref="AM13:AM14" si="26">AVERAGE(AG13:AL13)</f>
+        <v>-8.4701003086419746</v>
       </c>
       <c r="AN13" s="34">
-        <f t="shared" ref="AN13:AN14" si="20">AVERAGE(AH13:AM13)</f>
-        <v>-13.902777777777779</v>
+        <f t="shared" ref="AN13:AN14" si="27">AVERAGE(AH13:AM13)</f>
+        <v>-8.7151170267489704</v>
       </c>
       <c r="AO13" s="34">
-        <f t="shared" ref="AO13:AO14" si="21">AVERAGE(AI13:AN13)</f>
-        <v>-13.886574074074071</v>
+        <f t="shared" ref="AO13:AO14" si="28">AVERAGE(AI13:AN13)</f>
+        <v>-7.8343031978738003</v>
       </c>
       <c r="AP13" s="34">
-        <f t="shared" ref="AP13:AP14" si="22">AVERAGE(AJ13:AO13)</f>
-        <v>-13.242669753086419</v>
+        <f t="shared" ref="AP13:AP14" si="29">AVERAGE(AJ13:AO13)</f>
+        <v>-6.1816870641860993</v>
       </c>
       <c r="AQ13" s="34">
-        <f t="shared" ref="AQ13:AQ14" si="23">AVERAGE(AK13:AP13)</f>
-        <v>-13.297003600823045</v>
+        <f t="shared" ref="AQ13:AQ14" si="30">AVERAGE(AK13:AP13)</f>
+        <v>-6.7466904637726719</v>
       </c>
       <c r="AR13" s="34">
-        <f t="shared" ref="AR13:AR14" si="24">AVERAGE(AL13:AQ13)</f>
-        <v>-13.36039308984911</v>
+        <f t="shared" ref="AR13:AR14" si="31">AVERAGE(AL13:AQ13)</f>
+        <v>-7.2727592447718203</v>
       </c>
       <c r="AS13" s="34">
-        <f t="shared" ref="AS13:AS14" si="25">AVERAGE(AM13:AR13)</f>
-        <v>-13.434347493712847</v>
+        <f t="shared" ref="AS13:AS14" si="32">AVERAGE(AM13:AR13)</f>
+        <v>-7.5367762176658895</v>
       </c>
       <c r="AT13" s="34">
-        <f t="shared" ref="AT13:AT14" si="26">AVERAGE(AN13:AS13)</f>
-        <v>-13.520627631553879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AT13:AT14" si="33">AVERAGE(AN13:AS13)</f>
+        <v>-7.381222202503209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
@@ -3169,7 +3536,10 @@
       <c r="I14" s="34">
         <v>4</v>
       </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="34">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
       <c r="K14" s="34">
         <v>1</v>
       </c>
@@ -3180,7 +3550,7 @@
         <v>193</v>
       </c>
       <c r="N14" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O14" s="34">
@@ -3193,7 +3563,7 @@
         <v>30</v>
       </c>
       <c r="R14" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="S14" s="34">
@@ -3209,9 +3579,15 @@
         <f>AVERAGE(R14:U14)</f>
         <v>2.75</v>
       </c>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
+      <c r="AD14" s="34">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="34">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="34">
+        <v>12</v>
+      </c>
       <c r="AG14" s="34">
         <v>198</v>
       </c>
@@ -3219,128 +3595,128 @@
         <v>394</v>
       </c>
       <c r="AI14" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-21.25</v>
       </c>
       <c r="AJ14" s="34">
-        <f t="shared" si="16"/>
-        <v>190.25</v>
+        <f t="shared" si="23"/>
+        <v>98.791666666666671</v>
       </c>
       <c r="AK14" s="34">
-        <f t="shared" si="17"/>
-        <v>190.25</v>
+        <f t="shared" si="24"/>
+        <v>114.4236111111111</v>
       </c>
       <c r="AL14" s="34">
-        <f t="shared" si="18"/>
-        <v>190.25</v>
+        <f t="shared" si="25"/>
+        <v>132.66087962962962</v>
       </c>
       <c r="AM14" s="34">
-        <f t="shared" si="19"/>
-        <v>190.25</v>
+        <f t="shared" si="26"/>
+        <v>152.7710262345679</v>
       </c>
       <c r="AN14" s="34">
-        <f t="shared" si="20"/>
-        <v>188.95833333333334</v>
+        <f t="shared" si="27"/>
+        <v>145.23286394032922</v>
       </c>
       <c r="AO14" s="34">
-        <f t="shared" si="21"/>
-        <v>154.78472222222223</v>
+        <f t="shared" si="28"/>
+        <v>103.77167459705076</v>
       </c>
       <c r="AP14" s="34">
-        <f t="shared" si="22"/>
-        <v>184.12384259259261</v>
+        <f t="shared" si="29"/>
+        <v>124.60862036322588</v>
       </c>
       <c r="AQ14" s="34">
-        <f t="shared" si="23"/>
-        <v>183.10281635802471</v>
+        <f t="shared" si="30"/>
+        <v>128.91144597931907</v>
       </c>
       <c r="AR14" s="34">
-        <f t="shared" si="24"/>
-        <v>181.91161908436217</v>
+        <f t="shared" si="31"/>
+        <v>131.32608512402041</v>
       </c>
       <c r="AS14" s="34">
-        <f t="shared" si="25"/>
-        <v>180.52188893175585</v>
+        <f t="shared" si="32"/>
+        <v>131.10361937308554</v>
       </c>
       <c r="AT14" s="34">
-        <f t="shared" si="26"/>
-        <v>178.90053708704849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v>127.49238489617181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="34">
-        <f t="shared" ref="C15:T15" si="27">C12+C13+C14</f>
+        <f t="shared" ref="C15:T15" si="34">C12+C13+C14</f>
         <v>0</v>
       </c>
       <c r="D15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>234</v>
       </c>
       <c r="H15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>85</v>
       </c>
       <c r="I15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>171</v>
       </c>
       <c r="J15" s="34">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>182</v>
       </c>
       <c r="K15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>-105</v>
       </c>
       <c r="L15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>70</v>
       </c>
       <c r="M15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>369</v>
       </c>
       <c r="N15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>160</v>
       </c>
       <c r="O15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>284</v>
       </c>
       <c r="P15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>587</v>
       </c>
       <c r="Q15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>222</v>
       </c>
       <c r="R15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>147</v>
       </c>
       <c r="S15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>190</v>
       </c>
       <c r="T15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>143</v>
       </c>
       <c r="U15" s="34">
@@ -3352,35 +3728,75 @@
         <v>167.73150000000015</v>
       </c>
       <c r="AD15" s="34">
-        <f t="shared" ref="AD15" si="28">AD12+AD13+AD14</f>
-        <v>0</v>
+        <f t="shared" ref="AD15" si="35">AD12+AD13+AD14</f>
+        <v>578</v>
       </c>
       <c r="AE15" s="34">
-        <f t="shared" ref="AE15:AJ15" si="29">AE12+AE13+AE14</f>
-        <v>0</v>
+        <f t="shared" ref="AE15:AT15" si="36">AE12+AE13+AE14</f>
+        <v>713</v>
       </c>
       <c r="AF15" s="34">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>672</v>
       </c>
       <c r="AG15" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>494</v>
       </c>
       <c r="AH15" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>1240</v>
       </c>
       <c r="AI15" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>643.73149999999964</v>
       </c>
       <c r="AJ15" s="34">
-        <f t="shared" si="29"/>
-        <v>1040.1000133333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+        <f t="shared" si="36"/>
+        <v>963.33863500000007</v>
+      </c>
+      <c r="AK15" s="34">
+        <f t="shared" si="36"/>
+        <v>1107.3230672666664</v>
+      </c>
+      <c r="AL15" s="34">
+        <f t="shared" si="36"/>
+        <v>1137.8131397231111</v>
+      </c>
+      <c r="AM15" s="34">
+        <f t="shared" si="36"/>
+        <v>1159.9227410277495</v>
+      </c>
+      <c r="AN15" s="34">
+        <f t="shared" si="36"/>
+        <v>1163.8403499966689</v>
+      </c>
+      <c r="AO15" s="34">
+        <f t="shared" si="36"/>
+        <v>1147.513531981718</v>
+      </c>
+      <c r="AP15" s="34">
+        <f t="shared" si="36"/>
+        <v>1180.7559088674645</v>
+      </c>
+      <c r="AQ15" s="34">
+        <f t="shared" si="36"/>
+        <v>1198.3706664497236</v>
+      </c>
+      <c r="AR15" s="34">
+        <f t="shared" si="36"/>
+        <v>1211.9022852456246</v>
+      </c>
+      <c r="AS15" s="34">
+        <f t="shared" si="36"/>
+        <v>1224.7224717884224</v>
+      </c>
+      <c r="AT15" s="34">
+        <f t="shared" si="36"/>
+        <v>1235.9991424938041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
@@ -3397,7 +3813,10 @@
       <c r="I16" s="34">
         <v>46</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="34">
+        <f>AF16-SUM(G16:I16)</f>
+        <v>48</v>
+      </c>
       <c r="K16" s="34">
         <v>5</v>
       </c>
@@ -3437,9 +3856,15 @@
         <f>V15*V29</f>
         <v>55.351395000000053</v>
       </c>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
+      <c r="AD16" s="34">
+        <v>294</v>
+      </c>
+      <c r="AE16" s="34">
+        <v>172</v>
+      </c>
+      <c r="AF16" s="34">
+        <v>181</v>
+      </c>
       <c r="AG16" s="34">
         <v>171</v>
       </c>
@@ -3452,83 +3877,123 @@
       </c>
       <c r="AJ16" s="34">
         <f>AJ15*AJ29</f>
-        <v>312.03000400000008</v>
-      </c>
-    </row>
-    <row r="17" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>289.00159050000002</v>
+      </c>
+      <c r="AK16" s="34">
+        <f t="shared" ref="AK16:AT16" si="37">AK15*AK29</f>
+        <v>332.19692017999989</v>
+      </c>
+      <c r="AL16" s="34">
+        <f t="shared" si="37"/>
+        <v>341.34394191693332</v>
+      </c>
+      <c r="AM16" s="34">
+        <f t="shared" si="37"/>
+        <v>347.97682230832481</v>
+      </c>
+      <c r="AN16" s="34">
+        <f t="shared" si="37"/>
+        <v>349.15210499900064</v>
+      </c>
+      <c r="AO16" s="34">
+        <f t="shared" si="37"/>
+        <v>344.25405959451535</v>
+      </c>
+      <c r="AP16" s="34">
+        <f t="shared" si="37"/>
+        <v>354.22677266023936</v>
+      </c>
+      <c r="AQ16" s="34">
+        <f t="shared" si="37"/>
+        <v>359.51119993491704</v>
+      </c>
+      <c r="AR16" s="34">
+        <f t="shared" si="37"/>
+        <v>363.5706855736874</v>
+      </c>
+      <c r="AS16" s="34">
+        <f t="shared" si="37"/>
+        <v>367.41674153652667</v>
+      </c>
+      <c r="AT16" s="34">
+        <f t="shared" si="37"/>
+        <v>370.79974274814123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:135" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="33">
-        <f t="shared" ref="C17:T17" si="30">C15-C16</f>
+        <f t="shared" ref="C17:T17" si="38">C15-C16</f>
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>172</v>
       </c>
       <c r="H17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
       <c r="I17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125</v>
       </c>
       <c r="J17" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>134</v>
       </c>
       <c r="K17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>-110</v>
       </c>
       <c r="L17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>45</v>
       </c>
       <c r="M17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>265</v>
       </c>
       <c r="N17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>123</v>
       </c>
       <c r="O17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>202</v>
       </c>
       <c r="P17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>430</v>
       </c>
       <c r="Q17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>158</v>
       </c>
       <c r="R17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>102</v>
       </c>
       <c r="S17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>132</v>
       </c>
       <c r="T17" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>94</v>
       </c>
       <c r="U17" s="33">
@@ -3541,35 +4006,431 @@
       </c>
       <c r="W17" s="33"/>
       <c r="AD17" s="33">
-        <f t="shared" ref="AD17" si="31">AD15-AD16</f>
-        <v>0</v>
+        <f t="shared" ref="AD17" si="39">AD15-AD16</f>
+        <v>284</v>
       </c>
       <c r="AE17" s="33">
-        <f t="shared" ref="AE17:AJ17" si="32">AE15-AE16</f>
-        <v>0</v>
+        <f t="shared" ref="AE17:AT17" si="40">AE15-AE16</f>
+        <v>541</v>
       </c>
       <c r="AF17" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>491</v>
       </c>
       <c r="AG17" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>323</v>
       </c>
       <c r="AH17" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>892</v>
       </c>
       <c r="AI17" s="59">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>434.38010499999962</v>
       </c>
       <c r="AJ17" s="33">
-        <f t="shared" si="32"/>
-        <v>728.07000933333359</v>
-      </c>
-    </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
+        <f t="shared" si="40"/>
+        <v>674.33704450000005</v>
+      </c>
+      <c r="AK17" s="33">
+        <f t="shared" si="40"/>
+        <v>775.12614708666649</v>
+      </c>
+      <c r="AL17" s="33">
+        <f t="shared" si="40"/>
+        <v>796.46919780617782</v>
+      </c>
+      <c r="AM17" s="33">
+        <f t="shared" si="40"/>
+        <v>811.94591871942464</v>
+      </c>
+      <c r="AN17" s="33">
+        <f t="shared" si="40"/>
+        <v>814.68824499766833</v>
+      </c>
+      <c r="AO17" s="33">
+        <f t="shared" si="40"/>
+        <v>803.25947238720255</v>
+      </c>
+      <c r="AP17" s="33">
+        <f t="shared" si="40"/>
+        <v>826.52913620722518</v>
+      </c>
+      <c r="AQ17" s="33">
+        <f t="shared" si="40"/>
+        <v>838.85946651480651</v>
+      </c>
+      <c r="AR17" s="33">
+        <f t="shared" si="40"/>
+        <v>848.33159967193728</v>
+      </c>
+      <c r="AS17" s="33">
+        <f t="shared" si="40"/>
+        <v>857.30573025189574</v>
+      </c>
+      <c r="AT17" s="33">
+        <f t="shared" si="40"/>
+        <v>865.19939974566296</v>
+      </c>
+      <c r="AU17" s="33">
+        <f>AT17*(1+$AW$20)</f>
+        <v>873.85139374311962</v>
+      </c>
+      <c r="AV17" s="33">
+        <f t="shared" ref="AV17:DG17" si="41">AU17*(1+$AW$20)</f>
+        <v>882.58990768055082</v>
+      </c>
+      <c r="AW17" s="33">
+        <f t="shared" si="41"/>
+        <v>891.41580675735634</v>
+      </c>
+      <c r="AX17" s="33">
+        <f t="shared" si="41"/>
+        <v>900.3299648249299</v>
+      </c>
+      <c r="AY17" s="33">
+        <f t="shared" si="41"/>
+        <v>909.33326447317916</v>
+      </c>
+      <c r="AZ17" s="33">
+        <f t="shared" si="41"/>
+        <v>918.426597117911</v>
+      </c>
+      <c r="BA17" s="33">
+        <f t="shared" si="41"/>
+        <v>927.61086308909012</v>
+      </c>
+      <c r="BB17" s="33">
+        <f t="shared" si="41"/>
+        <v>936.88697171998103</v>
+      </c>
+      <c r="BC17" s="33">
+        <f t="shared" si="41"/>
+        <v>946.25584143718083</v>
+      </c>
+      <c r="BD17" s="33">
+        <f t="shared" si="41"/>
+        <v>955.7183998515527</v>
+      </c>
+      <c r="BE17" s="33">
+        <f t="shared" si="41"/>
+        <v>965.27558385006819</v>
+      </c>
+      <c r="BF17" s="33">
+        <f t="shared" si="41"/>
+        <v>974.92833968856883</v>
+      </c>
+      <c r="BG17" s="33">
+        <f t="shared" si="41"/>
+        <v>984.67762308545457</v>
+      </c>
+      <c r="BH17" s="33">
+        <f t="shared" si="41"/>
+        <v>994.52439931630909</v>
+      </c>
+      <c r="BI17" s="33">
+        <f t="shared" si="41"/>
+        <v>1004.4696433094722</v>
+      </c>
+      <c r="BJ17" s="33">
+        <f t="shared" si="41"/>
+        <v>1014.5143397425669</v>
+      </c>
+      <c r="BK17" s="33">
+        <f t="shared" si="41"/>
+        <v>1024.6594831399925</v>
+      </c>
+      <c r="BL17" s="33">
+        <f t="shared" si="41"/>
+        <v>1034.9060779713925</v>
+      </c>
+      <c r="BM17" s="33">
+        <f t="shared" si="41"/>
+        <v>1045.2551387511064</v>
+      </c>
+      <c r="BN17" s="33">
+        <f t="shared" si="41"/>
+        <v>1055.7076901386174</v>
+      </c>
+      <c r="BO17" s="33">
+        <f t="shared" si="41"/>
+        <v>1066.2647670400036</v>
+      </c>
+      <c r="BP17" s="33">
+        <f t="shared" si="41"/>
+        <v>1076.9274147104036</v>
+      </c>
+      <c r="BQ17" s="33">
+        <f t="shared" si="41"/>
+        <v>1087.6966888575075</v>
+      </c>
+      <c r="BR17" s="33">
+        <f t="shared" si="41"/>
+        <v>1098.5736557460825</v>
+      </c>
+      <c r="BS17" s="33">
+        <f t="shared" si="41"/>
+        <v>1109.5593923035433</v>
+      </c>
+      <c r="BT17" s="33">
+        <f t="shared" si="41"/>
+        <v>1120.6549862265788</v>
+      </c>
+      <c r="BU17" s="33">
+        <f t="shared" si="41"/>
+        <v>1131.8615360888446</v>
+      </c>
+      <c r="BV17" s="33">
+        <f t="shared" si="41"/>
+        <v>1143.1801514497331</v>
+      </c>
+      <c r="BW17" s="33">
+        <f t="shared" si="41"/>
+        <v>1154.6119529642303</v>
+      </c>
+      <c r="BX17" s="33">
+        <f t="shared" si="41"/>
+        <v>1166.1580724938726</v>
+      </c>
+      <c r="BY17" s="33">
+        <f t="shared" si="41"/>
+        <v>1177.8196532188113</v>
+      </c>
+      <c r="BZ17" s="33">
+        <f t="shared" si="41"/>
+        <v>1189.5978497509993</v>
+      </c>
+      <c r="CA17" s="33">
+        <f t="shared" si="41"/>
+        <v>1201.4938282485093</v>
+      </c>
+      <c r="CB17" s="33">
+        <f t="shared" si="41"/>
+        <v>1213.5087665309943</v>
+      </c>
+      <c r="CC17" s="33">
+        <f t="shared" si="41"/>
+        <v>1225.6438541963043</v>
+      </c>
+      <c r="CD17" s="33">
+        <f t="shared" si="41"/>
+        <v>1237.9002927382674</v>
+      </c>
+      <c r="CE17" s="33">
+        <f t="shared" si="41"/>
+        <v>1250.2792956656501</v>
+      </c>
+      <c r="CF17" s="33">
+        <f t="shared" si="41"/>
+        <v>1262.7820886223067</v>
+      </c>
+      <c r="CG17" s="33">
+        <f t="shared" si="41"/>
+        <v>1275.4099095085298</v>
+      </c>
+      <c r="CH17" s="33">
+        <f t="shared" si="41"/>
+        <v>1288.1640086036152</v>
+      </c>
+      <c r="CI17" s="33">
+        <f t="shared" si="41"/>
+        <v>1301.0456486896514</v>
+      </c>
+      <c r="CJ17" s="33">
+        <f t="shared" si="41"/>
+        <v>1314.056105176548</v>
+      </c>
+      <c r="CK17" s="33">
+        <f t="shared" si="41"/>
+        <v>1327.1966662283135</v>
+      </c>
+      <c r="CL17" s="33">
+        <f t="shared" si="41"/>
+        <v>1340.4686328905966</v>
+      </c>
+      <c r="CM17" s="33">
+        <f t="shared" si="41"/>
+        <v>1353.8733192195025</v>
+      </c>
+      <c r="CN17" s="33">
+        <f t="shared" si="41"/>
+        <v>1367.4120524116975</v>
+      </c>
+      <c r="CO17" s="33">
+        <f t="shared" si="41"/>
+        <v>1381.0861729358144</v>
+      </c>
+      <c r="CP17" s="33">
+        <f t="shared" si="41"/>
+        <v>1394.8970346651724</v>
+      </c>
+      <c r="CQ17" s="33">
+        <f t="shared" si="41"/>
+        <v>1408.8460050118242</v>
+      </c>
+      <c r="CR17" s="33">
+        <f t="shared" si="41"/>
+        <v>1422.9344650619425</v>
+      </c>
+      <c r="CS17" s="33">
+        <f t="shared" si="41"/>
+        <v>1437.1638097125619</v>
+      </c>
+      <c r="CT17" s="33">
+        <f t="shared" si="41"/>
+        <v>1451.5354478096876</v>
+      </c>
+      <c r="CU17" s="33">
+        <f t="shared" si="41"/>
+        <v>1466.0508022877846</v>
+      </c>
+      <c r="CV17" s="33">
+        <f t="shared" si="41"/>
+        <v>1480.7113103106624</v>
+      </c>
+      <c r="CW17" s="33">
+        <f t="shared" si="41"/>
+        <v>1495.5184234137689</v>
+      </c>
+      <c r="CX17" s="33">
+        <f t="shared" si="41"/>
+        <v>1510.4736076479066</v>
+      </c>
+      <c r="CY17" s="33">
+        <f t="shared" si="41"/>
+        <v>1525.5783437243858</v>
+      </c>
+      <c r="CZ17" s="33">
+        <f t="shared" si="41"/>
+        <v>1540.8341271616298</v>
+      </c>
+      <c r="DA17" s="33">
+        <f t="shared" si="41"/>
+        <v>1556.2424684332461</v>
+      </c>
+      <c r="DB17" s="33">
+        <f t="shared" si="41"/>
+        <v>1571.8048931175786</v>
+      </c>
+      <c r="DC17" s="33">
+        <f t="shared" si="41"/>
+        <v>1587.5229420487544</v>
+      </c>
+      <c r="DD17" s="33">
+        <f t="shared" si="41"/>
+        <v>1603.398171469242</v>
+      </c>
+      <c r="DE17" s="33">
+        <f t="shared" si="41"/>
+        <v>1619.4321531839344</v>
+      </c>
+      <c r="DF17" s="33">
+        <f t="shared" si="41"/>
+        <v>1635.6264747157736</v>
+      </c>
+      <c r="DG17" s="33">
+        <f t="shared" si="41"/>
+        <v>1651.9827394629312</v>
+      </c>
+      <c r="DH17" s="33">
+        <f t="shared" ref="DH17:EE17" si="42">DG17*(1+$AW$20)</f>
+        <v>1668.5025668575606</v>
+      </c>
+      <c r="DI17" s="33">
+        <f t="shared" si="42"/>
+        <v>1685.1875925261363</v>
+      </c>
+      <c r="DJ17" s="33">
+        <f t="shared" si="42"/>
+        <v>1702.0394684513976</v>
+      </c>
+      <c r="DK17" s="33">
+        <f t="shared" si="42"/>
+        <v>1719.0598631359117</v>
+      </c>
+      <c r="DL17" s="33">
+        <f t="shared" si="42"/>
+        <v>1736.2504617672707</v>
+      </c>
+      <c r="DM17" s="33">
+        <f t="shared" si="42"/>
+        <v>1753.6129663849435</v>
+      </c>
+      <c r="DN17" s="33">
+        <f t="shared" si="42"/>
+        <v>1771.1490960487929</v>
+      </c>
+      <c r="DO17" s="33">
+        <f t="shared" si="42"/>
+        <v>1788.8605870092808</v>
+      </c>
+      <c r="DP17" s="33">
+        <f t="shared" si="42"/>
+        <v>1806.7491928793736</v>
+      </c>
+      <c r="DQ17" s="33">
+        <f t="shared" si="42"/>
+        <v>1824.8166848081673</v>
+      </c>
+      <c r="DR17" s="33">
+        <f t="shared" si="42"/>
+        <v>1843.0648516562489</v>
+      </c>
+      <c r="DS17" s="33">
+        <f t="shared" si="42"/>
+        <v>1861.4955001728115</v>
+      </c>
+      <c r="DT17" s="33">
+        <f t="shared" si="42"/>
+        <v>1880.1104551745395</v>
+      </c>
+      <c r="DU17" s="33">
+        <f t="shared" si="42"/>
+        <v>1898.9115597262848</v>
+      </c>
+      <c r="DV17" s="33">
+        <f t="shared" si="42"/>
+        <v>1917.9006753235476</v>
+      </c>
+      <c r="DW17" s="33">
+        <f t="shared" si="42"/>
+        <v>1937.079682076783</v>
+      </c>
+      <c r="DX17" s="33">
+        <f t="shared" si="42"/>
+        <v>1956.4504788975507</v>
+      </c>
+      <c r="DY17" s="33">
+        <f t="shared" si="42"/>
+        <v>1976.0149836865262</v>
+      </c>
+      <c r="DZ17" s="33">
+        <f t="shared" si="42"/>
+        <v>1995.7751335233916</v>
+      </c>
+      <c r="EA17" s="33">
+        <f t="shared" si="42"/>
+        <v>2015.7328848586255</v>
+      </c>
+      <c r="EB17" s="33">
+        <f t="shared" si="42"/>
+        <v>2035.8902137072118</v>
+      </c>
+      <c r="EC17" s="33">
+        <f t="shared" si="42"/>
+        <v>2056.249115844284</v>
+      </c>
+      <c r="ED17" s="33">
+        <f t="shared" si="42"/>
+        <v>2076.8116070027268</v>
+      </c>
+      <c r="EE17" s="33">
+        <f t="shared" si="42"/>
+        <v>2097.5797230727539</v>
+      </c>
+    </row>
+    <row r="18" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
@@ -3578,72 +4439,87 @@
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="27">
-        <f t="shared" ref="G18:I18" si="33">G17/G19</f>
+        <f t="shared" ref="G18:J18" si="43">G17/G19</f>
         <v>1.5302491103202847</v>
       </c>
       <c r="H18" s="27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0.54151624548736466</v>
       </c>
       <c r="I18" s="27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.1693171188026192</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="27">
+        <f t="shared" si="43"/>
+        <v>1.232750689972401</v>
+      </c>
       <c r="K18" s="27">
-        <f t="shared" ref="K18:V18" si="34">K17/K19</f>
+        <f t="shared" ref="K18:V18" si="44">K17/K19</f>
         <v>-1.0546500479386385</v>
       </c>
       <c r="L18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0.43062200956937802</v>
       </c>
       <c r="M18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>2.5383141762452106</v>
       </c>
       <c r="N18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.1792905081495686</v>
       </c>
       <c r="O18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.9498069498069499</v>
       </c>
       <c r="P18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>4.1425818882466281</v>
       </c>
       <c r="Q18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.5310077519379846</v>
       </c>
       <c r="R18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0.99512195121951219</v>
       </c>
       <c r="S18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.3735691987513008</v>
       </c>
       <c r="T18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0.99893730074388953</v>
       </c>
       <c r="U18" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.0278372591006424</v>
       </c>
       <c r="V18" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.2032131156316928</v>
       </c>
+      <c r="AD18" s="27">
+        <f t="shared" ref="AD18:AT18" si="45">AD17/AD19</f>
+        <v>2.2327044025157234</v>
+      </c>
+      <c r="AE18" s="27">
+        <f t="shared" si="45"/>
+        <v>4.679930795847751</v>
+      </c>
+      <c r="AF18" s="27">
+        <f t="shared" si="45"/>
+        <v>4.5170193192272308</v>
+      </c>
       <c r="AG18" s="27">
-        <f t="shared" ref="AG18:AJ18" si="35">AG17/AG19</f>
+        <f t="shared" si="45"/>
         <v>3.0968360498561842</v>
       </c>
       <c r="AH18" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>8.7024390243902445</v>
       </c>
       <c r="AI18" s="62">
@@ -3651,11 +4527,51 @@
         <v>4.6507505888650922</v>
       </c>
       <c r="AJ18" s="27">
-        <f t="shared" si="35"/>
-        <v>7.7951821127765903</v>
-      </c>
-    </row>
-    <row r="19" spans="2:46" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="45"/>
+        <v>7.2198827034261246</v>
+      </c>
+      <c r="AK18" s="27">
+        <f t="shared" si="45"/>
+        <v>8.2989951508208399</v>
+      </c>
+      <c r="AL18" s="27">
+        <f t="shared" si="45"/>
+        <v>8.5275074711582199</v>
+      </c>
+      <c r="AM18" s="27">
+        <f t="shared" si="45"/>
+        <v>8.6932111211929826</v>
+      </c>
+      <c r="AN18" s="27">
+        <f t="shared" si="45"/>
+        <v>8.7225722162491248</v>
+      </c>
+      <c r="AO18" s="27">
+        <f t="shared" si="45"/>
+        <v>8.6002084838030246</v>
+      </c>
+      <c r="AP18" s="27">
+        <f t="shared" si="45"/>
+        <v>8.8493483533964152</v>
+      </c>
+      <c r="AQ18" s="27">
+        <f t="shared" si="45"/>
+        <v>8.9813647378458938</v>
+      </c>
+      <c r="AR18" s="27">
+        <f t="shared" si="45"/>
+        <v>9.0827794397423691</v>
+      </c>
+      <c r="AS18" s="27">
+        <f t="shared" si="45"/>
+        <v>9.1788622082644071</v>
+      </c>
+      <c r="AT18" s="27">
+        <f t="shared" si="45"/>
+        <v>9.2633768709385755</v>
+      </c>
+    </row>
+    <row r="19" spans="2:135" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>4</v>
       </c>
@@ -3667,6 +4583,10 @@
       </c>
       <c r="I19" s="18">
         <v>106.9</v>
+      </c>
+      <c r="J19" s="18">
+        <f>AF19</f>
+        <v>108.7</v>
       </c>
       <c r="K19" s="18">
         <v>104.3</v>
@@ -3707,6 +4627,15 @@
         <f>U19</f>
         <v>93.4</v>
       </c>
+      <c r="AD19" s="18">
+        <v>127.2</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>115.6</v>
+      </c>
+      <c r="AF19" s="18">
+        <v>108.7</v>
+      </c>
       <c r="AG19" s="18">
         <v>104.3</v>
       </c>
@@ -3721,45 +4650,97 @@
         <f>AI19</f>
         <v>93.4</v>
       </c>
-    </row>
-    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AK19" s="18">
+        <f>AJ19</f>
+        <v>93.4</v>
+      </c>
+      <c r="AL19" s="18">
+        <f t="shared" ref="AL19:AT19" si="46">AK19</f>
+        <v>93.4</v>
+      </c>
+      <c r="AM19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+      <c r="AN19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+      <c r="AO19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+      <c r="AP19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+      <c r="AQ19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+      <c r="AR19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+      <c r="AS19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+      <c r="AT19" s="18">
+        <f t="shared" si="46"/>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:135" x14ac:dyDescent="0.2">
+      <c r="AV20" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW20" s="80">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:135" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
       <c r="K21" s="28">
-        <f t="shared" ref="K21" si="36">K6/G6-1</f>
+        <f t="shared" ref="K21" si="47">K6/G6-1</f>
         <v>-0.43407122232916262</v>
       </c>
       <c r="L21" s="28">
-        <f t="shared" ref="L21" si="37">L6/H6-1</f>
+        <f t="shared" ref="L21" si="48">L6/H6-1</f>
         <v>0.17080045095828633</v>
       </c>
       <c r="M21" s="28">
-        <f t="shared" ref="M21" si="38">M6/I6-1</f>
+        <f t="shared" ref="M21" si="49">M6/I6-1</f>
         <v>9.0062111801242128E-2</v>
       </c>
+      <c r="N21" s="28">
+        <f t="shared" ref="N21" si="50">N6/J6-1</f>
+        <v>-1.4407924358397106E-2</v>
+      </c>
       <c r="O21" s="28">
-        <f t="shared" ref="O21" si="39">O6/K6-1</f>
+        <f t="shared" ref="O21" si="51">O6/K6-1</f>
         <v>0.83078231292517013</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" ref="P21" si="40">P6/L6-1</f>
+        <f t="shared" ref="P21" si="52">P6/L6-1</f>
         <v>9.5329802599903646E-2</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" ref="Q21" si="41">Q6/M6-1</f>
+        <f t="shared" ref="Q21" si="53">Q6/M6-1</f>
         <v>3.9411206077872851E-2</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" ref="R21" si="42">R6/N6-1</f>
+        <f t="shared" ref="R21" si="54">R6/N6-1</f>
         <v>6.9438099588853275E-2</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" ref="S21" si="43">S6/O6-1</f>
+        <f t="shared" ref="S21" si="55">S6/O6-1</f>
         <v>1.021830004644686E-2</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" ref="T21" si="44">T6/P6-1</f>
+        <f t="shared" ref="T21" si="56">T6/P6-1</f>
         <v>-9.2307692307692313E-2</v>
       </c>
       <c r="U21" s="28">
@@ -3770,6 +4751,21 @@
         <f>V6/R6-1</f>
         <v>-2.5352413498504922E-2</v>
       </c>
+      <c r="AD21" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE21" s="28">
+        <f t="shared" ref="AE21:AH21" si="57">AE6/AD6-1</f>
+        <v>2.0174762271909508E-2</v>
+      </c>
+      <c r="AF21" s="28">
+        <f t="shared" si="57"/>
+        <v>8.3133895956668535E-3</v>
+      </c>
+      <c r="AG21" s="28">
+        <f t="shared" si="57"/>
+        <v>-5.7089319175515296E-2</v>
+      </c>
       <c r="AH21" s="28">
         <f>AH6/AG6-1</f>
         <v>0.18680445151033376</v>
@@ -3779,47 +4775,87 @@
         <v>-2.9398303192677E-2</v>
       </c>
       <c r="AJ21" s="28">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="2:46" s="38" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.03</v>
+      </c>
+      <c r="AK21" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="AL21" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="AM21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AN21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AO21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AP21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AQ21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AR21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AS21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AT21" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="AV21" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW21" s="81">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="2:135" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="48" t="s">
         <v>125</v>
       </c>
       <c r="K22" s="38">
-        <f t="shared" ref="K22:K23" si="45">K4/G4-1</f>
+        <f t="shared" ref="K22:K23" si="58">K4/G4-1</f>
         <v>-0.53697383390216147</v>
       </c>
       <c r="L22" s="38">
-        <f t="shared" ref="L22:L23" si="46">L4/H4-1</f>
+        <f t="shared" ref="L22:L23" si="59">L4/H4-1</f>
         <v>-8.7442472057856713E-2</v>
       </c>
       <c r="M22" s="38">
-        <f t="shared" ref="M22:M23" si="47">M4/I4-1</f>
+        <f t="shared" ref="M22:M23" si="60">M4/I4-1</f>
         <v>1.2224938875305513E-2</v>
       </c>
+      <c r="N22" s="38">
+        <f t="shared" ref="N22:N23" si="61">N4/J4-1</f>
+        <v>-0.11966759002770078</v>
+      </c>
       <c r="O22" s="38">
-        <f t="shared" ref="O22:O23" si="48">O4/K4-1</f>
+        <f t="shared" ref="O22:O23" si="62">O4/K4-1</f>
         <v>0.99017199017199009</v>
       </c>
       <c r="P22" s="38">
-        <f t="shared" ref="P22:P23" si="49">P4/L4-1</f>
+        <f t="shared" ref="P22:P23" si="63">P4/L4-1</f>
         <v>0.30907780979827093</v>
       </c>
       <c r="Q22" s="38">
-        <f t="shared" ref="Q22:Q23" si="50">Q4/M4-1</f>
+        <f t="shared" ref="Q22:Q23" si="64">Q4/M4-1</f>
         <v>6.0386473429951737E-2</v>
       </c>
       <c r="R22" s="38">
-        <f t="shared" ref="R22:R23" si="51">R4/N4-1</f>
+        <f t="shared" ref="R22:R23" si="65">R4/N4-1</f>
         <v>0.15544367526746372</v>
       </c>
       <c r="S22" s="38">
-        <f t="shared" ref="S22:S23" si="52">S4/O4-1</f>
+        <f t="shared" ref="S22:S23" si="66">S4/O4-1</f>
         <v>9.6296296296296324E-2</v>
       </c>
       <c r="T22" s="38">
-        <f t="shared" ref="T22:T23" si="53">T4/P4-1</f>
+        <f t="shared" ref="T22:T23" si="67">T4/P4-1</f>
         <v>-5.5586130985140314E-2</v>
       </c>
       <c r="U22" s="38">
@@ -3832,45 +4868,56 @@
         <v>0.29043510189094923</v>
       </c>
       <c r="AI22" s="53"/>
-    </row>
-    <row r="23" spans="2:46" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AV22" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW22" s="83">
+        <f>NPV(AW21,AI17:EE17)</f>
+        <v>10630.831829573717</v>
+      </c>
+    </row>
+    <row r="23" spans="2:135" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="s">
         <v>126</v>
       </c>
       <c r="K23" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0.13125000000000009</v>
       </c>
       <c r="L23" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>1.7233201581027666</v>
       </c>
       <c r="M23" s="38">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v>0.52027027027027017</v>
       </c>
+      <c r="N23" s="38">
+        <f t="shared" si="61"/>
+        <v>0.44230769230769229</v>
+      </c>
       <c r="O23" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.47237569060773477</v>
       </c>
       <c r="P23" s="38">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>-0.33526850507982586</v>
       </c>
       <c r="Q23" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>-3.7777777777777799E-2</v>
       </c>
       <c r="R23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>-0.15833333333333333</v>
       </c>
       <c r="S23" s="38">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>-0.25140712945590993</v>
       </c>
       <c r="T23" s="38">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>-0.23799126637554591</v>
       </c>
       <c r="U23" s="38">
@@ -3883,17 +4930,36 @@
         <v>-8.186577820085672E-2</v>
       </c>
       <c r="AI23" s="53"/>
-    </row>
-    <row r="24" spans="2:46" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AV23" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW23" s="83">
+        <f>Main!C11</f>
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:135" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>90</v>
+      </c>
+      <c r="H24" s="29">
+        <f>H6/G6-1</f>
+        <v>-0.14629451395572668</v>
       </c>
       <c r="I24" s="29">
         <f>I6/H6-1</f>
         <v>8.9064261555806157E-2</v>
       </c>
+      <c r="J24" s="29">
+        <f t="shared" ref="J24:K24" si="68">J6/I6-1</f>
+        <v>0.14958592132505166</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="68"/>
+        <v>-0.47050877982890593</v>
+      </c>
       <c r="L24" s="29">
-        <f t="shared" ref="L24" si="54">L6/K6-1</f>
+        <f t="shared" ref="L24" si="69">L6/K6-1</f>
         <v>0.76615646258503411</v>
       </c>
       <c r="M24" s="29">
@@ -3901,11 +4967,11 @@
         <v>1.3962445835339343E-2</v>
       </c>
       <c r="N24" s="29">
-        <f t="shared" ref="N24:O24" si="55">N6/M6-1</f>
+        <f t="shared" ref="N24:O24" si="70">N6/M6-1</f>
         <v>3.9411206077872851E-2</v>
       </c>
       <c r="O24" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>-1.6445865692096828E-2</v>
       </c>
       <c r="P24" s="29">
@@ -3917,15 +4983,15 @@
         <v>-3.7802197802197846E-2</v>
       </c>
       <c r="R24" s="29">
-        <f t="shared" ref="R24:T24" si="56">R6/Q6-1</f>
+        <f t="shared" ref="R24:T24" si="71">R6/Q6-1</f>
         <v>6.9438099588853275E-2</v>
       </c>
       <c r="S24" s="29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>-7.0909867577958141E-2</v>
       </c>
       <c r="T24" s="29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>-5.0574712643678188E-2</v>
       </c>
       <c r="U24" s="29">
@@ -3935,6 +5001,9 @@
       <c r="V24" s="53">
         <v>0.05</v>
       </c>
+      <c r="AD24" s="47" t="s">
+        <v>132</v>
+      </c>
       <c r="AE24" s="47" t="s">
         <v>132</v>
       </c>
@@ -3948,45 +5017,65 @@
         <v>132</v>
       </c>
       <c r="AI24" s="53"/>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AV24" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW24" s="83">
+        <f>AW22+AW23</f>
+        <v>10527.831829573717</v>
+      </c>
+    </row>
+    <row r="25" spans="2:135" x14ac:dyDescent="0.2">
+      <c r="AV25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW25" s="86">
+        <f>AW24/Main!C7</f>
+        <v>112.81379830777797</v>
+      </c>
+    </row>
+    <row r="26" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G26" s="29">
-        <f t="shared" ref="G26" si="57">G8/G6</f>
+        <f t="shared" ref="G26" si="72">G8/G6</f>
         <v>0.33156881616939365</v>
       </c>
       <c r="H26" s="29">
-        <f t="shared" ref="H26:I26" si="58">H8/H6</f>
+        <f t="shared" ref="H26:I26" si="73">H8/H6</f>
         <v>0.30101465614430667</v>
       </c>
       <c r="I26" s="29">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.32091097308488614</v>
       </c>
+      <c r="J26" s="29">
+        <f t="shared" ref="J26" si="74">J8/J6</f>
+        <v>0.31517334533993696</v>
+      </c>
       <c r="K26" s="29">
-        <f t="shared" ref="K26:L26" si="59">K8/K6</f>
+        <f t="shared" ref="K26:L26" si="75">K8/K6</f>
         <v>0.23044217687074831</v>
       </c>
       <c r="L26" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>0.2590274434280212</v>
       </c>
       <c r="M26" s="29">
-        <f t="shared" ref="M26:O26" si="60">M8/M6</f>
+        <f t="shared" ref="M26:O26" si="76">M8/M6</f>
         <v>0.30864197530864196</v>
       </c>
       <c r="N26" s="29">
-        <f t="shared" ref="N26" si="61">N8/N6</f>
+        <f t="shared" ref="N26" si="77">N8/N6</f>
         <v>0.33074463225216993</v>
       </c>
       <c r="O26" s="29">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.34788666976312121</v>
       </c>
       <c r="P26" s="29">
-        <f t="shared" ref="P26" si="62">P8/P6</f>
+        <f t="shared" ref="P26" si="78">P8/P6</f>
         <v>0.35076923076923078</v>
       </c>
       <c r="Q26" s="29">
@@ -3994,15 +5083,15 @@
         <v>0.34719049794426676</v>
       </c>
       <c r="R26" s="29">
-        <f t="shared" ref="R26" si="63">R8/R6</f>
+        <f t="shared" ref="R26" si="79">R8/R6</f>
         <v>0.33020076890217853</v>
       </c>
       <c r="S26" s="29">
-        <f t="shared" ref="S26" si="64">S8/S6</f>
+        <f t="shared" ref="S26" si="80">S8/S6</f>
         <v>0.34022988505747126</v>
       </c>
       <c r="T26" s="29">
-        <f t="shared" ref="T26" si="65">T8/T6</f>
+        <f t="shared" ref="T26" si="81">T8/T6</f>
         <v>0.31670702179176757</v>
       </c>
       <c r="U26" s="29">
@@ -4012,6 +5101,18 @@
       <c r="V26" s="53">
         <v>0.32</v>
       </c>
+      <c r="AD26" s="29">
+        <f t="shared" ref="AD26:AE26" si="82">AD8/AD6</f>
+        <v>0.31560010280133644</v>
+      </c>
+      <c r="AE26" s="29">
+        <f t="shared" ref="AE26:AF26" si="83">AE8/AE6</f>
+        <v>0.31842801360372841</v>
+      </c>
+      <c r="AF26" s="29">
+        <f t="shared" ref="AF26:AG26" si="84">AF8/AF6</f>
+        <v>0.31767645221736412</v>
+      </c>
       <c r="AG26" s="29">
         <f>AG8/AG6</f>
         <v>0.28921568627450983</v>
@@ -4057,45 +5158,56 @@
       <c r="AT26" s="29">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AV26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW26" s="83">
+        <f>Main!C6</f>
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G27" s="29">
-        <f t="shared" ref="G27" si="66">G12/G6</f>
+        <f t="shared" ref="G27" si="85">G12/G6</f>
         <v>0.109720885466795</v>
       </c>
       <c r="H27" s="29">
-        <f t="shared" ref="H27:I27" si="67">H12/H6</f>
+        <f t="shared" ref="H27:I27" si="86">H12/H6</f>
         <v>4.5659526493799327E-2</v>
       </c>
       <c r="I27" s="29">
-        <f t="shared" si="67"/>
+        <f t="shared" si="86"/>
         <v>8.4886128364389232E-2</v>
       </c>
+      <c r="J27" s="29">
+        <f t="shared" ref="J27" si="87">J12/J6</f>
+        <v>7.9243583971184153E-2</v>
+      </c>
       <c r="K27" s="29">
-        <f t="shared" ref="K27:L27" si="68">K12/K6</f>
+        <f t="shared" ref="K27:L27" si="88">K12/K6</f>
         <v>-8.9285714285714288E-2</v>
       </c>
       <c r="L27" s="29">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>3.3220991815117958E-2</v>
       </c>
       <c r="M27" s="29">
-        <f t="shared" ref="M27:O27" si="69">M12/M6</f>
+        <f t="shared" ref="M27:O27" si="89">M12/M6</f>
         <v>8.4520417853751181E-2</v>
       </c>
       <c r="N27" s="29">
-        <f t="shared" ref="N27" si="70">N12/N6</f>
+        <f t="shared" ref="N27" si="90">N12/N6</f>
         <v>7.3549566011877565E-2</v>
       </c>
       <c r="O27" s="29">
-        <f t="shared" si="69"/>
+        <f t="shared" si="89"/>
         <v>0.13098002786809104</v>
       </c>
       <c r="P27" s="29">
-        <f t="shared" ref="P27" si="71">P12/P6</f>
+        <f t="shared" ref="P27" si="91">P12/P6</f>
         <v>0.11604395604395605</v>
       </c>
       <c r="Q27" s="29">
@@ -4103,15 +5215,15 @@
         <v>8.9538602101416176E-2</v>
       </c>
       <c r="R27" s="29">
-        <f t="shared" ref="R27" si="72">R12/R6</f>
+        <f t="shared" ref="R27" si="92">R12/R6</f>
         <v>5.0405809483126868E-2</v>
       </c>
       <c r="S27" s="29">
-        <f t="shared" ref="S27" si="73">S12/S6</f>
+        <f t="shared" ref="S27" si="93">S12/S6</f>
         <v>9.9770114942528729E-2</v>
       </c>
       <c r="T27" s="29">
-        <f t="shared" ref="T27" si="74">T12/T6</f>
+        <f t="shared" ref="T27" si="94">T12/T6</f>
         <v>6.7312348668280869E-2</v>
       </c>
       <c r="U27" s="29">
@@ -4122,6 +5234,18 @@
         <f>V12/V6</f>
         <v>7.4389805623123681E-2</v>
       </c>
+      <c r="AD27" s="29">
+        <f t="shared" ref="AD27:AE27" si="95">AD12/AD6</f>
+        <v>7.3374453867900286E-2</v>
+      </c>
+      <c r="AE27" s="29">
+        <f t="shared" ref="AE27:AF27" si="96">AE12/AE6</f>
+        <v>8.8046353445018266E-2</v>
+      </c>
+      <c r="AF27" s="29">
+        <f t="shared" ref="AF27:AG27" si="97">AF12/AF6</f>
+        <v>8.1074328544659582E-2</v>
+      </c>
       <c r="AG27" s="29">
         <f>AG12/AG6</f>
         <v>4.0143084260731321E-2</v>
@@ -4136,47 +5260,98 @@
       </c>
       <c r="AJ27" s="29">
         <f>AJ12/AJ6</f>
-        <v>9.5413081165296662E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
+        <v>9.6849941591690789E-2</v>
+      </c>
+      <c r="AK27" s="29">
+        <f t="shared" ref="AK27:AT27" si="98">AK12/AK6</f>
+        <v>0.10908959466062501</v>
+      </c>
+      <c r="AL27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.10849085722224522</v>
+      </c>
+      <c r="AM27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.10792473089018269</v>
+      </c>
+      <c r="AN27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.10808723903314017</v>
+      </c>
+      <c r="AO27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.10954358203955129</v>
+      </c>
+      <c r="AP27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.10956803159598202</v>
+      </c>
+      <c r="AQ27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.10990028826436084</v>
+      </c>
+      <c r="AR27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.10998936262828705</v>
+      </c>
+      <c r="AS27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.11023243831992371</v>
+      </c>
+      <c r="AT27" s="29">
+        <f t="shared" si="98"/>
+        <v>0.11060122486367427</v>
+      </c>
+      <c r="AV27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW27" s="85">
+        <f>AW25/AW26-1</f>
+        <v>1.8786373643219694</v>
+      </c>
+    </row>
+    <row r="28" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G28" s="29">
-        <f t="shared" ref="G28" si="75">G17/G6</f>
+        <f t="shared" ref="G28" si="99">G17/G6</f>
         <v>8.2771896053897981E-2</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" ref="H28:I28" si="76">H17/H6</f>
+        <f t="shared" ref="H28:I28" si="100">H17/H6</f>
         <v>3.3821871476888386E-2</v>
       </c>
       <c r="I28" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="100"/>
         <v>6.4699792960662528E-2</v>
       </c>
+      <c r="J28" s="29">
+        <f t="shared" ref="J28" si="101">J17/J6</f>
+        <v>6.0333183250787931E-2</v>
+      </c>
       <c r="K28" s="29">
-        <f t="shared" ref="K28:L28" si="77">K17/K6</f>
+        <f t="shared" ref="K28:L28" si="102">K17/K6</f>
         <v>-9.3537414965986401E-2</v>
       </c>
       <c r="L28" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="102"/>
         <v>2.1665864227250843E-2</v>
       </c>
       <c r="M28" s="29">
-        <f t="shared" ref="M28:O28" si="78">M17/M6</f>
+        <f t="shared" ref="M28:O28" si="103">M17/M6</f>
         <v>0.12583095916429249</v>
       </c>
       <c r="N28" s="29">
-        <f t="shared" ref="N28" si="79">N17/N6</f>
+        <f t="shared" ref="N28" si="104">N17/N6</f>
         <v>5.6190041114664233E-2</v>
       </c>
       <c r="O28" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="103"/>
         <v>9.3822573153738972E-2</v>
       </c>
       <c r="P28" s="29">
-        <f t="shared" ref="P28" si="80">P17/P6</f>
+        <f t="shared" ref="P28" si="105">P17/P6</f>
         <v>0.18901098901098901</v>
       </c>
       <c r="Q28" s="29">
@@ -4184,15 +5359,15 @@
         <v>7.2179077204202829E-2</v>
       </c>
       <c r="R28" s="29">
-        <f t="shared" ref="R28" si="81">R17/R6</f>
+        <f t="shared" ref="R28" si="106">R17/R6</f>
         <v>4.3571123451516446E-2</v>
       </c>
       <c r="S28" s="29">
-        <f t="shared" ref="S28" si="82">S17/S6</f>
+        <f t="shared" ref="S28" si="107">S17/S6</f>
         <v>6.0689655172413794E-2</v>
       </c>
       <c r="T28" s="29">
-        <f t="shared" ref="T28" si="83">T17/T6</f>
+        <f t="shared" ref="T28" si="108">T17/T6</f>
         <v>4.5520581113801452E-2</v>
       </c>
       <c r="U28" s="29">
@@ -4203,6 +5378,18 @@
         <f>V17/V6</f>
         <v>4.9253875484846533E-2</v>
       </c>
+      <c r="AD28" s="29">
+        <f t="shared" ref="AD28:AE28" si="109">AD17/AD6</f>
+        <v>3.6494474428167563E-2</v>
+      </c>
+      <c r="AE28" s="29">
+        <f t="shared" ref="AE28:AF28" si="110">AE17/AE6</f>
+        <v>6.8144602594785234E-2</v>
+      </c>
+      <c r="AF28" s="29">
+        <f t="shared" ref="AF28:AG28" si="111">AF17/AF6</f>
+        <v>6.1336664584634604E-2</v>
+      </c>
       <c r="AG28" s="29">
         <f>AG17/AG6</f>
         <v>4.2792792792792793E-2</v>
@@ -4217,47 +5404,91 @@
       </c>
       <c r="AJ28" s="29">
         <f>AJ17/AJ6</f>
-        <v>8.0517021003337338E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
+        <v>7.5298736545891781E-2</v>
+      </c>
+      <c r="AK28" s="29">
+        <f t="shared" ref="AK28:AT28" si="112">AK17/AK6</f>
+        <v>8.485606456051413E-2</v>
+      </c>
+      <c r="AL28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.5482912815537312E-2</v>
+      </c>
+      <c r="AM28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.6281176193906975E-2</v>
+      </c>
+      <c r="AN28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.5715434285475803E-2</v>
+      </c>
+      <c r="AO28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.3676221666863754E-2</v>
+      </c>
+      <c r="AP28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.5247764669598741E-2</v>
+      </c>
+      <c r="AQ28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.566287942354904E-2</v>
+      </c>
+      <c r="AR28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.577243296688819E-2</v>
+      </c>
+      <c r="AS28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.5821566519736284E-2</v>
+      </c>
+      <c r="AT28" s="29">
+        <f t="shared" si="112"/>
+        <v>8.5754229004532598E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G29" s="29">
-        <f t="shared" ref="G29" si="84">G16/G15</f>
+        <f t="shared" ref="G29" si="113">G16/G15</f>
         <v>0.26495726495726496</v>
       </c>
       <c r="H29" s="29">
-        <f t="shared" ref="H29:I29" si="85">H16/H15</f>
+        <f t="shared" ref="H29:I29" si="114">H16/H15</f>
         <v>0.29411764705882354</v>
       </c>
       <c r="I29" s="29">
-        <f t="shared" si="85"/>
+        <f t="shared" si="114"/>
         <v>0.26900584795321636</v>
       </c>
+      <c r="J29" s="29">
+        <f t="shared" ref="J29" si="115">J16/J15</f>
+        <v>0.26373626373626374</v>
+      </c>
       <c r="K29" s="29">
-        <f t="shared" ref="K29:L29" si="86">K16/K15</f>
+        <f t="shared" ref="K29:L29" si="116">K16/K15</f>
         <v>-4.7619047619047616E-2</v>
       </c>
       <c r="L29" s="29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="116"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="M29" s="29">
-        <f t="shared" ref="M29:O29" si="87">M16/M15</f>
+        <f t="shared" ref="M29:O29" si="117">M16/M15</f>
         <v>0.28184281842818426</v>
       </c>
       <c r="N29" s="29">
-        <f t="shared" ref="N29" si="88">N16/N15</f>
+        <f t="shared" ref="N29" si="118">N16/N15</f>
         <v>0.23125000000000001</v>
       </c>
       <c r="O29" s="29">
-        <f t="shared" si="87"/>
+        <f t="shared" si="117"/>
         <v>0.28873239436619719</v>
       </c>
       <c r="P29" s="29">
-        <f t="shared" ref="P29" si="89">P16/P15</f>
+        <f t="shared" ref="P29" si="119">P16/P15</f>
         <v>0.26746166950596251</v>
       </c>
       <c r="Q29" s="29">
@@ -4265,15 +5496,15 @@
         <v>0.28828828828828829</v>
       </c>
       <c r="R29" s="29">
-        <f t="shared" ref="R29" si="90">R16/R15</f>
+        <f t="shared" ref="R29" si="120">R16/R15</f>
         <v>0.30612244897959184</v>
       </c>
       <c r="S29" s="29">
-        <f t="shared" ref="S29" si="91">S16/S15</f>
+        <f t="shared" ref="S29" si="121">S16/S15</f>
         <v>0.30526315789473685</v>
       </c>
       <c r="T29" s="29">
-        <f t="shared" ref="T29" si="92">T16/T15</f>
+        <f t="shared" ref="T29" si="122">T16/T15</f>
         <v>0.34265734265734266</v>
       </c>
       <c r="U29" s="29">
@@ -4283,6 +5514,18 @@
       <c r="V29" s="53">
         <v>0.33</v>
       </c>
+      <c r="AD29" s="29">
+        <f t="shared" ref="AD29:AE29" si="123">AD16/AD15</f>
+        <v>0.50865051903114189</v>
+      </c>
+      <c r="AE29" s="29">
+        <f t="shared" ref="AE29:AF29" si="124">AE16/AE15</f>
+        <v>0.24123422159887797</v>
+      </c>
+      <c r="AF29" s="29">
+        <f t="shared" ref="AF29:AG29" si="125">AF16/AF15</f>
+        <v>0.26934523809523808</v>
+      </c>
       <c r="AG29" s="29">
         <f>AG16/AG15</f>
         <v>0.34615384615384615</v>
@@ -4329,11 +5572,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:135" x14ac:dyDescent="0.2">
       <c r="Q30" s="29"/>
       <c r="U30" s="29"/>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>134</v>
       </c>
@@ -4351,14 +5594,14 @@
       <c r="T31" s="63"/>
       <c r="U31" s="63"/>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>127</v>
       </c>
       <c r="Q32" s="29"/>
       <c r="U32" s="29"/>
     </row>
-    <row r="33" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
         <v>128</v>
       </c>
@@ -4408,7 +5651,7 @@
       </c>
       <c r="AI33" s="54"/>
     </row>
-    <row r="34" spans="2:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:35" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="44" t="s">
         <v>129</v>
       </c>
@@ -4421,23 +5664,23 @@
         <v>-128</v>
       </c>
       <c r="N34" s="45">
-        <f t="shared" ref="N34:R34" si="93">N33-J33</f>
+        <f t="shared" ref="N34:R34" si="126">N33-J33</f>
         <v>2998</v>
       </c>
       <c r="O34" s="45">
-        <f t="shared" si="93"/>
+        <f t="shared" si="126"/>
         <v>-161</v>
       </c>
       <c r="P34" s="45">
-        <f t="shared" si="93"/>
+        <f t="shared" si="126"/>
         <v>2911</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" si="93"/>
+        <f t="shared" si="126"/>
         <v>-76</v>
       </c>
       <c r="R34" s="45">
-        <f t="shared" si="93"/>
+        <f t="shared" si="126"/>
         <v>-140</v>
       </c>
       <c r="S34" s="45">
@@ -4459,36 +5702,36 @@
       </c>
       <c r="AI34" s="55"/>
     </row>
-    <row r="35" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
         <v>131</v>
       </c>
       <c r="N35" s="40">
-        <f t="shared" ref="N35" si="94">N33-M33</f>
+        <f t="shared" ref="N35" si="127">N33-M33</f>
         <v>-34</v>
       </c>
       <c r="O35" s="40">
-        <f t="shared" ref="O35" si="95">O33-N33</f>
+        <f t="shared" ref="O35" si="128">O33-N33</f>
         <v>-46</v>
       </c>
       <c r="P35" s="40">
-        <f t="shared" ref="P35:T35" si="96">P33-O33</f>
+        <f t="shared" ref="P35:T35" si="129">P33-O33</f>
         <v>-41</v>
       </c>
       <c r="Q35" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="129"/>
         <v>45</v>
       </c>
       <c r="R35" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="129"/>
         <v>-98</v>
       </c>
       <c r="S35" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="129"/>
         <v>-43</v>
       </c>
       <c r="T35" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="129"/>
         <v>-16</v>
       </c>
       <c r="U35" s="40">
@@ -4510,56 +5753,56 @@
       </c>
       <c r="AI35" s="56"/>
     </row>
-    <row r="36" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="41" t="s">
         <v>130</v>
       </c>
       <c r="G36" s="42">
-        <f t="shared" ref="G36:K36" si="97">G4/G33</f>
+        <f t="shared" ref="G36:K36" si="130">G4/G33</f>
         <v>0.5618408437200384</v>
       </c>
       <c r="I36" s="42">
-        <f t="shared" si="97"/>
+        <f t="shared" si="130"/>
         <v>0.51772151898734176</v>
       </c>
       <c r="K36" s="42">
-        <f t="shared" si="97"/>
+        <f t="shared" si="130"/>
         <v>0.26148409893992935</v>
       </c>
       <c r="M36" s="42">
-        <f t="shared" ref="M36:U36" si="98">M4/M33</f>
+        <f t="shared" ref="M36:U36" si="131">M4/M33</f>
         <v>0.54617414248021112</v>
       </c>
       <c r="N36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.53002001334222815</v>
       </c>
       <c r="O36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.54878048780487809</v>
       </c>
       <c r="P36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.62418412916523536</v>
       </c>
       <c r="Q36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.59404600811907982</v>
       </c>
       <c r="R36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.64240727781665496</v>
       </c>
       <c r="S36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.63090586145648309</v>
       </c>
       <c r="T36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.61307609860664525</v>
       </c>
       <c r="U36" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="131"/>
         <v>0.65068002863278451</v>
       </c>
       <c r="V36" s="57"/>
@@ -4573,17 +5816,17 @@
       </c>
       <c r="AI36" s="57"/>
     </row>
-    <row r="37" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:35" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="41"/>
       <c r="V37" s="57"/>
       <c r="AI37" s="57"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +5874,7 @@
       </c>
       <c r="AI41" s="52"/>
     </row>
-    <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
@@ -4679,7 +5922,7 @@
       </c>
       <c r="AI42" s="52"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
@@ -4725,68 +5968,68 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="34">
-        <f t="shared" ref="C44:T44" si="99">SUM(C41:C43)</f>
+        <f t="shared" ref="C44:T44" si="132">SUM(C41:C43)</f>
         <v>0</v>
       </c>
       <c r="D44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="E44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="F44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="G44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="H44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="I44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>2347</v>
       </c>
       <c r="J44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="K44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="L44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>2823</v>
       </c>
       <c r="N44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="O44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>3267</v>
       </c>
       <c r="P44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>3178</v>
       </c>
       <c r="Q44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>2893</v>
       </c>
       <c r="R44" s="34">
@@ -4794,11 +6037,11 @@
         <v>2363</v>
       </c>
       <c r="S44" s="34">
-        <f t="shared" ref="S44" si="100">SUM(S41:S43)</f>
+        <f t="shared" ref="S44" si="133">SUM(S41:S43)</f>
         <v>2233</v>
       </c>
       <c r="T44" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="132"/>
         <v>2315</v>
       </c>
       <c r="U44" s="34">
@@ -4810,7 +6053,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
@@ -4852,11 +6095,11 @@
         <v>897</v>
       </c>
       <c r="AH45" s="34">
-        <f t="shared" ref="AH45:AH50" si="101">R45</f>
+        <f t="shared" ref="AH45:AH50" si="134">R45</f>
         <v>917</v>
       </c>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
@@ -4898,11 +6141,11 @@
         <v>2449</v>
       </c>
       <c r="AH46" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="134"/>
         <v>2616</v>
       </c>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
@@ -4944,11 +6187,11 @@
         <v>65</v>
       </c>
       <c r="AH47" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="134"/>
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>102</v>
       </c>
@@ -4999,11 +6242,11 @@
         <v>1188</v>
       </c>
       <c r="AH48" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="134"/>
         <v>1251</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>103</v>
       </c>
@@ -5045,11 +6288,11 @@
         <v>722</v>
       </c>
       <c r="AH49" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="134"/>
         <v>781</v>
       </c>
     </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
@@ -5091,72 +6334,72 @@
         <v>103</v>
       </c>
       <c r="AH50" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="134"/>
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="34">
-        <f t="shared" ref="C51:T51" si="102">SUM(C45:C50)+C44</f>
+        <f t="shared" ref="C51:T51" si="135">SUM(C45:C50)+C44</f>
         <v>0</v>
       </c>
       <c r="D51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="E51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="F51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="G51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="I51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>6621</v>
       </c>
       <c r="J51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="K51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="M51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>7018</v>
       </c>
       <c r="N51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="O51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>7442</v>
       </c>
       <c r="P51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>7585</v>
       </c>
       <c r="Q51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>8211</v>
       </c>
       <c r="R51" s="34">
@@ -5164,11 +6407,11 @@
         <v>8135</v>
       </c>
       <c r="S51" s="34">
-        <f t="shared" ref="S51" si="103">SUM(S45:S50)+S44</f>
+        <f t="shared" ref="S51" si="136">SUM(S45:S50)+S44</f>
         <v>7878</v>
       </c>
       <c r="T51" s="34">
-        <f t="shared" si="102"/>
+        <f t="shared" si="135"/>
         <v>7868</v>
       </c>
       <c r="U51" s="34">
@@ -5180,7 +6423,7 @@
         <v>8135</v>
       </c>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>106</v>
       </c>
@@ -5222,11 +6465,11 @@
         <v>522</v>
       </c>
       <c r="AH53" s="34">
-        <f t="shared" ref="AH53:AH54" si="104">R53</f>
+        <f t="shared" ref="AH53:AH54" si="137">R53</f>
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
@@ -5268,11 +6511,11 @@
         <v>455</v>
       </c>
       <c r="AH54" s="34">
-        <f t="shared" si="104"/>
+        <f t="shared" si="137"/>
         <v>561</v>
       </c>
     </row>
-    <row r="55" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
@@ -5320,7 +6563,7 @@
       </c>
       <c r="AI55" s="52"/>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
@@ -5366,68 +6609,68 @@
         <v>572</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="34">
-        <f t="shared" ref="C57:T57" si="105">SUM(C53:C56)</f>
+        <f t="shared" ref="C57:T57" si="138">SUM(C53:C56)</f>
         <v>0</v>
       </c>
       <c r="D57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="E57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="F57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="G57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="H57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="I57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>1237</v>
       </c>
       <c r="J57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="K57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="M57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>1542</v>
       </c>
       <c r="N57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="O57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>1913</v>
       </c>
       <c r="P57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>1681</v>
       </c>
       <c r="Q57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>1757</v>
       </c>
       <c r="R57" s="34">
@@ -5435,11 +6678,11 @@
         <v>1735</v>
       </c>
       <c r="S57" s="34">
-        <f t="shared" ref="S57" si="106">SUM(S53:S56)</f>
+        <f t="shared" ref="S57" si="139">SUM(S53:S56)</f>
         <v>1556</v>
       </c>
       <c r="T57" s="34">
-        <f t="shared" si="105"/>
+        <f t="shared" si="138"/>
         <v>1585</v>
       </c>
       <c r="U57" s="34">
@@ -5447,11 +6690,11 @@
         <v>1522</v>
       </c>
       <c r="AH57" s="34">
-        <f t="shared" ref="AH57" si="107">SUM(AH53:AH56)</f>
+        <f t="shared" ref="AH57" si="140">SUM(AH53:AH56)</f>
         <v>1735</v>
       </c>
     </row>
-    <row r="58" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
@@ -5499,7 +6742,7 @@
       </c>
       <c r="AI58" s="52"/>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>112</v>
       </c>
@@ -5541,11 +6784,11 @@
         <v>2212</v>
       </c>
       <c r="AH59" s="34">
-        <f t="shared" ref="AH59:AH60" si="108">R59</f>
+        <f t="shared" ref="AH59:AH60" si="141">R59</f>
         <v>2363</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
@@ -5587,72 +6830,72 @@
         <v>321</v>
       </c>
       <c r="AH60" s="34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="141"/>
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="34">
-        <f t="shared" ref="C61:T61" si="109">SUM(C58:C60)+C57</f>
+        <f t="shared" ref="C61:T61" si="142">SUM(C58:C60)+C57</f>
         <v>0</v>
       </c>
       <c r="D61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="E61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="F61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="G61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="I61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>3654</v>
       </c>
       <c r="J61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="K61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>4366</v>
       </c>
       <c r="N61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="O61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>4512</v>
       </c>
       <c r="P61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>4244</v>
       </c>
       <c r="Q61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>4869</v>
       </c>
       <c r="R61" s="34">
@@ -5660,11 +6903,11 @@
         <v>4892</v>
       </c>
       <c r="S61" s="34">
-        <f t="shared" ref="S61" si="110">SUM(S58:S60)+S57</f>
+        <f t="shared" ref="S61" si="143">SUM(S58:S60)+S57</f>
         <v>4663</v>
       </c>
       <c r="T61" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>4651</v>
       </c>
       <c r="U61" s="34">
@@ -5672,11 +6915,11 @@
         <v>4503</v>
       </c>
       <c r="AH61" s="34">
-        <f t="shared" ref="AH61" si="111">SUM(AH58:AH60)+AH57</f>
+        <f t="shared" ref="AH61" si="144">SUM(AH58:AH60)+AH57</f>
         <v>4892</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>115</v>
       </c>
@@ -5712,68 +6955,68 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C64" s="34">
-        <f t="shared" ref="C64:T64" si="112">C63+C61</f>
+        <f t="shared" ref="C64:T64" si="145">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="E64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="F64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="G64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="H64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="I64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>6081</v>
       </c>
       <c r="J64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="K64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="L64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="M64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>7018</v>
       </c>
       <c r="N64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="O64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>7442</v>
       </c>
       <c r="P64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>7585</v>
       </c>
       <c r="Q64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>8211</v>
       </c>
       <c r="R64" s="34">
@@ -5781,11 +7024,11 @@
         <v>8135</v>
       </c>
       <c r="S64" s="34">
-        <f t="shared" ref="S64" si="113">S63+S61</f>
+        <f t="shared" ref="S64" si="146">S63+S61</f>
         <v>7878</v>
       </c>
       <c r="T64" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="145"/>
         <v>7868</v>
       </c>
       <c r="U64" s="34">
@@ -5793,28 +7036,28 @@
         <v>7762</v>
       </c>
       <c r="AH64" s="34">
-        <f t="shared" ref="AH64" si="114">AH63+AH61</f>
+        <f t="shared" ref="AH64" si="147">AH63+AH61</f>
         <v>8135</v>
       </c>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I66" s="34">
-        <f t="shared" ref="I66" si="115">I51-I61</f>
+        <f t="shared" ref="I66" si="148">I51-I61</f>
         <v>2967</v>
       </c>
       <c r="M66" s="34">
-        <f t="shared" ref="M66:O66" si="116">M51-M61</f>
+        <f t="shared" ref="M66:O66" si="149">M51-M61</f>
         <v>2652</v>
       </c>
       <c r="O66" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="149"/>
         <v>2930</v>
       </c>
       <c r="P66" s="34">
-        <f t="shared" ref="P66" si="117">P51-P61</f>
+        <f t="shared" ref="P66" si="150">P51-P61</f>
         <v>3341</v>
       </c>
       <c r="Q66" s="34">
@@ -5826,11 +7069,11 @@
         <v>3243</v>
       </c>
       <c r="S66" s="34">
-        <f t="shared" ref="S66" si="118">S51-S61</f>
+        <f t="shared" ref="S66" si="151">S51-S61</f>
         <v>3215</v>
       </c>
       <c r="T66" s="34">
-        <f t="shared" ref="T66" si="119">T51-T61</f>
+        <f t="shared" ref="T66" si="152">T51-T61</f>
         <v>3217</v>
       </c>
       <c r="U66" s="34">
@@ -5842,24 +7085,24 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67" si="120">I66/I19</f>
+        <f t="shared" ref="I67" si="153">I66/I19</f>
         <v>27.754911131898968</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:O67" si="121">M66/M19</f>
+        <f t="shared" ref="M67:O67" si="154">M66/M19</f>
         <v>25.402298850574713</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="154"/>
         <v>28.281853281853284</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="122">P66/P19</f>
+        <f t="shared" ref="P67" si="155">P66/P19</f>
         <v>32.186897880539497</v>
       </c>
       <c r="Q67" s="1">
@@ -5867,15 +7110,15 @@
         <v>32.383720930232556</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67:S67" si="123">R66/R19</f>
+        <f t="shared" ref="R67:S67" si="156">R66/R19</f>
         <v>31.639024390243904</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="156"/>
         <v>33.454734651404792</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" ref="T67" si="124">T66/T19</f>
+        <f t="shared" ref="T67" si="157">T66/T19</f>
         <v>34.187035069075456</v>
       </c>
       <c r="U67" s="1">
@@ -5887,68 +7130,68 @@
         <v>31.639024390243904</v>
       </c>
     </row>
-    <row r="69" spans="2:35" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:35" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="35">
-        <f t="shared" ref="C69:T69" si="125">C41</f>
+        <f t="shared" ref="C69:T69" si="158">C41</f>
         <v>0</v>
       </c>
       <c r="D69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="E69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="F69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="G69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="H69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="I69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>744</v>
       </c>
       <c r="J69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="K69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="L69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="M69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>1393</v>
       </c>
       <c r="N69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="O69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>1963</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>1845</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>1339</v>
       </c>
       <c r="R69" s="35">
@@ -5956,11 +7199,11 @@
         <v>804</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" ref="S69" si="126">S41</f>
+        <f t="shared" ref="S69" si="159">S41</f>
         <v>551</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="158"/>
         <v>386</v>
       </c>
       <c r="U69" s="35">
@@ -5974,68 +7217,68 @@
       </c>
       <c r="AI69" s="51"/>
     </row>
-    <row r="70" spans="2:35" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:35" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="35">
-        <f t="shared" ref="C70:T70" si="127">C55+C58</f>
+        <f t="shared" ref="C70:T70" si="160">C55+C58</f>
         <v>0</v>
       </c>
       <c r="D70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="E70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="F70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="G70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="H70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="I70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>122</v>
       </c>
       <c r="J70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>131</v>
       </c>
       <c r="N70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="O70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>109</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>112</v>
       </c>
       <c r="Q70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>560</v>
       </c>
       <c r="R70" s="35">
@@ -6043,11 +7286,11 @@
         <v>457</v>
       </c>
       <c r="S70" s="35">
-        <f t="shared" ref="S70" si="128">S55+S58</f>
+        <f t="shared" ref="S70" si="161">S55+S58</f>
         <v>456</v>
       </c>
       <c r="T70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>455</v>
       </c>
       <c r="U70" s="35">
@@ -6061,68 +7304,68 @@
       </c>
       <c r="AI70" s="51"/>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="34">
-        <f t="shared" ref="C71:T71" si="129">C69-C70</f>
+        <f t="shared" ref="C71:T71" si="162">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="E71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="F71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="G71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="H71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="I71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>622</v>
       </c>
       <c r="J71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="K71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="L71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="M71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>1262</v>
       </c>
       <c r="N71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>1854</v>
       </c>
       <c r="P71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>1733</v>
       </c>
       <c r="Q71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>779</v>
       </c>
       <c r="R71" s="34">
@@ -6130,11 +7373,11 @@
         <v>347</v>
       </c>
       <c r="S71" s="34">
-        <f t="shared" ref="S71" si="130">S69-S70</f>
+        <f t="shared" ref="S71" si="163">S69-S70</f>
         <v>95</v>
       </c>
       <c r="T71" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="162"/>
         <v>-69</v>
       </c>
       <c r="U71" s="34">
@@ -6146,20 +7389,20 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
       <c r="M73" s="29">
-        <f t="shared" ref="M73" si="131">M42/I42-1</f>
+        <f t="shared" ref="M73" si="164">M42/I42-1</f>
         <v>-8.5122699386503076E-2</v>
       </c>
       <c r="Q73" s="29">
-        <f t="shared" ref="Q73:S73" si="132">Q42/M42-1</f>
+        <f t="shared" ref="Q73:S73" si="165">Q42/M42-1</f>
         <v>9.0528080469404859E-2</v>
       </c>
       <c r="S73" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="165"/>
         <v>0.37218413320274246</v>
       </c>
       <c r="T73" s="29">
@@ -6171,12 +7414,12 @@
         <v>0.29515757109915453</v>
       </c>
     </row>
-    <row r="74" spans="2:35" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:35" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="29" t="s">
         <v>122</v>
       </c>
       <c r="P74" s="29">
-        <f t="shared" ref="P74" si="133">P42/O42-1</f>
+        <f t="shared" ref="P74" si="166">P42/O42-1</f>
         <v>5.8765915768854038E-2</v>
       </c>
       <c r="Q74" s="29">
@@ -6188,11 +7431,11 @@
         <v>-2.6902382782475032E-2</v>
       </c>
       <c r="S74" s="29">
-        <f t="shared" ref="S74:T74" si="134">S42/R42-1</f>
+        <f t="shared" ref="S74:T74" si="167">S42/R42-1</f>
         <v>0.10663507109004744</v>
       </c>
       <c r="T74" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="167"/>
         <v>0.17344753747323338</v>
       </c>
       <c r="U74" s="29">
@@ -6202,20 +7445,20 @@
       <c r="V74" s="53"/>
       <c r="AI74" s="53"/>
     </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>120</v>
       </c>
       <c r="R75" s="29">
-        <f t="shared" ref="R75:T75" si="135">R42/SUM(O6:R6)</f>
+        <f t="shared" ref="R75:T75" si="168">R42/SUM(O6:R6)</f>
         <v>0.14132618888144674</v>
       </c>
       <c r="S75" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="168"/>
         <v>0.15601336302895322</v>
       </c>
       <c r="T75" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="168"/>
         <v>0.18745724059293045</v>
       </c>
       <c r="U75" s="29">
@@ -6227,7 +7470,7 @@
         <v>0.14132618888144674</v>
       </c>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B77" s="27" t="s">
         <v>121</v>
       </c>
@@ -6257,16 +7500,16 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O78" s="34">
-        <f t="shared" ref="O78" si="136">O77*O19</f>
+        <f t="shared" ref="O78" si="169">O77*O19</f>
         <v>6119.652</v>
       </c>
       <c r="P78" s="34">
-        <f t="shared" ref="P78" si="137">P77*P19</f>
+        <f t="shared" ref="P78" si="170">P77*P19</f>
         <v>5546.0339999999997</v>
       </c>
       <c r="Q78" s="34">
@@ -6274,15 +7517,15 @@
         <v>4635.7440000000006</v>
       </c>
       <c r="R78" s="34">
-        <f t="shared" ref="R78" si="138">R77*R19</f>
+        <f t="shared" ref="R78" si="171">R77*R19</f>
         <v>4321.3999999999996</v>
       </c>
       <c r="S78" s="34">
-        <f t="shared" ref="S78" si="139">S77*S19</f>
+        <f t="shared" ref="S78" si="172">S77*S19</f>
         <v>2710.02</v>
       </c>
       <c r="T78" s="34">
-        <f t="shared" ref="T78" si="140">T77*T19</f>
+        <f t="shared" ref="T78" si="173">T77*T19</f>
         <v>2610.3339999999998</v>
       </c>
       <c r="U78" s="34">
@@ -6294,16 +7537,16 @@
         <v>4321.3999999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O79" s="34">
-        <f t="shared" ref="O79" si="141">O78-O71</f>
+        <f t="shared" ref="O79" si="174">O78-O71</f>
         <v>4265.652</v>
       </c>
       <c r="P79" s="34">
-        <f t="shared" ref="P79" si="142">P78-P71</f>
+        <f t="shared" ref="P79" si="175">P78-P71</f>
         <v>3813.0339999999997</v>
       </c>
       <c r="Q79" s="34">
@@ -6311,15 +7554,15 @@
         <v>3856.7440000000006</v>
       </c>
       <c r="R79" s="34">
-        <f t="shared" ref="R79" si="143">R78-R71</f>
+        <f t="shared" ref="R79" si="176">R78-R71</f>
         <v>3974.3999999999996</v>
       </c>
       <c r="S79" s="34">
-        <f t="shared" ref="S79" si="144">S78-S71</f>
+        <f t="shared" ref="S79" si="177">S78-S71</f>
         <v>2615.02</v>
       </c>
       <c r="T79" s="34">
-        <f t="shared" ref="T79" si="145">T78-T71</f>
+        <f t="shared" ref="T79" si="178">T78-T71</f>
         <v>2679.3339999999998</v>
       </c>
       <c r="U79" s="34">
@@ -6331,16 +7574,16 @@
         <v>3974.3999999999996</v>
       </c>
     </row>
-    <row r="81" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="32" t="s">
         <v>22</v>
       </c>
       <c r="O81" s="32">
-        <f t="shared" ref="O81" si="146">O77/O67</f>
+        <f t="shared" ref="O81" si="179">O77/O67</f>
         <v>2.0886184300341295</v>
       </c>
       <c r="P81" s="32">
-        <f t="shared" ref="P81" si="147">P77/P67</f>
+        <f t="shared" ref="P81" si="180">P77/P67</f>
         <v>1.6599922178988327</v>
       </c>
       <c r="Q81" s="32">
@@ -6348,15 +7591,15 @@
         <v>1.387116696588869</v>
       </c>
       <c r="R81" s="32">
-        <f t="shared" ref="R81" si="148">R77/R67</f>
+        <f t="shared" ref="R81" si="181">R77/R67</f>
         <v>1.3325316065371569</v>
       </c>
       <c r="S81" s="32">
-        <f t="shared" ref="S81" si="149">S77/S67</f>
+        <f t="shared" ref="S81" si="182">S77/S67</f>
         <v>0.84293001555209934</v>
       </c>
       <c r="T81" s="32">
-        <f t="shared" ref="T81" si="150">T77/T67</f>
+        <f t="shared" ref="T81" si="183">T77/T67</f>
         <v>0.81141871308672664</v>
       </c>
       <c r="U81" s="32">
@@ -6370,7 +7613,7 @@
       </c>
       <c r="AI81" s="58"/>
     </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
@@ -6379,7 +7622,7 @@
         <v>0.4824067872292922</v>
       </c>
     </row>
-    <row r="83" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
@@ -6388,20 +7631,20 @@
         <v>0.44367046215673139</v>
       </c>
     </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R84" s="32">
-        <f t="shared" ref="R84:T84" si="151">R77/SUM(O18:R18)</f>
+        <f t="shared" ref="R84:T84" si="184">R77/SUM(O18:R18)</f>
         <v>4.8917919939957191</v>
       </c>
       <c r="S84" s="32">
-        <f t="shared" si="151"/>
+        <f t="shared" si="184"/>
         <v>3.5064679704443651</v>
       </c>
       <c r="T84" s="32">
-        <f t="shared" si="151"/>
+        <f t="shared" si="184"/>
         <v>5.662800594373258</v>
       </c>
       <c r="U84" s="32">
@@ -6413,7 +7656,7 @@
         <v>4.844618834080717</v>
       </c>
     </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
@@ -6422,7 +7665,7 @@
         <v>4.4556053811659186</v>
       </c>
     </row>
-    <row r="86" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>27</v>
       </c>
@@ -6437,14 +7680,15 @@
     <hyperlink ref="M1" r:id="rId6" xr:uid="{43A5C21D-F886-4FCB-A94B-86147CFAE126}"/>
     <hyperlink ref="L1" r:id="rId7" xr:uid="{9446438F-F601-4E14-BBC3-368E3CAEABAA}"/>
     <hyperlink ref="K1" r:id="rId8" xr:uid="{98932DF5-0820-4069-ACE8-E0B2BFF6C5E3}"/>
+    <hyperlink ref="AF1" r:id="rId9" xr:uid="{7DB4D88E-85BA-4181-8F9D-7003196D6ED6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="R6:R17 V12 AI8:AI15 AI16:AI19 T44 T51:T68 AH59:AH64 AH57:AH58 AH44:AH56 AJ12 N6:N19" formula="1"/>
+    <ignoredError sqref="R6:R17 V12 AI8:AI15 AI16:AI19 T44 T51:T68 AH59:AH64 AH57:AH58 AH44:AH56 N6:N19 J6:J19 AJ12:AT12" formula="1"/>
     <ignoredError sqref="AH8 AH15 AH12" formula="1" formulaRange="1"/>
     <ignoredError sqref="AH17" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/$FL.xlsx
+++ b/$FL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3257E0C3-A9B0-441F-87E1-463F6807D8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12355777-BC27-485C-846B-C95C62454C71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
   </bookViews>
@@ -1348,7 +1348,7 @@
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>39.19</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="14"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>3657.2275341299996</v>
+        <v>3628.2982017600002</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="14"/>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>3760.2275341299996</v>
+        <v>3731.2982017600002</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="14"/>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C35" s="66">
         <f>C6/'Financial Model'!U67</f>
-        <v>1.1231500460263886</v>
+        <v>1.1142657256827251</v>
       </c>
       <c r="D35" s="67"/>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="C36" s="66">
         <f>C8/SUM('Financial Model'!R6:U6)</f>
-        <v>0.41777787687114459</v>
+        <v>0.41447317817683349</v>
       </c>
       <c r="D36" s="67"/>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="C37" s="66">
         <f>C12/SUM('Financial Model'!R6:U6)</f>
-        <v>0.42954392667694763</v>
+        <v>0.42623922798263653</v>
       </c>
       <c r="D37" s="67"/>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C38" s="66">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
-        <v>8.9160063090667094</v>
+        <v>8.8454790838610293</v>
       </c>
       <c r="D38" s="67"/>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C39" s="66">
         <f>C12/SUM('Financial Model'!R17:U17)</f>
-        <v>8.8684611654009426</v>
+        <v>8.8002316079245286</v>
       </c>
       <c r="D39" s="67"/>
     </row>
@@ -2004,10 +2004,10 @@
   <dimension ref="A1:EE86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL17" sqref="AL17"/>
+      <selection pane="bottomRight" activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2212,6 +2212,10 @@
     </row>
     <row r="3" spans="1:104" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
+      <c r="J3" s="43">
+        <f>AF3</f>
+        <v>46784</v>
+      </c>
       <c r="K3" s="43">
         <v>44682</v>
       </c>
@@ -5163,7 +5167,7 @@
       </c>
       <c r="AW26" s="83">
         <f>Main!C6</f>
-        <v>39.19</v>
+        <v>38.880000000000003</v>
       </c>
     </row>
     <row r="27" spans="2:135" x14ac:dyDescent="0.2">
@@ -5307,7 +5311,7 @@
       </c>
       <c r="AW27" s="85">
         <f>AW25/AW26-1</f>
-        <v>1.8786373643219694</v>
+        <v>1.9015894626486101</v>
       </c>
     </row>
     <row r="28" spans="2:135" x14ac:dyDescent="0.2">

--- a/$FL.xlsx
+++ b/$FL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12355777-BC27-485C-846B-C95C62454C71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C1B7C-A5E2-4F7B-9811-53D2F4ABD2DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" xr2:uid="{77D9C7A4-F0C3-486A-8AA0-E7E6A2714164}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -812,6 +812,17 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,10 +835,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,20 +853,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1345,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13917F-DFCA-4AA6-ACFC-026B1E81207F}">
-  <dimension ref="A2:Q41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1356,6 +1356,9 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H1" s="29"/>
+    </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1367,31 +1370,31 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="G5" s="72" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="G5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>38.880000000000003</v>
+        <v>43.98</v>
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="14"/>
@@ -1435,7 +1438,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>3628.2982017600002</v>
+        <v>4104.2323794599997</v>
       </c>
       <c r="D8" s="16"/>
       <c r="G8" s="14"/>
@@ -1528,7 +1531,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>3731.2982017600002</v>
+        <v>4207.2323794599997</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="14"/>
@@ -1570,11 +1573,11 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
       <c r="G15" s="14"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1591,10 +1594,10 @@
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="78"/>
       <c r="G16" s="14"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1614,10 +1617,10 @@
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="78"/>
       <c r="G17" s="14"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1637,10 +1640,10 @@
       <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="78"/>
       <c r="G18" s="14"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1657,10 +1660,10 @@
       <c r="B19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="71"/>
+      <c r="D19" s="86"/>
       <c r="G19" s="14"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1700,11 +1703,11 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
       <c r="G22" s="14"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1721,10 +1724,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="78"/>
       <c r="G23" s="14"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1741,10 +1744,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="77">
         <v>1879</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="78"/>
       <c r="G24" s="14"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1761,11 +1764,11 @@
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="79">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="78"/>
       <c r="G25" s="14"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1780,8 +1783,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
       <c r="G26" s="14"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1798,11 +1801,11 @@
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="79">
         <f>'Financial Model'!U33</f>
         <v>2794</v>
       </c>
-      <c r="D27" s="69"/>
+      <c r="D27" s="78"/>
       <c r="G27" s="14"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1819,11 +1822,11 @@
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="77">
+      <c r="C28" s="79">
         <f>'Financial Model'!U42</f>
         <v>1685</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="78"/>
       <c r="G28" s="14"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1838,8 +1841,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
       <c r="G29" s="14"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1878,10 +1881,10 @@
       <c r="B31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="76"/>
+      <c r="D31" s="84"/>
       <c r="G31" s="15"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1895,83 +1898,81 @@
       <c r="Q31" s="8"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="75">
         <f>C6/'Financial Model'!U67</f>
-        <v>1.1142657256827251</v>
-      </c>
-      <c r="D35" s="67"/>
+        <v>1.2604271248849341</v>
+      </c>
+      <c r="D35" s="76"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="75">
         <f>C8/SUM('Financial Model'!R6:U6)</f>
-        <v>0.41447317817683349</v>
-      </c>
-      <c r="D36" s="67"/>
+        <v>0.4688408018574366</v>
+      </c>
+      <c r="D36" s="76"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="75">
         <f>C12/SUM('Financial Model'!R6:U6)</f>
-        <v>0.42623922798263653</v>
-      </c>
-      <c r="D37" s="67"/>
+        <v>0.48060685166323963</v>
+      </c>
+      <c r="D37" s="76"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="75">
         <f>C6/SUM('Financial Model'!R18:U18)</f>
-        <v>8.8454790838610293</v>
-      </c>
-      <c r="D38" s="67"/>
+        <v>10.005765692083539</v>
+      </c>
+      <c r="D38" s="76"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="75">
         <f>C12/SUM('Financial Model'!R17:U17)</f>
-        <v>8.8002316079245286</v>
-      </c>
-      <c r="D39" s="67"/>
+        <v>9.9227178760849046</v>
+      </c>
+      <c r="D39" s="76"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="78"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
@@ -1984,11 +1985,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{895B3114-FB4F-46F5-A7E6-2022E34FF531}"/>
@@ -2003,11 +2006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9C1236-EF31-448C-82ED-0941EE456E01}">
   <dimension ref="A1:EE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL20" sqref="AL20"/>
+      <selection pane="bottomRight" activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4696,10 +4699,10 @@
       </c>
     </row>
     <row r="20" spans="2:135" x14ac:dyDescent="0.2">
-      <c r="AV20" s="79" t="s">
+      <c r="AV20" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AW20" s="80">
+      <c r="AW20" s="68">
         <v>0.01</v>
       </c>
     </row>
@@ -4755,11 +4758,11 @@
         <f>V6/R6-1</f>
         <v>-2.5352413498504922E-2</v>
       </c>
-      <c r="AD21" s="78" t="s">
+      <c r="AD21" s="66" t="s">
         <v>132</v>
       </c>
       <c r="AE21" s="28">
-        <f t="shared" ref="AE21:AH21" si="57">AE6/AD6-1</f>
+        <f t="shared" ref="AE21:AG21" si="57">AE6/AD6-1</f>
         <v>2.0174762271909508E-2</v>
       </c>
       <c r="AF21" s="28">
@@ -4814,7 +4817,7 @@
       <c r="AV21" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="AW21" s="81">
+      <c r="AW21" s="69">
         <v>0.08</v>
       </c>
     </row>
@@ -4872,10 +4875,10 @@
         <v>0.29043510189094923</v>
       </c>
       <c r="AI22" s="53"/>
-      <c r="AV22" s="82" t="s">
+      <c r="AV22" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="AW22" s="83">
+      <c r="AW22" s="71">
         <f>NPV(AW21,AI17:EE17)</f>
         <v>10630.831829573717</v>
       </c>
@@ -4934,10 +4937,10 @@
         <v>-8.186577820085672E-2</v>
       </c>
       <c r="AI23" s="53"/>
-      <c r="AV23" s="82" t="s">
+      <c r="AV23" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="AW23" s="83">
+      <c r="AW23" s="71">
         <f>Main!C11</f>
         <v>-103</v>
       </c>
@@ -5021,10 +5024,10 @@
         <v>132</v>
       </c>
       <c r="AI24" s="53"/>
-      <c r="AV24" s="84" t="s">
+      <c r="AV24" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="AW24" s="83">
+      <c r="AW24" s="71">
         <f>AW22+AW23</f>
         <v>10527.831829573717</v>
       </c>
@@ -5033,7 +5036,7 @@
       <c r="AV25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AW25" s="86">
+      <c r="AW25" s="74">
         <f>AW24/Main!C7</f>
         <v>112.81379830777797</v>
       </c>
@@ -5106,15 +5109,15 @@
         <v>0.32</v>
       </c>
       <c r="AD26" s="29">
-        <f t="shared" ref="AD26:AE26" si="82">AD8/AD6</f>
+        <f t="shared" ref="AD26" si="82">AD8/AD6</f>
         <v>0.31560010280133644</v>
       </c>
       <c r="AE26" s="29">
-        <f t="shared" ref="AE26:AF26" si="83">AE8/AE6</f>
+        <f t="shared" ref="AE26" si="83">AE8/AE6</f>
         <v>0.31842801360372841</v>
       </c>
       <c r="AF26" s="29">
-        <f t="shared" ref="AF26:AG26" si="84">AF8/AF6</f>
+        <f t="shared" ref="AF26" si="84">AF8/AF6</f>
         <v>0.31767645221736412</v>
       </c>
       <c r="AG26" s="29">
@@ -5165,9 +5168,9 @@
       <c r="AV26" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="AW26" s="83">
+      <c r="AW26" s="71">
         <f>Main!C6</f>
-        <v>38.880000000000003</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="27" spans="2:135" x14ac:dyDescent="0.2">
@@ -5239,15 +5242,15 @@
         <v>7.4389805623123681E-2</v>
       </c>
       <c r="AD27" s="29">
-        <f t="shared" ref="AD27:AE27" si="95">AD12/AD6</f>
+        <f t="shared" ref="AD27" si="95">AD12/AD6</f>
         <v>7.3374453867900286E-2</v>
       </c>
       <c r="AE27" s="29">
-        <f t="shared" ref="AE27:AF27" si="96">AE12/AE6</f>
+        <f t="shared" ref="AE27" si="96">AE12/AE6</f>
         <v>8.8046353445018266E-2</v>
       </c>
       <c r="AF27" s="29">
-        <f t="shared" ref="AF27:AG27" si="97">AF12/AF6</f>
+        <f t="shared" ref="AF27" si="97">AF12/AF6</f>
         <v>8.1074328544659582E-2</v>
       </c>
       <c r="AG27" s="29">
@@ -5309,9 +5312,9 @@
       <c r="AV27" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="AW27" s="85">
+      <c r="AW27" s="73">
         <f>AW25/AW26-1</f>
-        <v>1.9015894626486101</v>
+        <v>1.5651159233237375</v>
       </c>
     </row>
     <row r="28" spans="2:135" x14ac:dyDescent="0.2">
@@ -5383,15 +5386,15 @@
         <v>4.9253875484846533E-2</v>
       </c>
       <c r="AD28" s="29">
-        <f t="shared" ref="AD28:AE28" si="109">AD17/AD6</f>
+        <f t="shared" ref="AD28" si="109">AD17/AD6</f>
         <v>3.6494474428167563E-2</v>
       </c>
       <c r="AE28" s="29">
-        <f t="shared" ref="AE28:AF28" si="110">AE17/AE6</f>
+        <f t="shared" ref="AE28" si="110">AE17/AE6</f>
         <v>6.8144602594785234E-2</v>
       </c>
       <c r="AF28" s="29">
-        <f t="shared" ref="AF28:AG28" si="111">AF17/AF6</f>
+        <f t="shared" ref="AF28" si="111">AF17/AF6</f>
         <v>6.1336664584634604E-2</v>
       </c>
       <c r="AG28" s="29">
@@ -5519,15 +5522,15 @@
         <v>0.33</v>
       </c>
       <c r="AD29" s="29">
-        <f t="shared" ref="AD29:AE29" si="123">AD16/AD15</f>
+        <f t="shared" ref="AD29" si="123">AD16/AD15</f>
         <v>0.50865051903114189</v>
       </c>
       <c r="AE29" s="29">
-        <f t="shared" ref="AE29:AF29" si="124">AE16/AE15</f>
+        <f t="shared" ref="AE29" si="124">AE16/AE15</f>
         <v>0.24123422159887797</v>
       </c>
       <c r="AF29" s="29">
-        <f t="shared" ref="AF29:AG29" si="125">AF16/AF15</f>
+        <f t="shared" ref="AF29" si="125">AF16/AF15</f>
         <v>0.26934523809523808</v>
       </c>
       <c r="AG29" s="29">
